--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0510B87F-8946-49D9-9A0A-BD3E05FDA4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFAB5F-508D-4127-8A6A-B8C833829D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -970,6 +970,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -979,20 +1035,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,52 +1050,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,7 +1367,7 @@
   <dimension ref="B1:AT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,60 +1428,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="H3" s="63" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="H3" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-      <c r="M3" s="63" t="s">
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
+      <c r="M3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="R3" s="63" t="s">
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="R3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="65"/>
-      <c r="W3" s="63" t="s">
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="97"/>
+      <c r="W3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="65"/>
-      <c r="AB3" s="63" t="s">
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="97"/>
+      <c r="AB3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="65"/>
-      <c r="AG3" s="63" t="s">
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="97"/>
+      <c r="AG3" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="65"/>
-      <c r="AL3" s="63" t="s">
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="97"/>
+      <c r="AL3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="65"/>
-      <c r="AQ3" s="63" t="s">
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="97"/>
+      <c r="AQ3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="65"/>
+      <c r="AR3" s="96"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="97"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1708,9 +1708,7 @@
       <c r="E6" s="62">
         <v>45754</v>
       </c>
-      <c r="F6" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="4"/>
       <c r="H6" s="15"/>
       <c r="I6" s="3"/>
@@ -2387,83 +2385,83 @@
         <v>8</v>
       </c>
       <c r="D22" s="67"/>
-      <c r="E22" s="68">
+      <c r="E22" s="98">
         <f>SUM(F5:F21)</f>
-        <v>100000</v>
-      </c>
-      <c r="F22" s="69"/>
+        <v>50000</v>
+      </c>
+      <c r="F22" s="99"/>
       <c r="H22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="67"/>
-      <c r="J22" s="68">
+      <c r="J22" s="98">
         <f>SUM(K5:K21)</f>
         <v>50000</v>
       </c>
-      <c r="K22" s="69"/>
+      <c r="K22" s="99"/>
       <c r="M22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="67"/>
-      <c r="O22" s="68">
+      <c r="O22" s="98">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="69"/>
+      <c r="P22" s="99"/>
       <c r="R22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="S22" s="67"/>
-      <c r="T22" s="68">
+      <c r="T22" s="98">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="69"/>
+      <c r="U22" s="99"/>
       <c r="W22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="67"/>
-      <c r="Y22" s="68">
+      <c r="Y22" s="98">
         <f>SUM(Z5:Z21)</f>
         <v>50000</v>
       </c>
-      <c r="Z22" s="69"/>
+      <c r="Z22" s="99"/>
       <c r="AB22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="AC22" s="67"/>
-      <c r="AD22" s="68">
+      <c r="AD22" s="98">
         <f>SUM(AE5:AE21)</f>
         <v>100000</v>
       </c>
-      <c r="AE22" s="69"/>
+      <c r="AE22" s="99"/>
       <c r="AG22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="AH22" s="67"/>
-      <c r="AI22" s="68">
+      <c r="AI22" s="98">
         <f>SUM(AJ5:AJ21)</f>
         <v>100000</v>
       </c>
-      <c r="AJ22" s="69"/>
+      <c r="AJ22" s="99"/>
       <c r="AL22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="AM22" s="67"/>
-      <c r="AN22" s="68">
+      <c r="AN22" s="98">
         <f>SUM(AO5:AO21)</f>
         <v>60000</v>
       </c>
-      <c r="AO22" s="69"/>
+      <c r="AO22" s="99"/>
       <c r="AQ22" s="66" t="s">
         <v>8</v>
       </c>
       <c r="AR22" s="67"/>
-      <c r="AS22" s="68">
+      <c r="AS22" s="98">
         <f>SUM(AT5:AT21)</f>
         <v>100000</v>
       </c>
-      <c r="AT22" s="69"/>
+      <c r="AT22" s="99"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2472,25 +2470,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="76" t="s">
+      <c r="M25" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
-      <c r="R25" s="76" t="s">
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="88"/>
+      <c r="R25" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="78"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="88"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2524,21 +2522,21 @@
       <c r="AA26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AB26" s="94" t="s">
+      <c r="AB26" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="95"/>
+      <c r="AC26" s="76"/>
       <c r="AH26" s="56"/>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>895500</v>
+        <v>845500</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2552,20 +2550,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="75" t="s">
+      <c r="N27" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="75"/>
+      <c r="O27" s="90"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="79">
+      <c r="S27" s="89">
         <v>45691</v>
       </c>
-      <c r="T27" s="75"/>
+      <c r="T27" s="90"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2575,17 +2573,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="91">
+      <c r="Y27" s="79">
         <v>45727</v>
       </c>
-      <c r="Z27" s="92"/>
+      <c r="Z27" s="80"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="96" t="s">
+      <c r="AB27" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="97"/>
+      <c r="AC27" s="78"/>
       <c r="AH27" s="56"/>
     </row>
     <row r="28" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2601,20 +2599,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="70" t="s">
+      <c r="N28" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="70"/>
+      <c r="O28" s="83"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="80">
+      <c r="S28" s="82">
         <v>45692</v>
       </c>
-      <c r="T28" s="70"/>
+      <c r="T28" s="83"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2624,25 +2622,25 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="89">
+      <c r="Y28" s="71">
         <v>45729</v>
       </c>
-      <c r="Z28" s="90"/>
+      <c r="Z28" s="72"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="96" t="s">
+      <c r="AB28" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="97"/>
+      <c r="AC28" s="78"/>
       <c r="AH28" s="56"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
         <v>895500</v>
@@ -2659,20 +2657,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="87" t="s">
+      <c r="N29" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="88"/>
+      <c r="O29" s="85"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="80">
+      <c r="S29" s="82">
         <v>45693</v>
       </c>
-      <c r="T29" s="70"/>
+      <c r="T29" s="83"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2682,17 +2680,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="89">
+      <c r="Y29" s="71">
         <v>45731</v>
       </c>
-      <c r="Z29" s="90"/>
+      <c r="Z29" s="72"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="82" t="s">
+      <c r="AB29" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="93"/>
+      <c r="AC29" s="65"/>
       <c r="AH29" s="56"/>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.35">
@@ -2702,20 +2700,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="70" t="s">
+      <c r="N30" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="70"/>
+      <c r="O30" s="83"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="80">
+      <c r="S30" s="82">
         <v>45694</v>
       </c>
-      <c r="T30" s="70"/>
+      <c r="T30" s="83"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2725,28 +2723,28 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="89">
+      <c r="Y30" s="71">
         <v>45733</v>
       </c>
-      <c r="Z30" s="90"/>
+      <c r="Z30" s="72"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="82" t="s">
+      <c r="AB30" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="93"/>
+      <c r="AC30" s="65"/>
       <c r="AH30" s="56"/>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2754,20 +2752,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="70" t="s">
+      <c r="N31" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="70"/>
+      <c r="O31" s="83"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="80">
+      <c r="S31" s="82">
         <v>45695</v>
       </c>
-      <c r="T31" s="70"/>
+      <c r="T31" s="83"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2777,17 +2775,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="89">
+      <c r="Y31" s="71">
         <v>45736</v>
       </c>
-      <c r="Z31" s="90"/>
+      <c r="Z31" s="72"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="82" t="s">
+      <c r="AB31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="93"/>
+      <c r="AC31" s="65"/>
       <c r="AH31" s="56"/>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.35">
@@ -2797,20 +2795,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="70" t="s">
+      <c r="N32" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="70"/>
+      <c r="O32" s="83"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="80">
+      <c r="S32" s="82">
         <v>45696</v>
       </c>
-      <c r="T32" s="70"/>
+      <c r="T32" s="83"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -2820,17 +2818,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="89">
+      <c r="Y32" s="71">
         <v>45741</v>
       </c>
-      <c r="Z32" s="90"/>
+      <c r="Z32" s="72"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="82" t="s">
+      <c r="AB32" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="93"/>
+      <c r="AC32" s="65"/>
       <c r="AH32" s="56"/>
     </row>
     <row r="33" spans="7:34" x14ac:dyDescent="0.35">
@@ -2840,20 +2838,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="70" t="s">
+      <c r="N33" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="70"/>
+      <c r="O33" s="83"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="80">
+      <c r="S33" s="82">
         <v>45697</v>
       </c>
-      <c r="T33" s="70"/>
+      <c r="T33" s="83"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -2863,17 +2861,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="89">
+      <c r="Y33" s="71">
         <v>45752</v>
       </c>
-      <c r="Z33" s="90"/>
+      <c r="Z33" s="72"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="82" t="s">
+      <c r="AB33" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="93"/>
+      <c r="AC33" s="65"/>
       <c r="AH33" s="56"/>
     </row>
     <row r="34" spans="7:34" x14ac:dyDescent="0.35">
@@ -2883,20 +2881,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="70"/>
+      <c r="O34" s="83"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="80">
+      <c r="S34" s="82">
         <v>45699</v>
       </c>
-      <c r="T34" s="70"/>
+      <c r="T34" s="83"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -2906,11 +2904,11 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="90"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="72"/>
       <c r="AA34" s="46"/>
-      <c r="AB34" s="82"/>
-      <c r="AC34" s="93"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="65"/>
       <c r="AH34" s="56"/>
     </row>
     <row r="35" spans="7:34" x14ac:dyDescent="0.35">
@@ -2923,16 +2921,16 @@
       <c r="N35" t="s">
         <v>57</v>
       </c>
-      <c r="P35" s="102">
+      <c r="P35" s="63">
         <v>45000</v>
       </c>
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="80">
+      <c r="S35" s="82">
         <v>45700</v>
       </c>
-      <c r="T35" s="70"/>
+      <c r="T35" s="83"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -2942,11 +2940,11 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="90"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="72"/>
       <c r="AA35" s="46"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="93"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="65"/>
       <c r="AH35" s="56"/>
     </row>
     <row r="36" spans="7:34" x14ac:dyDescent="0.35">
@@ -2954,20 +2952,20 @@
       <c r="H36" s="28"/>
       <c r="I36" s="32"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="70" t="s">
+      <c r="N36" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="70"/>
+      <c r="O36" s="83"/>
       <c r="P36" s="16">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="80">
+      <c r="S36" s="82">
         <v>45700</v>
       </c>
-      <c r="T36" s="70"/>
+      <c r="T36" s="83"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -2977,11 +2975,11 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="90"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="72"/>
       <c r="AA36" s="46"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="93"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="65"/>
       <c r="AH36" s="56"/>
     </row>
     <row r="37" spans="7:34" x14ac:dyDescent="0.35">
@@ -2989,16 +2987,16 @@
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
       <c r="P37" s="16"/>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="80">
+      <c r="S37" s="82">
         <v>45701</v>
       </c>
-      <c r="T37" s="70"/>
+      <c r="T37" s="83"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3008,11 +3006,11 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="90"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="72"/>
       <c r="AA37" s="46"/>
-      <c r="AB37" s="82"/>
-      <c r="AC37" s="93"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="65"/>
       <c r="AH37" s="56"/>
     </row>
     <row r="38" spans="7:34" x14ac:dyDescent="0.35">
@@ -3020,16 +3018,16 @@
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
       <c r="P38" s="16"/>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="80">
+      <c r="S38" s="82">
         <v>45702</v>
       </c>
-      <c r="T38" s="70"/>
+      <c r="T38" s="83"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3039,11 +3037,11 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="90"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="72"/>
       <c r="AA38" s="46"/>
-      <c r="AB38" s="82"/>
-      <c r="AC38" s="93"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="65"/>
       <c r="AH38" s="56"/>
     </row>
     <row r="39" spans="7:34" x14ac:dyDescent="0.35">
@@ -3051,16 +3049,16 @@
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
       <c r="P39" s="16"/>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="80">
+      <c r="S39" s="82">
         <v>45703</v>
       </c>
-      <c r="T39" s="70"/>
+      <c r="T39" s="83"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3070,11 +3068,11 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="90"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="72"/>
       <c r="AA39" s="46"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="93"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="65"/>
       <c r="AH39" s="56"/>
     </row>
     <row r="40" spans="7:34" x14ac:dyDescent="0.35">
@@ -3082,16 +3080,16 @@
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
       <c r="P40" s="16"/>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="80">
+      <c r="S40" s="82">
         <v>45704</v>
       </c>
-      <c r="T40" s="70"/>
+      <c r="T40" s="83"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3101,11 +3099,11 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="90"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="72"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="93"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="65"/>
       <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="7:34" x14ac:dyDescent="0.35">
@@ -3113,16 +3111,16 @@
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
       <c r="P41" s="16"/>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="80">
+      <c r="S41" s="82">
         <v>45705</v>
       </c>
-      <c r="T41" s="70"/>
+      <c r="T41" s="83"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3132,11 +3130,11 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="90"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="72"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="93"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="65"/>
       <c r="AH41" s="56"/>
     </row>
     <row r="42" spans="7:34" x14ac:dyDescent="0.35">
@@ -3144,16 +3142,16 @@
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
       <c r="P42" s="16"/>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="80">
+      <c r="S42" s="82">
         <v>45707</v>
       </c>
-      <c r="T42" s="70"/>
+      <c r="T42" s="83"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3163,11 +3161,11 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="90"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="72"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="82"/>
-      <c r="AC42" s="93"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="65"/>
       <c r="AH42" s="56"/>
     </row>
     <row r="43" spans="7:34" x14ac:dyDescent="0.35">
@@ -3175,16 +3173,16 @@
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
       <c r="P43" s="16"/>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="80">
+      <c r="S43" s="82">
         <v>45708</v>
       </c>
-      <c r="T43" s="70"/>
+      <c r="T43" s="83"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3194,11 +3192,11 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="90"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="72"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="93"/>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="65"/>
       <c r="AH43" s="56"/>
     </row>
     <row r="44" spans="7:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3206,16 +3204,16 @@
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
       <c r="P44" s="16"/>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="80">
+      <c r="S44" s="82">
         <v>45709</v>
       </c>
-      <c r="T44" s="70"/>
+      <c r="T44" s="83"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3225,11 +3223,11 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="90"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="72"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="82"/>
-      <c r="AC44" s="93"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="65"/>
       <c r="AH44" s="56"/>
     </row>
     <row r="45" spans="7:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3242,16 +3240,16 @@
         <v>235500</v>
       </c>
       <c r="M45" s="15"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
       <c r="P45" s="16"/>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="80">
+      <c r="S45" s="82">
         <v>45710</v>
       </c>
-      <c r="T45" s="70"/>
+      <c r="T45" s="83"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3261,25 +3259,25 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="90"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="72"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="93"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="65"/>
       <c r="AH45" s="56"/>
     </row>
     <row r="46" spans="7:34" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="80">
+      <c r="S46" s="82">
         <v>45711</v>
       </c>
-      <c r="T46" s="70"/>
+      <c r="T46" s="83"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3289,25 +3287,25 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="90"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="72"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="82"/>
-      <c r="AC46" s="93"/>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="65"/>
       <c r="AH46" s="56"/>
     </row>
     <row r="47" spans="7:34" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="80">
+      <c r="S47" s="82">
         <v>45712</v>
       </c>
-      <c r="T47" s="70"/>
+      <c r="T47" s="83"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3317,25 +3315,25 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="89"/>
-      <c r="Z47" s="90"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="72"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="82"/>
-      <c r="AC47" s="93"/>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="65"/>
       <c r="AH47" s="56"/>
     </row>
     <row r="48" spans="7:34" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="80">
+      <c r="S48" s="82">
         <v>45713</v>
       </c>
-      <c r="T48" s="70"/>
+      <c r="T48" s="83"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3345,25 +3343,25 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="90"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="72"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="93"/>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="65"/>
       <c r="AH48" s="56"/>
     </row>
     <row r="49" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="80">
+      <c r="S49" s="82">
         <v>45714</v>
       </c>
-      <c r="T49" s="70"/>
+      <c r="T49" s="83"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3373,25 +3371,25 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="89"/>
-      <c r="Z49" s="90"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="72"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="93"/>
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="65"/>
       <c r="AH49" s="56"/>
     </row>
     <row r="50" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="80">
+      <c r="S50" s="82">
         <v>45716</v>
       </c>
-      <c r="T50" s="70"/>
+      <c r="T50" s="83"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3401,25 +3399,25 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="90"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="72"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="82"/>
-      <c r="AC50" s="93"/>
+      <c r="AB50" s="64"/>
+      <c r="AC50" s="65"/>
       <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M51" s="15"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="80">
+      <c r="S51" s="82">
         <v>45719</v>
       </c>
-      <c r="T51" s="70"/>
+      <c r="T51" s="83"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3429,25 +3427,25 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="89"/>
-      <c r="Z51" s="90"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="72"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="93"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="65"/>
       <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M52" s="15"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="80">
+      <c r="S52" s="82">
         <v>45723</v>
       </c>
-      <c r="T52" s="70"/>
+      <c r="T52" s="83"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3457,25 +3455,25 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="89"/>
-      <c r="Z52" s="90"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="72"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="82"/>
-      <c r="AC52" s="93"/>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="65"/>
       <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="83"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="92"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="80">
+      <c r="S53" s="82">
         <v>45724</v>
       </c>
-      <c r="T53" s="70"/>
+      <c r="T53" s="83"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3485,25 +3483,25 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="89"/>
-      <c r="Z53" s="90"/>
+      <c r="Y53" s="71"/>
+      <c r="Z53" s="72"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="82"/>
-      <c r="AC53" s="93"/>
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="65"/>
       <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="85"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="94"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="80">
+      <c r="S54" s="82">
         <v>45726</v>
       </c>
-      <c r="T54" s="70"/>
+      <c r="T54" s="83"/>
       <c r="U54" s="46">
         <v>5000</v>
       </c>
@@ -3513,18 +3511,18 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="100"/>
-      <c r="Z54" s="101"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="74"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="82"/>
-      <c r="AC54" s="93"/>
+      <c r="AB54" s="64"/>
+      <c r="AC54" s="65"/>
     </row>
     <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M55" s="66" t="s">
         <v>8</v>
       </c>
       <c r="N55" s="67"/>
-      <c r="O55" s="86"/>
+      <c r="O55" s="68"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
         <v>720500</v>
@@ -3533,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="S55" s="67"/>
-      <c r="T55" s="86"/>
+      <c r="T55" s="68"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>140000</v>
@@ -3543,12 +3541,12 @@
         <v>8</v>
       </c>
       <c r="Y55" s="67"/>
-      <c r="Z55" s="86"/>
-      <c r="AA55" s="98">
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="69">
         <f>SUM(AA27:AA54)</f>
         <v>35000</v>
       </c>
-      <c r="AB55" s="99"/>
+      <c r="AB55" s="70"/>
       <c r="AC55" s="57"/>
     </row>
   </sheetData>
@@ -3556,31 +3554,106 @@
     <sortCondition ref="AH26:AH53"/>
   </sortState>
   <mergeCells count="149">
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="Y47:Z47"/>
@@ -3605,106 +3678,31 @@
     <mergeCell ref="AB46:AC46"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFAB5F-508D-4127-8A6A-B8C833829D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086B29E-8BE1-487A-A1B0-FB0475C207AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -971,61 +971,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1035,10 +992,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,6 +1005,51 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,7 +1367,7 @@
   <dimension ref="B1:AT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,60 +1428,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="H3" s="95" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="H3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
-      <c r="M3" s="95" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
+      <c r="M3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="R3" s="95" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="R3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="97"/>
-      <c r="W3" s="95" t="s">
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+      <c r="W3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="97"/>
-      <c r="AB3" s="95" t="s">
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="70"/>
+      <c r="AB3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="97"/>
-      <c r="AG3" s="95" t="s">
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
+      <c r="AG3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="97"/>
-      <c r="AL3" s="95" t="s">
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="70"/>
+      <c r="AL3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="97"/>
-      <c r="AQ3" s="95" t="s">
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="70"/>
+      <c r="AQ3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="96"/>
-      <c r="AS3" s="96"/>
-      <c r="AT3" s="97"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="70"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1708,7 +1708,9 @@
       <c r="E6" s="62">
         <v>45754</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <v>50000</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="15"/>
       <c r="I6" s="3"/>
@@ -2381,87 +2383,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="98">
+      <c r="D22" s="65"/>
+      <c r="E22" s="66">
         <f>SUM(F5:F21)</f>
-        <v>50000</v>
-      </c>
-      <c r="F22" s="99"/>
-      <c r="H22" s="66" t="s">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="H22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="98">
+      <c r="I22" s="65"/>
+      <c r="J22" s="66">
         <f>SUM(K5:K21)</f>
         <v>50000</v>
       </c>
-      <c r="K22" s="99"/>
-      <c r="M22" s="66" t="s">
+      <c r="K22" s="67"/>
+      <c r="M22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="67"/>
-      <c r="O22" s="98">
+      <c r="N22" s="65"/>
+      <c r="O22" s="66">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="99"/>
-      <c r="R22" s="66" t="s">
+      <c r="P22" s="67"/>
+      <c r="R22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="67"/>
-      <c r="T22" s="98">
+      <c r="S22" s="65"/>
+      <c r="T22" s="66">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="99"/>
-      <c r="W22" s="66" t="s">
+      <c r="U22" s="67"/>
+      <c r="W22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="98">
+      <c r="X22" s="65"/>
+      <c r="Y22" s="66">
         <f>SUM(Z5:Z21)</f>
         <v>50000</v>
       </c>
-      <c r="Z22" s="99"/>
-      <c r="AB22" s="66" t="s">
+      <c r="Z22" s="67"/>
+      <c r="AB22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="98">
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="66">
         <f>SUM(AE5:AE21)</f>
         <v>100000</v>
       </c>
-      <c r="AE22" s="99"/>
-      <c r="AG22" s="66" t="s">
+      <c r="AE22" s="67"/>
+      <c r="AG22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="98">
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="66">
         <f>SUM(AJ5:AJ21)</f>
         <v>100000</v>
       </c>
-      <c r="AJ22" s="99"/>
-      <c r="AL22" s="66" t="s">
+      <c r="AJ22" s="67"/>
+      <c r="AL22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="67"/>
-      <c r="AN22" s="98">
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="66">
         <f>SUM(AO5:AO21)</f>
         <v>60000</v>
       </c>
-      <c r="AO22" s="99"/>
-      <c r="AQ22" s="66" t="s">
+      <c r="AO22" s="67"/>
+      <c r="AQ22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="67"/>
-      <c r="AS22" s="98">
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="66">
         <f>SUM(AT5:AT21)</f>
         <v>100000</v>
       </c>
-      <c r="AT22" s="99"/>
+      <c r="AT22" s="67"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2470,25 +2472,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="86" t="s">
+      <c r="M25" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
-      <c r="R25" s="86" t="s">
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="79"/>
+      <c r="R25" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="88"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="79"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="100" t="s">
+      <c r="G26" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2522,21 +2524,21 @@
       <c r="AA26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AB26" s="75" t="s">
+      <c r="AB26" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="76"/>
+      <c r="AC26" s="96"/>
       <c r="AH26" s="56"/>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>845500</v>
+        <v>895500</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2550,20 +2552,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="90" t="s">
+      <c r="N27" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="90"/>
+      <c r="O27" s="76"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="89">
+      <c r="S27" s="80">
         <v>45691</v>
       </c>
-      <c r="T27" s="90"/>
+      <c r="T27" s="76"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2573,17 +2575,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="79">
+      <c r="Y27" s="92">
         <v>45727</v>
       </c>
-      <c r="Z27" s="80"/>
+      <c r="Z27" s="93"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="77" t="s">
+      <c r="AB27" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="78"/>
+      <c r="AC27" s="98"/>
       <c r="AH27" s="56"/>
     </row>
     <row r="28" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2599,20 +2601,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="83" t="s">
+      <c r="N28" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="83"/>
+      <c r="O28" s="71"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="82">
+      <c r="S28" s="81">
         <v>45692</v>
       </c>
-      <c r="T28" s="83"/>
+      <c r="T28" s="71"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2622,25 +2624,25 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="71">
+      <c r="Y28" s="90">
         <v>45729</v>
       </c>
-      <c r="Z28" s="72"/>
+      <c r="Z28" s="91"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="77" t="s">
+      <c r="AB28" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="78"/>
+      <c r="AC28" s="98"/>
       <c r="AH28" s="56"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
         <v>895500</v>
@@ -2657,20 +2659,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="84" t="s">
+      <c r="N29" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="85"/>
+      <c r="O29" s="89"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="82">
+      <c r="S29" s="81">
         <v>45693</v>
       </c>
-      <c r="T29" s="83"/>
+      <c r="T29" s="71"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2680,17 +2682,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="71">
+      <c r="Y29" s="90">
         <v>45731</v>
       </c>
-      <c r="Z29" s="72"/>
+      <c r="Z29" s="91"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="64" t="s">
+      <c r="AB29" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="65"/>
+      <c r="AC29" s="94"/>
       <c r="AH29" s="56"/>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.35">
@@ -2700,20 +2702,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="83" t="s">
+      <c r="N30" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="83"/>
+      <c r="O30" s="71"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="82">
+      <c r="S30" s="81">
         <v>45694</v>
       </c>
-      <c r="T30" s="83"/>
+      <c r="T30" s="71"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2723,28 +2725,28 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="71">
+      <c r="Y30" s="90">
         <v>45733</v>
       </c>
-      <c r="Z30" s="72"/>
+      <c r="Z30" s="91"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="64" t="s">
+      <c r="AB30" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="65"/>
+      <c r="AC30" s="94"/>
       <c r="AH30" s="56"/>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2752,20 +2754,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="83" t="s">
+      <c r="N31" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="83"/>
+      <c r="O31" s="71"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="82">
+      <c r="S31" s="81">
         <v>45695</v>
       </c>
-      <c r="T31" s="83"/>
+      <c r="T31" s="71"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2775,17 +2777,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="71">
+      <c r="Y31" s="90">
         <v>45736</v>
       </c>
-      <c r="Z31" s="72"/>
+      <c r="Z31" s="91"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="64" t="s">
+      <c r="AB31" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="65"/>
+      <c r="AC31" s="94"/>
       <c r="AH31" s="56"/>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.35">
@@ -2795,20 +2797,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="83" t="s">
+      <c r="N32" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="83"/>
+      <c r="O32" s="71"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="82">
+      <c r="S32" s="81">
         <v>45696</v>
       </c>
-      <c r="T32" s="83"/>
+      <c r="T32" s="71"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -2818,17 +2820,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="71">
+      <c r="Y32" s="90">
         <v>45741</v>
       </c>
-      <c r="Z32" s="72"/>
+      <c r="Z32" s="91"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="64" t="s">
+      <c r="AB32" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="65"/>
+      <c r="AC32" s="94"/>
       <c r="AH32" s="56"/>
     </row>
     <row r="33" spans="7:34" x14ac:dyDescent="0.35">
@@ -2838,20 +2840,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="83" t="s">
+      <c r="N33" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="83"/>
+      <c r="O33" s="71"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="82">
+      <c r="S33" s="81">
         <v>45697</v>
       </c>
-      <c r="T33" s="83"/>
+      <c r="T33" s="71"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -2861,17 +2863,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="71">
+      <c r="Y33" s="90">
         <v>45752</v>
       </c>
-      <c r="Z33" s="72"/>
+      <c r="Z33" s="91"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="64" t="s">
+      <c r="AB33" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="65"/>
+      <c r="AC33" s="94"/>
       <c r="AH33" s="56"/>
     </row>
     <row r="34" spans="7:34" x14ac:dyDescent="0.35">
@@ -2881,20 +2883,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="83" t="s">
+      <c r="N34" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="83"/>
+      <c r="O34" s="71"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="82">
+      <c r="S34" s="81">
         <v>45699</v>
       </c>
-      <c r="T34" s="83"/>
+      <c r="T34" s="71"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -2904,11 +2906,11 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="72"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="91"/>
       <c r="AA34" s="46"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="65"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="94"/>
       <c r="AH34" s="56"/>
     </row>
     <row r="35" spans="7:34" x14ac:dyDescent="0.35">
@@ -2927,10 +2929,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="82">
+      <c r="S35" s="81">
         <v>45700</v>
       </c>
-      <c r="T35" s="83"/>
+      <c r="T35" s="71"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -2940,11 +2942,11 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="72"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="91"/>
       <c r="AA35" s="46"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="65"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="94"/>
       <c r="AH35" s="56"/>
     </row>
     <row r="36" spans="7:34" x14ac:dyDescent="0.35">
@@ -2952,20 +2954,20 @@
       <c r="H36" s="28"/>
       <c r="I36" s="32"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="83" t="s">
+      <c r="N36" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="83"/>
+      <c r="O36" s="71"/>
       <c r="P36" s="16">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="82">
+      <c r="S36" s="81">
         <v>45700</v>
       </c>
-      <c r="T36" s="83"/>
+      <c r="T36" s="71"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -2975,11 +2977,11 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="72"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="91"/>
       <c r="AA36" s="46"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="65"/>
+      <c r="AB36" s="83"/>
+      <c r="AC36" s="94"/>
       <c r="AH36" s="56"/>
     </row>
     <row r="37" spans="7:34" x14ac:dyDescent="0.35">
@@ -2987,16 +2989,16 @@
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
       <c r="P37" s="16"/>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="82">
+      <c r="S37" s="81">
         <v>45701</v>
       </c>
-      <c r="T37" s="83"/>
+      <c r="T37" s="71"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3006,11 +3008,11 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="72"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="91"/>
       <c r="AA37" s="46"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="65"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="94"/>
       <c r="AH37" s="56"/>
     </row>
     <row r="38" spans="7:34" x14ac:dyDescent="0.35">
@@ -3018,16 +3020,16 @@
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
       <c r="P38" s="16"/>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="82">
+      <c r="S38" s="81">
         <v>45702</v>
       </c>
-      <c r="T38" s="83"/>
+      <c r="T38" s="71"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3037,11 +3039,11 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="72"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="91"/>
       <c r="AA38" s="46"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="65"/>
+      <c r="AB38" s="83"/>
+      <c r="AC38" s="94"/>
       <c r="AH38" s="56"/>
     </row>
     <row r="39" spans="7:34" x14ac:dyDescent="0.35">
@@ -3049,16 +3051,16 @@
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
       <c r="P39" s="16"/>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="82">
+      <c r="S39" s="81">
         <v>45703</v>
       </c>
-      <c r="T39" s="83"/>
+      <c r="T39" s="71"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3068,11 +3070,11 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="72"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="91"/>
       <c r="AA39" s="46"/>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="65"/>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="94"/>
       <c r="AH39" s="56"/>
     </row>
     <row r="40" spans="7:34" x14ac:dyDescent="0.35">
@@ -3080,16 +3082,16 @@
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
       <c r="P40" s="16"/>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="82">
+      <c r="S40" s="81">
         <v>45704</v>
       </c>
-      <c r="T40" s="83"/>
+      <c r="T40" s="71"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3099,11 +3101,11 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="72"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="91"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="64"/>
-      <c r="AC40" s="65"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="94"/>
       <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="7:34" x14ac:dyDescent="0.35">
@@ -3111,16 +3113,16 @@
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
       <c r="P41" s="16"/>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="82">
+      <c r="S41" s="81">
         <v>45705</v>
       </c>
-      <c r="T41" s="83"/>
+      <c r="T41" s="71"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3130,11 +3132,11 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="72"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="91"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="64"/>
-      <c r="AC41" s="65"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="94"/>
       <c r="AH41" s="56"/>
     </row>
     <row r="42" spans="7:34" x14ac:dyDescent="0.35">
@@ -3142,16 +3144,16 @@
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
       <c r="P42" s="16"/>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="82">
+      <c r="S42" s="81">
         <v>45707</v>
       </c>
-      <c r="T42" s="83"/>
+      <c r="T42" s="71"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3161,11 +3163,11 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="72"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="91"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="65"/>
+      <c r="AB42" s="83"/>
+      <c r="AC42" s="94"/>
       <c r="AH42" s="56"/>
     </row>
     <row r="43" spans="7:34" x14ac:dyDescent="0.35">
@@ -3173,16 +3175,16 @@
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
       <c r="P43" s="16"/>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="82">
+      <c r="S43" s="81">
         <v>45708</v>
       </c>
-      <c r="T43" s="83"/>
+      <c r="T43" s="71"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3192,11 +3194,11 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="72"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="91"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="64"/>
-      <c r="AC43" s="65"/>
+      <c r="AB43" s="83"/>
+      <c r="AC43" s="94"/>
       <c r="AH43" s="56"/>
     </row>
     <row r="44" spans="7:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3204,16 +3206,16 @@
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
       <c r="P44" s="16"/>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="82">
+      <c r="S44" s="81">
         <v>45709</v>
       </c>
-      <c r="T44" s="83"/>
+      <c r="T44" s="71"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3223,11 +3225,11 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="72"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="91"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="65"/>
+      <c r="AB44" s="83"/>
+      <c r="AC44" s="94"/>
       <c r="AH44" s="56"/>
     </row>
     <row r="45" spans="7:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3240,16 +3242,16 @@
         <v>235500</v>
       </c>
       <c r="M45" s="15"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
       <c r="P45" s="16"/>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="82">
+      <c r="S45" s="81">
         <v>45710</v>
       </c>
-      <c r="T45" s="83"/>
+      <c r="T45" s="71"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3259,25 +3261,25 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="72"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="91"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="65"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="94"/>
       <c r="AH45" s="56"/>
     </row>
     <row r="46" spans="7:34" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="82">
+      <c r="S46" s="81">
         <v>45711</v>
       </c>
-      <c r="T46" s="83"/>
+      <c r="T46" s="71"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3287,25 +3289,25 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="72"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="91"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="64"/>
-      <c r="AC46" s="65"/>
+      <c r="AB46" s="83"/>
+      <c r="AC46" s="94"/>
       <c r="AH46" s="56"/>
     </row>
     <row r="47" spans="7:34" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="82">
+      <c r="S47" s="81">
         <v>45712</v>
       </c>
-      <c r="T47" s="83"/>
+      <c r="T47" s="71"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3315,25 +3317,25 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="72"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="91"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="64"/>
-      <c r="AC47" s="65"/>
+      <c r="AB47" s="83"/>
+      <c r="AC47" s="94"/>
       <c r="AH47" s="56"/>
     </row>
     <row r="48" spans="7:34" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="82">
+      <c r="S48" s="81">
         <v>45713</v>
       </c>
-      <c r="T48" s="83"/>
+      <c r="T48" s="71"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3343,25 +3345,25 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="72"/>
+      <c r="Y48" s="90"/>
+      <c r="Z48" s="91"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="64"/>
-      <c r="AC48" s="65"/>
+      <c r="AB48" s="83"/>
+      <c r="AC48" s="94"/>
       <c r="AH48" s="56"/>
     </row>
     <row r="49" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="82">
+      <c r="S49" s="81">
         <v>45714</v>
       </c>
-      <c r="T49" s="83"/>
+      <c r="T49" s="71"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3371,25 +3373,25 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="72"/>
+      <c r="Y49" s="90"/>
+      <c r="Z49" s="91"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="64"/>
-      <c r="AC49" s="65"/>
+      <c r="AB49" s="83"/>
+      <c r="AC49" s="94"/>
       <c r="AH49" s="56"/>
     </row>
     <row r="50" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="82">
+      <c r="S50" s="81">
         <v>45716</v>
       </c>
-      <c r="T50" s="83"/>
+      <c r="T50" s="71"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3399,25 +3401,25 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="72"/>
+      <c r="Y50" s="90"/>
+      <c r="Z50" s="91"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="65"/>
+      <c r="AB50" s="83"/>
+      <c r="AC50" s="94"/>
       <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M51" s="15"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="82">
+      <c r="S51" s="81">
         <v>45719</v>
       </c>
-      <c r="T51" s="83"/>
+      <c r="T51" s="71"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3427,25 +3429,25 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="72"/>
+      <c r="Y51" s="90"/>
+      <c r="Z51" s="91"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="65"/>
+      <c r="AB51" s="83"/>
+      <c r="AC51" s="94"/>
       <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M52" s="15"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="82">
+      <c r="S52" s="81">
         <v>45723</v>
       </c>
-      <c r="T52" s="83"/>
+      <c r="T52" s="71"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3455,25 +3457,25 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="72"/>
+      <c r="Y52" s="90"/>
+      <c r="Z52" s="91"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="65"/>
+      <c r="AB52" s="83"/>
+      <c r="AC52" s="94"/>
       <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="92"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="84"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="82">
+      <c r="S53" s="81">
         <v>45724</v>
       </c>
-      <c r="T53" s="83"/>
+      <c r="T53" s="71"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3483,25 +3485,25 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="71"/>
-      <c r="Z53" s="72"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="91"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="64"/>
-      <c r="AC53" s="65"/>
+      <c r="AB53" s="83"/>
+      <c r="AC53" s="94"/>
       <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="94"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="86"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="82">
+      <c r="S54" s="81">
         <v>45726</v>
       </c>
-      <c r="T54" s="83"/>
+      <c r="T54" s="71"/>
       <c r="U54" s="46">
         <v>5000</v>
       </c>
@@ -3511,42 +3513,42 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="74"/>
+      <c r="Y54" s="101"/>
+      <c r="Z54" s="102"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="64"/>
-      <c r="AC54" s="65"/>
+      <c r="AB54" s="83"/>
+      <c r="AC54" s="94"/>
     </row>
     <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="66" t="s">
+      <c r="M55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="67"/>
-      <c r="O55" s="68"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="87"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
         <v>720500</v>
       </c>
-      <c r="R55" s="66" t="s">
+      <c r="R55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="67"/>
-      <c r="T55" s="68"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="87"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>140000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="66" t="s">
+      <c r="X55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="67"/>
-      <c r="Z55" s="68"/>
-      <c r="AA55" s="69">
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="87"/>
+      <c r="AA55" s="99">
         <f>SUM(AA27:AA54)</f>
         <v>35000</v>
       </c>
-      <c r="AB55" s="70"/>
+      <c r="AB55" s="100"/>
       <c r="AC55" s="57"/>
     </row>
   </sheetData>
@@ -3554,15 +3556,113 @@
     <sortCondition ref="AH26:AH53"/>
   </sortState>
   <mergeCells count="149">
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AQ22:AR22"/>
     <mergeCell ref="AS22:AT22"/>
@@ -3587,122 +3687,24 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N34:O34"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
     <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086B29E-8BE1-487A-A1B0-FB0475C207AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADBE0B3-AB9D-4932-91F1-29ABAF977919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>lampu kamar fajri 06/04/2025</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>rafli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maret </t>
   </si>
 </sst>
 </file>
@@ -217,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +261,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -890,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,6 +989,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,6 +1014,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,7 +1032,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,11 +1039,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1366,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,60 +1449,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="H3" s="68" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="M3" s="68" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="M3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
-      <c r="R3" s="68" t="s">
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="73"/>
+      <c r="R3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
-      <c r="W3" s="68" t="s">
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="73"/>
+      <c r="W3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="70"/>
-      <c r="AB3" s="68" t="s">
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="73"/>
+      <c r="AB3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AG3" s="68" t="s">
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AG3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="70"/>
-      <c r="AL3" s="68" t="s">
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="73"/>
+      <c r="AL3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="70"/>
-      <c r="AQ3" s="68" t="s">
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="73"/>
+      <c r="AQ3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="70"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1724,10 +1745,18 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="16"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="16"/>
+      <c r="W6" s="55">
+        <v>2</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="65">
+        <v>45755</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>50000</v>
+      </c>
       <c r="AB6" s="23">
         <v>2</v>
       </c>
@@ -1794,14 +1823,30 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="16"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="16"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="16"/>
+      <c r="W7" s="55">
+        <v>3</v>
+      </c>
+      <c r="X7" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="65">
+        <v>45755</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" s="64">
+        <v>45755</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>50000</v>
+      </c>
       <c r="AG7" s="15"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
@@ -1816,10 +1861,18 @@
       <c r="AO7" s="16">
         <v>10000</v>
       </c>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="16"/>
+      <c r="AQ7" s="55">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS7" s="64">
+        <v>45755</v>
+      </c>
+      <c r="AT7" s="14">
+        <v>50000</v>
+      </c>
     </row>
     <row r="8" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
@@ -2383,87 +2436,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66">
+      <c r="D22" s="68"/>
+      <c r="E22" s="69">
         <f>SUM(F5:F21)</f>
         <v>100000</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="H22" s="64" t="s">
+      <c r="F22" s="70"/>
+      <c r="H22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66">
+      <c r="I22" s="68"/>
+      <c r="J22" s="69">
         <f>SUM(K5:K21)</f>
         <v>50000</v>
       </c>
-      <c r="K22" s="67"/>
-      <c r="M22" s="64" t="s">
+      <c r="K22" s="70"/>
+      <c r="M22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="65"/>
-      <c r="O22" s="66">
+      <c r="N22" s="68"/>
+      <c r="O22" s="69">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="67"/>
-      <c r="R22" s="64" t="s">
+      <c r="P22" s="70"/>
+      <c r="R22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="65"/>
-      <c r="T22" s="66">
+      <c r="S22" s="68"/>
+      <c r="T22" s="69">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="67"/>
-      <c r="W22" s="64" t="s">
+      <c r="U22" s="70"/>
+      <c r="W22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="66">
+      <c r="X22" s="68"/>
+      <c r="Y22" s="69">
         <f>SUM(Z5:Z21)</f>
-        <v>50000</v>
-      </c>
-      <c r="Z22" s="67"/>
-      <c r="AB22" s="64" t="s">
+        <v>150000</v>
+      </c>
+      <c r="Z22" s="70"/>
+      <c r="AB22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66">
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="69">
         <f>SUM(AE5:AE21)</f>
-        <v>100000</v>
-      </c>
-      <c r="AE22" s="67"/>
-      <c r="AG22" s="64" t="s">
+        <v>150000</v>
+      </c>
+      <c r="AE22" s="70"/>
+      <c r="AG22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="66">
+      <c r="AH22" s="68"/>
+      <c r="AI22" s="69">
         <f>SUM(AJ5:AJ21)</f>
         <v>100000</v>
       </c>
-      <c r="AJ22" s="67"/>
-      <c r="AL22" s="64" t="s">
+      <c r="AJ22" s="70"/>
+      <c r="AL22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="66">
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="69">
         <f>SUM(AO5:AO21)</f>
         <v>60000</v>
       </c>
-      <c r="AO22" s="67"/>
-      <c r="AQ22" s="64" t="s">
+      <c r="AO22" s="70"/>
+      <c r="AQ22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="66">
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="69">
         <f>SUM(AT5:AT21)</f>
-        <v>100000</v>
-      </c>
-      <c r="AT22" s="67"/>
+        <v>150000</v>
+      </c>
+      <c r="AT22" s="70"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2472,25 +2525,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="77" t="s">
+      <c r="M25" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="79"/>
-      <c r="R25" s="77" t="s">
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="85"/>
+      <c r="R25" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="79"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="85"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2524,21 +2577,21 @@
       <c r="AA26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AB26" s="95" t="s">
+      <c r="AB26" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="96"/>
+      <c r="AC26" s="99"/>
       <c r="AH26" s="56"/>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>895500</v>
+        <v>1095500</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2562,7 +2615,7 @@
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="80">
+      <c r="S27" s="75">
         <v>45691</v>
       </c>
       <c r="T27" s="76"/>
@@ -2575,18 +2628,21 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="92">
+      <c r="Y27" s="95">
         <v>45727</v>
       </c>
-      <c r="Z27" s="93"/>
+      <c r="Z27" s="96"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="97" t="s">
+      <c r="AB27" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="98"/>
+      <c r="AC27" s="101"/>
       <c r="AH27" s="56"/>
+      <c r="AN27" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G28" s="31">
@@ -2601,20 +2657,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="71" t="s">
+      <c r="N28" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="71"/>
+      <c r="O28" s="74"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="81">
+      <c r="S28" s="77">
         <v>45692</v>
       </c>
-      <c r="T28" s="71"/>
+      <c r="T28" s="74"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2624,25 +2680,25 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="90">
+      <c r="Y28" s="93">
         <v>45729</v>
       </c>
-      <c r="Z28" s="91"/>
+      <c r="Z28" s="94"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="97" t="s">
+      <c r="AB28" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="98"/>
+      <c r="AC28" s="101"/>
       <c r="AH28" s="56"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
         <v>895500</v>
@@ -2659,20 +2715,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="88" t="s">
+      <c r="N29" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="89"/>
+      <c r="O29" s="92"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="81">
+      <c r="S29" s="77">
         <v>45693</v>
       </c>
-      <c r="T29" s="71"/>
+      <c r="T29" s="74"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2682,18 +2738,24 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="90">
+      <c r="Y29" s="93">
         <v>45731</v>
       </c>
-      <c r="Z29" s="91"/>
+      <c r="Z29" s="94"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="83" t="s">
+      <c r="AB29" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="94"/>
+      <c r="AC29" s="97"/>
       <c r="AH29" s="56"/>
+      <c r="AN29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO29">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.35">
       <c r="G30" s="31"/>
@@ -2702,20 +2764,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="71" t="s">
+      <c r="N30" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="71"/>
+      <c r="O30" s="74"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="81">
+      <c r="S30" s="77">
         <v>45694</v>
       </c>
-      <c r="T30" s="71"/>
+      <c r="T30" s="74"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2725,28 +2787,34 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="90">
+      <c r="Y30" s="93">
         <v>45733</v>
       </c>
-      <c r="Z30" s="91"/>
+      <c r="Z30" s="94"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="83" t="s">
+      <c r="AB30" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="94"/>
+      <c r="AC30" s="97"/>
       <c r="AH30" s="56"/>
+      <c r="AN30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO30">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2754,20 +2822,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="71"/>
+      <c r="O31" s="74"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="81">
+      <c r="S31" s="77">
         <v>45695</v>
       </c>
-      <c r="T31" s="71"/>
+      <c r="T31" s="74"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2777,18 +2845,24 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="90">
+      <c r="Y31" s="93">
         <v>45736</v>
       </c>
-      <c r="Z31" s="91"/>
+      <c r="Z31" s="94"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="83" t="s">
+      <c r="AB31" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="94"/>
+      <c r="AC31" s="97"/>
       <c r="AH31" s="56"/>
+      <c r="AN31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO31">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.35">
       <c r="G32" s="31"/>
@@ -2797,20 +2871,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="71" t="s">
+      <c r="N32" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="71"/>
+      <c r="O32" s="74"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="81">
+      <c r="S32" s="77">
         <v>45696</v>
       </c>
-      <c r="T32" s="71"/>
+      <c r="T32" s="74"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -2820,40 +2894,46 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="90">
+      <c r="Y32" s="93">
         <v>45741</v>
       </c>
-      <c r="Z32" s="91"/>
+      <c r="Z32" s="94"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="83" t="s">
+      <c r="AB32" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="94"/>
+      <c r="AC32" s="97"/>
       <c r="AH32" s="56"/>
-    </row>
-    <row r="33" spans="7:34" x14ac:dyDescent="0.35">
+      <c r="AN32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G33" s="31"/>
       <c r="H33" s="28"/>
       <c r="I33" s="32"/>
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="71"/>
+      <c r="O33" s="74"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="81">
+      <c r="S33" s="77">
         <v>45697</v>
       </c>
-      <c r="T33" s="71"/>
+      <c r="T33" s="74"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -2863,40 +2943,46 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="90">
+      <c r="Y33" s="93">
         <v>45752</v>
       </c>
-      <c r="Z33" s="91"/>
+      <c r="Z33" s="94"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="83" t="s">
+      <c r="AB33" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="94"/>
+      <c r="AC33" s="97"/>
       <c r="AH33" s="56"/>
-    </row>
-    <row r="34" spans="7:34" x14ac:dyDescent="0.35">
+      <c r="AN33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G34" s="31"/>
       <c r="H34" s="28"/>
       <c r="I34" s="32"/>
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="71"/>
+      <c r="O34" s="74"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="81">
+      <c r="S34" s="77">
         <v>45699</v>
       </c>
-      <c r="T34" s="71"/>
+      <c r="T34" s="74"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -2906,14 +2992,14 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="91"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="94"/>
       <c r="AA34" s="46"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="94"/>
+      <c r="AB34" s="86"/>
+      <c r="AC34" s="97"/>
       <c r="AH34" s="56"/>
     </row>
-    <row r="35" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G35" s="31"/>
       <c r="H35" s="28"/>
       <c r="I35" s="32"/>
@@ -2929,10 +3015,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="81">
+      <c r="S35" s="77">
         <v>45700</v>
       </c>
-      <c r="T35" s="71"/>
+      <c r="T35" s="74"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -2942,32 +3028,32 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="91"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="94"/>
       <c r="AA35" s="46"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="94"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="97"/>
       <c r="AH35" s="56"/>
     </row>
-    <row r="36" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
       <c r="I36" s="32"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="71" t="s">
+      <c r="N36" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="71"/>
+      <c r="O36" s="74"/>
       <c r="P36" s="16">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="81">
+      <c r="S36" s="77">
         <v>45700</v>
       </c>
-      <c r="T36" s="71"/>
+      <c r="T36" s="74"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -2977,28 +3063,28 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="91"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="94"/>
       <c r="AA36" s="46"/>
-      <c r="AB36" s="83"/>
-      <c r="AC36" s="94"/>
+      <c r="AB36" s="86"/>
+      <c r="AC36" s="97"/>
       <c r="AH36" s="56"/>
     </row>
-    <row r="37" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G37" s="31"/>
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
       <c r="P37" s="16"/>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="81">
+      <c r="S37" s="77">
         <v>45701</v>
       </c>
-      <c r="T37" s="71"/>
+      <c r="T37" s="74"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3008,28 +3094,28 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="91"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="94"/>
       <c r="AA37" s="46"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="94"/>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="97"/>
       <c r="AH37" s="56"/>
     </row>
-    <row r="38" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G38" s="31"/>
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
       <c r="P38" s="16"/>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="81">
+      <c r="S38" s="77">
         <v>45702</v>
       </c>
-      <c r="T38" s="71"/>
+      <c r="T38" s="74"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3039,28 +3125,28 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="91"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="94"/>
       <c r="AA38" s="46"/>
-      <c r="AB38" s="83"/>
-      <c r="AC38" s="94"/>
+      <c r="AB38" s="86"/>
+      <c r="AC38" s="97"/>
       <c r="AH38" s="56"/>
     </row>
-    <row r="39" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
       <c r="P39" s="16"/>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="81">
+      <c r="S39" s="77">
         <v>45703</v>
       </c>
-      <c r="T39" s="71"/>
+      <c r="T39" s="74"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3070,28 +3156,28 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="90"/>
-      <c r="Z39" s="91"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="94"/>
       <c r="AA39" s="46"/>
-      <c r="AB39" s="83"/>
-      <c r="AC39" s="94"/>
+      <c r="AB39" s="86"/>
+      <c r="AC39" s="97"/>
       <c r="AH39" s="56"/>
     </row>
-    <row r="40" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G40" s="31"/>
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
       <c r="P40" s="16"/>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="81">
+      <c r="S40" s="77">
         <v>45704</v>
       </c>
-      <c r="T40" s="71"/>
+      <c r="T40" s="74"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3101,28 +3187,28 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="91"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="94"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="83"/>
-      <c r="AC40" s="94"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="97"/>
       <c r="AH40" s="56"/>
     </row>
-    <row r="41" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G41" s="31"/>
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
       <c r="P41" s="16"/>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="81">
+      <c r="S41" s="77">
         <v>45705</v>
       </c>
-      <c r="T41" s="71"/>
+      <c r="T41" s="74"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3132,28 +3218,28 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="90"/>
-      <c r="Z41" s="91"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="94"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="83"/>
-      <c r="AC41" s="94"/>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="97"/>
       <c r="AH41" s="56"/>
     </row>
-    <row r="42" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G42" s="31"/>
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
       <c r="P42" s="16"/>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="81">
+      <c r="S42" s="77">
         <v>45707</v>
       </c>
-      <c r="T42" s="71"/>
+      <c r="T42" s="74"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3163,28 +3249,28 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="91"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="94"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="83"/>
-      <c r="AC42" s="94"/>
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="97"/>
       <c r="AH42" s="56"/>
     </row>
-    <row r="43" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G43" s="31"/>
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
       <c r="P43" s="16"/>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="81">
+      <c r="S43" s="77">
         <v>45708</v>
       </c>
-      <c r="T43" s="71"/>
+      <c r="T43" s="74"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3194,28 +3280,28 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="91"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="94"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="83"/>
-      <c r="AC43" s="94"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="97"/>
       <c r="AH43" s="56"/>
     </row>
-    <row r="44" spans="7:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G44" s="33"/>
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
       <c r="P44" s="16"/>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="81">
+      <c r="S44" s="77">
         <v>45709</v>
       </c>
-      <c r="T44" s="71"/>
+      <c r="T44" s="74"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3225,14 +3311,14 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="91"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="94"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="83"/>
-      <c r="AC44" s="94"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="97"/>
       <c r="AH44" s="56"/>
     </row>
-    <row r="45" spans="7:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G45" s="21"/>
       <c r="H45" s="22" t="s">
         <v>8</v>
@@ -3242,16 +3328,16 @@
         <v>235500</v>
       </c>
       <c r="M45" s="15"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
       <c r="P45" s="16"/>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="81">
+      <c r="S45" s="77">
         <v>45710</v>
       </c>
-      <c r="T45" s="71"/>
+      <c r="T45" s="74"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3261,25 +3347,25 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="90"/>
-      <c r="Z45" s="91"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="94"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="83"/>
-      <c r="AC45" s="94"/>
+      <c r="AB45" s="86"/>
+      <c r="AC45" s="97"/>
       <c r="AH45" s="56"/>
     </row>
-    <row r="46" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="81">
+      <c r="S46" s="77">
         <v>45711</v>
       </c>
-      <c r="T46" s="71"/>
+      <c r="T46" s="74"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3289,25 +3375,25 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="91"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="94"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="83"/>
-      <c r="AC46" s="94"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="97"/>
       <c r="AH46" s="56"/>
     </row>
-    <row r="47" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="81">
+      <c r="S47" s="77">
         <v>45712</v>
       </c>
-      <c r="T47" s="71"/>
+      <c r="T47" s="74"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3317,25 +3403,25 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="90"/>
-      <c r="Z47" s="91"/>
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="94"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="83"/>
-      <c r="AC47" s="94"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="97"/>
       <c r="AH47" s="56"/>
     </row>
-    <row r="48" spans="7:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="81">
+      <c r="S48" s="77">
         <v>45713</v>
       </c>
-      <c r="T48" s="71"/>
+      <c r="T48" s="74"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3345,25 +3431,25 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="91"/>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="94"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="83"/>
-      <c r="AC48" s="94"/>
+      <c r="AB48" s="86"/>
+      <c r="AC48" s="97"/>
       <c r="AH48" s="56"/>
     </row>
     <row r="49" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="81">
+      <c r="S49" s="77">
         <v>45714</v>
       </c>
-      <c r="T49" s="71"/>
+      <c r="T49" s="74"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3373,25 +3459,25 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="90"/>
-      <c r="Z49" s="91"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="94"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="83"/>
-      <c r="AC49" s="94"/>
+      <c r="AB49" s="86"/>
+      <c r="AC49" s="97"/>
       <c r="AH49" s="56"/>
     </row>
     <row r="50" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="81">
+      <c r="S50" s="77">
         <v>45716</v>
       </c>
-      <c r="T50" s="71"/>
+      <c r="T50" s="74"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3401,25 +3487,25 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="91"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="94"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="83"/>
-      <c r="AC50" s="94"/>
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="97"/>
       <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M51" s="15"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="81">
+      <c r="S51" s="77">
         <v>45719</v>
       </c>
-      <c r="T51" s="71"/>
+      <c r="T51" s="74"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3429,25 +3515,25 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="90"/>
-      <c r="Z51" s="91"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="94"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="83"/>
-      <c r="AC51" s="94"/>
+      <c r="AB51" s="86"/>
+      <c r="AC51" s="97"/>
       <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M52" s="15"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="81">
+      <c r="S52" s="77">
         <v>45723</v>
       </c>
-      <c r="T52" s="71"/>
+      <c r="T52" s="74"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3457,25 +3543,25 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="90"/>
-      <c r="Z52" s="91"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="94"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="83"/>
-      <c r="AC52" s="94"/>
+      <c r="AB52" s="86"/>
+      <c r="AC52" s="97"/>
       <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="84"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="87"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="81">
+      <c r="S53" s="77">
         <v>45724</v>
       </c>
-      <c r="T53" s="71"/>
+      <c r="T53" s="74"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3485,25 +3571,25 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="91"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="94"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="83"/>
-      <c r="AC53" s="94"/>
+      <c r="AB53" s="86"/>
+      <c r="AC53" s="97"/>
       <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="86"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="89"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="81">
+      <c r="S54" s="77">
         <v>45726</v>
       </c>
-      <c r="T54" s="71"/>
+      <c r="T54" s="74"/>
       <c r="U54" s="46">
         <v>5000</v>
       </c>
@@ -3513,42 +3599,42 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="101"/>
-      <c r="Z54" s="102"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="105"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="83"/>
-      <c r="AC54" s="94"/>
+      <c r="AB54" s="86"/>
+      <c r="AC54" s="97"/>
     </row>
     <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="64" t="s">
+      <c r="M55" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="65"/>
-      <c r="O55" s="87"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="90"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
         <v>720500</v>
       </c>
-      <c r="R55" s="64" t="s">
+      <c r="R55" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="65"/>
-      <c r="T55" s="87"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="90"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>140000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="64" t="s">
+      <c r="X55" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="87"/>
-      <c r="AA55" s="99">
+      <c r="Y55" s="68"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="102">
         <f>SUM(AA27:AA54)</f>
         <v>35000</v>
       </c>
-      <c r="AB55" s="100"/>
+      <c r="AB55" s="103"/>
       <c r="AC55" s="57"/>
     </row>
   </sheetData>
@@ -3706,6 +3792,7 @@
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADBE0B3-AB9D-4932-91F1-29ABAF977919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749F232-5DBC-418F-8F6F-C071600A28CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,7 +2701,7 @@
       <c r="D29" s="79"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>895500</v>
+        <v>905500</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2814,7 +2814,7 @@
       <c r="D31" s="78"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2913,7 +2913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G33" s="31"/>
       <c r="H33" s="28"/>
       <c r="I33" s="32"/>
@@ -2992,11 +2992,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="93"/>
+      <c r="Y34" s="93">
+        <v>45755</v>
+      </c>
       <c r="Z34" s="94"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="86"/>
-      <c r="AC34" s="97"/>
+      <c r="AA34" s="45">
+        <v>5000</v>
+      </c>
+      <c r="AB34" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC34" s="101"/>
       <c r="AH34" s="56"/>
     </row>
     <row r="35" spans="7:41" x14ac:dyDescent="0.35">
@@ -3039,7 +3045,9 @@
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
       <c r="I36" s="32"/>
-      <c r="M36" s="15"/>
+      <c r="M36" s="15">
+        <v>10</v>
+      </c>
       <c r="N36" s="74" t="s">
         <v>56</v>
       </c>
@@ -3591,7 +3599,7 @@
       </c>
       <c r="T54" s="74"/>
       <c r="U54" s="46">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="V54" s="44" t="s">
         <v>40</v>
@@ -3622,7 +3630,7 @@
       <c r="T55" s="90"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
-        <v>140000</v>
+        <v>145000</v>
       </c>
       <c r="V55" s="44"/>
       <c r="X55" s="67" t="s">
@@ -3632,7 +3640,7 @@
       <c r="Z55" s="90"/>
       <c r="AA55" s="102">
         <f>SUM(AA27:AA54)</f>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="AB55" s="103"/>
       <c r="AC55" s="57"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749F232-5DBC-418F-8F6F-C071600A28CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42238A16-40E4-4312-B46F-E2ABF9595FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -992,16 +992,51 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,11 +1048,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1032,45 +1066,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1449,60 +1449,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="H3" s="71" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="H3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="71" t="s">
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="M3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="73"/>
-      <c r="R3" s="71" t="s">
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="R3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="73"/>
-      <c r="W3" s="71" t="s">
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="96"/>
+      <c r="W3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="73"/>
-      <c r="AB3" s="71" t="s">
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="96"/>
+      <c r="AB3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AG3" s="71" t="s">
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="96"/>
+      <c r="AG3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="73"/>
-      <c r="AL3" s="71" t="s">
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="96"/>
+      <c r="AL3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="73"/>
-      <c r="AQ3" s="71" t="s">
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="96"/>
+      <c r="AQ3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="73"/>
+      <c r="AR3" s="95"/>
+      <c r="AS3" s="95"/>
+      <c r="AT3" s="96"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2436,87 +2436,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69">
+      <c r="D22" s="70"/>
+      <c r="E22" s="97">
         <f>SUM(F5:F21)</f>
         <v>100000</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="H22" s="67" t="s">
+      <c r="F22" s="98"/>
+      <c r="H22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69">
+      <c r="I22" s="70"/>
+      <c r="J22" s="97">
         <f>SUM(K5:K21)</f>
         <v>50000</v>
       </c>
-      <c r="K22" s="70"/>
-      <c r="M22" s="67" t="s">
+      <c r="K22" s="98"/>
+      <c r="M22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="69">
+      <c r="N22" s="70"/>
+      <c r="O22" s="97">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="70"/>
-      <c r="R22" s="67" t="s">
+      <c r="P22" s="98"/>
+      <c r="R22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="68"/>
-      <c r="T22" s="69">
+      <c r="S22" s="70"/>
+      <c r="T22" s="97">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="70"/>
-      <c r="W22" s="67" t="s">
+      <c r="U22" s="98"/>
+      <c r="W22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="69">
+      <c r="X22" s="70"/>
+      <c r="Y22" s="97">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="70"/>
-      <c r="AB22" s="67" t="s">
+      <c r="Z22" s="98"/>
+      <c r="AB22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="69">
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="97">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="70"/>
-      <c r="AG22" s="67" t="s">
+      <c r="AE22" s="98"/>
+      <c r="AG22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="69">
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="97">
         <f>SUM(AJ5:AJ21)</f>
         <v>100000</v>
       </c>
-      <c r="AJ22" s="70"/>
-      <c r="AL22" s="67" t="s">
+      <c r="AJ22" s="98"/>
+      <c r="AL22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="69">
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="97">
         <f>SUM(AO5:AO21)</f>
         <v>60000</v>
       </c>
-      <c r="AO22" s="70"/>
-      <c r="AQ22" s="67" t="s">
+      <c r="AO22" s="98"/>
+      <c r="AQ22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="69">
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="97">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="70"/>
+      <c r="AT22" s="98"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2525,25 +2525,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="83" t="s">
+      <c r="M25" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="85"/>
-      <c r="R25" s="83" t="s">
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="R25" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="85"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="91"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2577,21 +2577,21 @@
       <c r="AA26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AB26" s="98" t="s">
+      <c r="AB26" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="99"/>
+      <c r="AC26" s="79"/>
       <c r="AH26" s="56"/>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1095500</v>
+        <v>1106500</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2605,20 +2605,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="76" t="s">
+      <c r="N27" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="76"/>
+      <c r="O27" s="103"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="75">
+      <c r="S27" s="104">
         <v>45691</v>
       </c>
-      <c r="T27" s="76"/>
+      <c r="T27" s="103"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2628,17 +2628,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="95">
+      <c r="Y27" s="82">
         <v>45727</v>
       </c>
-      <c r="Z27" s="96"/>
+      <c r="Z27" s="83"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="100" t="s">
+      <c r="AB27" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="101"/>
+      <c r="AC27" s="81"/>
       <c r="AH27" s="56"/>
       <c r="AN27" t="s">
         <v>59</v>
@@ -2657,20 +2657,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="74" t="s">
+      <c r="N28" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="74"/>
+      <c r="O28" s="85"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="77">
+      <c r="S28" s="84">
         <v>45692</v>
       </c>
-      <c r="T28" s="74"/>
+      <c r="T28" s="85"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2680,25 +2680,25 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="93">
+      <c r="Y28" s="74">
         <v>45729</v>
       </c>
-      <c r="Z28" s="94"/>
+      <c r="Z28" s="75"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="100" t="s">
+      <c r="AB28" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="101"/>
+      <c r="AC28" s="81"/>
       <c r="AH28" s="56"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
         <v>905500</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="I29" s="32">
-        <v>230500</v>
+        <v>241500</v>
       </c>
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="91" t="s">
+      <c r="N29" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="92"/>
+      <c r="O29" s="93"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="77">
+      <c r="S29" s="84">
         <v>45693</v>
       </c>
-      <c r="T29" s="74"/>
+      <c r="T29" s="85"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2738,17 +2738,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="93">
+      <c r="Y29" s="74">
         <v>45731</v>
       </c>
-      <c r="Z29" s="94"/>
+      <c r="Z29" s="75"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="86" t="s">
+      <c r="AB29" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="97"/>
+      <c r="AC29" s="68"/>
       <c r="AH29" s="56"/>
       <c r="AN29" t="s">
         <v>38</v>
@@ -2764,20 +2764,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="74" t="s">
+      <c r="N30" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="74"/>
+      <c r="O30" s="85"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="77">
+      <c r="S30" s="84">
         <v>45694</v>
       </c>
-      <c r="T30" s="74"/>
+      <c r="T30" s="85"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2787,17 +2787,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="93">
+      <c r="Y30" s="74">
         <v>45733</v>
       </c>
-      <c r="Z30" s="94"/>
+      <c r="Z30" s="75"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="86" t="s">
+      <c r="AB30" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="97"/>
+      <c r="AC30" s="68"/>
       <c r="AH30" s="56"/>
       <c r="AN30" t="s">
         <v>60</v>
@@ -2807,14 +2807,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>190000</v>
+        <v>201000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2822,20 +2822,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="74" t="s">
+      <c r="N31" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="74"/>
+      <c r="O31" s="85"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="77">
+      <c r="S31" s="84">
         <v>45695</v>
       </c>
-      <c r="T31" s="74"/>
+      <c r="T31" s="85"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2845,17 +2845,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="93">
+      <c r="Y31" s="74">
         <v>45736</v>
       </c>
-      <c r="Z31" s="94"/>
+      <c r="Z31" s="75"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="86" t="s">
+      <c r="AB31" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="97"/>
+      <c r="AC31" s="68"/>
       <c r="AH31" s="56"/>
       <c r="AN31" t="s">
         <v>40</v>
@@ -2871,20 +2871,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="74" t="s">
+      <c r="N32" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="74"/>
+      <c r="O32" s="85"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="77">
+      <c r="S32" s="84">
         <v>45696</v>
       </c>
-      <c r="T32" s="74"/>
+      <c r="T32" s="85"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -2894,17 +2894,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="93">
+      <c r="Y32" s="74">
         <v>45741</v>
       </c>
-      <c r="Z32" s="94"/>
+      <c r="Z32" s="75"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="86" t="s">
+      <c r="AB32" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="97"/>
+      <c r="AC32" s="68"/>
       <c r="AH32" s="56"/>
       <c r="AN32" t="s">
         <v>42</v>
@@ -2920,20 +2920,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="74" t="s">
+      <c r="N33" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="74"/>
+      <c r="O33" s="85"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="77">
+      <c r="S33" s="84">
         <v>45697</v>
       </c>
-      <c r="T33" s="74"/>
+      <c r="T33" s="85"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -2943,17 +2943,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="93">
+      <c r="Y33" s="74">
         <v>45752</v>
       </c>
-      <c r="Z33" s="94"/>
+      <c r="Z33" s="75"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="86" t="s">
+      <c r="AB33" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="97"/>
+      <c r="AC33" s="68"/>
       <c r="AH33" s="56"/>
       <c r="AN33" t="s">
         <v>36</v>
@@ -2969,20 +2969,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="74" t="s">
+      <c r="N34" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="74"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="77">
+      <c r="S34" s="84">
         <v>45699</v>
       </c>
-      <c r="T34" s="74"/>
+      <c r="T34" s="85"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -2992,17 +2992,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="93">
+      <c r="Y34" s="74">
         <v>45755</v>
       </c>
-      <c r="Z34" s="94"/>
+      <c r="Z34" s="75"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="100" t="s">
+      <c r="AB34" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="AC34" s="101"/>
+      <c r="AC34" s="81"/>
       <c r="AH34" s="56"/>
     </row>
     <row r="35" spans="7:41" x14ac:dyDescent="0.35">
@@ -3021,10 +3021,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="77">
+      <c r="S35" s="84">
         <v>45700</v>
       </c>
-      <c r="T35" s="74"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3034,11 +3034,11 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="94"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="75"/>
       <c r="AA35" s="46"/>
-      <c r="AB35" s="86"/>
-      <c r="AC35" s="97"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="68"/>
       <c r="AH35" s="56"/>
     </row>
     <row r="36" spans="7:41" x14ac:dyDescent="0.35">
@@ -3048,20 +3048,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="74" t="s">
+      <c r="N36" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="74"/>
+      <c r="O36" s="85"/>
       <c r="P36" s="16">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="77">
+      <c r="S36" s="84">
         <v>45700</v>
       </c>
-      <c r="T36" s="74"/>
+      <c r="T36" s="85"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3071,11 +3071,11 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="94"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="75"/>
       <c r="AA36" s="46"/>
-      <c r="AB36" s="86"/>
-      <c r="AC36" s="97"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="68"/>
       <c r="AH36" s="56"/>
     </row>
     <row r="37" spans="7:41" x14ac:dyDescent="0.35">
@@ -3083,16 +3083,16 @@
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
       <c r="P37" s="16"/>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="77">
+      <c r="S37" s="84">
         <v>45701</v>
       </c>
-      <c r="T37" s="74"/>
+      <c r="T37" s="85"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3102,11 +3102,11 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="94"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="75"/>
       <c r="AA37" s="46"/>
-      <c r="AB37" s="86"/>
-      <c r="AC37" s="97"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="68"/>
       <c r="AH37" s="56"/>
     </row>
     <row r="38" spans="7:41" x14ac:dyDescent="0.35">
@@ -3114,16 +3114,16 @@
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
       <c r="P38" s="16"/>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="77">
+      <c r="S38" s="84">
         <v>45702</v>
       </c>
-      <c r="T38" s="74"/>
+      <c r="T38" s="85"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3133,11 +3133,11 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="93"/>
-      <c r="Z38" s="94"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="75"/>
       <c r="AA38" s="46"/>
-      <c r="AB38" s="86"/>
-      <c r="AC38" s="97"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="68"/>
       <c r="AH38" s="56"/>
     </row>
     <row r="39" spans="7:41" x14ac:dyDescent="0.35">
@@ -3145,16 +3145,16 @@
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
       <c r="P39" s="16"/>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="77">
+      <c r="S39" s="84">
         <v>45703</v>
       </c>
-      <c r="T39" s="74"/>
+      <c r="T39" s="85"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3164,11 +3164,11 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="94"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="75"/>
       <c r="AA39" s="46"/>
-      <c r="AB39" s="86"/>
-      <c r="AC39" s="97"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="68"/>
       <c r="AH39" s="56"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.35">
@@ -3176,16 +3176,16 @@
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
       <c r="P40" s="16"/>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="77">
+      <c r="S40" s="84">
         <v>45704</v>
       </c>
-      <c r="T40" s="74"/>
+      <c r="T40" s="85"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3195,11 +3195,11 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="94"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="75"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="86"/>
-      <c r="AC40" s="97"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="68"/>
       <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="7:41" x14ac:dyDescent="0.35">
@@ -3207,16 +3207,16 @@
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
       <c r="P41" s="16"/>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="77">
+      <c r="S41" s="84">
         <v>45705</v>
       </c>
-      <c r="T41" s="74"/>
+      <c r="T41" s="85"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3226,11 +3226,11 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="93"/>
-      <c r="Z41" s="94"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="75"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="86"/>
-      <c r="AC41" s="97"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="68"/>
       <c r="AH41" s="56"/>
     </row>
     <row r="42" spans="7:41" x14ac:dyDescent="0.35">
@@ -3238,16 +3238,16 @@
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
       <c r="P42" s="16"/>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="77">
+      <c r="S42" s="84">
         <v>45707</v>
       </c>
-      <c r="T42" s="74"/>
+      <c r="T42" s="85"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3257,11 +3257,11 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="94"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="75"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="86"/>
-      <c r="AC42" s="97"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="68"/>
       <c r="AH42" s="56"/>
     </row>
     <row r="43" spans="7:41" x14ac:dyDescent="0.35">
@@ -3269,16 +3269,16 @@
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
       <c r="P43" s="16"/>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="77">
+      <c r="S43" s="84">
         <v>45708</v>
       </c>
-      <c r="T43" s="74"/>
+      <c r="T43" s="85"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3288,11 +3288,11 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="94"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="75"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="86"/>
-      <c r="AC43" s="97"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="68"/>
       <c r="AH43" s="56"/>
     </row>
     <row r="44" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3300,16 +3300,16 @@
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
       <c r="P44" s="16"/>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="77">
+      <c r="S44" s="84">
         <v>45709</v>
       </c>
-      <c r="T44" s="74"/>
+      <c r="T44" s="85"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3319,11 +3319,11 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="94"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="75"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="86"/>
-      <c r="AC44" s="97"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="68"/>
       <c r="AH44" s="56"/>
     </row>
     <row r="45" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3333,19 +3333,19 @@
       </c>
       <c r="I45" s="35">
         <f>SUM(I28:I44)</f>
-        <v>235500</v>
+        <v>246500</v>
       </c>
       <c r="M45" s="15"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
       <c r="P45" s="16"/>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="77">
+      <c r="S45" s="84">
         <v>45710</v>
       </c>
-      <c r="T45" s="74"/>
+      <c r="T45" s="85"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3355,25 +3355,25 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="94"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="75"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="86"/>
-      <c r="AC45" s="97"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="68"/>
       <c r="AH45" s="56"/>
     </row>
     <row r="46" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="77">
+      <c r="S46" s="84">
         <v>45711</v>
       </c>
-      <c r="T46" s="74"/>
+      <c r="T46" s="85"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3383,25 +3383,25 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="94"/>
+      <c r="Y46" s="74"/>
+      <c r="Z46" s="75"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="86"/>
-      <c r="AC46" s="97"/>
+      <c r="AB46" s="67"/>
+      <c r="AC46" s="68"/>
       <c r="AH46" s="56"/>
     </row>
     <row r="47" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="77">
+      <c r="S47" s="84">
         <v>45712</v>
       </c>
-      <c r="T47" s="74"/>
+      <c r="T47" s="85"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3411,25 +3411,25 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="93"/>
-      <c r="Z47" s="94"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="75"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="86"/>
-      <c r="AC47" s="97"/>
+      <c r="AB47" s="67"/>
+      <c r="AC47" s="68"/>
       <c r="AH47" s="56"/>
     </row>
     <row r="48" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="77">
+      <c r="S48" s="84">
         <v>45713</v>
       </c>
-      <c r="T48" s="74"/>
+      <c r="T48" s="85"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3439,25 +3439,25 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="93"/>
-      <c r="Z48" s="94"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="75"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="86"/>
-      <c r="AC48" s="97"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="68"/>
       <c r="AH48" s="56"/>
     </row>
     <row r="49" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="77">
+      <c r="S49" s="84">
         <v>45714</v>
       </c>
-      <c r="T49" s="74"/>
+      <c r="T49" s="85"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3467,25 +3467,25 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="93"/>
-      <c r="Z49" s="94"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="75"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="86"/>
-      <c r="AC49" s="97"/>
+      <c r="AB49" s="67"/>
+      <c r="AC49" s="68"/>
       <c r="AH49" s="56"/>
     </row>
     <row r="50" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="77">
+      <c r="S50" s="84">
         <v>45716</v>
       </c>
-      <c r="T50" s="74"/>
+      <c r="T50" s="85"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3495,25 +3495,25 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="93"/>
-      <c r="Z50" s="94"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="75"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="86"/>
-      <c r="AC50" s="97"/>
+      <c r="AB50" s="67"/>
+      <c r="AC50" s="68"/>
       <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M51" s="15"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="77">
+      <c r="S51" s="84">
         <v>45719</v>
       </c>
-      <c r="T51" s="74"/>
+      <c r="T51" s="85"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3523,25 +3523,25 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="93"/>
-      <c r="Z51" s="94"/>
+      <c r="Y51" s="74"/>
+      <c r="Z51" s="75"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="86"/>
-      <c r="AC51" s="97"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="68"/>
       <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M52" s="15"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="74"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="77">
+      <c r="S52" s="84">
         <v>45723</v>
       </c>
-      <c r="T52" s="74"/>
+      <c r="T52" s="85"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3551,25 +3551,25 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="93"/>
-      <c r="Z52" s="94"/>
+      <c r="Y52" s="74"/>
+      <c r="Z52" s="75"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="86"/>
-      <c r="AC52" s="97"/>
+      <c r="AB52" s="67"/>
+      <c r="AC52" s="68"/>
       <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="87"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="86"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="77">
+      <c r="S53" s="84">
         <v>45724</v>
       </c>
-      <c r="T53" s="74"/>
+      <c r="T53" s="85"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3579,25 +3579,25 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="93"/>
-      <c r="Z53" s="94"/>
+      <c r="Y53" s="74"/>
+      <c r="Z53" s="75"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="86"/>
-      <c r="AC53" s="97"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="68"/>
       <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="89"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="88"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="77">
+      <c r="S54" s="84">
         <v>45726</v>
       </c>
-      <c r="T54" s="74"/>
+      <c r="T54" s="85"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -3607,42 +3607,42 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="104"/>
-      <c r="Z54" s="105"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="77"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="86"/>
-      <c r="AC54" s="97"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="68"/>
     </row>
     <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="67" t="s">
+      <c r="M55" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="68"/>
-      <c r="O55" s="90"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="71"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
         <v>720500</v>
       </c>
-      <c r="R55" s="67" t="s">
+      <c r="R55" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="68"/>
-      <c r="T55" s="90"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="71"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="67" t="s">
+      <c r="X55" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="90"/>
-      <c r="AA55" s="102">
+      <c r="Y55" s="70"/>
+      <c r="Z55" s="71"/>
+      <c r="AA55" s="72">
         <f>SUM(AA27:AA54)</f>
         <v>40000</v>
       </c>
-      <c r="AB55" s="103"/>
+      <c r="AB55" s="73"/>
       <c r="AC55" s="57"/>
     </row>
   </sheetData>
@@ -3650,31 +3650,106 @@
     <sortCondition ref="AH26:AH53"/>
   </sortState>
   <mergeCells count="149">
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="Y47:Z47"/>
@@ -3699,106 +3774,31 @@
     <mergeCell ref="AB46:AC46"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42238A16-40E4-4312-B46F-E2ABF9595FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B83ADC-417D-471F-AA8D-7E4CE5ED7C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -908,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,51 +992,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,10 +1015,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1066,11 +1034,45 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1413,7 +1415,7 @@
     <col min="21" max="21" width="11.81640625" customWidth="1"/>
     <col min="23" max="23" width="6.1796875" customWidth="1"/>
     <col min="24" max="24" width="12.7265625" customWidth="1"/>
-    <col min="25" max="25" width="10.6328125" customWidth="1"/>
+    <col min="25" max="25" width="12.26953125" customWidth="1"/>
     <col min="27" max="27" width="11.36328125" customWidth="1"/>
     <col min="28" max="28" width="5.08984375" customWidth="1"/>
     <col min="29" max="29" width="12.1796875" customWidth="1"/>
@@ -1449,60 +1451,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="H3" s="94" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="H3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="M3" s="94" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="M3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="R3" s="94" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="R3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="96"/>
-      <c r="W3" s="94" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+      <c r="W3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="96"/>
-      <c r="AB3" s="94" t="s">
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
+      <c r="AB3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="96"/>
-      <c r="AG3" s="94" t="s">
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="75"/>
+      <c r="AG3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="96"/>
-      <c r="AL3" s="94" t="s">
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="75"/>
+      <c r="AL3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="96"/>
-      <c r="AQ3" s="94" t="s">
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="75"/>
+      <c r="AQ3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="95"/>
-      <c r="AS3" s="95"/>
-      <c r="AT3" s="96"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="75"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1734,9 +1736,15 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="68">
+        <v>45697</v>
+      </c>
+      <c r="K6" s="14">
+        <v>50000</v>
+      </c>
       <c r="M6" s="15"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1948,7 +1956,6 @@
       <c r="AL9" s="15"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="16"/>
       <c r="AQ9" s="15"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -2440,83 +2447,83 @@
         <v>8</v>
       </c>
       <c r="D22" s="70"/>
-      <c r="E22" s="97">
+      <c r="E22" s="71">
         <f>SUM(F5:F21)</f>
         <v>100000</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="72"/>
       <c r="H22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="70"/>
-      <c r="J22" s="97">
+      <c r="J22" s="71">
         <f>SUM(K5:K21)</f>
-        <v>50000</v>
-      </c>
-      <c r="K22" s="98"/>
+        <v>100000</v>
+      </c>
+      <c r="K22" s="72"/>
       <c r="M22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="70"/>
-      <c r="O22" s="97">
+      <c r="O22" s="71">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="98"/>
+      <c r="P22" s="72"/>
       <c r="R22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="S22" s="70"/>
-      <c r="T22" s="97">
+      <c r="T22" s="71">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="98"/>
+      <c r="U22" s="72"/>
       <c r="W22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="70"/>
-      <c r="Y22" s="97">
+      <c r="Y22" s="71">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="98"/>
+      <c r="Z22" s="72"/>
       <c r="AB22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="AC22" s="70"/>
-      <c r="AD22" s="97">
+      <c r="AD22" s="71">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="98"/>
+      <c r="AE22" s="72"/>
       <c r="AG22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="AH22" s="70"/>
-      <c r="AI22" s="97">
+      <c r="AI22" s="71">
         <f>SUM(AJ5:AJ21)</f>
         <v>100000</v>
       </c>
-      <c r="AJ22" s="98"/>
+      <c r="AJ22" s="72"/>
       <c r="AL22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="AM22" s="70"/>
-      <c r="AN22" s="97">
+      <c r="AN22" s="71">
         <f>SUM(AO5:AO21)</f>
         <v>60000</v>
       </c>
-      <c r="AO22" s="98"/>
+      <c r="AO22" s="72"/>
       <c r="AQ22" s="69" t="s">
         <v>8</v>
       </c>
       <c r="AR22" s="70"/>
-      <c r="AS22" s="97">
+      <c r="AS22" s="71">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="98"/>
+      <c r="AT22" s="72"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2525,25 +2532,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="89" t="s">
+      <c r="M25" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="R25" s="89" t="s">
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="R25" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="91"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="87"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="100" t="s">
+      <c r="G26" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2577,21 +2584,21 @@
       <c r="AA26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AB26" s="78" t="s">
+      <c r="AB26" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="79"/>
+      <c r="AC26" s="101"/>
       <c r="AH26" s="56"/>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1106500</v>
+        <v>1245000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2605,20 +2612,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="103" t="s">
+      <c r="N27" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="103"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="104">
+      <c r="S27" s="77">
         <v>45691</v>
       </c>
-      <c r="T27" s="103"/>
+      <c r="T27" s="78"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2628,17 +2635,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="82">
+      <c r="Y27" s="97">
         <v>45727</v>
       </c>
-      <c r="Z27" s="83"/>
+      <c r="Z27" s="98"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="80" t="s">
+      <c r="AB27" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="81"/>
+      <c r="AC27" s="103"/>
       <c r="AH27" s="56"/>
       <c r="AN27" t="s">
         <v>59</v>
@@ -2657,20 +2664,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="85" t="s">
+      <c r="N28" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="85"/>
+      <c r="O28" s="76"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="84">
+      <c r="S28" s="79">
         <v>45692</v>
       </c>
-      <c r="T28" s="85"/>
+      <c r="T28" s="76"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2680,28 +2687,28 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="74">
+      <c r="Y28" s="95">
         <v>45729</v>
       </c>
-      <c r="Z28" s="75"/>
+      <c r="Z28" s="96"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="80" t="s">
+      <c r="AB28" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="81"/>
+      <c r="AC28" s="103"/>
       <c r="AH28" s="56"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>905500</v>
+        <v>910500</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2710,25 +2717,25 @@
         <v>30</v>
       </c>
       <c r="I29" s="32">
-        <v>241500</v>
+        <v>330000</v>
       </c>
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="92" t="s">
+      <c r="N29" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="93"/>
+      <c r="O29" s="94"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="84">
+      <c r="S29" s="79">
         <v>45693</v>
       </c>
-      <c r="T29" s="85"/>
+      <c r="T29" s="76"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2738,17 +2745,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="74">
+      <c r="Y29" s="95">
         <v>45731</v>
       </c>
-      <c r="Z29" s="75"/>
+      <c r="Z29" s="96"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="67" t="s">
+      <c r="AB29" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="68"/>
+      <c r="AC29" s="99"/>
       <c r="AH29" s="56"/>
       <c r="AN29" t="s">
         <v>38</v>
@@ -2764,20 +2771,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="85" t="s">
+      <c r="N30" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="85"/>
+      <c r="O30" s="76"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="84">
+      <c r="S30" s="79">
         <v>45694</v>
       </c>
-      <c r="T30" s="85"/>
+      <c r="T30" s="76"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2787,17 +2794,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="74">
+      <c r="Y30" s="95">
         <v>45733</v>
       </c>
-      <c r="Z30" s="75"/>
+      <c r="Z30" s="96"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="67" t="s">
+      <c r="AB30" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="68"/>
+      <c r="AC30" s="99"/>
       <c r="AH30" s="56"/>
       <c r="AN30" t="s">
         <v>60</v>
@@ -2807,14 +2814,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>201000</v>
+        <v>334500</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2822,20 +2829,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="85" t="s">
+      <c r="N31" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="85"/>
+      <c r="O31" s="76"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="84">
+      <c r="S31" s="79">
         <v>45695</v>
       </c>
-      <c r="T31" s="85"/>
+      <c r="T31" s="76"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2845,17 +2852,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="74">
+      <c r="Y31" s="95">
         <v>45736</v>
       </c>
-      <c r="Z31" s="75"/>
+      <c r="Z31" s="96"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="67" t="s">
+      <c r="AB31" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="68"/>
+      <c r="AC31" s="99"/>
       <c r="AH31" s="56"/>
       <c r="AN31" t="s">
         <v>40</v>
@@ -2871,20 +2878,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="85" t="s">
+      <c r="N32" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="85"/>
+      <c r="O32" s="76"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="84">
+      <c r="S32" s="79">
         <v>45696</v>
       </c>
-      <c r="T32" s="85"/>
+      <c r="T32" s="76"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -2894,17 +2901,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="74">
+      <c r="Y32" s="95">
         <v>45741</v>
       </c>
-      <c r="Z32" s="75"/>
+      <c r="Z32" s="96"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="67" t="s">
+      <c r="AB32" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="68"/>
+      <c r="AC32" s="99"/>
       <c r="AH32" s="56"/>
       <c r="AN32" t="s">
         <v>42</v>
@@ -2920,20 +2927,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="85" t="s">
+      <c r="N33" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="85"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="84">
+      <c r="S33" s="79">
         <v>45697</v>
       </c>
-      <c r="T33" s="85"/>
+      <c r="T33" s="76"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -2943,17 +2950,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="74">
+      <c r="Y33" s="95">
         <v>45752</v>
       </c>
-      <c r="Z33" s="75"/>
+      <c r="Z33" s="96"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="67" t="s">
+      <c r="AB33" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="68"/>
+      <c r="AC33" s="99"/>
       <c r="AH33" s="56"/>
       <c r="AN33" t="s">
         <v>36</v>
@@ -2969,20 +2976,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="85" t="s">
+      <c r="N34" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="85"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="84">
+      <c r="S34" s="79">
         <v>45699</v>
       </c>
-      <c r="T34" s="85"/>
+      <c r="T34" s="76"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -2992,17 +2999,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="74">
+      <c r="Y34" s="95">
         <v>45755</v>
       </c>
-      <c r="Z34" s="75"/>
+      <c r="Z34" s="96"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="80" t="s">
+      <c r="AB34" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="AC34" s="81"/>
+      <c r="AC34" s="103"/>
       <c r="AH34" s="56"/>
     </row>
     <row r="35" spans="7:41" x14ac:dyDescent="0.35">
@@ -3021,10 +3028,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="84">
+      <c r="S35" s="79">
         <v>45700</v>
       </c>
-      <c r="T35" s="85"/>
+      <c r="T35" s="76"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3034,11 +3041,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="68"/>
+      <c r="Y35" s="95">
+        <v>45756</v>
+      </c>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="45">
+        <v>5000</v>
+      </c>
+      <c r="AB35" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC35" s="99"/>
       <c r="AH35" s="56"/>
     </row>
     <row r="36" spans="7:41" x14ac:dyDescent="0.35">
@@ -3048,20 +3061,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="85" t="s">
+      <c r="N36" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="85"/>
+      <c r="O36" s="76"/>
       <c r="P36" s="16">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="84">
+      <c r="S36" s="79">
         <v>45700</v>
       </c>
-      <c r="T36" s="85"/>
+      <c r="T36" s="76"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3071,11 +3084,11 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="75"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="96"/>
       <c r="AA36" s="46"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="68"/>
+      <c r="AB36" s="88"/>
+      <c r="AC36" s="99"/>
       <c r="AH36" s="56"/>
     </row>
     <row r="37" spans="7:41" x14ac:dyDescent="0.35">
@@ -3083,16 +3096,16 @@
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
       <c r="P37" s="16"/>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="84">
+      <c r="S37" s="79">
         <v>45701</v>
       </c>
-      <c r="T37" s="85"/>
+      <c r="T37" s="76"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3102,11 +3115,11 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="75"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="96"/>
       <c r="AA37" s="46"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="68"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="99"/>
       <c r="AH37" s="56"/>
     </row>
     <row r="38" spans="7:41" x14ac:dyDescent="0.35">
@@ -3114,16 +3127,16 @@
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
       <c r="P38" s="16"/>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="84">
+      <c r="S38" s="79">
         <v>45702</v>
       </c>
-      <c r="T38" s="85"/>
+      <c r="T38" s="76"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3133,11 +3146,11 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="75"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="96"/>
       <c r="AA38" s="46"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="68"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="99"/>
       <c r="AH38" s="56"/>
     </row>
     <row r="39" spans="7:41" x14ac:dyDescent="0.35">
@@ -3145,16 +3158,16 @@
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
       <c r="P39" s="16"/>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="84">
+      <c r="S39" s="79">
         <v>45703</v>
       </c>
-      <c r="T39" s="85"/>
+      <c r="T39" s="76"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3164,11 +3177,11 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="75"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="96"/>
       <c r="AA39" s="46"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="68"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="99"/>
       <c r="AH39" s="56"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.35">
@@ -3176,16 +3189,16 @@
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
       <c r="P40" s="16"/>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="84">
+      <c r="S40" s="79">
         <v>45704</v>
       </c>
-      <c r="T40" s="85"/>
+      <c r="T40" s="76"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3195,11 +3208,11 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="75"/>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="96"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="68"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="99"/>
       <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="7:41" x14ac:dyDescent="0.35">
@@ -3207,16 +3220,16 @@
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
       <c r="P41" s="16"/>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="84">
+      <c r="S41" s="79">
         <v>45705</v>
       </c>
-      <c r="T41" s="85"/>
+      <c r="T41" s="76"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3226,11 +3239,11 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="75"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="96"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="68"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="99"/>
       <c r="AH41" s="56"/>
     </row>
     <row r="42" spans="7:41" x14ac:dyDescent="0.35">
@@ -3238,16 +3251,16 @@
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
       <c r="P42" s="16"/>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="84">
+      <c r="S42" s="79">
         <v>45707</v>
       </c>
-      <c r="T42" s="85"/>
+      <c r="T42" s="76"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3257,11 +3270,11 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="75"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="96"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="68"/>
+      <c r="AB42" s="88"/>
+      <c r="AC42" s="99"/>
       <c r="AH42" s="56"/>
     </row>
     <row r="43" spans="7:41" x14ac:dyDescent="0.35">
@@ -3269,16 +3282,16 @@
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
       <c r="P43" s="16"/>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="84">
+      <c r="S43" s="79">
         <v>45708</v>
       </c>
-      <c r="T43" s="85"/>
+      <c r="T43" s="76"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3288,11 +3301,11 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="75"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="96"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="68"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="99"/>
       <c r="AH43" s="56"/>
     </row>
     <row r="44" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3300,16 +3313,16 @@
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
       <c r="P44" s="16"/>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="84">
+      <c r="S44" s="79">
         <v>45709</v>
       </c>
-      <c r="T44" s="85"/>
+      <c r="T44" s="76"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3319,11 +3332,11 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="75"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="96"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="68"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="99"/>
       <c r="AH44" s="56"/>
     </row>
     <row r="45" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3333,19 +3346,19 @@
       </c>
       <c r="I45" s="35">
         <f>SUM(I28:I44)</f>
-        <v>246500</v>
+        <v>335000</v>
       </c>
       <c r="M45" s="15"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
       <c r="P45" s="16"/>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="84">
+      <c r="S45" s="79">
         <v>45710</v>
       </c>
-      <c r="T45" s="85"/>
+      <c r="T45" s="76"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3355,25 +3368,25 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="75"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="96"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="68"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="99"/>
       <c r="AH45" s="56"/>
     </row>
     <row r="46" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="84">
+      <c r="S46" s="79">
         <v>45711</v>
       </c>
-      <c r="T46" s="85"/>
+      <c r="T46" s="76"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3383,25 +3396,25 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="75"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="96"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="68"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="99"/>
       <c r="AH46" s="56"/>
     </row>
     <row r="47" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="84">
+      <c r="S47" s="79">
         <v>45712</v>
       </c>
-      <c r="T47" s="85"/>
+      <c r="T47" s="76"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3411,25 +3424,25 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="75"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="96"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="67"/>
-      <c r="AC47" s="68"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="99"/>
       <c r="AH47" s="56"/>
     </row>
     <row r="48" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="84">
+      <c r="S48" s="79">
         <v>45713</v>
       </c>
-      <c r="T48" s="85"/>
+      <c r="T48" s="76"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3439,25 +3452,25 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="75"/>
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="96"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="68"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="99"/>
       <c r="AH48" s="56"/>
     </row>
     <row r="49" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="84">
+      <c r="S49" s="79">
         <v>45714</v>
       </c>
-      <c r="T49" s="85"/>
+      <c r="T49" s="76"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3467,25 +3480,25 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="74"/>
-      <c r="Z49" s="75"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="96"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="68"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="99"/>
       <c r="AH49" s="56"/>
     </row>
     <row r="50" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="84">
+      <c r="S50" s="79">
         <v>45716</v>
       </c>
-      <c r="T50" s="85"/>
+      <c r="T50" s="76"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3495,25 +3508,25 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="74"/>
-      <c r="Z50" s="75"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="96"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="68"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="99"/>
       <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M51" s="15"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="84">
+      <c r="S51" s="79">
         <v>45719</v>
       </c>
-      <c r="T51" s="85"/>
+      <c r="T51" s="76"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3523,25 +3536,25 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="74"/>
-      <c r="Z51" s="75"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="96"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="68"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="99"/>
       <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M52" s="15"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="84">
+      <c r="S52" s="79">
         <v>45723</v>
       </c>
-      <c r="T52" s="85"/>
+      <c r="T52" s="76"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3551,25 +3564,25 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="74"/>
-      <c r="Z52" s="75"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="96"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="67"/>
-      <c r="AC52" s="68"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="99"/>
       <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="86"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="89"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="84">
+      <c r="S53" s="79">
         <v>45724</v>
       </c>
-      <c r="T53" s="85"/>
+      <c r="T53" s="76"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3579,25 +3592,25 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="74"/>
-      <c r="Z53" s="75"/>
+      <c r="Y53" s="95"/>
+      <c r="Z53" s="96"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="68"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="99"/>
       <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="87"/>
-      <c r="O54" s="88"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="91"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="84">
+      <c r="S54" s="79">
         <v>45726</v>
       </c>
-      <c r="T54" s="85"/>
+      <c r="T54" s="76"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -3607,18 +3620,18 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="76"/>
-      <c r="Z54" s="77"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="107"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="68"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="99"/>
     </row>
     <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M55" s="69" t="s">
         <v>8</v>
       </c>
       <c r="N55" s="70"/>
-      <c r="O55" s="71"/>
+      <c r="O55" s="92"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
         <v>720500</v>
@@ -3627,7 +3640,7 @@
         <v>8</v>
       </c>
       <c r="S55" s="70"/>
-      <c r="T55" s="71"/>
+      <c r="T55" s="92"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
@@ -3637,12 +3650,12 @@
         <v>8</v>
       </c>
       <c r="Y55" s="70"/>
-      <c r="Z55" s="71"/>
-      <c r="AA55" s="72">
+      <c r="Z55" s="92"/>
+      <c r="AA55" s="104">
         <f>SUM(AA27:AA54)</f>
-        <v>40000</v>
-      </c>
-      <c r="AB55" s="73"/>
+        <v>45000</v>
+      </c>
+      <c r="AB55" s="105"/>
       <c r="AC55" s="57"/>
     </row>
   </sheetData>
@@ -3650,24 +3663,113 @@
     <sortCondition ref="AH26:AH53"/>
   </sortState>
   <mergeCells count="149">
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AQ22:AR22"/>
     <mergeCell ref="AS22:AT22"/>
@@ -3692,113 +3794,24 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B83ADC-417D-471F-AA8D-7E4CE5ED7C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709195D-B17F-4A73-8F00-51504D7DB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve">maret </t>
+  </si>
+  <si>
+    <t>beli gas sebelum bulan puasa</t>
+  </si>
+  <si>
+    <t>bayar fotocopy  islamisme</t>
   </si>
 </sst>
 </file>
@@ -908,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,16 +1000,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,11 +1058,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1034,45 +1076,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1451,60 +1463,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="H3" s="73" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
+      <c r="H3" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="M3" s="73" t="s">
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
+      <c r="M3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="R3" s="73" t="s">
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="R3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="75"/>
-      <c r="W3" s="73" t="s">
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="100"/>
+      <c r="W3" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75"/>
-      <c r="AB3" s="73" t="s">
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="100"/>
+      <c r="AB3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="75"/>
-      <c r="AG3" s="73" t="s">
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="100"/>
+      <c r="AG3" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="75"/>
-      <c r="AL3" s="73" t="s">
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="100"/>
+      <c r="AL3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="75"/>
-      <c r="AQ3" s="73" t="s">
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="100"/>
+      <c r="AQ3" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="75"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="99"/>
+      <c r="AT3" s="100"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1722,7 +1734,7 @@
     </row>
     <row r="6" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
-      <c r="C6" s="15">
+      <c r="C6" s="55">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1814,10 +1826,18 @@
     </row>
     <row r="7" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="55">
+        <v>3</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="70">
+        <v>45756</v>
+      </c>
+      <c r="F7" s="16">
+        <v>50000</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="15"/>
       <c r="I7" s="3"/>
@@ -1856,9 +1876,15 @@
         <v>50000</v>
       </c>
       <c r="AG7" s="15"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="16"/>
+      <c r="AH7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" s="69">
+        <v>45756</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>50000</v>
+      </c>
       <c r="AL7" s="15"/>
       <c r="AM7" s="60" t="s">
         <v>53</v>
@@ -2443,87 +2469,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71">
+      <c r="D22" s="74"/>
+      <c r="E22" s="101">
         <f>SUM(F5:F21)</f>
-        <v>100000</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="H22" s="69" t="s">
+        <v>150000</v>
+      </c>
+      <c r="F22" s="102"/>
+      <c r="H22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71">
+      <c r="I22" s="74"/>
+      <c r="J22" s="101">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="72"/>
-      <c r="M22" s="69" t="s">
+      <c r="K22" s="102"/>
+      <c r="M22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71">
+      <c r="N22" s="74"/>
+      <c r="O22" s="101">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="72"/>
-      <c r="R22" s="69" t="s">
+      <c r="P22" s="102"/>
+      <c r="R22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="70"/>
-      <c r="T22" s="71">
+      <c r="S22" s="74"/>
+      <c r="T22" s="101">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="72"/>
-      <c r="W22" s="69" t="s">
+      <c r="U22" s="102"/>
+      <c r="W22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="71">
+      <c r="X22" s="74"/>
+      <c r="Y22" s="101">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="72"/>
-      <c r="AB22" s="69" t="s">
+      <c r="Z22" s="102"/>
+      <c r="AB22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="71">
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="101">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="72"/>
-      <c r="AG22" s="69" t="s">
+      <c r="AE22" s="102"/>
+      <c r="AG22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="71">
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="101">
         <f>SUM(AJ5:AJ21)</f>
-        <v>100000</v>
-      </c>
-      <c r="AJ22" s="72"/>
-      <c r="AL22" s="69" t="s">
+        <v>150000</v>
+      </c>
+      <c r="AJ22" s="102"/>
+      <c r="AL22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="71">
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="101">
         <f>SUM(AO5:AO21)</f>
         <v>60000</v>
       </c>
-      <c r="AO22" s="72"/>
-      <c r="AQ22" s="69" t="s">
+      <c r="AO22" s="102"/>
+      <c r="AQ22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="71">
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="101">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="72"/>
+      <c r="AT22" s="102"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2532,25 +2558,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="85" t="s">
+      <c r="M25" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="87"/>
-      <c r="R25" s="85" t="s">
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="95"/>
+      <c r="R25" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="87"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="95"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="82" t="s">
+      <c r="G26" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2584,21 +2610,21 @@
       <c r="AA26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AB26" s="100" t="s">
+      <c r="AB26" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="101"/>
+      <c r="AC26" s="83"/>
       <c r="AH26" s="56"/>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1245000</v>
+        <v>1345000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2612,20 +2638,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="78" t="s">
+      <c r="N27" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="78"/>
+      <c r="O27" s="107"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="77">
+      <c r="S27" s="108">
         <v>45691</v>
       </c>
-      <c r="T27" s="78"/>
+      <c r="T27" s="107"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2635,17 +2661,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="97">
+      <c r="Y27" s="86">
         <v>45727</v>
       </c>
-      <c r="Z27" s="98"/>
+      <c r="Z27" s="87"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="102" t="s">
+      <c r="AB27" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="103"/>
+      <c r="AC27" s="85"/>
       <c r="AH27" s="56"/>
       <c r="AN27" t="s">
         <v>59</v>
@@ -2664,20 +2690,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="76" t="s">
+      <c r="N28" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="76"/>
+      <c r="O28" s="89"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="79">
+      <c r="S28" s="88">
         <v>45692</v>
       </c>
-      <c r="T28" s="76"/>
+      <c r="T28" s="89"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2687,28 +2713,32 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="95">
+      <c r="Y28" s="78">
         <v>45729</v>
       </c>
-      <c r="Z28" s="96"/>
+      <c r="Z28" s="79"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="102" t="s">
+      <c r="AB28" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="103"/>
+      <c r="AC28" s="85"/>
       <c r="AH28" s="56"/>
+      <c r="AN28" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO28" s="111"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>910500</v>
+        <v>942500</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2722,20 +2752,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="93" t="s">
+      <c r="N29" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="94"/>
+      <c r="O29" s="97"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="79">
+      <c r="S29" s="88">
         <v>45693</v>
       </c>
-      <c r="T29" s="76"/>
+      <c r="T29" s="89"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2745,17 +2775,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="95">
+      <c r="Y29" s="78">
         <v>45731</v>
       </c>
-      <c r="Z29" s="96"/>
+      <c r="Z29" s="79"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="88" t="s">
+      <c r="AB29" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="99"/>
+      <c r="AC29" s="72"/>
       <c r="AH29" s="56"/>
       <c r="AN29" t="s">
         <v>38</v>
@@ -2771,20 +2801,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="76" t="s">
+      <c r="N30" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="76"/>
+      <c r="O30" s="89"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="79">
+      <c r="S30" s="88">
         <v>45694</v>
       </c>
-      <c r="T30" s="76"/>
+      <c r="T30" s="89"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2794,17 +2824,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="95">
+      <c r="Y30" s="78">
         <v>45733</v>
       </c>
-      <c r="Z30" s="96"/>
+      <c r="Z30" s="79"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="88" t="s">
+      <c r="AB30" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="99"/>
+      <c r="AC30" s="72"/>
       <c r="AH30" s="56"/>
       <c r="AN30" t="s">
         <v>60</v>
@@ -2814,14 +2844,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>334500</v>
+        <v>402500</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2829,20 +2859,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="76" t="s">
+      <c r="N31" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="76"/>
+      <c r="O31" s="89"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="79">
+      <c r="S31" s="88">
         <v>45695</v>
       </c>
-      <c r="T31" s="76"/>
+      <c r="T31" s="89"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2852,17 +2882,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="95">
+      <c r="Y31" s="78">
         <v>45736</v>
       </c>
-      <c r="Z31" s="96"/>
+      <c r="Z31" s="79"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="88" t="s">
+      <c r="AB31" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="99"/>
+      <c r="AC31" s="72"/>
       <c r="AH31" s="56"/>
       <c r="AN31" t="s">
         <v>40</v>
@@ -2878,20 +2908,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="76" t="s">
+      <c r="N32" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="76"/>
+      <c r="O32" s="89"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="79">
+      <c r="S32" s="88">
         <v>45696</v>
       </c>
-      <c r="T32" s="76"/>
+      <c r="T32" s="89"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -2901,17 +2931,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="95">
+      <c r="Y32" s="78">
         <v>45741</v>
       </c>
-      <c r="Z32" s="96"/>
+      <c r="Z32" s="79"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="88" t="s">
+      <c r="AB32" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="99"/>
+      <c r="AC32" s="72"/>
       <c r="AH32" s="56"/>
       <c r="AN32" t="s">
         <v>42</v>
@@ -2927,20 +2957,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="76" t="s">
+      <c r="N33" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="76"/>
+      <c r="O33" s="89"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="79">
+      <c r="S33" s="88">
         <v>45697</v>
       </c>
-      <c r="T33" s="76"/>
+      <c r="T33" s="89"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -2950,17 +2980,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="95">
+      <c r="Y33" s="78">
         <v>45752</v>
       </c>
-      <c r="Z33" s="96"/>
+      <c r="Z33" s="79"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="88" t="s">
+      <c r="AB33" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="99"/>
+      <c r="AC33" s="72"/>
       <c r="AH33" s="56"/>
       <c r="AN33" t="s">
         <v>36</v>
@@ -2976,20 +3006,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="76" t="s">
+      <c r="N34" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="76"/>
+      <c r="O34" s="89"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="79">
+      <c r="S34" s="88">
         <v>45699</v>
       </c>
-      <c r="T34" s="76"/>
+      <c r="T34" s="89"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -2999,18 +3029,24 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="95">
+      <c r="Y34" s="78">
         <v>45755</v>
       </c>
-      <c r="Z34" s="96"/>
+      <c r="Z34" s="79"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="102" t="s">
+      <c r="AB34" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AC34" s="103"/>
+      <c r="AC34" s="85"/>
       <c r="AH34" s="56"/>
+      <c r="AN34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO34">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G35" s="31"/>
@@ -3028,10 +3064,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="79">
+      <c r="S35" s="88">
         <v>45700</v>
       </c>
-      <c r="T35" s="76"/>
+      <c r="T35" s="89"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3041,18 +3077,24 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="95">
+      <c r="Y35" s="78">
         <v>45756</v>
       </c>
-      <c r="Z35" s="96"/>
+      <c r="Z35" s="79"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="88" t="s">
+      <c r="AB35" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AC35" s="99"/>
+      <c r="AC35" s="72"/>
       <c r="AH35" s="56"/>
+      <c r="AN35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO35">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G36" s="31"/>
@@ -3061,20 +3103,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="76" t="s">
+      <c r="N36" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="76"/>
+      <c r="O36" s="89"/>
       <c r="P36" s="16">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="79">
+      <c r="S36" s="88">
         <v>45700</v>
       </c>
-      <c r="T36" s="76"/>
+      <c r="T36" s="89"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3084,28 +3126,34 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="96"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="79"/>
       <c r="AA36" s="46"/>
-      <c r="AB36" s="88"/>
-      <c r="AC36" s="99"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="72"/>
       <c r="AH36" s="56"/>
     </row>
     <row r="37" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G37" s="31"/>
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="16"/>
+      <c r="M37" s="15">
+        <v>11</v>
+      </c>
+      <c r="N37" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" s="89"/>
+      <c r="P37" s="16">
+        <v>20000</v>
+      </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="79">
+      <c r="S37" s="88">
         <v>45701</v>
       </c>
-      <c r="T37" s="76"/>
+      <c r="T37" s="89"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3115,28 +3163,34 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="96"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="79"/>
       <c r="AA37" s="46"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="99"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="72"/>
       <c r="AH37" s="56"/>
     </row>
     <row r="38" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G38" s="31"/>
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="16"/>
+      <c r="M38" s="15">
+        <v>12</v>
+      </c>
+      <c r="N38" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="89"/>
+      <c r="P38" s="16">
+        <v>12000</v>
+      </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="79">
+      <c r="S38" s="88">
         <v>45702</v>
       </c>
-      <c r="T38" s="76"/>
+      <c r="T38" s="89"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3146,11 +3200,11 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="96"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="79"/>
       <c r="AA38" s="46"/>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="99"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="72"/>
       <c r="AH38" s="56"/>
     </row>
     <row r="39" spans="7:41" x14ac:dyDescent="0.35">
@@ -3158,16 +3212,16 @@
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
       <c r="P39" s="16"/>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="79">
+      <c r="S39" s="88">
         <v>45703</v>
       </c>
-      <c r="T39" s="76"/>
+      <c r="T39" s="89"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3177,11 +3231,11 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="96"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="79"/>
       <c r="AA39" s="46"/>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="99"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="72"/>
       <c r="AH39" s="56"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.35">
@@ -3189,16 +3243,16 @@
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
       <c r="P40" s="16"/>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="79">
+      <c r="S40" s="88">
         <v>45704</v>
       </c>
-      <c r="T40" s="76"/>
+      <c r="T40" s="89"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3208,11 +3262,11 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="96"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="79"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="99"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="72"/>
       <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="7:41" x14ac:dyDescent="0.35">
@@ -3220,16 +3274,16 @@
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
       <c r="P41" s="16"/>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="79">
+      <c r="S41" s="88">
         <v>45705</v>
       </c>
-      <c r="T41" s="76"/>
+      <c r="T41" s="89"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3239,11 +3293,11 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="96"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="79"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="99"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="72"/>
       <c r="AH41" s="56"/>
     </row>
     <row r="42" spans="7:41" x14ac:dyDescent="0.35">
@@ -3251,16 +3305,16 @@
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
       <c r="P42" s="16"/>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="79">
+      <c r="S42" s="88">
         <v>45707</v>
       </c>
-      <c r="T42" s="76"/>
+      <c r="T42" s="89"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3270,11 +3324,11 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="96"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="79"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="99"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="72"/>
       <c r="AH42" s="56"/>
     </row>
     <row r="43" spans="7:41" x14ac:dyDescent="0.35">
@@ -3282,16 +3336,16 @@
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
       <c r="P43" s="16"/>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="79">
+      <c r="S43" s="88">
         <v>45708</v>
       </c>
-      <c r="T43" s="76"/>
+      <c r="T43" s="89"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3301,11 +3355,11 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="96"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="79"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="99"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="72"/>
       <c r="AH43" s="56"/>
     </row>
     <row r="44" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3313,16 +3367,16 @@
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
       <c r="P44" s="16"/>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="79">
+      <c r="S44" s="88">
         <v>45709</v>
       </c>
-      <c r="T44" s="76"/>
+      <c r="T44" s="89"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3332,11 +3386,11 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="96"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="79"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="99"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="72"/>
       <c r="AH44" s="56"/>
     </row>
     <row r="45" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3349,16 +3403,16 @@
         <v>335000</v>
       </c>
       <c r="M45" s="15"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
       <c r="P45" s="16"/>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="79">
+      <c r="S45" s="88">
         <v>45710</v>
       </c>
-      <c r="T45" s="76"/>
+      <c r="T45" s="89"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3368,25 +3422,25 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="96"/>
+      <c r="Y45" s="78"/>
+      <c r="Z45" s="79"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="99"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="72"/>
       <c r="AH45" s="56"/>
     </row>
     <row r="46" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="79">
+      <c r="S46" s="88">
         <v>45711</v>
       </c>
-      <c r="T46" s="76"/>
+      <c r="T46" s="89"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3396,25 +3450,25 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="95"/>
-      <c r="Z46" s="96"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="79"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="99"/>
+      <c r="AB46" s="71"/>
+      <c r="AC46" s="72"/>
       <c r="AH46" s="56"/>
     </row>
     <row r="47" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="79">
+      <c r="S47" s="88">
         <v>45712</v>
       </c>
-      <c r="T47" s="76"/>
+      <c r="T47" s="89"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3424,25 +3478,25 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="96"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="79"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="99"/>
+      <c r="AB47" s="71"/>
+      <c r="AC47" s="72"/>
       <c r="AH47" s="56"/>
     </row>
     <row r="48" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="79">
+      <c r="S48" s="88">
         <v>45713</v>
       </c>
-      <c r="T48" s="76"/>
+      <c r="T48" s="89"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3452,25 +3506,25 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="95"/>
-      <c r="Z48" s="96"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="79"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="99"/>
+      <c r="AB48" s="71"/>
+      <c r="AC48" s="72"/>
       <c r="AH48" s="56"/>
     </row>
     <row r="49" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="79">
+      <c r="S49" s="88">
         <v>45714</v>
       </c>
-      <c r="T49" s="76"/>
+      <c r="T49" s="89"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3480,25 +3534,25 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="95"/>
-      <c r="Z49" s="96"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="79"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="99"/>
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="72"/>
       <c r="AH49" s="56"/>
     </row>
     <row r="50" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="79">
+      <c r="S50" s="88">
         <v>45716</v>
       </c>
-      <c r="T50" s="76"/>
+      <c r="T50" s="89"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3508,25 +3562,25 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="95"/>
-      <c r="Z50" s="96"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="79"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="99"/>
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="72"/>
       <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M51" s="15"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="79">
+      <c r="S51" s="88">
         <v>45719</v>
       </c>
-      <c r="T51" s="76"/>
+      <c r="T51" s="89"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3536,25 +3590,25 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="95"/>
-      <c r="Z51" s="96"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="79"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="99"/>
+      <c r="AB51" s="71"/>
+      <c r="AC51" s="72"/>
       <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M52" s="15"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="79">
+      <c r="S52" s="88">
         <v>45723</v>
       </c>
-      <c r="T52" s="76"/>
+      <c r="T52" s="89"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3564,25 +3618,25 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="95"/>
-      <c r="Z52" s="96"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="79"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="99"/>
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="72"/>
       <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="89"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="90"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="79">
+      <c r="S53" s="88">
         <v>45724</v>
       </c>
-      <c r="T53" s="76"/>
+      <c r="T53" s="89"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3592,25 +3646,25 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="95"/>
-      <c r="Z53" s="96"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="79"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="99"/>
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="72"/>
       <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="92"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="79">
+      <c r="S54" s="88">
         <v>45726</v>
       </c>
-      <c r="T54" s="76"/>
+      <c r="T54" s="89"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -3620,74 +3674,150 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="107"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="81"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="88"/>
-      <c r="AC54" s="99"/>
+      <c r="AB54" s="71"/>
+      <c r="AC54" s="72"/>
     </row>
     <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="69" t="s">
+      <c r="M55" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="70"/>
-      <c r="O55" s="92"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="75"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>720500</v>
-      </c>
-      <c r="R55" s="69" t="s">
+        <v>752500</v>
+      </c>
+      <c r="R55" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="70"/>
-      <c r="T55" s="92"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="75"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="69" t="s">
+      <c r="X55" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="104">
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="75"/>
+      <c r="AA55" s="76">
         <f>SUM(AA27:AA54)</f>
         <v>45000</v>
       </c>
-      <c r="AB55" s="105"/>
+      <c r="AB55" s="77"/>
       <c r="AC55" s="57"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AH26:AH53">
     <sortCondition ref="AH26:AH53"/>
   </sortState>
-  <mergeCells count="149">
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AB34:AC34"/>
+  <mergeCells count="150">
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="Y47:Z47"/>
@@ -3712,106 +3842,31 @@
     <mergeCell ref="AB46:AC46"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709195D-B17F-4A73-8F00-51504D7DB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A8B40-E091-4948-A735-9A3307C80C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>bayar fotocopy  islamisme</t>
+  </si>
+  <si>
+    <t>beli paralon renov lubang wc</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -910,11 +913,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,8 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1002,38 +1012,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,28 +1063,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,15 +1080,27 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1463,60 +1479,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="H3" s="98" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
-      <c r="M3" s="98" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="M3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="R3" s="98" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="R3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="100"/>
-      <c r="W3" s="98" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="77"/>
+      <c r="W3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="100"/>
-      <c r="AB3" s="98" t="s">
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
+      <c r="AB3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="100"/>
-      <c r="AG3" s="98" t="s">
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="77"/>
+      <c r="AG3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="100"/>
-      <c r="AL3" s="98" t="s">
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="77"/>
+      <c r="AL3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="100"/>
-      <c r="AQ3" s="98" t="s">
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="77"/>
+      <c r="AQ3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="100"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="77"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1614,7 +1630,7 @@
       <c r="AN4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="74" t="s">
         <v>3</v>
       </c>
       <c r="AQ4" s="10" t="s">
@@ -1710,10 +1726,10 @@
       <c r="AL5" s="23">
         <v>1</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AM5" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AN5" s="9">
+      <c r="AN5" s="73">
         <v>45716</v>
       </c>
       <c r="AO5" s="14">
@@ -1740,7 +1756,7 @@
       <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="60">
         <v>45754</v>
       </c>
       <c r="F6" s="16">
@@ -1748,10 +1764,10 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="66">
         <v>45697</v>
       </c>
       <c r="K6" s="14">
@@ -1771,7 +1787,7 @@
       <c r="X6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y6" s="65">
+      <c r="Y6" s="63">
         <v>45755</v>
       </c>
       <c r="Z6" s="14">
@@ -1802,10 +1818,10 @@
         <v>50000</v>
       </c>
       <c r="AL6" s="15"/>
-      <c r="AM6" s="3" t="s">
+      <c r="AM6" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="AN6" s="61">
+      <c r="AN6" s="70">
         <v>45736</v>
       </c>
       <c r="AO6" s="14">
@@ -1829,10 +1845,10 @@
       <c r="C7" s="55">
         <v>3</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <v>45756</v>
       </c>
       <c r="F7" s="16">
@@ -1854,10 +1870,10 @@
       <c r="W7" s="55">
         <v>3</v>
       </c>
-      <c r="X7" s="66" t="s">
+      <c r="X7" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="65">
+      <c r="Y7" s="63">
         <v>45755</v>
       </c>
       <c r="Z7" s="14">
@@ -1869,7 +1885,7 @@
       <c r="AC7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AD7" s="64">
+      <c r="AD7" s="62">
         <v>45755</v>
       </c>
       <c r="AE7" s="14">
@@ -1879,17 +1895,17 @@
       <c r="AH7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI7" s="69">
+      <c r="AI7" s="67">
         <v>45756</v>
       </c>
       <c r="AJ7" s="14">
         <v>50000</v>
       </c>
       <c r="AL7" s="15"/>
-      <c r="AM7" s="60" t="s">
+      <c r="AM7" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="AN7" s="61">
+      <c r="AN7" s="70">
         <v>45736</v>
       </c>
       <c r="AO7" s="16">
@@ -1901,7 +1917,7 @@
       <c r="AR7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AS7" s="64">
+      <c r="AS7" s="62">
         <v>45755</v>
       </c>
       <c r="AT7" s="14">
@@ -1940,9 +1956,15 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="16"/>
       <c r="AL8" s="15"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="16"/>
+      <c r="AM8" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN8" s="70">
+        <v>45758</v>
+      </c>
+      <c r="AO8" s="16">
+        <v>50000</v>
+      </c>
       <c r="AQ8" s="15"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
@@ -1980,8 +2002,9 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="16"/>
       <c r="AL9" s="15"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="115"/>
       <c r="AQ9" s="15"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -2019,8 +2042,8 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="16"/>
       <c r="AL10" s="15"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
       <c r="AO10" s="16"/>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="3"/>
@@ -2059,8 +2082,8 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="16"/>
       <c r="AL11" s="15"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
       <c r="AO11" s="16"/>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="3"/>
@@ -2099,8 +2122,8 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="16"/>
       <c r="AL12" s="15"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
       <c r="AO12" s="16"/>
       <c r="AQ12" s="15"/>
       <c r="AR12" s="3"/>
@@ -2139,8 +2162,8 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="16"/>
       <c r="AL13" s="15"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
       <c r="AO13" s="16"/>
       <c r="AQ13" s="15"/>
       <c r="AR13" s="3"/>
@@ -2179,8 +2202,8 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="16"/>
       <c r="AL14" s="15"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
       <c r="AO14" s="16"/>
       <c r="AQ14" s="15"/>
       <c r="AR14" s="3"/>
@@ -2219,8 +2242,8 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="16"/>
       <c r="AL15" s="15"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
       <c r="AO15" s="16"/>
       <c r="AQ15" s="15"/>
       <c r="AR15" s="3"/>
@@ -2259,8 +2282,8 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="16"/>
       <c r="AL16" s="15"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
       <c r="AO16" s="16"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="3"/>
@@ -2299,8 +2322,8 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="16"/>
       <c r="AL17" s="15"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
       <c r="AO17" s="16"/>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="3"/>
@@ -2339,8 +2362,8 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="16"/>
       <c r="AL18" s="15"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
       <c r="AO18" s="16"/>
       <c r="AQ18" s="15"/>
       <c r="AR18" s="3"/>
@@ -2379,8 +2402,8 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="16"/>
       <c r="AL19" s="15"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
       <c r="AO19" s="16"/>
       <c r="AQ19" s="15"/>
       <c r="AR19" s="3"/>
@@ -2419,8 +2442,8 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="16"/>
       <c r="AL20" s="15"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
       <c r="AO20" s="16"/>
       <c r="AQ20" s="15"/>
       <c r="AR20" s="3"/>
@@ -2469,87 +2492,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="101">
+      <c r="D22" s="79"/>
+      <c r="E22" s="80">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="H22" s="73" t="s">
+      <c r="F22" s="81"/>
+      <c r="H22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="101">
+      <c r="I22" s="79"/>
+      <c r="J22" s="80">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="102"/>
-      <c r="M22" s="73" t="s">
+      <c r="K22" s="81"/>
+      <c r="M22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="74"/>
-      <c r="O22" s="101">
+      <c r="N22" s="79"/>
+      <c r="O22" s="80">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="102"/>
-      <c r="R22" s="73" t="s">
+      <c r="P22" s="81"/>
+      <c r="R22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="74"/>
-      <c r="T22" s="101">
+      <c r="S22" s="79"/>
+      <c r="T22" s="80">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="102"/>
-      <c r="W22" s="73" t="s">
+      <c r="U22" s="81"/>
+      <c r="W22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="101">
+      <c r="X22" s="79"/>
+      <c r="Y22" s="80">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="102"/>
-      <c r="AB22" s="73" t="s">
+      <c r="Z22" s="81"/>
+      <c r="AB22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="101">
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="80">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="102"/>
-      <c r="AG22" s="73" t="s">
+      <c r="AE22" s="81"/>
+      <c r="AG22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="101">
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="80">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="102"/>
-      <c r="AL22" s="73" t="s">
+      <c r="AJ22" s="81"/>
+      <c r="AL22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="74"/>
-      <c r="AN22" s="101">
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="80">
         <f>SUM(AO5:AO21)</f>
-        <v>60000</v>
-      </c>
-      <c r="AO22" s="102"/>
-      <c r="AQ22" s="73" t="s">
+        <v>110000</v>
+      </c>
+      <c r="AO22" s="81"/>
+      <c r="AQ22" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="74"/>
-      <c r="AS22" s="101">
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="80">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="102"/>
+      <c r="AT22" s="81"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2558,25 +2581,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="93" t="s">
+      <c r="M25" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="95"/>
-      <c r="R25" s="93" t="s">
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="R25" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="95"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="93"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="104" t="s">
+      <c r="G26" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2617,14 +2640,14 @@
       <c r="AH26" s="56"/>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1345000</v>
+        <v>1395000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2638,20 +2661,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="107" t="s">
+      <c r="N27" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="107"/>
+      <c r="O27" s="95"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="108">
+      <c r="S27" s="94">
         <v>45691</v>
       </c>
-      <c r="T27" s="107"/>
+      <c r="T27" s="95"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2661,10 +2684,10 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="86">
+      <c r="Y27" s="106">
         <v>45727</v>
       </c>
-      <c r="Z27" s="87"/>
+      <c r="Z27" s="107"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
@@ -2713,10 +2736,10 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="78">
+      <c r="Y28" s="108">
         <v>45729</v>
       </c>
-      <c r="Z28" s="79"/>
+      <c r="Z28" s="109"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
@@ -2725,20 +2748,20 @@
       </c>
       <c r="AC28" s="85"/>
       <c r="AH28" s="56"/>
-      <c r="AN28" s="111" t="s">
+      <c r="AN28" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AO28" s="111"/>
+      <c r="AO28" s="90"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>942500</v>
+        <v>999500</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2775,17 +2798,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="78">
+      <c r="Y29" s="108">
         <v>45731</v>
       </c>
-      <c r="Z29" s="79"/>
+      <c r="Z29" s="109"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="71" t="s">
+      <c r="AB29" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="72"/>
+      <c r="AC29" s="110"/>
       <c r="AH29" s="56"/>
       <c r="AN29" t="s">
         <v>38</v>
@@ -2824,17 +2847,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="78">
+      <c r="Y30" s="108">
         <v>45733</v>
       </c>
-      <c r="Z30" s="79"/>
+      <c r="Z30" s="109"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="71" t="s">
+      <c r="AB30" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="72"/>
+      <c r="AC30" s="110"/>
       <c r="AH30" s="56"/>
       <c r="AN30" t="s">
         <v>60</v>
@@ -2844,14 +2867,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>402500</v>
+        <v>395500</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2882,17 +2905,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="78">
+      <c r="Y31" s="108">
         <v>45736</v>
       </c>
-      <c r="Z31" s="79"/>
+      <c r="Z31" s="109"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="71" t="s">
+      <c r="AB31" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="72"/>
+      <c r="AC31" s="110"/>
       <c r="AH31" s="56"/>
       <c r="AN31" t="s">
         <v>40</v>
@@ -2931,17 +2954,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="78">
+      <c r="Y32" s="108">
         <v>45741</v>
       </c>
-      <c r="Z32" s="79"/>
+      <c r="Z32" s="109"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="71" t="s">
+      <c r="AB32" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="72"/>
+      <c r="AC32" s="110"/>
       <c r="AH32" s="56"/>
       <c r="AN32" t="s">
         <v>42</v>
@@ -2980,17 +3003,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="78">
+      <c r="Y33" s="108">
         <v>45752</v>
       </c>
-      <c r="Z33" s="79"/>
+      <c r="Z33" s="109"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="71" t="s">
+      <c r="AB33" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="72"/>
+      <c r="AC33" s="110"/>
       <c r="AH33" s="56"/>
       <c r="AN33" t="s">
         <v>36</v>
@@ -3029,10 +3052,10 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="78">
+      <c r="Y34" s="108">
         <v>45755</v>
       </c>
-      <c r="Z34" s="79"/>
+      <c r="Z34" s="109"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
@@ -3058,7 +3081,7 @@
       <c r="N35" t="s">
         <v>57</v>
       </c>
-      <c r="P35" s="63">
+      <c r="P35" s="61">
         <v>45000</v>
       </c>
       <c r="R35" s="13">
@@ -3077,17 +3100,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="78">
+      <c r="Y35" s="108">
         <v>45756</v>
       </c>
-      <c r="Z35" s="79"/>
+      <c r="Z35" s="109"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="71" t="s">
+      <c r="AB35" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="AC35" s="72"/>
+      <c r="AC35" s="110"/>
       <c r="AH35" s="56"/>
       <c r="AN35" t="s">
         <v>37</v>
@@ -3126,11 +3149,17 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="72"/>
+      <c r="Y36" s="108">
+        <v>45757</v>
+      </c>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="45">
+        <v>5000</v>
+      </c>
+      <c r="AB36" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC36" s="110"/>
       <c r="AH36" s="56"/>
     </row>
     <row r="37" spans="7:41" x14ac:dyDescent="0.35">
@@ -3163,11 +3192,11 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="79"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="109"/>
       <c r="AA37" s="46"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="72"/>
+      <c r="AB37" s="101"/>
+      <c r="AC37" s="110"/>
       <c r="AH37" s="56"/>
     </row>
     <row r="38" spans="7:41" x14ac:dyDescent="0.35">
@@ -3200,21 +3229,27 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="79"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="109"/>
       <c r="AA38" s="46"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="72"/>
+      <c r="AB38" s="101"/>
+      <c r="AC38" s="110"/>
       <c r="AH38" s="56"/>
     </row>
     <row r="39" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="16"/>
+      <c r="M39" s="15">
+        <v>13</v>
+      </c>
+      <c r="N39" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="97"/>
+      <c r="P39" s="16">
+        <v>10000</v>
+      </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
@@ -3231,21 +3266,27 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="79"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="109"/>
       <c r="AA39" s="46"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="72"/>
+      <c r="AB39" s="101"/>
+      <c r="AC39" s="110"/>
       <c r="AH39" s="56"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G40" s="31"/>
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="89"/>
+      <c r="M40" s="15">
+        <v>14</v>
+      </c>
+      <c r="N40" s="89" t="s">
+        <v>64</v>
+      </c>
       <c r="O40" s="89"/>
-      <c r="P40" s="16"/>
+      <c r="P40" s="16">
+        <v>42000</v>
+      </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
@@ -3262,11 +3303,11 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="79"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="109"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="71"/>
-      <c r="AC40" s="72"/>
+      <c r="AB40" s="101"/>
+      <c r="AC40" s="110"/>
       <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="7:41" x14ac:dyDescent="0.35">
@@ -3293,11 +3334,11 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="78"/>
-      <c r="Z41" s="79"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="109"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="72"/>
+      <c r="AB41" s="101"/>
+      <c r="AC41" s="110"/>
       <c r="AH41" s="56"/>
     </row>
     <row r="42" spans="7:41" x14ac:dyDescent="0.35">
@@ -3324,11 +3365,11 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="79"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="109"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="72"/>
+      <c r="AB42" s="101"/>
+      <c r="AC42" s="110"/>
       <c r="AH42" s="56"/>
     </row>
     <row r="43" spans="7:41" x14ac:dyDescent="0.35">
@@ -3355,11 +3396,11 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="79"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="109"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="72"/>
+      <c r="AB43" s="101"/>
+      <c r="AC43" s="110"/>
       <c r="AH43" s="56"/>
     </row>
     <row r="44" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3386,11 +3427,11 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="79"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="109"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="72"/>
+      <c r="AB44" s="101"/>
+      <c r="AC44" s="110"/>
       <c r="AH44" s="56"/>
     </row>
     <row r="45" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3422,11 +3463,11 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="79"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="109"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="72"/>
+      <c r="AB45" s="101"/>
+      <c r="AC45" s="110"/>
       <c r="AH45" s="56"/>
     </row>
     <row r="46" spans="7:41" x14ac:dyDescent="0.35">
@@ -3450,11 +3491,11 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="79"/>
+      <c r="Y46" s="108"/>
+      <c r="Z46" s="109"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="72"/>
+      <c r="AB46" s="101"/>
+      <c r="AC46" s="110"/>
       <c r="AH46" s="56"/>
     </row>
     <row r="47" spans="7:41" x14ac:dyDescent="0.35">
@@ -3478,11 +3519,11 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="78"/>
-      <c r="Z47" s="79"/>
+      <c r="Y47" s="108"/>
+      <c r="Z47" s="109"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="72"/>
+      <c r="AB47" s="101"/>
+      <c r="AC47" s="110"/>
       <c r="AH47" s="56"/>
     </row>
     <row r="48" spans="7:41" x14ac:dyDescent="0.35">
@@ -3506,11 +3547,11 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="79"/>
+      <c r="Y48" s="108"/>
+      <c r="Z48" s="109"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="71"/>
-      <c r="AC48" s="72"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="110"/>
       <c r="AH48" s="56"/>
     </row>
     <row r="49" spans="13:34" x14ac:dyDescent="0.35">
@@ -3534,11 +3575,11 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="79"/>
+      <c r="Y49" s="108"/>
+      <c r="Z49" s="109"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="71"/>
-      <c r="AC49" s="72"/>
+      <c r="AB49" s="101"/>
+      <c r="AC49" s="110"/>
       <c r="AH49" s="56"/>
     </row>
     <row r="50" spans="13:34" x14ac:dyDescent="0.35">
@@ -3562,11 +3603,11 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="79"/>
+      <c r="Y50" s="108"/>
+      <c r="Z50" s="109"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="71"/>
-      <c r="AC50" s="72"/>
+      <c r="AB50" s="101"/>
+      <c r="AC50" s="110"/>
       <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="13:34" x14ac:dyDescent="0.35">
@@ -3590,11 +3631,11 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="78"/>
-      <c r="Z51" s="79"/>
+      <c r="Y51" s="108"/>
+      <c r="Z51" s="109"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="72"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="110"/>
       <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="13:34" x14ac:dyDescent="0.35">
@@ -3618,17 +3659,17 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="78"/>
-      <c r="Z52" s="79"/>
+      <c r="Y52" s="108"/>
+      <c r="Z52" s="109"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="71"/>
-      <c r="AC52" s="72"/>
+      <c r="AB52" s="101"/>
+      <c r="AC52" s="110"/>
       <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="13:34" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="90"/>
+      <c r="N53" s="101"/>
+      <c r="O53" s="102"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
@@ -3646,17 +3687,17 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="78"/>
-      <c r="Z53" s="79"/>
+      <c r="Y53" s="108"/>
+      <c r="Z53" s="109"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="71"/>
-      <c r="AC53" s="72"/>
+      <c r="AB53" s="101"/>
+      <c r="AC53" s="110"/>
       <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="92"/>
+      <c r="N54" s="103"/>
+      <c r="O54" s="104"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
@@ -3674,42 +3715,42 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="81"/>
+      <c r="Y54" s="113"/>
+      <c r="Z54" s="114"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="71"/>
-      <c r="AC54" s="72"/>
+      <c r="AB54" s="101"/>
+      <c r="AC54" s="110"/>
     </row>
     <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="73" t="s">
+      <c r="M55" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="74"/>
-      <c r="O55" s="75"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="105"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>752500</v>
-      </c>
-      <c r="R55" s="73" t="s">
+        <v>804500</v>
+      </c>
+      <c r="R55" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="74"/>
-      <c r="T55" s="75"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="105"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="73" t="s">
+      <c r="X55" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="74"/>
-      <c r="Z55" s="75"/>
-      <c r="AA55" s="76">
+      <c r="Y55" s="79"/>
+      <c r="Z55" s="105"/>
+      <c r="AA55" s="111">
         <f>SUM(AA27:AA54)</f>
-        <v>45000</v>
-      </c>
-      <c r="AB55" s="77"/>
+        <v>50000</v>
+      </c>
+      <c r="AB55" s="112"/>
       <c r="AC55" s="57"/>
     </row>
   </sheetData>
@@ -3717,25 +3758,92 @@
     <sortCondition ref="AH26:AH53"/>
   </sortState>
   <mergeCells count="150">
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AQ22:AR22"/>
     <mergeCell ref="AS22:AT22"/>
@@ -3755,118 +3863,51 @@
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A8B40-E091-4948-A735-9A3307C80C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B20B713-DD7A-4CE0-AEF9-E82F23B2EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>beli paralon renov lubang wc</t>
+  </si>
+  <si>
+    <t>sunligt</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,6 +1021,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,48 +1071,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,27 +1089,24 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
-  <dimension ref="B1:AT55"/>
+  <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,60 +1485,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="H3" s="75" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="H3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
-      <c r="M3" s="75" t="s">
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="M3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="R3" s="75" t="s">
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="102"/>
+      <c r="R3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="77"/>
-      <c r="W3" s="75" t="s">
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="102"/>
+      <c r="W3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="77"/>
-      <c r="AB3" s="75" t="s">
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="102"/>
+      <c r="AB3" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="77"/>
-      <c r="AG3" s="75" t="s">
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
+      <c r="AG3" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="77"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="102"/>
+      <c r="AL3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="77"/>
-      <c r="AQ3" s="75" t="s">
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="102"/>
+      <c r="AQ3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="77"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="102"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2004,7 +2010,7 @@
       <c r="AL9" s="15"/>
       <c r="AM9" s="71"/>
       <c r="AN9" s="71"/>
-      <c r="AO9" s="115"/>
+      <c r="AO9" s="75"/>
       <c r="AQ9" s="15"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -2492,87 +2498,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80">
+      <c r="D22" s="80"/>
+      <c r="E22" s="103">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="H22" s="78" t="s">
+      <c r="F22" s="104"/>
+      <c r="H22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80">
+      <c r="I22" s="80"/>
+      <c r="J22" s="103">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="M22" s="78" t="s">
+      <c r="K22" s="104"/>
+      <c r="M22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="79"/>
-      <c r="O22" s="80">
+      <c r="N22" s="80"/>
+      <c r="O22" s="103">
         <f>SUM(P5:P21)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="81"/>
-      <c r="R22" s="78" t="s">
+      <c r="P22" s="104"/>
+      <c r="R22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="79"/>
-      <c r="T22" s="80">
+      <c r="S22" s="80"/>
+      <c r="T22" s="103">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="81"/>
-      <c r="W22" s="78" t="s">
+      <c r="U22" s="104"/>
+      <c r="W22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="80">
+      <c r="X22" s="80"/>
+      <c r="Y22" s="103">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="81"/>
-      <c r="AB22" s="78" t="s">
+      <c r="Z22" s="104"/>
+      <c r="AB22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="80">
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="103">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="81"/>
-      <c r="AG22" s="78" t="s">
+      <c r="AE22" s="104"/>
+      <c r="AG22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="80">
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="103">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="81"/>
-      <c r="AL22" s="78" t="s">
+      <c r="AJ22" s="104"/>
+      <c r="AL22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="80">
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="103">
         <f>SUM(AO5:AO21)</f>
         <v>110000</v>
       </c>
-      <c r="AO22" s="81"/>
-      <c r="AQ22" s="78" t="s">
+      <c r="AO22" s="104"/>
+      <c r="AQ22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="79"/>
-      <c r="AS22" s="80">
+      <c r="AR22" s="80"/>
+      <c r="AS22" s="103">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="81"/>
+      <c r="AT22" s="104"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2581,25 +2587,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="91" t="s">
+      <c r="M25" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="R25" s="91" t="s">
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
+      <c r="R25" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="93"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="99"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="98" t="s">
+      <c r="G26" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
@@ -2633,18 +2639,24 @@
       <c r="AA26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AB26" s="82" t="s">
+      <c r="AB26" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="83"/>
+      <c r="AC26" s="117"/>
       <c r="AH26" s="56"/>
+      <c r="AI26" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ26">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
         <v>1395000</v>
@@ -2661,20 +2673,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="95" t="s">
+      <c r="N27" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="95"/>
+      <c r="O27" s="109"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="94">
+      <c r="S27" s="112">
         <v>45691</v>
       </c>
-      <c r="T27" s="95"/>
+      <c r="T27" s="109"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2684,18 +2696,21 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="106">
+      <c r="Y27" s="110">
         <v>45727</v>
       </c>
-      <c r="Z27" s="107"/>
+      <c r="Z27" s="111"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="84" t="s">
+      <c r="AB27" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="85"/>
+      <c r="AC27" s="91"/>
       <c r="AH27" s="56"/>
+      <c r="AI27" s="76" t="s">
+        <v>34</v>
+      </c>
       <c r="AN27" t="s">
         <v>59</v>
       </c>
@@ -2713,20 +2728,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="89" t="s">
+      <c r="N28" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="89"/>
+      <c r="O28" s="93"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="88">
+      <c r="S28" s="92">
         <v>45692</v>
       </c>
-      <c r="T28" s="89"/>
+      <c r="T28" s="93"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2736,32 +2751,35 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="108">
+      <c r="Y28" s="86">
         <v>45729</v>
       </c>
-      <c r="Z28" s="109"/>
+      <c r="Z28" s="87"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="84" t="s">
+      <c r="AB28" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="85"/>
+      <c r="AC28" s="91"/>
       <c r="AH28" s="56"/>
-      <c r="AN28" s="90" t="s">
+      <c r="AI28" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN28" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="AO28" s="90"/>
+      <c r="AO28" s="113"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>999500</v>
+        <v>1019500</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2775,20 +2793,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="96" t="s">
+      <c r="N29" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="97"/>
+      <c r="O29" s="115"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="88">
+      <c r="S29" s="92">
         <v>45693</v>
       </c>
-      <c r="T29" s="89"/>
+      <c r="T29" s="93"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2798,18 +2816,21 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="108">
+      <c r="Y29" s="86">
         <v>45731</v>
       </c>
-      <c r="Z29" s="109"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="101" t="s">
+      <c r="AB29" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="110"/>
+      <c r="AC29" s="85"/>
       <c r="AH29" s="56"/>
+      <c r="AI29" s="76" t="s">
+        <v>34</v>
+      </c>
       <c r="AN29" t="s">
         <v>38</v>
       </c>
@@ -2824,20 +2845,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="89" t="s">
+      <c r="N30" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="89"/>
+      <c r="O30" s="93"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="88">
+      <c r="S30" s="92">
         <v>45694</v>
       </c>
-      <c r="T30" s="89"/>
+      <c r="T30" s="93"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2847,18 +2868,24 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="108">
+      <c r="Y30" s="86">
         <v>45733</v>
       </c>
-      <c r="Z30" s="109"/>
+      <c r="Z30" s="87"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="101" t="s">
+      <c r="AB30" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="110"/>
+      <c r="AC30" s="85"/>
       <c r="AH30" s="56"/>
+      <c r="AI30" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
       <c r="AN30" t="s">
         <v>60</v>
       </c>
@@ -2867,14 +2894,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>395500</v>
+        <v>375500</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2882,20 +2909,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="89" t="s">
+      <c r="N31" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="89"/>
+      <c r="O31" s="93"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="88">
+      <c r="S31" s="92">
         <v>45695</v>
       </c>
-      <c r="T31" s="89"/>
+      <c r="T31" s="93"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2905,18 +2932,21 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="108">
+      <c r="Y31" s="86">
         <v>45736</v>
       </c>
-      <c r="Z31" s="109"/>
+      <c r="Z31" s="87"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="101" t="s">
+      <c r="AB31" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AC31" s="110"/>
+      <c r="AC31" s="85"/>
       <c r="AH31" s="56"/>
+      <c r="AI31" s="76" t="s">
+        <v>42</v>
+      </c>
       <c r="AN31" t="s">
         <v>40</v>
       </c>
@@ -2931,20 +2961,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="89" t="s">
+      <c r="N32" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="89"/>
+      <c r="O32" s="93"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="88">
+      <c r="S32" s="92">
         <v>45696</v>
       </c>
-      <c r="T32" s="89"/>
+      <c r="T32" s="93"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -2954,18 +2984,21 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="108">
+      <c r="Y32" s="86">
         <v>45741</v>
       </c>
-      <c r="Z32" s="109"/>
+      <c r="Z32" s="87"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="101" t="s">
+      <c r="AB32" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="110"/>
+      <c r="AC32" s="85"/>
       <c r="AH32" s="56"/>
+      <c r="AI32" s="76" t="s">
+        <v>42</v>
+      </c>
       <c r="AN32" t="s">
         <v>42</v>
       </c>
@@ -2980,20 +3013,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="89" t="s">
+      <c r="N33" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="89"/>
+      <c r="O33" s="93"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="88">
+      <c r="S33" s="92">
         <v>45697</v>
       </c>
-      <c r="T33" s="89"/>
+      <c r="T33" s="93"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3003,18 +3036,24 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="108">
+      <c r="Y33" s="86">
         <v>45752</v>
       </c>
-      <c r="Z33" s="109"/>
+      <c r="Z33" s="87"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="101" t="s">
+      <c r="AB33" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="AC33" s="110"/>
+      <c r="AC33" s="85"/>
       <c r="AH33" s="56"/>
+      <c r="AI33" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ33">
+        <v>6</v>
+      </c>
       <c r="AN33" t="s">
         <v>36</v>
       </c>
@@ -3029,20 +3068,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="89" t="s">
+      <c r="N34" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="89"/>
+      <c r="O34" s="93"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="88">
+      <c r="S34" s="92">
         <v>45699</v>
       </c>
-      <c r="T34" s="89"/>
+      <c r="T34" s="93"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3052,18 +3091,21 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="108">
+      <c r="Y34" s="86">
         <v>45755</v>
       </c>
-      <c r="Z34" s="109"/>
+      <c r="Z34" s="87"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="84" t="s">
+      <c r="AB34" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AC34" s="85"/>
+      <c r="AC34" s="91"/>
       <c r="AH34" s="56"/>
+      <c r="AI34" s="76" t="s">
+        <v>35</v>
+      </c>
       <c r="AN34" t="s">
         <v>34</v>
       </c>
@@ -3087,10 +3129,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="88">
+      <c r="S35" s="92">
         <v>45700</v>
       </c>
-      <c r="T35" s="89"/>
+      <c r="T35" s="93"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3100,18 +3142,21 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="108">
+      <c r="Y35" s="86">
         <v>45756</v>
       </c>
-      <c r="Z35" s="109"/>
+      <c r="Z35" s="87"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="101" t="s">
+      <c r="AB35" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AC35" s="110"/>
+      <c r="AC35" s="85"/>
       <c r="AH35" s="56"/>
+      <c r="AI35" s="76" t="s">
+        <v>35</v>
+      </c>
       <c r="AN35" t="s">
         <v>37</v>
       </c>
@@ -3126,20 +3171,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="89" t="s">
+      <c r="N36" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="89"/>
+      <c r="O36" s="93"/>
       <c r="P36" s="16">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="88">
+      <c r="S36" s="92">
         <v>45700</v>
       </c>
-      <c r="T36" s="89"/>
+      <c r="T36" s="93"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3149,18 +3194,21 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="108">
+      <c r="Y36" s="86">
         <v>45757</v>
       </c>
-      <c r="Z36" s="109"/>
+      <c r="Z36" s="87"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="101" t="s">
+      <c r="AB36" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AC36" s="110"/>
+      <c r="AC36" s="85"/>
       <c r="AH36" s="56"/>
+      <c r="AI36" s="76" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G37" s="31"/>
@@ -3169,20 +3217,20 @@
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="89" t="s">
+      <c r="N37" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="O37" s="89"/>
+      <c r="O37" s="93"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="88">
+      <c r="S37" s="92">
         <v>45701</v>
       </c>
-      <c r="T37" s="89"/>
+      <c r="T37" s="93"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3192,12 +3240,21 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="108"/>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="110"/>
+      <c r="Y37" s="86">
+        <v>45759</v>
+      </c>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB37" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC37" s="85"/>
       <c r="AH37" s="56"/>
+      <c r="AI37" s="76" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G38" s="31"/>
@@ -3206,20 +3263,20 @@
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="89" t="s">
+      <c r="N38" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="O38" s="89"/>
+      <c r="O38" s="93"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="88">
+      <c r="S38" s="92">
         <v>45702</v>
       </c>
-      <c r="T38" s="89"/>
+      <c r="T38" s="93"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3229,12 +3286,21 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="108"/>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="110"/>
+      <c r="Y38" s="86">
+        <v>45761</v>
+      </c>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB38" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC38" s="85"/>
       <c r="AH38" s="56"/>
+      <c r="AI38" s="76" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G39" s="31"/>
@@ -3243,20 +3309,20 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="96" t="s">
+      <c r="N39" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="O39" s="97"/>
+      <c r="O39" s="115"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="88">
+      <c r="S39" s="92">
         <v>45703</v>
       </c>
-      <c r="T39" s="89"/>
+      <c r="T39" s="93"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3266,12 +3332,24 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="108"/>
-      <c r="Z39" s="109"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="101"/>
-      <c r="AC39" s="110"/>
+      <c r="Y39" s="86">
+        <v>45762</v>
+      </c>
+      <c r="Z39" s="87"/>
+      <c r="AA39" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB39" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC39" s="85"/>
       <c r="AH39" s="56"/>
+      <c r="AI39" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G40" s="31"/>
@@ -3280,20 +3358,20 @@
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="89" t="s">
+      <c r="N40" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="O40" s="89"/>
+      <c r="O40" s="93"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="88">
+      <c r="S40" s="92">
         <v>45704</v>
       </c>
-      <c r="T40" s="89"/>
+      <c r="T40" s="93"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3303,28 +3381,37 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="109"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="87"/>
       <c r="AA40" s="46"/>
-      <c r="AB40" s="101"/>
-      <c r="AC40" s="110"/>
+      <c r="AB40" s="84"/>
+      <c r="AC40" s="85"/>
       <c r="AH40" s="56"/>
+      <c r="AI40" s="76" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G41" s="31"/>
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="16"/>
+      <c r="M41" s="15">
+        <v>14</v>
+      </c>
+      <c r="N41" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="93"/>
+      <c r="P41" s="16">
+        <v>5000</v>
+      </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="88">
+      <c r="S41" s="92">
         <v>45705</v>
       </c>
-      <c r="T41" s="89"/>
+      <c r="T41" s="93"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3334,28 +3421,31 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="109"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="87"/>
       <c r="AA41" s="46"/>
-      <c r="AB41" s="101"/>
-      <c r="AC41" s="110"/>
+      <c r="AB41" s="84"/>
+      <c r="AC41" s="85"/>
       <c r="AH41" s="56"/>
+      <c r="AI41" s="76" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G42" s="31"/>
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
       <c r="P42" s="16"/>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="88">
+      <c r="S42" s="92">
         <v>45707</v>
       </c>
-      <c r="T42" s="89"/>
+      <c r="T42" s="93"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3365,28 +3455,34 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="108"/>
-      <c r="Z42" s="109"/>
+      <c r="Y42" s="86"/>
+      <c r="Z42" s="87"/>
       <c r="AA42" s="46"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="110"/>
+      <c r="AB42" s="84"/>
+      <c r="AC42" s="85"/>
       <c r="AH42" s="56"/>
+      <c r="AI42" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ42">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="7:41" x14ac:dyDescent="0.35">
       <c r="G43" s="31"/>
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
       <c r="P43" s="16"/>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="88">
+      <c r="S43" s="92">
         <v>45708</v>
       </c>
-      <c r="T43" s="89"/>
+      <c r="T43" s="93"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3396,28 +3492,31 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="109"/>
+      <c r="Y43" s="86"/>
+      <c r="Z43" s="87"/>
       <c r="AA43" s="46"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="110"/>
+      <c r="AB43" s="84"/>
+      <c r="AC43" s="85"/>
       <c r="AH43" s="56"/>
+      <c r="AI43" s="76" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="44" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G44" s="33"/>
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
       <c r="P44" s="16"/>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="88">
+      <c r="S44" s="92">
         <v>45709</v>
       </c>
-      <c r="T44" s="89"/>
+      <c r="T44" s="93"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3427,12 +3526,15 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="109"/>
+      <c r="Y44" s="86"/>
+      <c r="Z44" s="87"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="110"/>
+      <c r="AB44" s="84"/>
+      <c r="AC44" s="85"/>
       <c r="AH44" s="56"/>
+      <c r="AI44" s="76" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G45" s="21"/>
@@ -3444,16 +3546,16 @@
         <v>335000</v>
       </c>
       <c r="M45" s="15"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
       <c r="P45" s="16"/>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="88">
+      <c r="S45" s="92">
         <v>45710</v>
       </c>
-      <c r="T45" s="89"/>
+      <c r="T45" s="93"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3463,25 +3565,28 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="109"/>
+      <c r="Y45" s="86"/>
+      <c r="Z45" s="87"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="110"/>
+      <c r="AB45" s="84"/>
+      <c r="AC45" s="85"/>
       <c r="AH45" s="56"/>
+      <c r="AI45" s="76" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="88">
+      <c r="S46" s="92">
         <v>45711</v>
       </c>
-      <c r="T46" s="89"/>
+      <c r="T46" s="93"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3491,25 +3596,31 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="108"/>
-      <c r="Z46" s="109"/>
+      <c r="Y46" s="86"/>
+      <c r="Z46" s="87"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="110"/>
+      <c r="AB46" s="84"/>
+      <c r="AC46" s="85"/>
       <c r="AH46" s="56"/>
+      <c r="AI46" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="88">
+      <c r="S47" s="92">
         <v>45712</v>
       </c>
-      <c r="T47" s="89"/>
+      <c r="T47" s="93"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3519,25 +3630,31 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="108"/>
-      <c r="Z47" s="109"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="87"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="101"/>
-      <c r="AC47" s="110"/>
+      <c r="AB47" s="84"/>
+      <c r="AC47" s="85"/>
       <c r="AH47" s="56"/>
+      <c r="AI47" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="7:41" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="88">
+      <c r="S48" s="92">
         <v>45713</v>
       </c>
-      <c r="T48" s="89"/>
+      <c r="T48" s="93"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3547,25 +3664,28 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="108"/>
-      <c r="Z48" s="109"/>
+      <c r="Y48" s="86"/>
+      <c r="Z48" s="87"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="110"/>
+      <c r="AB48" s="84"/>
+      <c r="AC48" s="85"/>
       <c r="AH48" s="56"/>
-    </row>
-    <row r="49" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="AI48" s="76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="13:37" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="88">
+      <c r="S49" s="92">
         <v>45714</v>
       </c>
-      <c r="T49" s="89"/>
+      <c r="T49" s="93"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3575,25 +3695,28 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="108"/>
-      <c r="Z49" s="109"/>
+      <c r="Y49" s="86"/>
+      <c r="Z49" s="87"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="101"/>
-      <c r="AC49" s="110"/>
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="85"/>
       <c r="AH49" s="56"/>
-    </row>
-    <row r="50" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="AI49" s="76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="13:37" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="88">
+      <c r="S50" s="92">
         <v>45716</v>
       </c>
-      <c r="T50" s="89"/>
+      <c r="T50" s="93"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3603,25 +3726,28 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="108"/>
-      <c r="Z50" s="109"/>
+      <c r="Y50" s="86"/>
+      <c r="Z50" s="87"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="101"/>
-      <c r="AC50" s="110"/>
+      <c r="AB50" s="84"/>
+      <c r="AC50" s="85"/>
       <c r="AH50" s="56"/>
-    </row>
-    <row r="51" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="AI50" s="76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="13:37" x14ac:dyDescent="0.35">
       <c r="M51" s="15"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="88">
+      <c r="S51" s="92">
         <v>45719</v>
       </c>
-      <c r="T51" s="89"/>
+      <c r="T51" s="93"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3631,25 +3757,31 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="108"/>
-      <c r="Z51" s="109"/>
+      <c r="Y51" s="86"/>
+      <c r="Z51" s="87"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="101"/>
-      <c r="AC51" s="110"/>
+      <c r="AB51" s="84"/>
+      <c r="AC51" s="85"/>
       <c r="AH51" s="56"/>
-    </row>
-    <row r="52" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="AI51" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="13:37" x14ac:dyDescent="0.35">
       <c r="M52" s="15"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="88">
+      <c r="S52" s="92">
         <v>45723</v>
       </c>
-      <c r="T52" s="89"/>
+      <c r="T52" s="93"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3659,25 +3791,28 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="108"/>
-      <c r="Z52" s="109"/>
+      <c r="Y52" s="86"/>
+      <c r="Z52" s="87"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="101"/>
-      <c r="AC52" s="110"/>
+      <c r="AB52" s="84"/>
+      <c r="AC52" s="85"/>
       <c r="AH52" s="56"/>
-    </row>
-    <row r="53" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="AI52" s="76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="13:37" x14ac:dyDescent="0.35">
       <c r="M53" s="15"/>
-      <c r="N53" s="101"/>
-      <c r="O53" s="102"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="94"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="88">
+      <c r="S53" s="92">
         <v>45724</v>
       </c>
-      <c r="T53" s="89"/>
+      <c r="T53" s="93"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3687,25 +3822,28 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="108"/>
-      <c r="Z53" s="109"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="87"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="101"/>
-      <c r="AC53" s="110"/>
-      <c r="AH53" s="56"/>
-    </row>
-    <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="85"/>
+      <c r="AH53" s="77"/>
+      <c r="AI53" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="13:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="103"/>
-      <c r="O54" s="104"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="96"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="88">
+      <c r="S54" s="92">
         <v>45726</v>
       </c>
-      <c r="T54" s="89"/>
+      <c r="T54" s="93"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -3715,89 +3853,203 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="113"/>
-      <c r="Z54" s="114"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="89"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="101"/>
-      <c r="AC54" s="110"/>
-    </row>
-    <row r="55" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="78" t="s">
+      <c r="AB54" s="84"/>
+      <c r="AC54" s="85"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="78"/>
+      <c r="AJ54" s="78"/>
+      <c r="AK54" s="4"/>
+    </row>
+    <row r="55" spans="13:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M55" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="79"/>
-      <c r="O55" s="105"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="81"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>804500</v>
-      </c>
-      <c r="R55" s="78" t="s">
+        <v>809500</v>
+      </c>
+      <c r="R55" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="79"/>
-      <c r="T55" s="105"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="81"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="78" t="s">
+      <c r="X55" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="79"/>
-      <c r="Z55" s="105"/>
-      <c r="AA55" s="111">
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="81"/>
+      <c r="AA55" s="82">
         <f>SUM(AA27:AA54)</f>
-        <v>50000</v>
-      </c>
-      <c r="AB55" s="112"/>
+        <v>65000</v>
+      </c>
+      <c r="AB55" s="83"/>
       <c r="AC55" s="57"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="78"/>
+      <c r="AJ55" s="78"/>
+      <c r="AK55" s="4"/>
+    </row>
+    <row r="56" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="78"/>
+      <c r="AJ56" s="78"/>
+      <c r="AK56" s="4"/>
+    </row>
+    <row r="57" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="78"/>
+      <c r="AJ57" s="78"/>
+      <c r="AK57" s="4"/>
+    </row>
+    <row r="58" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="78"/>
+      <c r="AJ58" s="78"/>
+      <c r="AK58" s="4"/>
+    </row>
+    <row r="59" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="78"/>
+      <c r="AJ59" s="78"/>
+      <c r="AK59" s="4"/>
+    </row>
+    <row r="60" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="78"/>
+      <c r="AJ60" s="78"/>
+      <c r="AK60" s="4"/>
+    </row>
+    <row r="61" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="78"/>
+      <c r="AJ61" s="78"/>
+      <c r="AK61" s="4"/>
+    </row>
+    <row r="62" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="78"/>
+      <c r="AJ62" s="78"/>
+      <c r="AK62" s="4"/>
+    </row>
+    <row r="63" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="78"/>
+      <c r="AJ63" s="78"/>
+      <c r="AK63" s="4"/>
+    </row>
+    <row r="64" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="78"/>
+      <c r="AJ64" s="78"/>
+      <c r="AK64" s="4"/>
+    </row>
+    <row r="65" spans="34:37" x14ac:dyDescent="0.35">
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="78"/>
+      <c r="AJ65" s="78"/>
+      <c r="AK65" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AH26:AH53">
-    <sortCondition ref="AH26:AH53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AI54:AJ65">
+    <sortCondition ref="AI54:AI65"/>
   </sortState>
-  <mergeCells count="150">
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
+  <mergeCells count="162">
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="S29:T29"/>
     <mergeCell ref="Y46:Z46"/>
     <mergeCell ref="Y37:Z37"/>
     <mergeCell ref="Y38:Z38"/>
@@ -3822,92 +4074,58 @@
     <mergeCell ref="S54:T54"/>
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AI62:AJ62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B20B713-DD7A-4CE0-AEF9-E82F23B2EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CAAB39-F5F5-4D0A-ADDD-97FE583B3066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="72">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -66,9 +66,6 @@
     <t>IBNU</t>
   </si>
   <si>
-    <t>FAJAR/HAMID</t>
-  </si>
-  <si>
     <t>FAJRI</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>racun rumput</t>
   </si>
   <si>
-    <t>listrik 07/04/2025</t>
-  </si>
-  <si>
     <t>lampu kamar fajri 06/04/2025</t>
   </si>
   <si>
@@ -232,6 +226,30 @@
   </si>
   <si>
     <t>sunligt</t>
+  </si>
+  <si>
+    <t>jofan</t>
+  </si>
+  <si>
+    <t>pembangunan</t>
+  </si>
+  <si>
+    <t>beli payung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sedot wc </t>
+  </si>
+  <si>
+    <t>perbaikan wc</t>
+  </si>
+  <si>
+    <t>uang dipegang</t>
+  </si>
+  <si>
+    <t>beli air aki</t>
+  </si>
+  <si>
+    <t>listrik 21/04/2025</t>
   </si>
 </sst>
 </file>
@@ -241,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +301,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -929,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1021,9 +1053,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,6 +1098,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1094,12 +1136,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1423,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,71 +1510,71 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="H3" s="100" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="H3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
-      <c r="M3" s="100" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
+      <c r="M3" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="R3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
-      <c r="R3" s="100" t="s">
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="108"/>
+      <c r="W3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="102"/>
-      <c r="W3" s="100" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="108"/>
+      <c r="AB3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="102"/>
-      <c r="AB3" s="100" t="s">
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="108"/>
+      <c r="AG3" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="108"/>
+      <c r="AL3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="102"/>
-      <c r="AG3" s="100" t="s">
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="108"/>
+      <c r="AQ3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="102"/>
-      <c r="AL3" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="102"/>
-      <c r="AQ3" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="102"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="108"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1679,15 +1715,23 @@
       <c r="K5" s="14">
         <v>50000</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="14"/>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="9">
+        <v>45765</v>
+      </c>
+      <c r="P5" s="14">
+        <v>100000</v>
+      </c>
       <c r="R5" s="23">
         <v>1</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="14">
@@ -1697,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="9">
         <v>45699</v>
@@ -1709,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD5" s="42">
         <v>45692</v>
@@ -1721,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI5" s="9">
         <v>45692</v>
@@ -1733,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="AM5" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" s="73">
         <v>45716</v>
@@ -1745,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="AR5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AS5" s="9">
         <v>45692</v>
@@ -1760,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="60">
         <v>45754</v>
@@ -1771,7 +1815,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="15"/>
       <c r="I6" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="66">
         <v>45697</v>
@@ -1779,7 +1823,9 @@
       <c r="K6" s="14">
         <v>50000</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="15">
+        <v>2</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="16"/>
@@ -1791,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="63">
         <v>45755</v>
@@ -1803,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="AC6" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD6" s="58">
         <v>45737</v>
@@ -1815,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI6" s="54">
         <v>45725</v>
@@ -1825,7 +1871,7 @@
       </c>
       <c r="AL6" s="15"/>
       <c r="AM6" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" s="70">
         <v>45736</v>
@@ -1837,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS6" s="53">
         <v>45722</v>
@@ -1852,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="68">
         <v>45756</v>
@@ -1877,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="X7" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="63">
         <v>45755</v>
@@ -1889,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD7" s="62">
         <v>45755</v>
@@ -1899,7 +1945,7 @@
       </c>
       <c r="AG7" s="15"/>
       <c r="AH7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AI7" s="67">
         <v>45756</v>
@@ -1909,7 +1955,7 @@
       </c>
       <c r="AL7" s="15"/>
       <c r="AM7" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN7" s="70">
         <v>45736</v>
@@ -1921,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AS7" s="62">
         <v>45755</v>
@@ -1963,7 +2009,7 @@
       <c r="AJ8" s="16"/>
       <c r="AL8" s="15"/>
       <c r="AM8" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN8" s="70">
         <v>45758</v>
@@ -2008,9 +2054,15 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="16"/>
       <c r="AL9" s="15"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="75"/>
+      <c r="AM9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" s="79">
+        <v>45767</v>
+      </c>
+      <c r="AO9" s="80">
+        <v>40000</v>
+      </c>
       <c r="AQ9" s="15"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -2498,87 +2550,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="103">
+      <c r="D22" s="84"/>
+      <c r="E22" s="109">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="H22" s="79" t="s">
+      <c r="F22" s="110"/>
+      <c r="H22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="103">
+      <c r="I22" s="84"/>
+      <c r="J22" s="109">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="104"/>
-      <c r="M22" s="79" t="s">
+      <c r="K22" s="110"/>
+      <c r="M22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="80"/>
-      <c r="O22" s="103">
+      <c r="N22" s="84"/>
+      <c r="O22" s="109">
         <f>SUM(P5:P21)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="104"/>
-      <c r="R22" s="79" t="s">
+        <v>100000</v>
+      </c>
+      <c r="P22" s="110"/>
+      <c r="R22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="80"/>
-      <c r="T22" s="103">
+      <c r="S22" s="84"/>
+      <c r="T22" s="109">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="104"/>
-      <c r="W22" s="79" t="s">
+      <c r="U22" s="110"/>
+      <c r="W22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="103">
+      <c r="X22" s="84"/>
+      <c r="Y22" s="109">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="104"/>
-      <c r="AB22" s="79" t="s">
+      <c r="Z22" s="110"/>
+      <c r="AB22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="103">
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="109">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="104"/>
-      <c r="AG22" s="79" t="s">
+      <c r="AE22" s="110"/>
+      <c r="AG22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="103">
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="109">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="104"/>
-      <c r="AL22" s="79" t="s">
+      <c r="AJ22" s="110"/>
+      <c r="AL22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="103">
+      <c r="AM22" s="84"/>
+      <c r="AN22" s="109">
         <f>SUM(AO5:AO21)</f>
-        <v>110000</v>
-      </c>
-      <c r="AO22" s="104"/>
-      <c r="AQ22" s="79" t="s">
+        <v>150000</v>
+      </c>
+      <c r="AO22" s="110"/>
+      <c r="AQ22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="80"/>
-      <c r="AS22" s="103">
+      <c r="AR22" s="84"/>
+      <c r="AS22" s="109">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="104"/>
+      <c r="AT22" s="110"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2587,85 +2639,85 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
-      <c r="R25" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="99"/>
+      <c r="M25" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="103"/>
+      <c r="R25" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="103"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
+      <c r="G26" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
       <c r="M26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="37" t="s">
         <v>20</v>
-      </c>
-      <c r="N26" s="37" t="s">
-        <v>21</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R26" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T26" s="37"/>
       <c r="U26" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V26" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X26" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z26" s="37"/>
       <c r="AA26" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB26" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB26" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC26" s="121"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="75" t="s">
         <v>33</v>
-      </c>
-      <c r="AC26" s="117"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="76" t="s">
-        <v>34</v>
       </c>
       <c r="AJ26">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
+      <c r="B27" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1395000</v>
+        <v>1535000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>2</v>
@@ -2673,46 +2725,46 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="109"/>
+      <c r="N27" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="115"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="112">
+      <c r="S27" s="118">
         <v>45691</v>
       </c>
-      <c r="T27" s="109"/>
+      <c r="T27" s="115"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
       <c r="V27" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="110">
+      <c r="Y27" s="116">
         <v>45727</v>
       </c>
-      <c r="Z27" s="111"/>
+      <c r="Z27" s="117"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC27" s="91"/>
+      <c r="AB27" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC27" s="95"/>
       <c r="AH27" s="56"/>
-      <c r="AI27" s="76" t="s">
-        <v>34</v>
+      <c r="AI27" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="AN27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2720,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="32">
         <v>5000</v>
@@ -2728,64 +2780,64 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="93"/>
+      <c r="N28" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="97"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="92">
+      <c r="S28" s="96">
         <v>45692</v>
       </c>
-      <c r="T28" s="93"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
       <c r="V28" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="86">
+      <c r="Y28" s="90">
         <v>45729</v>
       </c>
-      <c r="Z28" s="87"/>
+      <c r="Z28" s="91"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC28" s="91"/>
+      <c r="AB28" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC28" s="95"/>
       <c r="AH28" s="56"/>
-      <c r="AI28" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN28" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO28" s="113"/>
+      <c r="AI28" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN28" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO28" s="119"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
+      <c r="B29" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1019500</v>
+        <v>1102000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="32">
         <v>330000</v>
@@ -2793,46 +2845,46 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" s="115"/>
+      <c r="N29" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="105"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="92">
+      <c r="S29" s="96">
         <v>45693</v>
       </c>
-      <c r="T29" s="93"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
       <c r="V29" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="86">
+      <c r="Y29" s="90">
         <v>45731</v>
       </c>
-      <c r="Z29" s="87"/>
+      <c r="Z29" s="91"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC29" s="85"/>
+      <c r="AB29" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC29" s="89"/>
       <c r="AH29" s="56"/>
-      <c r="AI29" s="76" t="s">
-        <v>34</v>
+      <c r="AI29" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="AN29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO29">
         <v>28</v>
@@ -2845,63 +2897,63 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" s="93"/>
+      <c r="N30" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="97"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="92">
+      <c r="S30" s="96">
         <v>45694</v>
       </c>
-      <c r="T30" s="93"/>
+      <c r="T30" s="97"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
       <c r="V30" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="86">
+      <c r="Y30" s="90">
         <v>45733</v>
       </c>
-      <c r="Z30" s="87"/>
+      <c r="Z30" s="91"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC30" s="85"/>
+      <c r="AB30" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC30" s="89"/>
       <c r="AH30" s="56"/>
-      <c r="AI30" s="76" t="s">
-        <v>42</v>
+      <c r="AI30" s="75" t="s">
+        <v>41</v>
       </c>
       <c r="AJ30">
         <v>3</v>
       </c>
       <c r="AN30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO30">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
+      <c r="B31" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>375500</v>
+        <v>433000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2909,46 +2961,46 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="93"/>
+      <c r="N31" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="97"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="92">
+      <c r="S31" s="96">
         <v>45695</v>
       </c>
-      <c r="T31" s="93"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
       <c r="V31" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="86">
+      <c r="Y31" s="90">
         <v>45736</v>
       </c>
-      <c r="Z31" s="87"/>
+      <c r="Z31" s="91"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC31" s="85"/>
+      <c r="AB31" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC31" s="89"/>
       <c r="AH31" s="56"/>
-      <c r="AI31" s="76" t="s">
-        <v>42</v>
+      <c r="AI31" s="75" t="s">
+        <v>41</v>
       </c>
       <c r="AN31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO31">
         <v>28</v>
@@ -2961,159 +3013,159 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="O32" s="93"/>
+      <c r="N32" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="97"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="92">
+      <c r="S32" s="96">
         <v>45696</v>
       </c>
-      <c r="T32" s="93"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
       <c r="V32" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="86">
+      <c r="Y32" s="90">
         <v>45741</v>
       </c>
-      <c r="Z32" s="87"/>
+      <c r="Z32" s="91"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC32" s="85"/>
+      <c r="AB32" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC32" s="89"/>
       <c r="AH32" s="56"/>
-      <c r="AI32" s="76" t="s">
-        <v>42</v>
+      <c r="AI32" s="75" t="s">
+        <v>41</v>
       </c>
       <c r="AN32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G33" s="31"/>
       <c r="H33" s="28"/>
       <c r="I33" s="32"/>
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="93"/>
+      <c r="N33" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="97"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="92">
+      <c r="S33" s="96">
         <v>45697</v>
       </c>
-      <c r="T33" s="93"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
       <c r="V33" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="86">
+      <c r="Y33" s="90">
         <v>45752</v>
       </c>
-      <c r="Z33" s="87"/>
+      <c r="Z33" s="91"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC33" s="85"/>
+      <c r="AB33" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" s="89"/>
       <c r="AH33" s="56"/>
-      <c r="AI33" s="76" t="s">
-        <v>35</v>
+      <c r="AI33" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="AJ33">
         <v>6</v>
       </c>
       <c r="AN33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AO33">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G34" s="31"/>
       <c r="H34" s="28"/>
       <c r="I34" s="32"/>
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="O34" s="93"/>
+      <c r="N34" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="97"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="92">
+      <c r="S34" s="96">
         <v>45699</v>
       </c>
-      <c r="T34" s="93"/>
+      <c r="T34" s="97"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
       <c r="V34" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="86">
+      <c r="Y34" s="90">
         <v>45755</v>
       </c>
-      <c r="Z34" s="87"/>
+      <c r="Z34" s="91"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC34" s="91"/>
+      <c r="AB34" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34" s="95"/>
       <c r="AH34" s="56"/>
-      <c r="AI34" s="76" t="s">
-        <v>35</v>
+      <c r="AI34" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="AN34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AO34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G35" s="31"/>
       <c r="H35" s="28"/>
       <c r="I35" s="32"/>
@@ -3121,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="N35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P35" s="61">
         <v>45000</v>
@@ -3129,414 +3181,457 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="92">
+      <c r="S35" s="96">
         <v>45700</v>
       </c>
-      <c r="T35" s="93"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
       <c r="V35" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="86">
+      <c r="Y35" s="90">
         <v>45756</v>
       </c>
-      <c r="Z35" s="87"/>
+      <c r="Z35" s="91"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC35" s="85"/>
+      <c r="AB35" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC35" s="89"/>
       <c r="AH35" s="56"/>
-      <c r="AI35" s="76" t="s">
-        <v>35</v>
+      <c r="AI35" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="AN35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AO35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="81">
+        <f>(E31)-250000-13500</f>
+        <v>169500</v>
+      </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
       <c r="I36" s="32"/>
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="O36" s="93"/>
-      <c r="P36" s="16">
-        <v>102000</v>
-      </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="92">
+      <c r="S36" s="96">
         <v>45700</v>
       </c>
-      <c r="T36" s="93"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
       <c r="V36" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="86">
+      <c r="Y36" s="90">
         <v>45757</v>
       </c>
-      <c r="Z36" s="87"/>
+      <c r="Z36" s="91"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC36" s="85"/>
+      <c r="AB36" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC36" s="89"/>
       <c r="AH36" s="56"/>
-      <c r="AI36" s="76" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="7:41" x14ac:dyDescent="0.35">
+      <c r="AI36" s="75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G37" s="31"/>
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" s="93"/>
+      <c r="N37" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="97"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="92">
+      <c r="S37" s="96">
         <v>45701</v>
       </c>
-      <c r="T37" s="93"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
       <c r="V37" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="86">
+      <c r="Y37" s="90">
         <v>45759</v>
       </c>
-      <c r="Z37" s="87"/>
+      <c r="Z37" s="91"/>
       <c r="AA37" s="46">
         <v>5000</v>
       </c>
-      <c r="AB37" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC37" s="85"/>
+      <c r="AB37" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC37" s="89"/>
       <c r="AH37" s="56"/>
-      <c r="AI37" s="76" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="7:41" x14ac:dyDescent="0.35">
+      <c r="AI37" s="75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G38" s="31"/>
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="O38" s="93"/>
+      <c r="N38" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="O38" s="97"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="92">
+      <c r="S38" s="96">
         <v>45702</v>
       </c>
-      <c r="T38" s="93"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
       <c r="V38" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="86">
+      <c r="Y38" s="90">
         <v>45761</v>
       </c>
-      <c r="Z38" s="87"/>
+      <c r="Z38" s="91"/>
       <c r="AA38" s="46">
         <v>5000</v>
       </c>
-      <c r="AB38" s="84" t="s">
+      <c r="AB38" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC38" s="89"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="AC38" s="85"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="76" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="7:41" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" s="115"/>
+      <c r="N39" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" s="105"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="92">
+      <c r="S39" s="96">
         <v>45703</v>
       </c>
-      <c r="T39" s="93"/>
+      <c r="T39" s="97"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
       <c r="V39" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="86">
+      <c r="Y39" s="90">
         <v>45762</v>
       </c>
-      <c r="Z39" s="87"/>
+      <c r="Z39" s="91"/>
       <c r="AA39" s="46">
         <v>5000</v>
       </c>
-      <c r="AB39" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC39" s="85"/>
+      <c r="AB39" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC39" s="89"/>
       <c r="AH39" s="56"/>
-      <c r="AI39" s="76" t="s">
-        <v>37</v>
+      <c r="AI39" s="75" t="s">
+        <v>36</v>
       </c>
       <c r="AJ39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G40" s="31"/>
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="93"/>
+      <c r="N40" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" s="97"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="92">
+      <c r="S40" s="96">
         <v>45704</v>
       </c>
-      <c r="T40" s="93"/>
+      <c r="T40" s="97"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
       <c r="V40" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="86"/>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="84"/>
-      <c r="AC40" s="85"/>
+      <c r="Y40" s="90">
+        <v>45763</v>
+      </c>
+      <c r="Z40" s="91"/>
+      <c r="AA40" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB40" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC40" s="89"/>
       <c r="AH40" s="56"/>
-      <c r="AI40" s="76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="7:41" x14ac:dyDescent="0.35">
+      <c r="AI40" s="75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G41" s="31"/>
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="93"/>
+      <c r="N41" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41" s="97"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="92">
+      <c r="S41" s="96">
         <v>45705</v>
       </c>
-      <c r="T41" s="93"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
       <c r="V41" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="86"/>
-      <c r="Z41" s="87"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="85"/>
+      <c r="Y41" s="90">
+        <v>45765</v>
+      </c>
+      <c r="Z41" s="91"/>
+      <c r="AA41" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB41" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC41" s="89"/>
       <c r="AH41" s="56"/>
-      <c r="AI41" s="76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="7:41" x14ac:dyDescent="0.35">
+      <c r="AI41" s="75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G42" s="31"/>
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="16"/>
+      <c r="M42" s="15">
+        <v>15</v>
+      </c>
+      <c r="N42" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42" s="105"/>
+      <c r="P42" s="16">
+        <v>10000</v>
+      </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="92">
+      <c r="S42" s="96">
         <v>45707</v>
       </c>
-      <c r="T42" s="93"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
       <c r="V42" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="86"/>
-      <c r="Z42" s="87"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="85"/>
+      <c r="Y42" s="90">
+        <v>45766</v>
+      </c>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB42" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC42" s="89"/>
       <c r="AH42" s="56"/>
-      <c r="AI42" s="76" t="s">
-        <v>36</v>
+      <c r="AI42" s="75" t="s">
+        <v>35</v>
       </c>
       <c r="AJ42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G43" s="31"/>
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="16"/>
+      <c r="M43" s="15">
+        <v>16</v>
+      </c>
+      <c r="N43" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" s="97"/>
+      <c r="P43" s="16">
+        <v>44500</v>
+      </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="92">
+      <c r="S43" s="96">
         <v>45708</v>
       </c>
-      <c r="T43" s="93"/>
+      <c r="T43" s="97"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
       <c r="V43" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="84"/>
-      <c r="AC43" s="85"/>
+      <c r="Y43" s="90">
+        <v>45768</v>
+      </c>
+      <c r="Z43" s="91"/>
+      <c r="AA43" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB43" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC43" s="89"/>
       <c r="AH43" s="56"/>
-      <c r="AI43" s="76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI43" s="75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G44" s="33"/>
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="16"/>
+      <c r="M44" s="15">
+        <v>17</v>
+      </c>
+      <c r="N44" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="O44" s="97"/>
+      <c r="P44" s="16">
+        <v>8000</v>
+      </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="92">
+      <c r="S44" s="96">
         <v>45709</v>
       </c>
-      <c r="T44" s="93"/>
+      <c r="T44" s="97"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
       <c r="V44" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="86"/>
-      <c r="Z44" s="87"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="91"/>
       <c r="AA44" s="46"/>
-      <c r="AB44" s="84"/>
-      <c r="AC44" s="85"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="89"/>
       <c r="AH44" s="56"/>
-      <c r="AI44" s="76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="7:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI44" s="75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G45" s="21"/>
       <c r="H45" s="22" t="s">
         <v>8</v>
@@ -3545,425 +3640,460 @@
         <f>SUM(I28:I44)</f>
         <v>335000</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="16"/>
+      <c r="M45" s="15">
+        <v>18</v>
+      </c>
+      <c r="N45" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="O45" s="97"/>
+      <c r="P45" s="16">
+        <v>102000</v>
+      </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="92">
+      <c r="S45" s="96">
         <v>45710</v>
       </c>
-      <c r="T45" s="93"/>
+      <c r="T45" s="97"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
       <c r="V45" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="86"/>
-      <c r="Z45" s="87"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="91"/>
       <c r="AA45" s="46"/>
-      <c r="AB45" s="84"/>
-      <c r="AC45" s="85"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="89"/>
       <c r="AH45" s="56"/>
-      <c r="AI45" s="76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="7:41" x14ac:dyDescent="0.35">
+      <c r="AI45" s="75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.35">
       <c r="M46" s="15"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
       <c r="P46" s="16"/>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="92">
+      <c r="S46" s="96">
         <v>45711</v>
       </c>
-      <c r="T46" s="93"/>
+      <c r="T46" s="97"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
       <c r="V46" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="86"/>
-      <c r="Z46" s="87"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="91"/>
       <c r="AA46" s="46"/>
-      <c r="AB46" s="84"/>
-      <c r="AC46" s="85"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="89"/>
       <c r="AH46" s="56"/>
-      <c r="AI46" s="76" t="s">
-        <v>43</v>
+      <c r="AI46" s="75" t="s">
+        <v>42</v>
       </c>
       <c r="AJ46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:41" x14ac:dyDescent="0.35">
       <c r="M47" s="15"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
       <c r="P47" s="16"/>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="92">
+      <c r="S47" s="96">
         <v>45712</v>
       </c>
-      <c r="T47" s="93"/>
+      <c r="T47" s="97"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
       <c r="V47" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="86"/>
-      <c r="Z47" s="87"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="91"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="84"/>
-      <c r="AC47" s="85"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="89"/>
       <c r="AH47" s="56"/>
-      <c r="AI47" s="76" t="s">
-        <v>40</v>
+      <c r="AI47" s="75" t="s">
+        <v>39</v>
       </c>
       <c r="AJ47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="7:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:41" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="97"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="92">
+      <c r="S48" s="96">
         <v>45713</v>
       </c>
-      <c r="T48" s="93"/>
+      <c r="T48" s="97"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
       <c r="V48" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="86"/>
-      <c r="Z48" s="87"/>
+      <c r="Y48" s="90"/>
+      <c r="Z48" s="91"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="84"/>
-      <c r="AC48" s="85"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="89"/>
       <c r="AH48" s="56"/>
-      <c r="AI48" s="76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AI48" s="75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="4:37" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
+      <c r="N49" s="97"/>
+      <c r="O49" s="97"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="92">
+      <c r="S49" s="96">
         <v>45714</v>
       </c>
-      <c r="T49" s="93"/>
+      <c r="T49" s="97"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
       <c r="V49" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="86"/>
-      <c r="Z49" s="87"/>
+      <c r="Y49" s="90"/>
+      <c r="Z49" s="91"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="85"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="89"/>
       <c r="AH49" s="56"/>
-      <c r="AI49" s="76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AI49" s="75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="4:37" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
+      <c r="N50" s="97"/>
+      <c r="O50" s="97"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="92">
+      <c r="S50" s="96">
         <v>45716</v>
       </c>
-      <c r="T50" s="93"/>
+      <c r="T50" s="97"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
       <c r="V50" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="86"/>
-      <c r="Z50" s="87"/>
+      <c r="Y50" s="90"/>
+      <c r="Z50" s="91"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="85"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="89"/>
       <c r="AH50" s="56"/>
-      <c r="AI50" s="76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AI50" s="75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="78">
+        <v>250000</v>
+      </c>
       <c r="M51" s="15"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="97"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="92">
+      <c r="S51" s="96">
         <v>45719</v>
       </c>
-      <c r="T51" s="93"/>
+      <c r="T51" s="97"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
       <c r="V51" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="86"/>
-      <c r="Z51" s="87"/>
+      <c r="Y51" s="90"/>
+      <c r="Z51" s="91"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="85"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="89"/>
       <c r="AH51" s="56"/>
-      <c r="AI51" s="76" t="s">
-        <v>38</v>
+      <c r="AI51" s="75" t="s">
+        <v>37</v>
       </c>
       <c r="AJ51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52">
+        <v>42000</v>
+      </c>
       <c r="M52" s="15"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="92">
+      <c r="S52" s="96">
         <v>45723</v>
       </c>
-      <c r="T52" s="93"/>
+      <c r="T52" s="97"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
       <c r="V52" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="86"/>
-      <c r="Z52" s="87"/>
+      <c r="Y52" s="90"/>
+      <c r="Z52" s="91"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="84"/>
-      <c r="AC52" s="85"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="89"/>
       <c r="AH52" s="56"/>
-      <c r="AI52" s="76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="13:37" x14ac:dyDescent="0.35">
+      <c r="AI52" s="75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53">
+        <v>44500</v>
+      </c>
       <c r="M53" s="15"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="94"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="98"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="92">
+      <c r="S53" s="96">
         <v>45724</v>
       </c>
-      <c r="T53" s="93"/>
+      <c r="T53" s="97"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
       <c r="V53" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="86"/>
-      <c r="Z53" s="87"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="91"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="85"/>
-      <c r="AH53" s="77"/>
-      <c r="AI53" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="13:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="89"/>
+      <c r="AH53" s="76"/>
+      <c r="AI53" s="76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="96"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="100"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="92">
+      <c r="S54" s="96">
         <v>45726</v>
       </c>
-      <c r="T54" s="93"/>
+      <c r="T54" s="97"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
       <c r="V54" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="89"/>
+      <c r="Y54" s="92"/>
+      <c r="Z54" s="93"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="85"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="89"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="78"/>
-      <c r="AJ54" s="78"/>
+      <c r="AI54" s="82"/>
+      <c r="AJ54" s="82"/>
       <c r="AK54" s="4"/>
     </row>
-    <row r="55" spans="13:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="79" t="s">
+    <row r="55" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="77">
+        <v>350000</v>
+      </c>
+      <c r="E55">
+        <f>SUM(E51:E53)</f>
+        <v>336500</v>
+      </c>
+      <c r="F55" s="78">
+        <f>(D55-E55)</f>
+        <v>13500</v>
+      </c>
+      <c r="M55" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="80"/>
-      <c r="O55" s="81"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="85"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>809500</v>
-      </c>
-      <c r="R55" s="79" t="s">
+        <v>872000</v>
+      </c>
+      <c r="R55" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="80"/>
-      <c r="T55" s="81"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="85"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="79" t="s">
+      <c r="X55" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="81"/>
-      <c r="AA55" s="82">
+      <c r="Y55" s="84"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="86">
         <f>SUM(AA27:AA54)</f>
-        <v>65000</v>
-      </c>
-      <c r="AB55" s="83"/>
+        <v>85000</v>
+      </c>
+      <c r="AB55" s="87"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="78"/>
-      <c r="AJ55" s="78"/>
+      <c r="AI55" s="82"/>
+      <c r="AJ55" s="82"/>
       <c r="AK55" s="4"/>
     </row>
-    <row r="56" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="78"/>
-      <c r="AJ56" s="78"/>
+      <c r="AI56" s="82"/>
+      <c r="AJ56" s="82"/>
       <c r="AK56" s="4"/>
     </row>
-    <row r="57" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="78"/>
-      <c r="AJ57" s="78"/>
+      <c r="AI57" s="82"/>
+      <c r="AJ57" s="82"/>
       <c r="AK57" s="4"/>
     </row>
-    <row r="58" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH58" s="4"/>
-      <c r="AI58" s="78"/>
-      <c r="AJ58" s="78"/>
+      <c r="AI58" s="82"/>
+      <c r="AJ58" s="82"/>
       <c r="AK58" s="4"/>
     </row>
-    <row r="59" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH59" s="4"/>
-      <c r="AI59" s="78"/>
-      <c r="AJ59" s="78"/>
+      <c r="AI59" s="82"/>
+      <c r="AJ59" s="82"/>
       <c r="AK59" s="4"/>
     </row>
-    <row r="60" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH60" s="4"/>
-      <c r="AI60" s="78"/>
-      <c r="AJ60" s="78"/>
+      <c r="AI60" s="82"/>
+      <c r="AJ60" s="82"/>
       <c r="AK60" s="4"/>
     </row>
-    <row r="61" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH61" s="4"/>
-      <c r="AI61" s="78"/>
-      <c r="AJ61" s="78"/>
+      <c r="AI61" s="82"/>
+      <c r="AJ61" s="82"/>
       <c r="AK61" s="4"/>
     </row>
-    <row r="62" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH62" s="4"/>
-      <c r="AI62" s="78"/>
-      <c r="AJ62" s="78"/>
+      <c r="AI62" s="82"/>
+      <c r="AJ62" s="82"/>
       <c r="AK62" s="4"/>
     </row>
-    <row r="63" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH63" s="4"/>
-      <c r="AI63" s="78"/>
-      <c r="AJ63" s="78"/>
+      <c r="AI63" s="82"/>
+      <c r="AJ63" s="82"/>
       <c r="AK63" s="4"/>
     </row>
-    <row r="64" spans="13:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH64" s="4"/>
-      <c r="AI64" s="78"/>
-      <c r="AJ64" s="78"/>
+      <c r="AI64" s="82"/>
+      <c r="AJ64" s="82"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="34:37" x14ac:dyDescent="0.35">
       <c r="AH65" s="4"/>
-      <c r="AI65" s="78"/>
-      <c r="AJ65" s="78"/>
+      <c r="AI65" s="82"/>
+      <c r="AJ65" s="82"/>
       <c r="AK65" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AI54:AJ65">
     <sortCondition ref="AI54:AI65"/>
   </sortState>
-  <mergeCells count="162">
+  <mergeCells count="161">
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="Y31:Z31"/>
@@ -4043,9 +4173,8 @@
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N36:O36"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="N34:O34"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CAAB39-F5F5-4D0A-ADDD-97FE583B3066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92FF8C2-B104-427E-83AA-3C871493EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>listrik 21/04/2025</t>
+  </si>
+  <si>
+    <t>cetak buku unutk magrib</t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2831,7 +2834,7 @@
       <c r="D29" s="111"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1102000</v>
+        <v>1122000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2953,7 +2956,7 @@
       <c r="D31" s="122"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>433000</v>
+        <v>413000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -3223,7 +3226,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>169500</v>
+        <v>149500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3621,10 +3624,16 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="90"/>
+      <c r="Y44" s="90">
+        <v>45770</v>
+      </c>
       <c r="Z44" s="91"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="88"/>
+      <c r="AA44" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB44" s="88" t="s">
+        <v>35</v>
+      </c>
       <c r="AC44" s="89"/>
       <c r="AH44" s="56"/>
       <c r="AI44" s="75" t="s">
@@ -3666,10 +3675,16 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="90"/>
+      <c r="Y45" s="90">
+        <v>45772</v>
+      </c>
       <c r="Z45" s="91"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="88"/>
+      <c r="AA45" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB45" s="88" t="s">
+        <v>39</v>
+      </c>
       <c r="AC45" s="89"/>
       <c r="AH45" s="56"/>
       <c r="AI45" s="75" t="s">
@@ -3677,10 +3692,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="M46" s="15"/>
-      <c r="N46" s="97"/>
+      <c r="M46" s="15">
+        <v>19</v>
+      </c>
+      <c r="N46" s="97" t="s">
+        <v>72</v>
+      </c>
       <c r="O46" s="97"/>
-      <c r="P46" s="16"/>
+      <c r="P46" s="16">
+        <v>10000</v>
+      </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
@@ -4001,7 +4022,7 @@
       <c r="O55" s="85"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>872000</v>
+        <v>882000</v>
       </c>
       <c r="R55" s="83" t="s">
         <v>8</v>
@@ -4020,7 +4041,7 @@
       <c r="Z55" s="85"/>
       <c r="AA55" s="86">
         <f>SUM(AA27:AA54)</f>
-        <v>85000</v>
+        <v>95000</v>
       </c>
       <c r="AB55" s="87"/>
       <c r="AC55" s="57"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92FF8C2-B104-427E-83AA-3C871493EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6666BD-2EFB-42EF-A3EC-4D178B5EBF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="73">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -964,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1063,6 +1063,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1462,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1524,60 +1525,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="H3" s="106" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="H3" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
-      <c r="M3" s="106" t="s">
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="M3" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="R3" s="106" t="s">
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="R3" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="108"/>
-      <c r="W3" s="106" t="s">
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="109"/>
+      <c r="W3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="108"/>
-      <c r="AB3" s="106" t="s">
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="109"/>
+      <c r="AB3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="108"/>
-      <c r="AG3" s="106" t="s">
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="109"/>
+      <c r="AG3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="108"/>
-      <c r="AL3" s="106" t="s">
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="109"/>
+      <c r="AL3" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="108"/>
-      <c r="AQ3" s="106" t="s">
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="109"/>
+      <c r="AQ3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="109"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2553,87 +2554,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="109">
+      <c r="D22" s="85"/>
+      <c r="E22" s="110">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="110"/>
-      <c r="H22" s="83" t="s">
+      <c r="F22" s="111"/>
+      <c r="H22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="109">
+      <c r="I22" s="85"/>
+      <c r="J22" s="110">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="110"/>
-      <c r="M22" s="83" t="s">
+      <c r="K22" s="111"/>
+      <c r="M22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="84"/>
-      <c r="O22" s="109">
+      <c r="N22" s="85"/>
+      <c r="O22" s="110">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="110"/>
-      <c r="R22" s="83" t="s">
+      <c r="P22" s="111"/>
+      <c r="R22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="84"/>
-      <c r="T22" s="109">
+      <c r="S22" s="85"/>
+      <c r="T22" s="110">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="110"/>
-      <c r="W22" s="83" t="s">
+      <c r="U22" s="111"/>
+      <c r="W22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="109">
+      <c r="X22" s="85"/>
+      <c r="Y22" s="110">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="110"/>
-      <c r="AB22" s="83" t="s">
+      <c r="Z22" s="111"/>
+      <c r="AB22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="109">
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="110">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="110"/>
-      <c r="AG22" s="83" t="s">
+      <c r="AE22" s="111"/>
+      <c r="AG22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="109">
+      <c r="AH22" s="85"/>
+      <c r="AI22" s="110">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="110"/>
-      <c r="AL22" s="83" t="s">
+      <c r="AJ22" s="111"/>
+      <c r="AL22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="109">
+      <c r="AM22" s="85"/>
+      <c r="AN22" s="110">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="110"/>
-      <c r="AQ22" s="83" t="s">
+      <c r="AO22" s="111"/>
+      <c r="AQ22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="109">
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="110">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="110"/>
+      <c r="AT22" s="111"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2642,25 +2643,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="101" t="s">
+      <c r="M25" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="103"/>
-      <c r="R25" s="101" t="s">
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="104"/>
+      <c r="R25" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="104"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="112" t="s">
+      <c r="G26" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="115"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2694,10 +2695,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="120" t="s">
+      <c r="AB26" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="121"/>
+      <c r="AC26" s="122"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2707,11 +2708,11 @@
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
         <v>1535000</v>
@@ -2728,20 +2729,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="115" t="s">
+      <c r="N27" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="115"/>
+      <c r="O27" s="116"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="118">
+      <c r="S27" s="119">
         <v>45691</v>
       </c>
-      <c r="T27" s="115"/>
+      <c r="T27" s="116"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2751,17 +2752,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="116">
+      <c r="Y27" s="117">
         <v>45727</v>
       </c>
-      <c r="Z27" s="117"/>
+      <c r="Z27" s="118"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="94" t="s">
+      <c r="AB27" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="95"/>
+      <c r="AC27" s="96"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2783,20 +2784,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="97" t="s">
+      <c r="N28" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="97"/>
+      <c r="O28" s="98"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="96">
+      <c r="S28" s="97">
         <v>45692</v>
       </c>
-      <c r="T28" s="97"/>
+      <c r="T28" s="98"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2806,35 +2807,35 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="90">
+      <c r="Y28" s="91">
         <v>45729</v>
       </c>
-      <c r="Z28" s="91"/>
+      <c r="Z28" s="92"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="94" t="s">
+      <c r="AB28" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="95"/>
+      <c r="AC28" s="96"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="119" t="s">
+      <c r="AN28" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="119"/>
+      <c r="AO28" s="120"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1122000</v>
+        <v>1142000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2848,20 +2849,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="104" t="s">
+      <c r="N29" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="105"/>
+      <c r="O29" s="106"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="96">
+      <c r="S29" s="97">
         <v>45693</v>
       </c>
-      <c r="T29" s="97"/>
+      <c r="T29" s="98"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2871,17 +2872,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="90">
+      <c r="Y29" s="91">
         <v>45731</v>
       </c>
-      <c r="Z29" s="91"/>
+      <c r="Z29" s="92"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="88" t="s">
+      <c r="AB29" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="AC29" s="89"/>
+      <c r="AC29" s="90"/>
       <c r="AH29" s="56"/>
       <c r="AI29" s="75" t="s">
         <v>33</v>
@@ -2900,20 +2901,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="97" t="s">
+      <c r="N30" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="97"/>
+      <c r="O30" s="98"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="96">
+      <c r="S30" s="97">
         <v>45694</v>
       </c>
-      <c r="T30" s="97"/>
+      <c r="T30" s="98"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2923,17 +2924,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="90">
+      <c r="Y30" s="91">
         <v>45733</v>
       </c>
-      <c r="Z30" s="91"/>
+      <c r="Z30" s="92"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="88" t="s">
+      <c r="AB30" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" s="89"/>
+      <c r="AC30" s="90"/>
       <c r="AH30" s="56"/>
       <c r="AI30" s="75" t="s">
         <v>41</v>
@@ -2949,14 +2950,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>413000</v>
+        <v>393000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="28"/>
@@ -2964,20 +2965,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="97" t="s">
+      <c r="N31" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="97"/>
+      <c r="O31" s="98"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="96">
+      <c r="S31" s="97">
         <v>45695</v>
       </c>
-      <c r="T31" s="97"/>
+      <c r="T31" s="98"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -2987,17 +2988,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="90">
+      <c r="Y31" s="91">
         <v>45736</v>
       </c>
-      <c r="Z31" s="91"/>
+      <c r="Z31" s="92"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="88" t="s">
+      <c r="AB31" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AC31" s="89"/>
+      <c r="AC31" s="90"/>
       <c r="AH31" s="56"/>
       <c r="AI31" s="75" t="s">
         <v>41</v>
@@ -3016,20 +3017,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="97" t="s">
+      <c r="N32" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="97"/>
+      <c r="O32" s="98"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="96">
+      <c r="S32" s="97">
         <v>45696</v>
       </c>
-      <c r="T32" s="97"/>
+      <c r="T32" s="98"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -3039,17 +3040,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="90">
+      <c r="Y32" s="91">
         <v>45741</v>
       </c>
-      <c r="Z32" s="91"/>
+      <c r="Z32" s="92"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="88" t="s">
+      <c r="AB32" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="AC32" s="89"/>
+      <c r="AC32" s="90"/>
       <c r="AH32" s="56"/>
       <c r="AI32" s="75" t="s">
         <v>41</v>
@@ -3068,20 +3069,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="97" t="s">
+      <c r="N33" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="97"/>
+      <c r="O33" s="98"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="96">
+      <c r="S33" s="97">
         <v>45697</v>
       </c>
-      <c r="T33" s="97"/>
+      <c r="T33" s="98"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3091,17 +3092,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="90">
+      <c r="Y33" s="91">
         <v>45752</v>
       </c>
-      <c r="Z33" s="91"/>
+      <c r="Z33" s="92"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="88" t="s">
+      <c r="AB33" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="AC33" s="89"/>
+      <c r="AC33" s="90"/>
       <c r="AH33" s="56"/>
       <c r="AI33" s="75" t="s">
         <v>34</v>
@@ -3123,20 +3124,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="97" t="s">
+      <c r="N34" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="97"/>
+      <c r="O34" s="98"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="96">
+      <c r="S34" s="97">
         <v>45699</v>
       </c>
-      <c r="T34" s="97"/>
+      <c r="T34" s="98"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3146,17 +3147,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="90">
+      <c r="Y34" s="91">
         <v>45755</v>
       </c>
-      <c r="Z34" s="91"/>
+      <c r="Z34" s="92"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="94" t="s">
+      <c r="AB34" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="95"/>
+      <c r="AC34" s="96"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3184,10 +3185,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="96">
+      <c r="S35" s="97">
         <v>45700</v>
       </c>
-      <c r="T35" s="97"/>
+      <c r="T35" s="98"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3197,17 +3198,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="90">
+      <c r="Y35" s="91">
         <v>45756</v>
       </c>
-      <c r="Z35" s="91"/>
+      <c r="Z35" s="92"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="88" t="s">
+      <c r="AB35" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="AC35" s="89"/>
+      <c r="AC35" s="90"/>
       <c r="AH35" s="56"/>
       <c r="AI35" s="75" t="s">
         <v>34</v>
@@ -3226,7 +3227,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>149500</v>
+        <v>129500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3237,10 +3238,10 @@
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="96">
+      <c r="S36" s="97">
         <v>45700</v>
       </c>
-      <c r="T36" s="97"/>
+      <c r="T36" s="98"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3250,17 +3251,17 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="90">
+      <c r="Y36" s="91">
         <v>45757</v>
       </c>
-      <c r="Z36" s="91"/>
+      <c r="Z36" s="92"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="88" t="s">
+      <c r="AB36" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AC36" s="89"/>
+      <c r="AC36" s="90"/>
       <c r="AH36" s="56"/>
       <c r="AI36" s="75" t="s">
         <v>34</v>
@@ -3273,20 +3274,20 @@
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="97" t="s">
+      <c r="N37" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="97"/>
+      <c r="O37" s="98"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="96">
+      <c r="S37" s="97">
         <v>45701</v>
       </c>
-      <c r="T37" s="97"/>
+      <c r="T37" s="98"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3296,17 +3297,17 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="90">
+      <c r="Y37" s="91">
         <v>45759</v>
       </c>
-      <c r="Z37" s="91"/>
+      <c r="Z37" s="92"/>
       <c r="AA37" s="46">
         <v>5000</v>
       </c>
-      <c r="AB37" s="88" t="s">
+      <c r="AB37" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="89"/>
+      <c r="AC37" s="90"/>
       <c r="AH37" s="56"/>
       <c r="AI37" s="75" t="s">
         <v>34</v>
@@ -3319,20 +3320,20 @@
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="97" t="s">
+      <c r="N38" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="97"/>
+      <c r="O38" s="98"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="96">
+      <c r="S38" s="97">
         <v>45702</v>
       </c>
-      <c r="T38" s="97"/>
+      <c r="T38" s="98"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3342,17 +3343,17 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="90">
+      <c r="Y38" s="91">
         <v>45761</v>
       </c>
-      <c r="Z38" s="91"/>
+      <c r="Z38" s="92"/>
       <c r="AA38" s="46">
         <v>5000</v>
       </c>
-      <c r="AB38" s="88" t="s">
+      <c r="AB38" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="AC38" s="89"/>
+      <c r="AC38" s="90"/>
       <c r="AH38" s="56"/>
       <c r="AI38" s="75" t="s">
         <v>34</v>
@@ -3365,20 +3366,20 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="104" t="s">
+      <c r="N39" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="105"/>
+      <c r="O39" s="106"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="96">
+      <c r="S39" s="97">
         <v>45703</v>
       </c>
-      <c r="T39" s="97"/>
+      <c r="T39" s="98"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3388,17 +3389,17 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="90">
+      <c r="Y39" s="91">
         <v>45762</v>
       </c>
-      <c r="Z39" s="91"/>
+      <c r="Z39" s="92"/>
       <c r="AA39" s="46">
         <v>5000</v>
       </c>
-      <c r="AB39" s="88" t="s">
+      <c r="AB39" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="89"/>
+      <c r="AC39" s="90"/>
       <c r="AH39" s="56"/>
       <c r="AI39" s="75" t="s">
         <v>36</v>
@@ -3414,20 +3415,20 @@
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="97" t="s">
+      <c r="N40" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="97"/>
+      <c r="O40" s="98"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="96">
+      <c r="S40" s="97">
         <v>45704</v>
       </c>
-      <c r="T40" s="97"/>
+      <c r="T40" s="98"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3437,17 +3438,17 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="90">
+      <c r="Y40" s="91">
         <v>45763</v>
       </c>
-      <c r="Z40" s="91"/>
+      <c r="Z40" s="92"/>
       <c r="AA40" s="46">
         <v>5000</v>
       </c>
-      <c r="AB40" s="88" t="s">
+      <c r="AB40" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="AC40" s="89"/>
+      <c r="AC40" s="90"/>
       <c r="AH40" s="56"/>
       <c r="AI40" s="75" t="s">
         <v>36</v>
@@ -3460,20 +3461,20 @@
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="97" t="s">
+      <c r="N41" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="97"/>
+      <c r="O41" s="98"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="96">
+      <c r="S41" s="97">
         <v>45705</v>
       </c>
-      <c r="T41" s="97"/>
+      <c r="T41" s="98"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3483,17 +3484,17 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="90">
+      <c r="Y41" s="91">
         <v>45765</v>
       </c>
-      <c r="Z41" s="91"/>
+      <c r="Z41" s="92"/>
       <c r="AA41" s="46">
         <v>5000</v>
       </c>
-      <c r="AB41" s="88" t="s">
+      <c r="AB41" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AC41" s="89"/>
+      <c r="AC41" s="90"/>
       <c r="AH41" s="56"/>
       <c r="AI41" s="75" t="s">
         <v>43</v>
@@ -3506,20 +3507,20 @@
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="104" t="s">
+      <c r="N42" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="105"/>
+      <c r="O42" s="106"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="96">
+      <c r="S42" s="97">
         <v>45707</v>
       </c>
-      <c r="T42" s="97"/>
+      <c r="T42" s="98"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3529,17 +3530,17 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="90">
+      <c r="Y42" s="91">
         <v>45766</v>
       </c>
-      <c r="Z42" s="91"/>
+      <c r="Z42" s="92"/>
       <c r="AA42" s="46">
         <v>5000</v>
       </c>
-      <c r="AB42" s="88" t="s">
+      <c r="AB42" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="AC42" s="89"/>
+      <c r="AC42" s="90"/>
       <c r="AH42" s="56"/>
       <c r="AI42" s="75" t="s">
         <v>35</v>
@@ -3555,20 +3556,20 @@
       <c r="M43" s="15">
         <v>16</v>
       </c>
-      <c r="N43" s="97" t="s">
+      <c r="N43" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="97"/>
+      <c r="O43" s="98"/>
       <c r="P43" s="16">
         <v>44500</v>
       </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="96">
+      <c r="S43" s="97">
         <v>45708</v>
       </c>
-      <c r="T43" s="97"/>
+      <c r="T43" s="98"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3578,17 +3579,17 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="90">
+      <c r="Y43" s="91">
         <v>45768</v>
       </c>
-      <c r="Z43" s="91"/>
+      <c r="Z43" s="92"/>
       <c r="AA43" s="46">
         <v>5000</v>
       </c>
-      <c r="AB43" s="88" t="s">
+      <c r="AB43" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" s="89"/>
+      <c r="AC43" s="90"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="75" t="s">
         <v>35</v>
@@ -3601,20 +3602,20 @@
       <c r="M44" s="15">
         <v>17</v>
       </c>
-      <c r="N44" s="97" t="s">
+      <c r="N44" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="97"/>
+      <c r="O44" s="98"/>
       <c r="P44" s="16">
         <v>8000</v>
       </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="96">
+      <c r="S44" s="97">
         <v>45709</v>
       </c>
-      <c r="T44" s="97"/>
+      <c r="T44" s="98"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3624,17 +3625,17 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="90">
+      <c r="Y44" s="91">
         <v>45770</v>
       </c>
-      <c r="Z44" s="91"/>
+      <c r="Z44" s="92"/>
       <c r="AA44" s="46">
         <v>5000</v>
       </c>
-      <c r="AB44" s="88" t="s">
+      <c r="AB44" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AC44" s="89"/>
+      <c r="AC44" s="90"/>
       <c r="AH44" s="56"/>
       <c r="AI44" s="75" t="s">
         <v>35</v>
@@ -3652,20 +3653,20 @@
       <c r="M45" s="15">
         <v>18</v>
       </c>
-      <c r="N45" s="97" t="s">
+      <c r="N45" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="97"/>
+      <c r="O45" s="98"/>
       <c r="P45" s="16">
         <v>102000</v>
       </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="96">
+      <c r="S45" s="97">
         <v>45710</v>
       </c>
-      <c r="T45" s="97"/>
+      <c r="T45" s="98"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3675,17 +3676,17 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="90">
+      <c r="Y45" s="91">
         <v>45772</v>
       </c>
-      <c r="Z45" s="91"/>
+      <c r="Z45" s="92"/>
       <c r="AA45" s="46">
         <v>5000</v>
       </c>
-      <c r="AB45" s="88" t="s">
+      <c r="AB45" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="AC45" s="89"/>
+      <c r="AC45" s="90"/>
       <c r="AH45" s="56"/>
       <c r="AI45" s="75" t="s">
         <v>35</v>
@@ -3695,20 +3696,20 @@
       <c r="M46" s="15">
         <v>19</v>
       </c>
-      <c r="N46" s="97" t="s">
+      <c r="N46" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="O46" s="97"/>
+      <c r="O46" s="98"/>
       <c r="P46" s="16">
         <v>10000</v>
       </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="96">
+      <c r="S46" s="97">
         <v>45711</v>
       </c>
-      <c r="T46" s="97"/>
+      <c r="T46" s="98"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3718,11 +3719,17 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="91"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="89"/>
+      <c r="Y46" s="91">
+        <v>45774</v>
+      </c>
+      <c r="Z46" s="92"/>
+      <c r="AA46" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB46" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC46" s="90"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="75" t="s">
         <v>42</v>
@@ -3732,17 +3739,23 @@
       </c>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="M47" s="15"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="16"/>
+      <c r="M47" s="15">
+        <v>20</v>
+      </c>
+      <c r="N47" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" s="106"/>
+      <c r="P47" s="16">
+        <v>10000</v>
+      </c>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="96">
+      <c r="S47" s="97">
         <v>45712</v>
       </c>
-      <c r="T47" s="97"/>
+      <c r="T47" s="98"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3752,11 +3765,17 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="90"/>
-      <c r="Z47" s="91"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="89"/>
+      <c r="Y47" s="91">
+        <v>45775</v>
+      </c>
+      <c r="Z47" s="92"/>
+      <c r="AA47" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB47" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC47" s="82"/>
       <c r="AH47" s="56"/>
       <c r="AI47" s="75" t="s">
         <v>39</v>
@@ -3767,16 +3786,16 @@
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.35">
       <c r="M48" s="15"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="98"/>
       <c r="P48" s="16"/>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="96">
+      <c r="S48" s="97">
         <v>45713</v>
       </c>
-      <c r="T48" s="97"/>
+      <c r="T48" s="98"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3786,11 +3805,11 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="91"/>
+      <c r="Y48" s="91"/>
+      <c r="Z48" s="92"/>
       <c r="AA48" s="46"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="89"/>
+      <c r="AB48" s="89"/>
+      <c r="AC48" s="90"/>
       <c r="AH48" s="56"/>
       <c r="AI48" s="75" t="s">
         <v>39</v>
@@ -3798,16 +3817,16 @@
     </row>
     <row r="49" spans="4:37" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="96">
+      <c r="S49" s="97">
         <v>45714</v>
       </c>
-      <c r="T49" s="97"/>
+      <c r="T49" s="98"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3817,11 +3836,11 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="90"/>
-      <c r="Z49" s="91"/>
+      <c r="Y49" s="91"/>
+      <c r="Z49" s="92"/>
       <c r="AA49" s="46"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="89"/>
+      <c r="AB49" s="89"/>
+      <c r="AC49" s="90"/>
       <c r="AH49" s="56"/>
       <c r="AI49" s="75" t="s">
         <v>39</v>
@@ -3829,16 +3848,16 @@
     </row>
     <row r="50" spans="4:37" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="97"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="96">
+      <c r="S50" s="97">
         <v>45716</v>
       </c>
-      <c r="T50" s="97"/>
+      <c r="T50" s="98"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3848,11 +3867,11 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="91"/>
+      <c r="Y50" s="91"/>
+      <c r="Z50" s="92"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="89"/>
+      <c r="AB50" s="89"/>
+      <c r="AC50" s="90"/>
       <c r="AH50" s="56"/>
       <c r="AI50" s="75" t="s">
         <v>39</v>
@@ -3866,16 +3885,16 @@
         <v>250000</v>
       </c>
       <c r="M51" s="15"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="97"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="96">
+      <c r="S51" s="97">
         <v>45719</v>
       </c>
-      <c r="T51" s="97"/>
+      <c r="T51" s="98"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3885,11 +3904,11 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="90"/>
-      <c r="Z51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="92"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="89"/>
+      <c r="AB51" s="89"/>
+      <c r="AC51" s="90"/>
       <c r="AH51" s="56"/>
       <c r="AI51" s="75" t="s">
         <v>37</v>
@@ -3906,16 +3925,16 @@
         <v>42000</v>
       </c>
       <c r="M52" s="15"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="96">
+      <c r="S52" s="97">
         <v>45723</v>
       </c>
-      <c r="T52" s="97"/>
+      <c r="T52" s="98"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -3925,11 +3944,11 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="90"/>
-      <c r="Z52" s="91"/>
+      <c r="Y52" s="91"/>
+      <c r="Z52" s="92"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="89"/>
+      <c r="AB52" s="89"/>
+      <c r="AC52" s="90"/>
       <c r="AH52" s="56"/>
       <c r="AI52" s="75" t="s">
         <v>37</v>
@@ -3943,16 +3962,16 @@
         <v>44500</v>
       </c>
       <c r="M53" s="15"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="98"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="99"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="96">
+      <c r="S53" s="97">
         <v>45724</v>
       </c>
-      <c r="T53" s="97"/>
+      <c r="T53" s="98"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -3962,11 +3981,11 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="91"/>
+      <c r="Y53" s="91"/>
+      <c r="Z53" s="92"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="89"/>
+      <c r="AB53" s="89"/>
+      <c r="AC53" s="90"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76" t="s">
         <v>37</v>
@@ -3974,16 +3993,16 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="101"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="96">
+      <c r="S54" s="97">
         <v>45726</v>
       </c>
-      <c r="T54" s="97"/>
+      <c r="T54" s="98"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -3993,14 +4012,14 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="92"/>
-      <c r="Z54" s="93"/>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="94"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="88"/>
-      <c r="AC54" s="89"/>
+      <c r="AB54" s="89"/>
+      <c r="AC54" s="90"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="82"/>
-      <c r="AJ54" s="82"/>
+      <c r="AI54" s="83"/>
+      <c r="AJ54" s="83"/>
       <c r="AK54" s="4"/>
     </row>
     <row r="55" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4015,106 +4034,106 @@
         <f>(D55-E55)</f>
         <v>13500</v>
       </c>
-      <c r="M55" s="83" t="s">
+      <c r="M55" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="84"/>
-      <c r="O55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="86"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>882000</v>
-      </c>
-      <c r="R55" s="83" t="s">
+        <v>892000</v>
+      </c>
+      <c r="R55" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="84"/>
-      <c r="T55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="86"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="83" t="s">
+      <c r="X55" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="85"/>
-      <c r="AA55" s="86">
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="86"/>
+      <c r="AA55" s="87">
         <f>SUM(AA27:AA54)</f>
-        <v>95000</v>
-      </c>
-      <c r="AB55" s="87"/>
+        <v>105000</v>
+      </c>
+      <c r="AB55" s="88"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="82"/>
-      <c r="AJ55" s="82"/>
+      <c r="AI55" s="83"/>
+      <c r="AJ55" s="83"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="82"/>
-      <c r="AJ56" s="82"/>
+      <c r="AI56" s="83"/>
+      <c r="AJ56" s="83"/>
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="82"/>
-      <c r="AJ57" s="82"/>
+      <c r="AI57" s="83"/>
+      <c r="AJ57" s="83"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH58" s="4"/>
-      <c r="AI58" s="82"/>
-      <c r="AJ58" s="82"/>
+      <c r="AI58" s="83"/>
+      <c r="AJ58" s="83"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH59" s="4"/>
-      <c r="AI59" s="82"/>
-      <c r="AJ59" s="82"/>
+      <c r="AI59" s="83"/>
+      <c r="AJ59" s="83"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH60" s="4"/>
-      <c r="AI60" s="82"/>
-      <c r="AJ60" s="82"/>
+      <c r="AI60" s="83"/>
+      <c r="AJ60" s="83"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH61" s="4"/>
-      <c r="AI61" s="82"/>
-      <c r="AJ61" s="82"/>
+      <c r="AI61" s="83"/>
+      <c r="AJ61" s="83"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH62" s="4"/>
-      <c r="AI62" s="82"/>
-      <c r="AJ62" s="82"/>
+      <c r="AI62" s="83"/>
+      <c r="AJ62" s="83"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH63" s="4"/>
-      <c r="AI63" s="82"/>
-      <c r="AJ63" s="82"/>
+      <c r="AI63" s="83"/>
+      <c r="AJ63" s="83"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH64" s="4"/>
-      <c r="AI64" s="82"/>
-      <c r="AJ64" s="82"/>
+      <c r="AI64" s="83"/>
+      <c r="AJ64" s="83"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="34:37" x14ac:dyDescent="0.35">
       <c r="AH65" s="4"/>
-      <c r="AI65" s="82"/>
-      <c r="AJ65" s="82"/>
+      <c r="AI65" s="83"/>
+      <c r="AJ65" s="83"/>
       <c r="AK65" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AI54:AJ65">
     <sortCondition ref="AI54:AI65"/>
   </sortState>
-  <mergeCells count="161">
+  <mergeCells count="160">
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="Y31:Z31"/>
@@ -4251,7 +4270,6 @@
     <mergeCell ref="AB38:AC38"/>
     <mergeCell ref="X55:Z55"/>
     <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB47:AC47"/>
     <mergeCell ref="AB48:AC48"/>
     <mergeCell ref="AB49:AC49"/>
     <mergeCell ref="AB50:AC50"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6666BD-2EFB-42EF-A3EC-4D178B5EBF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AE161-69C5-4A77-BB7A-4FF58C654314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="75">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -253,6 +254,12 @@
   </si>
   <si>
     <t>cetak buku unutk magrib</t>
+  </si>
+  <si>
+    <t>sumbangan bg jou</t>
+  </si>
+  <si>
+    <t>jual tv</t>
   </si>
 </sst>
 </file>
@@ -964,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,35 +1071,43 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,24 +1123,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1139,14 +1140,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="T21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1525,60 +1537,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="H3" s="107" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="H3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="109"/>
-      <c r="M3" s="107" t="s">
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="M3" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="109"/>
-      <c r="R3" s="107" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
+      <c r="R3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="109"/>
-      <c r="W3" s="107" t="s">
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="86"/>
+      <c r="W3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="109"/>
-      <c r="AB3" s="107" t="s">
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="86"/>
+      <c r="AB3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="109"/>
-      <c r="AG3" s="107" t="s">
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AG3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="109"/>
-      <c r="AL3" s="107" t="s">
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="86"/>
+      <c r="AL3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="109"/>
-      <c r="AQ3" s="107" t="s">
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="86"/>
+      <c r="AQ3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="109"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="86"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2554,87 +2566,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="110">
+      <c r="D22" s="88"/>
+      <c r="E22" s="89">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="H22" s="84" t="s">
+      <c r="F22" s="90"/>
+      <c r="H22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="85"/>
-      <c r="J22" s="110">
+      <c r="I22" s="88"/>
+      <c r="J22" s="89">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="111"/>
-      <c r="M22" s="84" t="s">
+      <c r="K22" s="90"/>
+      <c r="M22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="85"/>
-      <c r="O22" s="110">
+      <c r="N22" s="88"/>
+      <c r="O22" s="89">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="111"/>
-      <c r="R22" s="84" t="s">
+      <c r="P22" s="90"/>
+      <c r="R22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="110">
+      <c r="S22" s="88"/>
+      <c r="T22" s="89">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="111"/>
-      <c r="W22" s="84" t="s">
+      <c r="U22" s="90"/>
+      <c r="W22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="110">
+      <c r="X22" s="88"/>
+      <c r="Y22" s="89">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="111"/>
-      <c r="AB22" s="84" t="s">
+      <c r="Z22" s="90"/>
+      <c r="AB22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="110">
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="89">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="111"/>
-      <c r="AG22" s="84" t="s">
+      <c r="AE22" s="90"/>
+      <c r="AG22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="110">
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="89">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="111"/>
-      <c r="AL22" s="84" t="s">
+      <c r="AJ22" s="90"/>
+      <c r="AL22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="110">
+      <c r="AM22" s="88"/>
+      <c r="AN22" s="89">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="111"/>
-      <c r="AQ22" s="84" t="s">
+      <c r="AO22" s="90"/>
+      <c r="AQ22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="110">
+      <c r="AR22" s="88"/>
+      <c r="AS22" s="89">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="111"/>
+      <c r="AT22" s="90"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2643,25 +2655,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="102" t="s">
+      <c r="M25" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="104"/>
-      <c r="R25" s="102" t="s">
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="102"/>
+      <c r="R25" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="104"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="102"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="113" t="s">
+      <c r="G26" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2695,10 +2707,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="121" t="s">
+      <c r="AB26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="122"/>
+      <c r="AC26" s="92"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2706,16 +2718,19 @@
       <c r="AJ26">
         <v>4</v>
       </c>
+      <c r="AK26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1535000</v>
+        <v>1835000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2729,20 +2744,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="116" t="s">
+      <c r="N27" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="116"/>
+      <c r="O27" s="112"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="119">
+      <c r="S27" s="115">
         <v>45691</v>
       </c>
-      <c r="T27" s="116"/>
+      <c r="T27" s="112"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2752,17 +2767,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="117">
+      <c r="Y27" s="113">
         <v>45727</v>
       </c>
-      <c r="Z27" s="118"/>
+      <c r="Z27" s="114"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="95" t="s">
+      <c r="AB27" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="96"/>
+      <c r="AC27" s="94"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2807,35 +2822,35 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="91">
+      <c r="Y28" s="105">
         <v>45729</v>
       </c>
-      <c r="Z28" s="92"/>
+      <c r="Z28" s="106"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="95" t="s">
+      <c r="AB28" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="96"/>
+      <c r="AC28" s="94"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="120" t="s">
+      <c r="AN28" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="120"/>
+      <c r="AO28" s="99"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1142000</v>
+        <v>1152000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2849,10 +2864,10 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="105" t="s">
+      <c r="N29" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="106"/>
+      <c r="O29" s="104"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
@@ -2872,17 +2887,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="91">
+      <c r="Y29" s="105">
         <v>45731</v>
       </c>
-      <c r="Z29" s="92"/>
+      <c r="Z29" s="106"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="89" t="s">
+      <c r="AB29" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AC29" s="90"/>
+      <c r="AC29" s="108"/>
       <c r="AH29" s="56"/>
       <c r="AI29" s="75" t="s">
         <v>33</v>
@@ -2895,9 +2910,15 @@
       </c>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="G30" s="31"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="32"/>
+      <c r="G30" s="31">
+        <v>3</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="32">
+        <v>200000</v>
+      </c>
       <c r="M30" s="15">
         <v>4</v>
       </c>
@@ -2924,17 +2945,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="91">
+      <c r="Y30" s="105">
         <v>45733</v>
       </c>
-      <c r="Z30" s="92"/>
+      <c r="Z30" s="106"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="89" t="s">
+      <c r="AB30" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" s="90"/>
+      <c r="AC30" s="108"/>
       <c r="AH30" s="56"/>
       <c r="AI30" s="75" t="s">
         <v>41</v>
@@ -2942,6 +2963,9 @@
       <c r="AJ30">
         <v>3</v>
       </c>
+      <c r="AK30">
+        <v>4</v>
+      </c>
       <c r="AN30" t="s">
         <v>58</v>
       </c>
@@ -2950,18 +2974,24 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>393000</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="32"/>
+        <v>683000</v>
+      </c>
+      <c r="G31" s="31">
+        <v>4</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="32">
+        <v>100000</v>
+      </c>
       <c r="M31" s="15">
         <v>5</v>
       </c>
@@ -2988,17 +3018,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="91">
+      <c r="Y31" s="105">
         <v>45736</v>
       </c>
-      <c r="Z31" s="92"/>
+      <c r="Z31" s="106"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="89" t="s">
+      <c r="AB31" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="AC31" s="90"/>
+      <c r="AC31" s="108"/>
       <c r="AH31" s="56"/>
       <c r="AI31" s="75" t="s">
         <v>41</v>
@@ -3040,17 +3070,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="91">
+      <c r="Y32" s="105">
         <v>45741</v>
       </c>
-      <c r="Z32" s="92"/>
+      <c r="Z32" s="106"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="89" t="s">
+      <c r="AB32" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AC32" s="90"/>
+      <c r="AC32" s="108"/>
       <c r="AH32" s="56"/>
       <c r="AI32" s="75" t="s">
         <v>41</v>
@@ -3092,23 +3122,26 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="91">
+      <c r="Y33" s="105">
         <v>45752</v>
       </c>
-      <c r="Z33" s="92"/>
+      <c r="Z33" s="106"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="89" t="s">
+      <c r="AB33" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AC33" s="90"/>
+      <c r="AC33" s="108"/>
       <c r="AH33" s="56"/>
       <c r="AI33" s="75" t="s">
         <v>34</v>
       </c>
       <c r="AJ33">
         <v>6</v>
+      </c>
+      <c r="AK33">
+        <v>2</v>
       </c>
       <c r="AN33" t="s">
         <v>35</v>
@@ -3147,17 +3180,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="91">
+      <c r="Y34" s="105">
         <v>45755</v>
       </c>
-      <c r="Z34" s="92"/>
+      <c r="Z34" s="106"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="95" t="s">
+      <c r="AB34" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="96"/>
+      <c r="AC34" s="94"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3198,17 +3231,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="91">
+      <c r="Y35" s="105">
         <v>45756</v>
       </c>
-      <c r="Z35" s="92"/>
+      <c r="Z35" s="106"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="89" t="s">
+      <c r="AB35" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AC35" s="90"/>
+      <c r="AC35" s="108"/>
       <c r="AH35" s="56"/>
       <c r="AI35" s="75" t="s">
         <v>34</v>
@@ -3227,7 +3260,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>129500</v>
+        <v>419500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3251,17 +3284,17 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="91">
+      <c r="Y36" s="105">
         <v>45757</v>
       </c>
-      <c r="Z36" s="92"/>
+      <c r="Z36" s="106"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="89" t="s">
+      <c r="AB36" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="AC36" s="90"/>
+      <c r="AC36" s="108"/>
       <c r="AH36" s="56"/>
       <c r="AI36" s="75" t="s">
         <v>34</v>
@@ -3297,17 +3330,17 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="91">
+      <c r="Y37" s="105">
         <v>45759</v>
       </c>
-      <c r="Z37" s="92"/>
+      <c r="Z37" s="106"/>
       <c r="AA37" s="46">
         <v>5000</v>
       </c>
-      <c r="AB37" s="89" t="s">
+      <c r="AB37" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="90"/>
+      <c r="AC37" s="108"/>
       <c r="AH37" s="56"/>
       <c r="AI37" s="75" t="s">
         <v>34</v>
@@ -3343,17 +3376,17 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="91">
+      <c r="Y38" s="105">
         <v>45761</v>
       </c>
-      <c r="Z38" s="92"/>
+      <c r="Z38" s="106"/>
       <c r="AA38" s="46">
         <v>5000</v>
       </c>
-      <c r="AB38" s="89" t="s">
+      <c r="AB38" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AC38" s="90"/>
+      <c r="AC38" s="108"/>
       <c r="AH38" s="56"/>
       <c r="AI38" s="75" t="s">
         <v>34</v>
@@ -3366,10 +3399,10 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="105" t="s">
+      <c r="N39" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="106"/>
+      <c r="O39" s="104"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
@@ -3389,22 +3422,25 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="91">
+      <c r="Y39" s="105">
         <v>45762</v>
       </c>
-      <c r="Z39" s="92"/>
+      <c r="Z39" s="106"/>
       <c r="AA39" s="46">
         <v>5000</v>
       </c>
-      <c r="AB39" s="89" t="s">
+      <c r="AB39" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="90"/>
+      <c r="AC39" s="108"/>
       <c r="AH39" s="56"/>
       <c r="AI39" s="75" t="s">
         <v>36</v>
       </c>
       <c r="AJ39">
+        <v>3</v>
+      </c>
+      <c r="AK39">
         <v>3</v>
       </c>
     </row>
@@ -3438,17 +3474,17 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="91">
+      <c r="Y40" s="105">
         <v>45763</v>
       </c>
-      <c r="Z40" s="92"/>
+      <c r="Z40" s="106"/>
       <c r="AA40" s="46">
         <v>5000</v>
       </c>
-      <c r="AB40" s="89" t="s">
+      <c r="AB40" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="AC40" s="90"/>
+      <c r="AC40" s="108"/>
       <c r="AH40" s="56"/>
       <c r="AI40" s="75" t="s">
         <v>36</v>
@@ -3484,17 +3520,17 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="91">
+      <c r="Y41" s="105">
         <v>45765</v>
       </c>
-      <c r="Z41" s="92"/>
+      <c r="Z41" s="106"/>
       <c r="AA41" s="46">
         <v>5000</v>
       </c>
-      <c r="AB41" s="89" t="s">
+      <c r="AB41" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="AC41" s="90"/>
+      <c r="AC41" s="108"/>
       <c r="AH41" s="56"/>
       <c r="AI41" s="75" t="s">
         <v>43</v>
@@ -3507,10 +3543,10 @@
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="105" t="s">
+      <c r="N42" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="106"/>
+      <c r="O42" s="104"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
@@ -3530,23 +3566,26 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="91">
+      <c r="Y42" s="105">
         <v>45766</v>
       </c>
-      <c r="Z42" s="92"/>
+      <c r="Z42" s="106"/>
       <c r="AA42" s="46">
         <v>5000</v>
       </c>
-      <c r="AB42" s="89" t="s">
+      <c r="AB42" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="AC42" s="90"/>
+      <c r="AC42" s="108"/>
       <c r="AH42" s="56"/>
       <c r="AI42" s="75" t="s">
         <v>35</v>
       </c>
       <c r="AJ42">
         <v>4</v>
+      </c>
+      <c r="AK42">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.35">
@@ -3579,17 +3618,17 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="91">
+      <c r="Y43" s="105">
         <v>45768</v>
       </c>
-      <c r="Z43" s="92"/>
+      <c r="Z43" s="106"/>
       <c r="AA43" s="46">
         <v>5000</v>
       </c>
-      <c r="AB43" s="89" t="s">
+      <c r="AB43" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" s="90"/>
+      <c r="AC43" s="108"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="75" t="s">
         <v>35</v>
@@ -3625,17 +3664,17 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="91">
+      <c r="Y44" s="105">
         <v>45770</v>
       </c>
-      <c r="Z44" s="92"/>
+      <c r="Z44" s="106"/>
       <c r="AA44" s="46">
         <v>5000</v>
       </c>
-      <c r="AB44" s="89" t="s">
+      <c r="AB44" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="AC44" s="90"/>
+      <c r="AC44" s="108"/>
       <c r="AH44" s="56"/>
       <c r="AI44" s="75" t="s">
         <v>35</v>
@@ -3648,7 +3687,7 @@
       </c>
       <c r="I45" s="35">
         <f>SUM(I28:I44)</f>
-        <v>335000</v>
+        <v>635000</v>
       </c>
       <c r="M45" s="15">
         <v>18</v>
@@ -3676,17 +3715,17 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="91">
+      <c r="Y45" s="105">
         <v>45772</v>
       </c>
-      <c r="Z45" s="92"/>
+      <c r="Z45" s="106"/>
       <c r="AA45" s="46">
         <v>5000</v>
       </c>
-      <c r="AB45" s="89" t="s">
+      <c r="AB45" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="AC45" s="90"/>
+      <c r="AC45" s="108"/>
       <c r="AH45" s="56"/>
       <c r="AI45" s="75" t="s">
         <v>35</v>
@@ -3719,17 +3758,17 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="91">
+      <c r="Y46" s="105">
         <v>45774</v>
       </c>
-      <c r="Z46" s="92"/>
+      <c r="Z46" s="106"/>
       <c r="AA46" s="46">
         <v>5000</v>
       </c>
-      <c r="AB46" s="89" t="s">
+      <c r="AB46" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AC46" s="90"/>
+      <c r="AC46" s="108"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="75" t="s">
         <v>42</v>
@@ -3742,10 +3781,10 @@
       <c r="M47" s="15">
         <v>20</v>
       </c>
-      <c r="N47" s="105" t="s">
+      <c r="N47" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="106"/>
+      <c r="O47" s="104"/>
       <c r="P47" s="16">
         <v>10000</v>
       </c>
@@ -3765,10 +3804,10 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="91">
+      <c r="Y47" s="105">
         <v>45775</v>
       </c>
-      <c r="Z47" s="92"/>
+      <c r="Z47" s="106"/>
       <c r="AA47" s="46">
         <v>5000</v>
       </c>
@@ -3781,7 +3820,10 @@
         <v>39</v>
       </c>
       <c r="AJ47">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AK47">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.35">
@@ -3805,11 +3847,17 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="91"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="89"/>
-      <c r="AC48" s="90"/>
+      <c r="Y48" s="105">
+        <v>45776</v>
+      </c>
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB48" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC48" s="108"/>
       <c r="AH48" s="56"/>
       <c r="AI48" s="75" t="s">
         <v>39</v>
@@ -3836,11 +3884,17 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="91"/>
-      <c r="Z49" s="92"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="89"/>
-      <c r="AC49" s="90"/>
+      <c r="Y49" s="105">
+        <v>45778</v>
+      </c>
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB49" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC49" s="108"/>
       <c r="AH49" s="56"/>
       <c r="AI49" s="75" t="s">
         <v>39</v>
@@ -3867,11 +3921,11 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="91"/>
-      <c r="Z50" s="92"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="106"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="89"/>
-      <c r="AC50" s="90"/>
+      <c r="AB50" s="107"/>
+      <c r="AC50" s="108"/>
       <c r="AH50" s="56"/>
       <c r="AI50" s="75" t="s">
         <v>39</v>
@@ -3904,16 +3958,19 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="91"/>
-      <c r="Z51" s="92"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="106"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="89"/>
-      <c r="AC51" s="90"/>
+      <c r="AB51" s="107"/>
+      <c r="AC51" s="108"/>
       <c r="AH51" s="56"/>
       <c r="AI51" s="75" t="s">
         <v>37</v>
       </c>
       <c r="AJ51">
+        <v>3</v>
+      </c>
+      <c r="AK51">
         <v>3</v>
       </c>
     </row>
@@ -3944,11 +4001,11 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="91"/>
-      <c r="Z52" s="92"/>
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="106"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="89"/>
-      <c r="AC52" s="90"/>
+      <c r="AB52" s="107"/>
+      <c r="AC52" s="108"/>
       <c r="AH52" s="56"/>
       <c r="AI52" s="75" t="s">
         <v>37</v>
@@ -3962,8 +4019,8 @@
         <v>44500</v>
       </c>
       <c r="M53" s="15"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="99"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="116"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
@@ -3981,11 +4038,11 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="91"/>
-      <c r="Z53" s="92"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="106"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="89"/>
-      <c r="AC53" s="90"/>
+      <c r="AB53" s="107"/>
+      <c r="AC53" s="108"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76" t="s">
         <v>37</v>
@@ -3993,8 +4050,8 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="101"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="118"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
@@ -4012,14 +4069,14 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="93"/>
-      <c r="Z54" s="94"/>
+      <c r="Y54" s="120"/>
+      <c r="Z54" s="121"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="89"/>
-      <c r="AC54" s="90"/>
+      <c r="AB54" s="107"/>
+      <c r="AC54" s="108"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="83"/>
-      <c r="AJ54" s="83"/>
+      <c r="AI54" s="122"/>
+      <c r="AJ54" s="122"/>
       <c r="AK54" s="4"/>
     </row>
     <row r="55" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4034,144 +4091,198 @@
         <f>(D55-E55)</f>
         <v>13500</v>
       </c>
-      <c r="M55" s="84" t="s">
+      <c r="M55" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="85"/>
-      <c r="O55" s="86"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="119"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
         <v>892000</v>
       </c>
-      <c r="R55" s="84" t="s">
+      <c r="R55" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="85"/>
-      <c r="T55" s="86"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="119"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="84" t="s">
+      <c r="X55" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="85"/>
-      <c r="Z55" s="86"/>
-      <c r="AA55" s="87">
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="123">
         <f>SUM(AA27:AA54)</f>
-        <v>105000</v>
-      </c>
-      <c r="AB55" s="88"/>
+        <v>115000</v>
+      </c>
+      <c r="AB55" s="124"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="83"/>
-      <c r="AJ55" s="83"/>
+      <c r="AI55" s="122"/>
+      <c r="AJ55" s="122"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="83"/>
-      <c r="AJ56" s="83"/>
+      <c r="AI56" s="122"/>
+      <c r="AJ56" s="122"/>
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="83"/>
-      <c r="AJ57" s="83"/>
+      <c r="AI57" s="122"/>
+      <c r="AJ57" s="122"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH58" s="4"/>
-      <c r="AI58" s="83"/>
-      <c r="AJ58" s="83"/>
+      <c r="AI58" s="122"/>
+      <c r="AJ58" s="122"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH59" s="4"/>
-      <c r="AI59" s="83"/>
-      <c r="AJ59" s="83"/>
+      <c r="AI59" s="122"/>
+      <c r="AJ59" s="122"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH60" s="4"/>
-      <c r="AI60" s="83"/>
-      <c r="AJ60" s="83"/>
+      <c r="AI60" s="122"/>
+      <c r="AJ60" s="122"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH61" s="4"/>
-      <c r="AI61" s="83"/>
-      <c r="AJ61" s="83"/>
+      <c r="AI61" s="122"/>
+      <c r="AJ61" s="122"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH62" s="4"/>
-      <c r="AI62" s="83"/>
-      <c r="AJ62" s="83"/>
+      <c r="AI62" s="122"/>
+      <c r="AJ62" s="122"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH63" s="4"/>
-      <c r="AI63" s="83"/>
-      <c r="AJ63" s="83"/>
+      <c r="AI63" s="122"/>
+      <c r="AJ63" s="122"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH64" s="4"/>
-      <c r="AI64" s="83"/>
-      <c r="AJ64" s="83"/>
+      <c r="AI64" s="122"/>
+      <c r="AJ64" s="122"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="34:37" x14ac:dyDescent="0.35">
       <c r="AH65" s="4"/>
-      <c r="AI65" s="83"/>
-      <c r="AJ65" s="83"/>
+      <c r="AI65" s="122"/>
+      <c r="AJ65" s="122"/>
       <c r="AK65" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AI54:AJ65">
-    <sortCondition ref="AI54:AI65"/>
-  </sortState>
   <mergeCells count="160">
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N34:O34"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AQ22:AR22"/>
     <mergeCell ref="AS22:AT22"/>
@@ -4196,107 +4307,300 @@
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8ACF1F-7A42-4DA8-8384-86E68284BE08}">
+  <dimension ref="B3:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="128"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="126"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="126"/>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="126"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="126"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="126"/>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="128"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="126"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="126"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="126"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="126"/>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="126"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="126"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="126"/>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="126"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="126"/>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="126"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="126"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="126"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="126"/>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="126"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C26">
+    <sortCondition ref="C4:C26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AE161-69C5-4A77-BB7A-4FF58C654314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F0AE9-5885-4670-A59E-BAF092CDDFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="76">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>jual tv</t>
+  </si>
+  <si>
+    <t>beli domino</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -967,11 +970,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1072,6 +1086,12 @@
     <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1105,9 +1125,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1123,10 +1144,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1140,14 +1157,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1155,10 +1173,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE37" sqref="AE37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1537,60 +1553,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="H3" s="84" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="H3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="M3" s="84" t="s">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="M3" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="R3" s="84" t="s">
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="92"/>
+      <c r="R3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="86"/>
-      <c r="W3" s="84" t="s">
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="92"/>
+      <c r="W3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="86"/>
-      <c r="AB3" s="84" t="s">
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="92"/>
+      <c r="AB3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="86"/>
-      <c r="AG3" s="84" t="s">
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AG3" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="86"/>
-      <c r="AL3" s="84" t="s">
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="92"/>
+      <c r="AL3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="86"/>
-      <c r="AQ3" s="84" t="s">
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="92"/>
+      <c r="AQ3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="86"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="92"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2566,87 +2582,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89">
+      <c r="D22" s="94"/>
+      <c r="E22" s="95">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="H22" s="87" t="s">
+      <c r="F22" s="96"/>
+      <c r="H22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89">
+      <c r="I22" s="94"/>
+      <c r="J22" s="95">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="90"/>
-      <c r="M22" s="87" t="s">
+      <c r="K22" s="96"/>
+      <c r="M22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89">
+      <c r="N22" s="94"/>
+      <c r="O22" s="95">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="90"/>
-      <c r="R22" s="87" t="s">
+      <c r="P22" s="96"/>
+      <c r="R22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89">
+      <c r="S22" s="94"/>
+      <c r="T22" s="95">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="90"/>
-      <c r="W22" s="87" t="s">
+      <c r="U22" s="96"/>
+      <c r="W22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="89">
+      <c r="X22" s="94"/>
+      <c r="Y22" s="95">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="90"/>
-      <c r="AB22" s="87" t="s">
+      <c r="Z22" s="96"/>
+      <c r="AB22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="89">
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="95">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="90"/>
-      <c r="AG22" s="87" t="s">
+      <c r="AE22" s="96"/>
+      <c r="AG22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="89">
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="95">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="90"/>
-      <c r="AL22" s="87" t="s">
+      <c r="AJ22" s="96"/>
+      <c r="AL22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="89">
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="95">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="90"/>
-      <c r="AQ22" s="87" t="s">
+      <c r="AO22" s="96"/>
+      <c r="AQ22" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="89">
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="95">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="90"/>
+      <c r="AT22" s="96"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2655,25 +2671,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="100" t="s">
+      <c r="M25" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="102"/>
-      <c r="R25" s="100" t="s">
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="111"/>
+      <c r="R25" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="102"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="111"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="109" t="s">
+      <c r="G26" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2707,10 +2723,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="91" t="s">
+      <c r="AB26" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="92"/>
+      <c r="AC26" s="98"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2723,11 +2739,11 @@
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
         <v>1835000</v>
@@ -2744,20 +2760,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="112" t="s">
+      <c r="N27" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="112"/>
+      <c r="O27" s="117"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="115">
+      <c r="S27" s="120">
         <v>45691</v>
       </c>
-      <c r="T27" s="112"/>
+      <c r="T27" s="117"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2767,17 +2783,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="113">
+      <c r="Y27" s="118">
         <v>45727</v>
       </c>
-      <c r="Z27" s="114"/>
+      <c r="Z27" s="119"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="93" t="s">
+      <c r="AB27" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="94"/>
+      <c r="AC27" s="100"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2799,20 +2815,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="98" t="s">
+      <c r="N28" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="98"/>
+      <c r="O28" s="104"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="97">
+      <c r="S28" s="103">
         <v>45692</v>
       </c>
-      <c r="T28" s="98"/>
+      <c r="T28" s="104"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2829,28 +2845,28 @@
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="93" t="s">
+      <c r="AB28" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="94"/>
+      <c r="AC28" s="100"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="99" t="s">
+      <c r="AN28" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="99"/>
+      <c r="AO28" s="121"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1152000</v>
+        <v>1192000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2864,20 +2880,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="103" t="s">
+      <c r="N29" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="104"/>
+      <c r="O29" s="113"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="97">
+      <c r="S29" s="103">
         <v>45693</v>
       </c>
-      <c r="T29" s="98"/>
+      <c r="T29" s="104"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2922,20 +2938,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="98" t="s">
+      <c r="N30" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="98"/>
+      <c r="O30" s="104"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="97">
+      <c r="S30" s="103">
         <v>45694</v>
       </c>
-      <c r="T30" s="98"/>
+      <c r="T30" s="104"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2974,14 +2990,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>683000</v>
+        <v>643000</v>
       </c>
       <c r="G31" s="31">
         <v>4</v>
@@ -2995,20 +3011,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="98" t="s">
+      <c r="N31" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="98"/>
+      <c r="O31" s="104"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="97">
+      <c r="S31" s="103">
         <v>45695</v>
       </c>
-      <c r="T31" s="98"/>
+      <c r="T31" s="104"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -3047,20 +3063,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="98" t="s">
+      <c r="N32" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="98"/>
+      <c r="O32" s="104"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="97">
+      <c r="S32" s="103">
         <v>45696</v>
       </c>
-      <c r="T32" s="98"/>
+      <c r="T32" s="104"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -3099,20 +3115,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="98" t="s">
+      <c r="N33" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="98"/>
+      <c r="O33" s="104"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="97">
+      <c r="S33" s="103">
         <v>45697</v>
       </c>
-      <c r="T33" s="98"/>
+      <c r="T33" s="104"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3157,20 +3173,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="98" t="s">
+      <c r="N34" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="98"/>
+      <c r="O34" s="104"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="97">
+      <c r="S34" s="103">
         <v>45699</v>
       </c>
-      <c r="T34" s="98"/>
+      <c r="T34" s="104"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3187,10 +3203,10 @@
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="93" t="s">
+      <c r="AB34" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="94"/>
+      <c r="AC34" s="100"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3218,10 +3234,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="97">
+      <c r="S35" s="103">
         <v>45700</v>
       </c>
-      <c r="T35" s="98"/>
+      <c r="T35" s="104"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3260,7 +3276,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>419500</v>
+        <v>379500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3271,10 +3287,10 @@
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="97">
+      <c r="S36" s="103">
         <v>45700</v>
       </c>
-      <c r="T36" s="98"/>
+      <c r="T36" s="104"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3307,20 +3323,20 @@
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="98" t="s">
+      <c r="N37" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="98"/>
+      <c r="O37" s="104"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="97">
+      <c r="S37" s="103">
         <v>45701</v>
       </c>
-      <c r="T37" s="98"/>
+      <c r="T37" s="104"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3353,20 +3369,20 @@
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="98" t="s">
+      <c r="N38" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="98"/>
+      <c r="O38" s="104"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="97">
+      <c r="S38" s="103">
         <v>45702</v>
       </c>
-      <c r="T38" s="98"/>
+      <c r="T38" s="104"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3399,20 +3415,20 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="103" t="s">
+      <c r="N39" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="104"/>
+      <c r="O39" s="113"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="97">
+      <c r="S39" s="103">
         <v>45703</v>
       </c>
-      <c r="T39" s="98"/>
+      <c r="T39" s="104"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3451,20 +3467,20 @@
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="98" t="s">
+      <c r="N40" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="98"/>
+      <c r="O40" s="104"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="97">
+      <c r="S40" s="103">
         <v>45704</v>
       </c>
-      <c r="T40" s="98"/>
+      <c r="T40" s="104"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3497,20 +3513,20 @@
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="98" t="s">
+      <c r="N41" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="98"/>
+      <c r="O41" s="104"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="97">
+      <c r="S41" s="103">
         <v>45705</v>
       </c>
-      <c r="T41" s="98"/>
+      <c r="T41" s="104"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3543,20 +3559,20 @@
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="103" t="s">
+      <c r="N42" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="104"/>
+      <c r="O42" s="113"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="97">
+      <c r="S42" s="103">
         <v>45707</v>
       </c>
-      <c r="T42" s="98"/>
+      <c r="T42" s="104"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3595,20 +3611,20 @@
       <c r="M43" s="15">
         <v>16</v>
       </c>
-      <c r="N43" s="98" t="s">
+      <c r="N43" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="98"/>
+      <c r="O43" s="104"/>
       <c r="P43" s="16">
         <v>44500</v>
       </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="97">
+      <c r="S43" s="103">
         <v>45708</v>
       </c>
-      <c r="T43" s="98"/>
+      <c r="T43" s="104"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3641,20 +3657,20 @@
       <c r="M44" s="15">
         <v>17</v>
       </c>
-      <c r="N44" s="98" t="s">
+      <c r="N44" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="98"/>
+      <c r="O44" s="104"/>
       <c r="P44" s="16">
         <v>8000</v>
       </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="97">
+      <c r="S44" s="103">
         <v>45709</v>
       </c>
-      <c r="T44" s="98"/>
+      <c r="T44" s="104"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3692,20 +3708,20 @@
       <c r="M45" s="15">
         <v>18</v>
       </c>
-      <c r="N45" s="98" t="s">
+      <c r="N45" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="98"/>
+      <c r="O45" s="104"/>
       <c r="P45" s="16">
         <v>102000</v>
       </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="97">
+      <c r="S45" s="103">
         <v>45710</v>
       </c>
-      <c r="T45" s="98"/>
+      <c r="T45" s="104"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3735,20 +3751,20 @@
       <c r="M46" s="15">
         <v>19</v>
       </c>
-      <c r="N46" s="98" t="s">
+      <c r="N46" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="O46" s="98"/>
+      <c r="O46" s="104"/>
       <c r="P46" s="16">
         <v>10000</v>
       </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="97">
+      <c r="S46" s="103">
         <v>45711</v>
       </c>
-      <c r="T46" s="98"/>
+      <c r="T46" s="104"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3781,20 +3797,20 @@
       <c r="M47" s="15">
         <v>20</v>
       </c>
-      <c r="N47" s="103" t="s">
+      <c r="N47" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="104"/>
+      <c r="O47" s="113"/>
       <c r="P47" s="16">
         <v>10000</v>
       </c>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="97">
+      <c r="S47" s="103">
         <v>45712</v>
       </c>
-      <c r="T47" s="98"/>
+      <c r="T47" s="104"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3827,17 +3843,23 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="M48" s="15"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="16"/>
+      <c r="M48" s="15">
+        <v>21</v>
+      </c>
+      <c r="N48" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="O48" s="104"/>
+      <c r="P48" s="16">
+        <v>40000</v>
+      </c>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="97">
+      <c r="S48" s="103">
         <v>45713</v>
       </c>
-      <c r="T48" s="98"/>
+      <c r="T48" s="104"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3865,16 +3887,16 @@
     </row>
     <row r="49" spans="4:37" x14ac:dyDescent="0.35">
       <c r="M49" s="15"/>
-      <c r="N49" s="98"/>
-      <c r="O49" s="98"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
       <c r="P49" s="16"/>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="97">
+      <c r="S49" s="103">
         <v>45714</v>
       </c>
-      <c r="T49" s="98"/>
+      <c r="T49" s="104"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3902,16 +3924,16 @@
     </row>
     <row r="50" spans="4:37" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="98"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="97">
+      <c r="S50" s="103">
         <v>45716</v>
       </c>
-      <c r="T50" s="98"/>
+      <c r="T50" s="104"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3939,16 +3961,16 @@
         <v>250000</v>
       </c>
       <c r="M51" s="15"/>
-      <c r="N51" s="98"/>
-      <c r="O51" s="98"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="104"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="97">
+      <c r="S51" s="103">
         <v>45719</v>
       </c>
-      <c r="T51" s="98"/>
+      <c r="T51" s="104"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3982,16 +4004,16 @@
         <v>42000</v>
       </c>
       <c r="M52" s="15"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="98"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="104"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="97">
+      <c r="S52" s="103">
         <v>45723</v>
       </c>
-      <c r="T52" s="98"/>
+      <c r="T52" s="104"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -4020,15 +4042,15 @@
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="107"/>
-      <c r="O53" s="116"/>
+      <c r="O53" s="122"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="97">
+      <c r="S53" s="103">
         <v>45724</v>
       </c>
-      <c r="T53" s="98"/>
+      <c r="T53" s="104"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -4050,16 +4072,16 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="118"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="124"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="97">
+      <c r="S54" s="103">
         <v>45726</v>
       </c>
-      <c r="T54" s="98"/>
+      <c r="T54" s="104"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -4069,14 +4091,18 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="120"/>
-      <c r="Z54" s="121"/>
+      <c r="Y54" s="129"/>
+      <c r="Z54" s="130"/>
       <c r="AA54" s="46"/>
       <c r="AB54" s="107"/>
       <c r="AC54" s="108"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="122"/>
-      <c r="AJ54" s="122"/>
+      <c r="AI54" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ54" s="88">
+        <v>1</v>
+      </c>
       <c r="AK54" s="4"/>
     </row>
     <row r="55" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4091,103 +4117,103 @@
         <f>(D55-E55)</f>
         <v>13500</v>
       </c>
-      <c r="M55" s="87" t="s">
+      <c r="M55" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="88"/>
-      <c r="O55" s="119"/>
+      <c r="N55" s="94"/>
+      <c r="O55" s="125"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>892000</v>
-      </c>
-      <c r="R55" s="87" t="s">
+        <v>932000</v>
+      </c>
+      <c r="R55" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="88"/>
-      <c r="T55" s="119"/>
+      <c r="S55" s="94"/>
+      <c r="T55" s="125"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="87" t="s">
+      <c r="X55" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="119"/>
-      <c r="AA55" s="123">
+      <c r="Y55" s="94"/>
+      <c r="Z55" s="125"/>
+      <c r="AA55" s="127">
         <f>SUM(AA27:AA54)</f>
         <v>115000</v>
       </c>
-      <c r="AB55" s="124"/>
+      <c r="AB55" s="128"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="122"/>
-      <c r="AJ55" s="122"/>
+      <c r="AI55" s="126"/>
+      <c r="AJ55" s="126"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="122"/>
-      <c r="AJ56" s="122"/>
+      <c r="AI56" s="126"/>
+      <c r="AJ56" s="126"/>
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="122"/>
-      <c r="AJ57" s="122"/>
+      <c r="AI57" s="126"/>
+      <c r="AJ57" s="126"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH58" s="4"/>
-      <c r="AI58" s="122"/>
-      <c r="AJ58" s="122"/>
+      <c r="AI58" s="126"/>
+      <c r="AJ58" s="126"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH59" s="4"/>
-      <c r="AI59" s="122"/>
-      <c r="AJ59" s="122"/>
+      <c r="AI59" s="126"/>
+      <c r="AJ59" s="126"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH60" s="4"/>
-      <c r="AI60" s="122"/>
-      <c r="AJ60" s="122"/>
+      <c r="AI60" s="126"/>
+      <c r="AJ60" s="126"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH61" s="4"/>
-      <c r="AI61" s="122"/>
-      <c r="AJ61" s="122"/>
+      <c r="AI61" s="126"/>
+      <c r="AJ61" s="126"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH62" s="4"/>
-      <c r="AI62" s="122"/>
-      <c r="AJ62" s="122"/>
+      <c r="AI62" s="126"/>
+      <c r="AJ62" s="126"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH63" s="4"/>
-      <c r="AI63" s="122"/>
-      <c r="AJ63" s="122"/>
+      <c r="AI63" s="126"/>
+      <c r="AJ63" s="126"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH64" s="4"/>
-      <c r="AI64" s="122"/>
-      <c r="AJ64" s="122"/>
+      <c r="AI64" s="126"/>
+      <c r="AJ64" s="126"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="34:37" x14ac:dyDescent="0.35">
       <c r="AH65" s="4"/>
-      <c r="AI65" s="122"/>
-      <c r="AJ65" s="122"/>
+      <c r="AI65" s="126"/>
+      <c r="AJ65" s="126"/>
       <c r="AK65" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
+  <mergeCells count="159">
     <mergeCell ref="X55:Z55"/>
     <mergeCell ref="AA55:AB55"/>
     <mergeCell ref="AB48:AC48"/>
@@ -4197,8 +4223,9 @@
     <mergeCell ref="Y52:Z52"/>
     <mergeCell ref="AI63:AJ63"/>
     <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
     <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AI54:AJ54"/>
     <mergeCell ref="AI55:AJ55"/>
     <mergeCell ref="AI56:AJ56"/>
     <mergeCell ref="AI57:AJ57"/>
@@ -4207,11 +4234,6 @@
     <mergeCell ref="AI60:AJ60"/>
     <mergeCell ref="AI61:AJ61"/>
     <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="AB41:AC41"/>
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="AB36:AC36"/>
@@ -4307,6 +4329,9 @@
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="R25:U25"/>
     <mergeCell ref="S30:T30"/>
@@ -4321,15 +4346,9 @@
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="S40:T40"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H22:I22"/>
@@ -4348,6 +4367,12 @@
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4370,10 +4395,10 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="128"/>
+      <c r="D4" s="87"/>
       <c r="E4">
         <v>3</v>
       </c>
@@ -4382,28 +4407,28 @@
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="128"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="126"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="126"/>
+      <c r="D7" s="85"/>
       <c r="E7">
         <v>3</v>
       </c>
@@ -4412,28 +4437,28 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="85"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="126"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="85"/>
       <c r="E10">
         <v>5</v>
       </c>
@@ -4442,46 +4467,46 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="87"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="126"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="126"/>
+      <c r="D13" s="85"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="126"/>
+      <c r="D14" s="85"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="126"/>
+      <c r="D15" s="85"/>
       <c r="E15">
         <v>3</v>
       </c>
@@ -4493,25 +4518,25 @@
       <c r="C16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="126"/>
+      <c r="D16" s="85"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="126"/>
+      <c r="D17" s="85"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="126"/>
+      <c r="D18" s="85"/>
       <c r="E18">
         <v>2</v>
       </c>
@@ -4520,19 +4545,19 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="126"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="85"/>
       <c r="E20">
         <v>4</v>
       </c>
@@ -4541,34 +4566,34 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="85"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="85"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="85"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="84" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="83"/>
@@ -4580,10 +4605,10 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="126"/>
+      <c r="D25" s="85"/>
       <c r="E25">
         <v>2</v>
       </c>
@@ -4592,10 +4617,10 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="126"/>
+      <c r="D26" s="85"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C26">

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F0AE9-5885-4670-A59E-BAF092CDDFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214664F-17E5-4EB9-82C6-DBC6FF76F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="78">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -256,13 +256,19 @@
     <t>cetak buku unutk magrib</t>
   </si>
   <si>
-    <t>sumbangan bg jou</t>
-  </si>
-  <si>
     <t>jual tv</t>
   </si>
   <si>
     <t>beli domino</t>
+  </si>
+  <si>
+    <t>amplop bg nikah bg baim</t>
+  </si>
+  <si>
+    <t>sumbangan bg jou untu bakar bakar</t>
+  </si>
+  <si>
+    <t>listrik 07/04/2025</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -981,11 +987,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,43 +1109,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,6 +1149,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,21 +1185,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,60 +1576,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="H3" s="90" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="H3" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="M3" s="90" t="s">
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
+      <c r="M3" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92"/>
-      <c r="R3" s="90" t="s">
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="R3" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="92"/>
-      <c r="W3" s="90" t="s">
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="114"/>
+      <c r="W3" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="92"/>
-      <c r="AB3" s="90" t="s">
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="114"/>
+      <c r="AB3" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AG3" s="90" t="s">
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="114"/>
+      <c r="AG3" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="92"/>
-      <c r="AL3" s="90" t="s">
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="114"/>
+      <c r="AL3" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="92"/>
-      <c r="AQ3" s="90" t="s">
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="114"/>
+      <c r="AQ3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="92"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="114"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2582,87 +2605,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95">
+      <c r="D22" s="91"/>
+      <c r="E22" s="115">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="H22" s="93" t="s">
+      <c r="F22" s="116"/>
+      <c r="H22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95">
+      <c r="I22" s="91"/>
+      <c r="J22" s="115">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="96"/>
-      <c r="M22" s="93" t="s">
+      <c r="K22" s="116"/>
+      <c r="M22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="94"/>
-      <c r="O22" s="95">
+      <c r="N22" s="91"/>
+      <c r="O22" s="115">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="96"/>
-      <c r="R22" s="93" t="s">
+      <c r="P22" s="116"/>
+      <c r="R22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="94"/>
-      <c r="T22" s="95">
+      <c r="S22" s="91"/>
+      <c r="T22" s="115">
         <f>SUM(U5:U21)</f>
         <v>100000</v>
       </c>
-      <c r="U22" s="96"/>
-      <c r="W22" s="93" t="s">
+      <c r="U22" s="116"/>
+      <c r="W22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="95">
+      <c r="X22" s="91"/>
+      <c r="Y22" s="115">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="96"/>
-      <c r="AB22" s="93" t="s">
+      <c r="Z22" s="116"/>
+      <c r="AB22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="95">
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="115">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="96"/>
-      <c r="AG22" s="93" t="s">
+      <c r="AE22" s="116"/>
+      <c r="AG22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="95">
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="115">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="96"/>
-      <c r="AL22" s="93" t="s">
+      <c r="AJ22" s="116"/>
+      <c r="AL22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="94"/>
-      <c r="AN22" s="95">
+      <c r="AM22" s="91"/>
+      <c r="AN22" s="115">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="96"/>
-      <c r="AQ22" s="93" t="s">
+      <c r="AO22" s="116"/>
+      <c r="AQ22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="95">
+      <c r="AR22" s="91"/>
+      <c r="AS22" s="115">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="96"/>
+      <c r="AT22" s="116"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2671,25 +2694,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="109" t="s">
+      <c r="M25" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="111"/>
-      <c r="R25" s="109" t="s">
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
+      <c r="R25" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="111"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="109"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="114" t="s">
+      <c r="G26" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2723,10 +2746,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="97" t="s">
+      <c r="AB26" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="98"/>
+      <c r="AC26" s="129"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2739,14 +2762,14 @@
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1835000</v>
+        <v>1735000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2760,20 +2783,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="117" t="s">
+      <c r="N27" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="117"/>
+      <c r="O27" s="121"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="120">
+      <c r="S27" s="124">
         <v>45691</v>
       </c>
-      <c r="T27" s="117"/>
+      <c r="T27" s="121"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2783,17 +2806,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="118">
+      <c r="Y27" s="122">
         <v>45727</v>
       </c>
-      <c r="Z27" s="119"/>
+      <c r="Z27" s="123"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="99" t="s">
+      <c r="AB27" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="100"/>
+      <c r="AC27" s="127"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2815,20 +2838,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="104" t="s">
+      <c r="N28" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="104"/>
+      <c r="O28" s="103"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="103">
+      <c r="S28" s="102">
         <v>45692</v>
       </c>
-      <c r="T28" s="104"/>
+      <c r="T28" s="103"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2838,35 +2861,35 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="105">
+      <c r="Y28" s="97">
         <v>45729</v>
       </c>
-      <c r="Z28" s="106"/>
+      <c r="Z28" s="98"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="99" t="s">
+      <c r="AB28" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="100"/>
+      <c r="AC28" s="127"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="121" t="s">
+      <c r="AN28" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="121"/>
+      <c r="AO28" s="125"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1192000</v>
+        <v>1339000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2880,20 +2903,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="112" t="s">
+      <c r="N29" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="113"/>
+      <c r="O29" s="111"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="103">
+      <c r="S29" s="102">
         <v>45693</v>
       </c>
-      <c r="T29" s="104"/>
+      <c r="T29" s="103"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2903,17 +2926,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="105">
+      <c r="Y29" s="97">
         <v>45731</v>
       </c>
-      <c r="Z29" s="106"/>
+      <c r="Z29" s="98"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="107" t="s">
+      <c r="AB29" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AC29" s="108"/>
+      <c r="AC29" s="96"/>
       <c r="AH29" s="56"/>
       <c r="AI29" s="75" t="s">
         <v>33</v>
@@ -2930,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I30" s="32">
         <v>200000</v>
@@ -2938,20 +2961,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="104" t="s">
+      <c r="N30" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="104"/>
+      <c r="O30" s="103"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="103">
+      <c r="S30" s="102">
         <v>45694</v>
       </c>
-      <c r="T30" s="104"/>
+      <c r="T30" s="103"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2961,17 +2984,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="105">
+      <c r="Y30" s="97">
         <v>45733</v>
       </c>
-      <c r="Z30" s="106"/>
+      <c r="Z30" s="98"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="107" t="s">
+      <c r="AB30" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" s="108"/>
+      <c r="AC30" s="96"/>
       <c r="AH30" s="56"/>
       <c r="AI30" s="75" t="s">
         <v>41</v>
@@ -2990,41 +3013,39 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>643000</v>
+        <v>396000</v>
       </c>
       <c r="G31" s="31">
         <v>4</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="32">
-        <v>100000</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I31" s="32"/>
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="104" t="s">
+      <c r="N31" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="104"/>
+      <c r="O31" s="103"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="103">
+      <c r="S31" s="102">
         <v>45695</v>
       </c>
-      <c r="T31" s="104"/>
+      <c r="T31" s="103"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -3034,17 +3055,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="105">
+      <c r="Y31" s="97">
         <v>45736</v>
       </c>
-      <c r="Z31" s="106"/>
+      <c r="Z31" s="98"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="107" t="s">
+      <c r="AB31" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="AC31" s="108"/>
+      <c r="AC31" s="96"/>
       <c r="AH31" s="56"/>
       <c r="AI31" s="75" t="s">
         <v>41</v>
@@ -3063,20 +3084,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="104" t="s">
+      <c r="N32" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="104"/>
+      <c r="O32" s="103"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="103">
+      <c r="S32" s="102">
         <v>45696</v>
       </c>
-      <c r="T32" s="104"/>
+      <c r="T32" s="103"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -3086,17 +3107,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="105">
+      <c r="Y32" s="97">
         <v>45741</v>
       </c>
-      <c r="Z32" s="106"/>
+      <c r="Z32" s="98"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="107" t="s">
+      <c r="AB32" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AC32" s="108"/>
+      <c r="AC32" s="96"/>
       <c r="AH32" s="56"/>
       <c r="AI32" s="75" t="s">
         <v>41</v>
@@ -3115,20 +3136,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="104" t="s">
+      <c r="N33" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="104"/>
+      <c r="O33" s="103"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="103">
+      <c r="S33" s="102">
         <v>45697</v>
       </c>
-      <c r="T33" s="104"/>
+      <c r="T33" s="103"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3138,17 +3159,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="105">
+      <c r="Y33" s="97">
         <v>45752</v>
       </c>
-      <c r="Z33" s="106"/>
+      <c r="Z33" s="98"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="107" t="s">
+      <c r="AB33" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AC33" s="108"/>
+      <c r="AC33" s="96"/>
       <c r="AH33" s="56"/>
       <c r="AI33" s="75" t="s">
         <v>34</v>
@@ -3173,20 +3194,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="104" t="s">
+      <c r="N34" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="104"/>
+      <c r="O34" s="103"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="103">
+      <c r="S34" s="102">
         <v>45699</v>
       </c>
-      <c r="T34" s="104"/>
+      <c r="T34" s="103"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3196,17 +3217,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="105">
+      <c r="Y34" s="97">
         <v>45755</v>
       </c>
-      <c r="Z34" s="106"/>
+      <c r="Z34" s="98"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="99" t="s">
+      <c r="AB34" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="100"/>
+      <c r="AC34" s="127"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3234,10 +3255,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="103">
+      <c r="S35" s="102">
         <v>45700</v>
       </c>
-      <c r="T35" s="104"/>
+      <c r="T35" s="103"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3247,17 +3268,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="105">
+      <c r="Y35" s="97">
         <v>45756</v>
       </c>
-      <c r="Z35" s="106"/>
+      <c r="Z35" s="98"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="107" t="s">
+      <c r="AB35" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AC35" s="108"/>
+      <c r="AC35" s="96"/>
       <c r="AH35" s="56"/>
       <c r="AI35" s="75" t="s">
         <v>34</v>
@@ -3276,7 +3297,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>379500</v>
+        <v>132500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3284,13 +3305,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
+      <c r="N36" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="132"/>
+      <c r="P36" s="61">
+        <v>102000</v>
+      </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="103">
+      <c r="S36" s="102">
         <v>45700</v>
       </c>
-      <c r="T36" s="104"/>
+      <c r="T36" s="103"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3300,17 +3328,17 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="105">
+      <c r="Y36" s="97">
         <v>45757</v>
       </c>
-      <c r="Z36" s="106"/>
+      <c r="Z36" s="98"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="107" t="s">
+      <c r="AB36" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AC36" s="108"/>
+      <c r="AC36" s="96"/>
       <c r="AH36" s="56"/>
       <c r="AI36" s="75" t="s">
         <v>34</v>
@@ -3323,20 +3351,20 @@
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="104" t="s">
+      <c r="N37" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="104"/>
+      <c r="O37" s="103"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="103">
+      <c r="S37" s="102">
         <v>45701</v>
       </c>
-      <c r="T37" s="104"/>
+      <c r="T37" s="103"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3346,17 +3374,17 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="105">
+      <c r="Y37" s="97">
         <v>45759</v>
       </c>
-      <c r="Z37" s="106"/>
+      <c r="Z37" s="98"/>
       <c r="AA37" s="46">
         <v>5000</v>
       </c>
-      <c r="AB37" s="107" t="s">
+      <c r="AB37" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="108"/>
+      <c r="AC37" s="96"/>
       <c r="AH37" s="56"/>
       <c r="AI37" s="75" t="s">
         <v>34</v>
@@ -3369,20 +3397,20 @@
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="104" t="s">
+      <c r="N38" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="104"/>
+      <c r="O38" s="103"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="103">
+      <c r="S38" s="102">
         <v>45702</v>
       </c>
-      <c r="T38" s="104"/>
+      <c r="T38" s="103"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3392,17 +3420,17 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="105">
+      <c r="Y38" s="97">
         <v>45761</v>
       </c>
-      <c r="Z38" s="106"/>
+      <c r="Z38" s="98"/>
       <c r="AA38" s="46">
         <v>5000</v>
       </c>
-      <c r="AB38" s="107" t="s">
+      <c r="AB38" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="AC38" s="108"/>
+      <c r="AC38" s="96"/>
       <c r="AH38" s="56"/>
       <c r="AI38" s="75" t="s">
         <v>34</v>
@@ -3415,20 +3443,20 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="112" t="s">
+      <c r="N39" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="113"/>
+      <c r="O39" s="111"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="103">
+      <c r="S39" s="102">
         <v>45703</v>
       </c>
-      <c r="T39" s="104"/>
+      <c r="T39" s="103"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3438,17 +3466,17 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="105">
+      <c r="Y39" s="97">
         <v>45762</v>
       </c>
-      <c r="Z39" s="106"/>
+      <c r="Z39" s="98"/>
       <c r="AA39" s="46">
         <v>5000</v>
       </c>
-      <c r="AB39" s="107" t="s">
+      <c r="AB39" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="108"/>
+      <c r="AC39" s="96"/>
       <c r="AH39" s="56"/>
       <c r="AI39" s="75" t="s">
         <v>36</v>
@@ -3467,20 +3495,20 @@
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="104" t="s">
+      <c r="N40" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="104"/>
+      <c r="O40" s="103"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="103">
+      <c r="S40" s="102">
         <v>45704</v>
       </c>
-      <c r="T40" s="104"/>
+      <c r="T40" s="103"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3490,17 +3518,17 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="105">
+      <c r="Y40" s="97">
         <v>45763</v>
       </c>
-      <c r="Z40" s="106"/>
+      <c r="Z40" s="98"/>
       <c r="AA40" s="46">
         <v>5000</v>
       </c>
-      <c r="AB40" s="107" t="s">
+      <c r="AB40" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AC40" s="108"/>
+      <c r="AC40" s="96"/>
       <c r="AH40" s="56"/>
       <c r="AI40" s="75" t="s">
         <v>36</v>
@@ -3513,20 +3541,20 @@
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="104" t="s">
+      <c r="N41" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="104"/>
+      <c r="O41" s="103"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="103">
+      <c r="S41" s="102">
         <v>45705</v>
       </c>
-      <c r="T41" s="104"/>
+      <c r="T41" s="103"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3536,17 +3564,17 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="105">
+      <c r="Y41" s="97">
         <v>45765</v>
       </c>
-      <c r="Z41" s="106"/>
+      <c r="Z41" s="98"/>
       <c r="AA41" s="46">
         <v>5000</v>
       </c>
-      <c r="AB41" s="107" t="s">
+      <c r="AB41" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AC41" s="108"/>
+      <c r="AC41" s="96"/>
       <c r="AH41" s="56"/>
       <c r="AI41" s="75" t="s">
         <v>43</v>
@@ -3559,20 +3587,20 @@
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="112" t="s">
+      <c r="N42" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="113"/>
+      <c r="O42" s="111"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="103">
+      <c r="S42" s="102">
         <v>45707</v>
       </c>
-      <c r="T42" s="104"/>
+      <c r="T42" s="103"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3582,17 +3610,17 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="105">
+      <c r="Y42" s="97">
         <v>45766</v>
       </c>
-      <c r="Z42" s="106"/>
+      <c r="Z42" s="98"/>
       <c r="AA42" s="46">
         <v>5000</v>
       </c>
-      <c r="AB42" s="107" t="s">
+      <c r="AB42" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="AC42" s="108"/>
+      <c r="AC42" s="96"/>
       <c r="AH42" s="56"/>
       <c r="AI42" s="75" t="s">
         <v>35</v>
@@ -3611,20 +3639,20 @@
       <c r="M43" s="15">
         <v>16</v>
       </c>
-      <c r="N43" s="104" t="s">
+      <c r="N43" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="104"/>
+      <c r="O43" s="103"/>
       <c r="P43" s="16">
         <v>44500</v>
       </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="103">
+      <c r="S43" s="102">
         <v>45708</v>
       </c>
-      <c r="T43" s="104"/>
+      <c r="T43" s="103"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3634,17 +3662,17 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="105">
+      <c r="Y43" s="97">
         <v>45768</v>
       </c>
-      <c r="Z43" s="106"/>
+      <c r="Z43" s="98"/>
       <c r="AA43" s="46">
         <v>5000</v>
       </c>
-      <c r="AB43" s="107" t="s">
+      <c r="AB43" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" s="108"/>
+      <c r="AC43" s="96"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="75" t="s">
         <v>35</v>
@@ -3657,20 +3685,20 @@
       <c r="M44" s="15">
         <v>17</v>
       </c>
-      <c r="N44" s="104" t="s">
+      <c r="N44" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="104"/>
+      <c r="O44" s="103"/>
       <c r="P44" s="16">
         <v>8000</v>
       </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="103">
+      <c r="S44" s="102">
         <v>45709</v>
       </c>
-      <c r="T44" s="104"/>
+      <c r="T44" s="103"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3680,17 +3708,17 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="105">
+      <c r="Y44" s="97">
         <v>45770</v>
       </c>
-      <c r="Z44" s="106"/>
+      <c r="Z44" s="98"/>
       <c r="AA44" s="46">
         <v>5000</v>
       </c>
-      <c r="AB44" s="107" t="s">
+      <c r="AB44" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AC44" s="108"/>
+      <c r="AC44" s="96"/>
       <c r="AH44" s="56"/>
       <c r="AI44" s="75" t="s">
         <v>35</v>
@@ -3703,25 +3731,25 @@
       </c>
       <c r="I45" s="35">
         <f>SUM(I28:I44)</f>
-        <v>635000</v>
+        <v>535000</v>
       </c>
       <c r="M45" s="15">
         <v>18</v>
       </c>
-      <c r="N45" s="104" t="s">
+      <c r="N45" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="104"/>
+      <c r="O45" s="103"/>
       <c r="P45" s="16">
         <v>102000</v>
       </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="103">
+      <c r="S45" s="102">
         <v>45710</v>
       </c>
-      <c r="T45" s="104"/>
+      <c r="T45" s="103"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3731,17 +3759,17 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="105">
+      <c r="Y45" s="97">
         <v>45772</v>
       </c>
-      <c r="Z45" s="106"/>
+      <c r="Z45" s="98"/>
       <c r="AA45" s="46">
         <v>5000</v>
       </c>
-      <c r="AB45" s="107" t="s">
+      <c r="AB45" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AC45" s="108"/>
+      <c r="AC45" s="96"/>
       <c r="AH45" s="56"/>
       <c r="AI45" s="75" t="s">
         <v>35</v>
@@ -3751,20 +3779,20 @@
       <c r="M46" s="15">
         <v>19</v>
       </c>
-      <c r="N46" s="104" t="s">
+      <c r="N46" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="O46" s="104"/>
+      <c r="O46" s="103"/>
       <c r="P46" s="16">
         <v>10000</v>
       </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="103">
+      <c r="S46" s="102">
         <v>45711</v>
       </c>
-      <c r="T46" s="104"/>
+      <c r="T46" s="103"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3774,17 +3802,17 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="105">
+      <c r="Y46" s="97">
         <v>45774</v>
       </c>
-      <c r="Z46" s="106"/>
+      <c r="Z46" s="98"/>
       <c r="AA46" s="46">
         <v>5000</v>
       </c>
-      <c r="AB46" s="107" t="s">
+      <c r="AB46" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AC46" s="108"/>
+      <c r="AC46" s="96"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="75" t="s">
         <v>42</v>
@@ -3797,20 +3825,20 @@
       <c r="M47" s="15">
         <v>20</v>
       </c>
-      <c r="N47" s="112" t="s">
+      <c r="N47" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="113"/>
+      <c r="O47" s="111"/>
       <c r="P47" s="16">
         <v>10000</v>
       </c>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="103">
+      <c r="S47" s="102">
         <v>45712</v>
       </c>
-      <c r="T47" s="104"/>
+      <c r="T47" s="103"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3820,10 +3848,10 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="105">
+      <c r="Y47" s="97">
         <v>45775</v>
       </c>
-      <c r="Z47" s="106"/>
+      <c r="Z47" s="98"/>
       <c r="AA47" s="46">
         <v>5000</v>
       </c>
@@ -3846,20 +3874,20 @@
       <c r="M48" s="15">
         <v>21</v>
       </c>
-      <c r="N48" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="O48" s="104"/>
+      <c r="N48" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" s="103"/>
       <c r="P48" s="16">
         <v>40000</v>
       </c>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="103">
+      <c r="S48" s="102">
         <v>45713</v>
       </c>
-      <c r="T48" s="104"/>
+      <c r="T48" s="103"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3869,34 +3897,40 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="105">
+      <c r="Y48" s="97">
         <v>45776</v>
       </c>
-      <c r="Z48" s="106"/>
+      <c r="Z48" s="98"/>
       <c r="AA48" s="46">
         <v>5000</v>
       </c>
-      <c r="AB48" s="107" t="s">
+      <c r="AB48" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="AC48" s="108"/>
+      <c r="AC48" s="96"/>
       <c r="AH48" s="56"/>
       <c r="AI48" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="4:37" x14ac:dyDescent="0.35">
-      <c r="M49" s="15"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="16"/>
+      <c r="M49" s="15">
+        <v>22</v>
+      </c>
+      <c r="N49" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="O49" s="103"/>
+      <c r="P49" s="16">
+        <v>40000</v>
+      </c>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="103">
+      <c r="S49" s="102">
         <v>45714</v>
       </c>
-      <c r="T49" s="104"/>
+      <c r="T49" s="103"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3906,17 +3940,17 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="105">
+      <c r="Y49" s="97">
         <v>45778</v>
       </c>
-      <c r="Z49" s="106"/>
+      <c r="Z49" s="98"/>
       <c r="AA49" s="46">
         <v>5000</v>
       </c>
-      <c r="AB49" s="107" t="s">
+      <c r="AB49" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AC49" s="108"/>
+      <c r="AC49" s="96"/>
       <c r="AH49" s="56"/>
       <c r="AI49" s="75" t="s">
         <v>39</v>
@@ -3924,16 +3958,16 @@
     </row>
     <row r="50" spans="4:37" x14ac:dyDescent="0.35">
       <c r="M50" s="15"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
       <c r="P50" s="16"/>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="103">
+      <c r="S50" s="102">
         <v>45716</v>
       </c>
-      <c r="T50" s="104"/>
+      <c r="T50" s="103"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3943,11 +3977,17 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="105"/>
-      <c r="Z50" s="106"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="107"/>
-      <c r="AC50" s="108"/>
+      <c r="Y50" s="97">
+        <v>45779</v>
+      </c>
+      <c r="Z50" s="98"/>
+      <c r="AA50" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB50" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC50" s="96"/>
       <c r="AH50" s="56"/>
       <c r="AI50" s="75" t="s">
         <v>39</v>
@@ -3961,16 +4001,16 @@
         <v>250000</v>
       </c>
       <c r="M51" s="15"/>
-      <c r="N51" s="104"/>
-      <c r="O51" s="104"/>
+      <c r="N51" s="103"/>
+      <c r="O51" s="103"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="103">
+      <c r="S51" s="102">
         <v>45719</v>
       </c>
-      <c r="T51" s="104"/>
+      <c r="T51" s="103"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -3980,11 +4020,11 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="105"/>
-      <c r="Z51" s="106"/>
+      <c r="Y51" s="97"/>
+      <c r="Z51" s="98"/>
       <c r="AA51" s="46"/>
-      <c r="AB51" s="107"/>
-      <c r="AC51" s="108"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="96"/>
       <c r="AH51" s="56"/>
       <c r="AI51" s="75" t="s">
         <v>37</v>
@@ -4004,16 +4044,16 @@
         <v>42000</v>
       </c>
       <c r="M52" s="15"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="104"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="103"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="103">
+      <c r="S52" s="102">
         <v>45723</v>
       </c>
-      <c r="T52" s="104"/>
+      <c r="T52" s="103"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -4023,11 +4063,11 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="105"/>
-      <c r="Z52" s="106"/>
+      <c r="Y52" s="97"/>
+      <c r="Z52" s="98"/>
       <c r="AA52" s="46"/>
-      <c r="AB52" s="107"/>
-      <c r="AC52" s="108"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="96"/>
       <c r="AH52" s="56"/>
       <c r="AI52" s="75" t="s">
         <v>37</v>
@@ -4041,16 +4081,16 @@
         <v>44500</v>
       </c>
       <c r="M53" s="15"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="122"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="104"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="103">
+      <c r="S53" s="102">
         <v>45724</v>
       </c>
-      <c r="T53" s="104"/>
+      <c r="T53" s="103"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -4060,11 +4100,11 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="105"/>
-      <c r="Z53" s="106"/>
+      <c r="Y53" s="97"/>
+      <c r="Z53" s="98"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="107"/>
-      <c r="AC53" s="108"/>
+      <c r="AB53" s="95"/>
+      <c r="AC53" s="96"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76" t="s">
         <v>37</v>
@@ -4072,16 +4112,16 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="124"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="106"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="103">
+      <c r="S54" s="102">
         <v>45726</v>
       </c>
-      <c r="T54" s="104"/>
+      <c r="T54" s="103"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -4091,11 +4131,11 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="129"/>
-      <c r="Z54" s="130"/>
+      <c r="Y54" s="100"/>
+      <c r="Z54" s="101"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="107"/>
-      <c r="AC54" s="108"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="96"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="89" t="s">
         <v>64</v>
@@ -4117,194 +4157,148 @@
         <f>(D55-E55)</f>
         <v>13500</v>
       </c>
-      <c r="M55" s="93" t="s">
+      <c r="M55" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="94"/>
-      <c r="O55" s="125"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="92"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>932000</v>
-      </c>
-      <c r="R55" s="93" t="s">
+        <v>1074000</v>
+      </c>
+      <c r="R55" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="94"/>
-      <c r="T55" s="125"/>
+      <c r="S55" s="91"/>
+      <c r="T55" s="92"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="93" t="s">
+      <c r="X55" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="94"/>
-      <c r="Z55" s="125"/>
-      <c r="AA55" s="127">
+      <c r="Y55" s="91"/>
+      <c r="Z55" s="92"/>
+      <c r="AA55" s="93">
         <f>SUM(AA27:AA54)</f>
-        <v>115000</v>
-      </c>
-      <c r="AB55" s="128"/>
+        <v>120000</v>
+      </c>
+      <c r="AB55" s="94"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="126"/>
-      <c r="AJ55" s="126"/>
+      <c r="AI55" s="99"/>
+      <c r="AJ55" s="99"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="126"/>
-      <c r="AJ56" s="126"/>
+      <c r="AI56" s="99"/>
+      <c r="AJ56" s="99"/>
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="126"/>
-      <c r="AJ57" s="126"/>
+      <c r="AI57" s="99"/>
+      <c r="AJ57" s="99"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH58" s="4"/>
-      <c r="AI58" s="126"/>
-      <c r="AJ58" s="126"/>
+      <c r="AI58" s="99"/>
+      <c r="AJ58" s="99"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH59" s="4"/>
-      <c r="AI59" s="126"/>
-      <c r="AJ59" s="126"/>
+      <c r="AI59" s="99"/>
+      <c r="AJ59" s="99"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH60" s="4"/>
-      <c r="AI60" s="126"/>
-      <c r="AJ60" s="126"/>
+      <c r="AI60" s="99"/>
+      <c r="AJ60" s="99"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH61" s="4"/>
-      <c r="AI61" s="126"/>
-      <c r="AJ61" s="126"/>
+      <c r="AI61" s="99"/>
+      <c r="AJ61" s="99"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH62" s="4"/>
-      <c r="AI62" s="126"/>
-      <c r="AJ62" s="126"/>
+      <c r="AI62" s="99"/>
+      <c r="AJ62" s="99"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH63" s="4"/>
-      <c r="AI63" s="126"/>
-      <c r="AJ63" s="126"/>
+      <c r="AI63" s="99"/>
+      <c r="AJ63" s="99"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH64" s="4"/>
-      <c r="AI64" s="126"/>
-      <c r="AJ64" s="126"/>
+      <c r="AI64" s="99"/>
+      <c r="AJ64" s="99"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="34:37" x14ac:dyDescent="0.35">
       <c r="AH65" s="4"/>
-      <c r="AI65" s="126"/>
-      <c r="AJ65" s="126"/>
+      <c r="AI65" s="99"/>
+      <c r="AJ65" s="99"/>
       <c r="AK65" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N34:O34"/>
+  <mergeCells count="160">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AQ22:AR22"/>
     <mergeCell ref="AS22:AT22"/>
@@ -4329,50 +4323,97 @@
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214664F-17E5-4EB9-82C6-DBC6FF76F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4742B-CF1E-4232-B388-50C5AF1F816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>listrik 07/04/2025</t>
+  </si>
+  <si>
+    <t>listrik 04/05/2025</t>
+  </si>
+  <si>
+    <t>di keluarkan semua pas acara bakar bakar</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -998,11 +1004,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +1124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,15 +1210,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1514,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1576,60 +1599,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="H3" s="112" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
+      <c r="H3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="114"/>
-      <c r="M3" s="112" t="s">
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
+      <c r="M3" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="R3" s="112" t="s">
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="118"/>
+      <c r="R3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="114"/>
-      <c r="W3" s="112" t="s">
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="118"/>
+      <c r="W3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="114"/>
-      <c r="AB3" s="112" t="s">
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AB3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="114"/>
-      <c r="AG3" s="112" t="s">
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="118"/>
+      <c r="AG3" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="114"/>
-      <c r="AL3" s="112" t="s">
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="118"/>
+      <c r="AL3" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="114"/>
-      <c r="AQ3" s="112" t="s">
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117"/>
+      <c r="AO3" s="118"/>
+      <c r="AQ3" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="114"/>
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="117"/>
+      <c r="AT3" s="118"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1884,10 +1907,16 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="16"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="3"/>
+      <c r="R6" s="15">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="T6" s="3"/>
-      <c r="U6" s="16"/>
+      <c r="U6" s="16">
+        <v>50000</v>
+      </c>
       <c r="W6" s="55">
         <v>2</v>
       </c>
@@ -2605,87 +2634,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="115">
+      <c r="D22" s="95"/>
+      <c r="E22" s="119">
         <f>SUM(F5:F21)</f>
         <v>150000</v>
       </c>
-      <c r="F22" s="116"/>
-      <c r="H22" s="90" t="s">
+      <c r="F22" s="120"/>
+      <c r="H22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="115">
+      <c r="I22" s="95"/>
+      <c r="J22" s="119">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="116"/>
-      <c r="M22" s="90" t="s">
+      <c r="K22" s="120"/>
+      <c r="M22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="91"/>
-      <c r="O22" s="115">
+      <c r="N22" s="95"/>
+      <c r="O22" s="119">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="116"/>
-      <c r="R22" s="90" t="s">
+      <c r="P22" s="120"/>
+      <c r="R22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="91"/>
-      <c r="T22" s="115">
+      <c r="S22" s="95"/>
+      <c r="T22" s="119">
         <f>SUM(U5:U21)</f>
-        <v>100000</v>
-      </c>
-      <c r="U22" s="116"/>
-      <c r="W22" s="90" t="s">
+        <v>150000</v>
+      </c>
+      <c r="U22" s="120"/>
+      <c r="W22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="115">
+      <c r="X22" s="95"/>
+      <c r="Y22" s="119">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="116"/>
-      <c r="AB22" s="90" t="s">
+      <c r="Z22" s="120"/>
+      <c r="AB22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="115">
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="119">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="116"/>
-      <c r="AG22" s="90" t="s">
+      <c r="AE22" s="120"/>
+      <c r="AG22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="115">
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="119">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="116"/>
-      <c r="AL22" s="90" t="s">
+      <c r="AJ22" s="120"/>
+      <c r="AL22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="115">
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="119">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="116"/>
-      <c r="AQ22" s="90" t="s">
+      <c r="AO22" s="120"/>
+      <c r="AQ22" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="115">
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="119">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="116"/>
+      <c r="AT22" s="120"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2694,25 +2723,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="107" t="s">
+      <c r="M25" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="109"/>
-      <c r="R25" s="107" t="s">
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="113"/>
+      <c r="R25" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="109"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="113"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="118" t="s">
+      <c r="G26" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2746,10 +2775,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="128" t="s">
+      <c r="AB26" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="129"/>
+      <c r="AC26" s="135"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2762,14 +2791,14 @@
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1735000</v>
+        <v>1585000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2783,20 +2812,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="121" t="s">
+      <c r="N27" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="121"/>
+      <c r="O27" s="125"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="124">
+      <c r="S27" s="128">
         <v>45691</v>
       </c>
-      <c r="T27" s="121"/>
+      <c r="T27" s="125"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2806,17 +2835,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="122">
+      <c r="Y27" s="126">
         <v>45727</v>
       </c>
-      <c r="Z27" s="123"/>
+      <c r="Z27" s="127"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="126" t="s">
+      <c r="AB27" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="127"/>
+      <c r="AC27" s="131"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2838,20 +2867,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="103" t="s">
+      <c r="N28" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="103"/>
+      <c r="O28" s="107"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="102">
+      <c r="S28" s="106">
         <v>45692</v>
       </c>
-      <c r="T28" s="103"/>
+      <c r="T28" s="107"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2861,35 +2890,35 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="97">
+      <c r="Y28" s="101">
         <v>45729</v>
       </c>
-      <c r="Z28" s="98"/>
+      <c r="Z28" s="102"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="126" t="s">
+      <c r="AB28" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="127"/>
+      <c r="AC28" s="131"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="125" t="s">
+      <c r="AN28" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="125"/>
+      <c r="AO28" s="129"/>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1339000</v>
+        <v>1451000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2903,20 +2932,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="110" t="s">
+      <c r="N29" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="111"/>
+      <c r="O29" s="115"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="102">
+      <c r="S29" s="106">
         <v>45693</v>
       </c>
-      <c r="T29" s="103"/>
+      <c r="T29" s="107"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2926,17 +2955,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="97">
+      <c r="Y29" s="101">
         <v>45731</v>
       </c>
-      <c r="Z29" s="98"/>
+      <c r="Z29" s="102"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="95" t="s">
+      <c r="AB29" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AC29" s="96"/>
+      <c r="AC29" s="100"/>
       <c r="AH29" s="56"/>
       <c r="AI29" s="75" t="s">
         <v>33</v>
@@ -2952,29 +2981,31 @@
       <c r="G30" s="31">
         <v>3</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="32">
+      <c r="K30" s="32">
         <v>200000</v>
       </c>
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="103" t="s">
+      <c r="N30" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="103"/>
+      <c r="O30" s="107"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="102">
+      <c r="S30" s="106">
         <v>45694</v>
       </c>
-      <c r="T30" s="103"/>
+      <c r="T30" s="107"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -2984,17 +3015,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="97">
+      <c r="Y30" s="101">
         <v>45733</v>
       </c>
-      <c r="Z30" s="98"/>
+      <c r="Z30" s="102"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="95" t="s">
+      <c r="AB30" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" s="96"/>
+      <c r="AC30" s="100"/>
       <c r="AH30" s="56"/>
       <c r="AI30" s="75" t="s">
         <v>41</v>
@@ -3013,14 +3044,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>396000</v>
+        <v>134000</v>
       </c>
       <c r="G31" s="31">
         <v>4</v>
@@ -3029,23 +3060,27 @@
         <v>73</v>
       </c>
       <c r="I31" s="32"/>
+      <c r="J31" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" s="93"/>
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="103" t="s">
+      <c r="N31" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="103"/>
+      <c r="O31" s="107"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="102">
+      <c r="S31" s="106">
         <v>45695</v>
       </c>
-      <c r="T31" s="103"/>
+      <c r="T31" s="107"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -3055,17 +3090,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="97">
+      <c r="Y31" s="101">
         <v>45736</v>
       </c>
-      <c r="Z31" s="98"/>
+      <c r="Z31" s="102"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="95" t="s">
+      <c r="AB31" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="AC31" s="96"/>
+      <c r="AC31" s="100"/>
       <c r="AH31" s="56"/>
       <c r="AI31" s="75" t="s">
         <v>41</v>
@@ -3084,20 +3119,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="103" t="s">
+      <c r="N32" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="103"/>
+      <c r="O32" s="107"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="102">
+      <c r="S32" s="106">
         <v>45696</v>
       </c>
-      <c r="T32" s="103"/>
+      <c r="T32" s="107"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -3107,17 +3142,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="97">
+      <c r="Y32" s="101">
         <v>45741</v>
       </c>
-      <c r="Z32" s="98"/>
+      <c r="Z32" s="102"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="95" t="s">
+      <c r="AB32" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AC32" s="96"/>
+      <c r="AC32" s="100"/>
       <c r="AH32" s="56"/>
       <c r="AI32" s="75" t="s">
         <v>41</v>
@@ -3136,20 +3171,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="103" t="s">
+      <c r="N33" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="103"/>
+      <c r="O33" s="107"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="102">
+      <c r="S33" s="106">
         <v>45697</v>
       </c>
-      <c r="T33" s="103"/>
+      <c r="T33" s="107"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3159,17 +3194,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="97">
+      <c r="Y33" s="101">
         <v>45752</v>
       </c>
-      <c r="Z33" s="98"/>
+      <c r="Z33" s="102"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="95" t="s">
+      <c r="AB33" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AC33" s="96"/>
+      <c r="AC33" s="100"/>
       <c r="AH33" s="56"/>
       <c r="AI33" s="75" t="s">
         <v>34</v>
@@ -3194,20 +3229,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="103" t="s">
+      <c r="N34" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="103"/>
+      <c r="O34" s="107"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="102">
+      <c r="S34" s="106">
         <v>45699</v>
       </c>
-      <c r="T34" s="103"/>
+      <c r="T34" s="107"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3217,17 +3252,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="97">
+      <c r="Y34" s="101">
         <v>45755</v>
       </c>
-      <c r="Z34" s="98"/>
+      <c r="Z34" s="102"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="126" t="s">
+      <c r="AB34" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="127"/>
+      <c r="AC34" s="131"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3255,10 +3290,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="102">
+      <c r="S35" s="106">
         <v>45700</v>
       </c>
-      <c r="T35" s="103"/>
+      <c r="T35" s="107"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3268,17 +3303,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="97">
+      <c r="Y35" s="101">
         <v>45756</v>
       </c>
-      <c r="Z35" s="98"/>
+      <c r="Z35" s="102"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="95" t="s">
+      <c r="AB35" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AC35" s="96"/>
+      <c r="AC35" s="100"/>
       <c r="AH35" s="56"/>
       <c r="AI35" s="75" t="s">
         <v>34</v>
@@ -3297,7 +3332,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>132500</v>
+        <v>-129500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3305,20 +3340,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="131" t="s">
+      <c r="N36" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="O36" s="132"/>
+      <c r="O36" s="133"/>
       <c r="P36" s="61">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="102">
+      <c r="S36" s="106">
         <v>45700</v>
       </c>
-      <c r="T36" s="103"/>
+      <c r="T36" s="107"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3328,17 +3363,17 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="97">
+      <c r="Y36" s="101">
         <v>45757</v>
       </c>
-      <c r="Z36" s="98"/>
+      <c r="Z36" s="102"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="95" t="s">
+      <c r="AB36" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="AC36" s="96"/>
+      <c r="AC36" s="100"/>
       <c r="AH36" s="56"/>
       <c r="AI36" s="75" t="s">
         <v>34</v>
@@ -3351,20 +3386,20 @@
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="103" t="s">
+      <c r="N37" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="103"/>
+      <c r="O37" s="107"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="102">
+      <c r="S37" s="106">
         <v>45701</v>
       </c>
-      <c r="T37" s="103"/>
+      <c r="T37" s="107"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3374,17 +3409,17 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="97">
+      <c r="Y37" s="101">
         <v>45759</v>
       </c>
-      <c r="Z37" s="98"/>
+      <c r="Z37" s="102"/>
       <c r="AA37" s="46">
         <v>5000</v>
       </c>
-      <c r="AB37" s="95" t="s">
+      <c r="AB37" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="96"/>
+      <c r="AC37" s="100"/>
       <c r="AH37" s="56"/>
       <c r="AI37" s="75" t="s">
         <v>34</v>
@@ -3397,20 +3432,20 @@
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="103" t="s">
+      <c r="N38" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="103"/>
+      <c r="O38" s="107"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="102">
+      <c r="S38" s="106">
         <v>45702</v>
       </c>
-      <c r="T38" s="103"/>
+      <c r="T38" s="107"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3420,17 +3455,17 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="97">
+      <c r="Y38" s="101">
         <v>45761</v>
       </c>
-      <c r="Z38" s="98"/>
+      <c r="Z38" s="102"/>
       <c r="AA38" s="46">
         <v>5000</v>
       </c>
-      <c r="AB38" s="95" t="s">
+      <c r="AB38" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="AC38" s="96"/>
+      <c r="AC38" s="100"/>
       <c r="AH38" s="56"/>
       <c r="AI38" s="75" t="s">
         <v>34</v>
@@ -3443,20 +3478,20 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="110" t="s">
+      <c r="N39" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="111"/>
+      <c r="O39" s="115"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="102">
+      <c r="S39" s="106">
         <v>45703</v>
       </c>
-      <c r="T39" s="103"/>
+      <c r="T39" s="107"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3466,17 +3501,17 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="97">
+      <c r="Y39" s="101">
         <v>45762</v>
       </c>
-      <c r="Z39" s="98"/>
+      <c r="Z39" s="102"/>
       <c r="AA39" s="46">
         <v>5000</v>
       </c>
-      <c r="AB39" s="95" t="s">
+      <c r="AB39" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="96"/>
+      <c r="AC39" s="100"/>
       <c r="AH39" s="56"/>
       <c r="AI39" s="75" t="s">
         <v>36</v>
@@ -3495,20 +3530,20 @@
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="103" t="s">
+      <c r="N40" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="103"/>
+      <c r="O40" s="107"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="102">
+      <c r="S40" s="106">
         <v>45704</v>
       </c>
-      <c r="T40" s="103"/>
+      <c r="T40" s="107"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3518,17 +3553,17 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="97">
+      <c r="Y40" s="101">
         <v>45763</v>
       </c>
-      <c r="Z40" s="98"/>
+      <c r="Z40" s="102"/>
       <c r="AA40" s="46">
         <v>5000</v>
       </c>
-      <c r="AB40" s="95" t="s">
+      <c r="AB40" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="AC40" s="96"/>
+      <c r="AC40" s="100"/>
       <c r="AH40" s="56"/>
       <c r="AI40" s="75" t="s">
         <v>36</v>
@@ -3541,20 +3576,20 @@
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="103" t="s">
+      <c r="N41" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="103"/>
+      <c r="O41" s="107"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="102">
+      <c r="S41" s="106">
         <v>45705</v>
       </c>
-      <c r="T41" s="103"/>
+      <c r="T41" s="107"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3564,17 +3599,17 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="97">
+      <c r="Y41" s="101">
         <v>45765</v>
       </c>
-      <c r="Z41" s="98"/>
+      <c r="Z41" s="102"/>
       <c r="AA41" s="46">
         <v>5000</v>
       </c>
-      <c r="AB41" s="95" t="s">
+      <c r="AB41" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AC41" s="96"/>
+      <c r="AC41" s="100"/>
       <c r="AH41" s="56"/>
       <c r="AI41" s="75" t="s">
         <v>43</v>
@@ -3587,20 +3622,20 @@
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="110" t="s">
+      <c r="N42" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="111"/>
+      <c r="O42" s="115"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="102">
+      <c r="S42" s="106">
         <v>45707</v>
       </c>
-      <c r="T42" s="103"/>
+      <c r="T42" s="107"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3610,17 +3645,17 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="97">
+      <c r="Y42" s="101">
         <v>45766</v>
       </c>
-      <c r="Z42" s="98"/>
+      <c r="Z42" s="102"/>
       <c r="AA42" s="46">
         <v>5000</v>
       </c>
-      <c r="AB42" s="95" t="s">
+      <c r="AB42" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="AC42" s="96"/>
+      <c r="AC42" s="100"/>
       <c r="AH42" s="56"/>
       <c r="AI42" s="75" t="s">
         <v>35</v>
@@ -3639,20 +3674,20 @@
       <c r="M43" s="15">
         <v>16</v>
       </c>
-      <c r="N43" s="103" t="s">
+      <c r="N43" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="103"/>
+      <c r="O43" s="107"/>
       <c r="P43" s="16">
         <v>44500</v>
       </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="102">
+      <c r="S43" s="106">
         <v>45708</v>
       </c>
-      <c r="T43" s="103"/>
+      <c r="T43" s="107"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3662,17 +3697,17 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="97">
+      <c r="Y43" s="101">
         <v>45768</v>
       </c>
-      <c r="Z43" s="98"/>
+      <c r="Z43" s="102"/>
       <c r="AA43" s="46">
         <v>5000</v>
       </c>
-      <c r="AB43" s="95" t="s">
+      <c r="AB43" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" s="96"/>
+      <c r="AC43" s="100"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="75" t="s">
         <v>35</v>
@@ -3685,20 +3720,20 @@
       <c r="M44" s="15">
         <v>17</v>
       </c>
-      <c r="N44" s="103" t="s">
+      <c r="N44" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="103"/>
+      <c r="O44" s="107"/>
       <c r="P44" s="16">
         <v>8000</v>
       </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="102">
+      <c r="S44" s="106">
         <v>45709</v>
       </c>
-      <c r="T44" s="103"/>
+      <c r="T44" s="107"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3708,17 +3743,17 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="97">
+      <c r="Y44" s="101">
         <v>45770</v>
       </c>
-      <c r="Z44" s="98"/>
+      <c r="Z44" s="102"/>
       <c r="AA44" s="46">
         <v>5000</v>
       </c>
-      <c r="AB44" s="95" t="s">
+      <c r="AB44" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AC44" s="96"/>
+      <c r="AC44" s="100"/>
       <c r="AH44" s="56"/>
       <c r="AI44" s="75" t="s">
         <v>35</v>
@@ -3731,25 +3766,25 @@
       </c>
       <c r="I45" s="35">
         <f>SUM(I28:I44)</f>
-        <v>535000</v>
+        <v>335000</v>
       </c>
       <c r="M45" s="15">
         <v>18</v>
       </c>
-      <c r="N45" s="103" t="s">
+      <c r="N45" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="103"/>
+      <c r="O45" s="107"/>
       <c r="P45" s="16">
         <v>102000</v>
       </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="102">
+      <c r="S45" s="106">
         <v>45710</v>
       </c>
-      <c r="T45" s="103"/>
+      <c r="T45" s="107"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3759,17 +3794,17 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="97">
+      <c r="Y45" s="101">
         <v>45772</v>
       </c>
-      <c r="Z45" s="98"/>
+      <c r="Z45" s="102"/>
       <c r="AA45" s="46">
         <v>5000</v>
       </c>
-      <c r="AB45" s="95" t="s">
+      <c r="AB45" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="AC45" s="96"/>
+      <c r="AC45" s="100"/>
       <c r="AH45" s="56"/>
       <c r="AI45" s="75" t="s">
         <v>35</v>
@@ -3779,20 +3814,20 @@
       <c r="M46" s="15">
         <v>19</v>
       </c>
-      <c r="N46" s="103" t="s">
+      <c r="N46" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="O46" s="103"/>
+      <c r="O46" s="107"/>
       <c r="P46" s="16">
         <v>10000</v>
       </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="102">
+      <c r="S46" s="106">
         <v>45711</v>
       </c>
-      <c r="T46" s="103"/>
+      <c r="T46" s="107"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3802,17 +3837,17 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="97">
+      <c r="Y46" s="101">
         <v>45774</v>
       </c>
-      <c r="Z46" s="98"/>
+      <c r="Z46" s="102"/>
       <c r="AA46" s="46">
         <v>5000</v>
       </c>
-      <c r="AB46" s="95" t="s">
+      <c r="AB46" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AC46" s="96"/>
+      <c r="AC46" s="100"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="75" t="s">
         <v>42</v>
@@ -3825,20 +3860,20 @@
       <c r="M47" s="15">
         <v>20</v>
       </c>
-      <c r="N47" s="110" t="s">
+      <c r="N47" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="111"/>
+      <c r="O47" s="115"/>
       <c r="P47" s="16">
         <v>10000</v>
       </c>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="102">
+      <c r="S47" s="106">
         <v>45712</v>
       </c>
-      <c r="T47" s="103"/>
+      <c r="T47" s="107"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3848,10 +3883,10 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="97">
+      <c r="Y47" s="101">
         <v>45775</v>
       </c>
-      <c r="Z47" s="98"/>
+      <c r="Z47" s="102"/>
       <c r="AA47" s="46">
         <v>5000</v>
       </c>
@@ -3874,20 +3909,20 @@
       <c r="M48" s="15">
         <v>21</v>
       </c>
-      <c r="N48" s="103" t="s">
+      <c r="N48" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="O48" s="103"/>
+      <c r="O48" s="107"/>
       <c r="P48" s="16">
         <v>40000</v>
       </c>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="102">
+      <c r="S48" s="106">
         <v>45713</v>
       </c>
-      <c r="T48" s="103"/>
+      <c r="T48" s="107"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3897,17 +3932,17 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="97">
+      <c r="Y48" s="101">
         <v>45776</v>
       </c>
-      <c r="Z48" s="98"/>
+      <c r="Z48" s="102"/>
       <c r="AA48" s="46">
         <v>5000</v>
       </c>
-      <c r="AB48" s="95" t="s">
+      <c r="AB48" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="AC48" s="96"/>
+      <c r="AC48" s="100"/>
       <c r="AH48" s="56"/>
       <c r="AI48" s="75" t="s">
         <v>39</v>
@@ -3917,20 +3952,20 @@
       <c r="M49" s="15">
         <v>22</v>
       </c>
-      <c r="N49" s="103" t="s">
+      <c r="N49" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="O49" s="103"/>
+      <c r="O49" s="107"/>
       <c r="P49" s="16">
         <v>40000</v>
       </c>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="102">
+      <c r="S49" s="106">
         <v>45714</v>
       </c>
-      <c r="T49" s="103"/>
+      <c r="T49" s="107"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3940,34 +3975,40 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="97">
+      <c r="Y49" s="101">
         <v>45778</v>
       </c>
-      <c r="Z49" s="98"/>
+      <c r="Z49" s="102"/>
       <c r="AA49" s="46">
         <v>5000</v>
       </c>
-      <c r="AB49" s="95" t="s">
+      <c r="AB49" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="AC49" s="96"/>
+      <c r="AC49" s="100"/>
       <c r="AH49" s="56"/>
       <c r="AI49" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="50" spans="4:37" x14ac:dyDescent="0.35">
-      <c r="M50" s="15"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="16"/>
+      <c r="M50" s="15">
+        <v>23</v>
+      </c>
+      <c r="N50" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="107"/>
+      <c r="P50" s="16">
+        <v>102000</v>
+      </c>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="102">
+      <c r="S50" s="106">
         <v>45716</v>
       </c>
-      <c r="T50" s="103"/>
+      <c r="T50" s="107"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -3977,17 +4018,17 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="97">
+      <c r="Y50" s="101">
         <v>45779</v>
       </c>
-      <c r="Z50" s="98"/>
+      <c r="Z50" s="102"/>
       <c r="AA50" s="46">
         <v>5000</v>
       </c>
-      <c r="AB50" s="95" t="s">
+      <c r="AB50" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AC50" s="96"/>
+      <c r="AC50" s="100"/>
       <c r="AH50" s="56"/>
       <c r="AI50" s="75" t="s">
         <v>39</v>
@@ -4001,16 +4042,16 @@
         <v>250000</v>
       </c>
       <c r="M51" s="15"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="107"/>
       <c r="P51" s="16"/>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="102">
+      <c r="S51" s="106">
         <v>45719</v>
       </c>
-      <c r="T51" s="103"/>
+      <c r="T51" s="107"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -4020,11 +4061,17 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="97"/>
-      <c r="Z51" s="98"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="95"/>
-      <c r="AC51" s="96"/>
+      <c r="Y51" s="101">
+        <v>45781</v>
+      </c>
+      <c r="Z51" s="102"/>
+      <c r="AA51" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB51" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC51" s="100"/>
       <c r="AH51" s="56"/>
       <c r="AI51" s="75" t="s">
         <v>37</v>
@@ -4044,16 +4091,16 @@
         <v>42000</v>
       </c>
       <c r="M52" s="15"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="103"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="107"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="102">
+      <c r="S52" s="106">
         <v>45723</v>
       </c>
-      <c r="T52" s="103"/>
+      <c r="T52" s="107"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -4063,11 +4110,17 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="97"/>
-      <c r="Z52" s="98"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="95"/>
-      <c r="AC52" s="96"/>
+      <c r="Y52" s="101">
+        <v>45782</v>
+      </c>
+      <c r="Z52" s="102"/>
+      <c r="AA52" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB52" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC52" s="100"/>
       <c r="AH52" s="56"/>
       <c r="AI52" s="75" t="s">
         <v>37</v>
@@ -4081,16 +4134,16 @@
         <v>44500</v>
       </c>
       <c r="M53" s="15"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="104"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="108"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="102">
+      <c r="S53" s="106">
         <v>45724</v>
       </c>
-      <c r="T53" s="103"/>
+      <c r="T53" s="107"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -4100,11 +4153,11 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="97"/>
-      <c r="Z53" s="98"/>
+      <c r="Y53" s="101"/>
+      <c r="Z53" s="102"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="95"/>
-      <c r="AC53" s="96"/>
+      <c r="AB53" s="99"/>
+      <c r="AC53" s="100"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76" t="s">
         <v>37</v>
@@ -4112,16 +4165,16 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="106"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="110"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="102">
+      <c r="S54" s="106">
         <v>45726</v>
       </c>
-      <c r="T54" s="103"/>
+      <c r="T54" s="107"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -4131,11 +4184,11 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="100"/>
-      <c r="Z54" s="101"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="105"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="95"/>
-      <c r="AC54" s="96"/>
+      <c r="AB54" s="99"/>
+      <c r="AC54" s="100"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="89" t="s">
         <v>64</v>
@@ -4157,103 +4210,103 @@
         <f>(D55-E55)</f>
         <v>13500</v>
       </c>
-      <c r="M55" s="90" t="s">
+      <c r="M55" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="91"/>
-      <c r="O55" s="92"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="96"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>1074000</v>
-      </c>
-      <c r="R55" s="90" t="s">
+        <v>1176000</v>
+      </c>
+      <c r="R55" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="91"/>
-      <c r="T55" s="92"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="96"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="90" t="s">
+      <c r="X55" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="91"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="93">
+      <c r="Y55" s="95"/>
+      <c r="Z55" s="96"/>
+      <c r="AA55" s="97">
         <f>SUM(AA27:AA54)</f>
-        <v>120000</v>
-      </c>
-      <c r="AB55" s="94"/>
+        <v>130000</v>
+      </c>
+      <c r="AB55" s="98"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="99"/>
-      <c r="AJ55" s="99"/>
+      <c r="AI55" s="103"/>
+      <c r="AJ55" s="103"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="99"/>
-      <c r="AJ56" s="99"/>
+      <c r="AI56" s="103"/>
+      <c r="AJ56" s="103"/>
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="99"/>
-      <c r="AJ57" s="99"/>
+      <c r="AI57" s="103"/>
+      <c r="AJ57" s="103"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH58" s="4"/>
-      <c r="AI58" s="99"/>
-      <c r="AJ58" s="99"/>
+      <c r="AI58" s="103"/>
+      <c r="AJ58" s="103"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH59" s="4"/>
-      <c r="AI59" s="99"/>
-      <c r="AJ59" s="99"/>
+      <c r="AI59" s="103"/>
+      <c r="AJ59" s="103"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH60" s="4"/>
-      <c r="AI60" s="99"/>
-      <c r="AJ60" s="99"/>
+      <c r="AI60" s="103"/>
+      <c r="AJ60" s="103"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH61" s="4"/>
-      <c r="AI61" s="99"/>
-      <c r="AJ61" s="99"/>
+      <c r="AI61" s="103"/>
+      <c r="AJ61" s="103"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH62" s="4"/>
-      <c r="AI62" s="99"/>
-      <c r="AJ62" s="99"/>
+      <c r="AI62" s="103"/>
+      <c r="AJ62" s="103"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH63" s="4"/>
-      <c r="AI63" s="99"/>
-      <c r="AJ63" s="99"/>
+      <c r="AI63" s="103"/>
+      <c r="AJ63" s="103"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH64" s="4"/>
-      <c r="AI64" s="99"/>
-      <c r="AJ64" s="99"/>
+      <c r="AI64" s="103"/>
+      <c r="AJ64" s="103"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="34:37" x14ac:dyDescent="0.35">
       <c r="AH65" s="4"/>
-      <c r="AI65" s="99"/>
-      <c r="AJ65" s="99"/>
+      <c r="AI65" s="103"/>
+      <c r="AJ65" s="103"/>
       <c r="AK65" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
+  <mergeCells count="161">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H22:I22"/>
@@ -4361,10 +4414,6 @@
     <mergeCell ref="S43:T43"/>
     <mergeCell ref="S44:T44"/>
     <mergeCell ref="S45:T45"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
     <mergeCell ref="Y50:Z50"/>
     <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="Y32:Z32"/>
@@ -4381,19 +4430,9 @@
     <mergeCell ref="Y39:Z39"/>
     <mergeCell ref="Y40:Z40"/>
     <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
     <mergeCell ref="AI65:AJ65"/>
     <mergeCell ref="AI55:AJ55"/>
     <mergeCell ref="AI56:AJ56"/>
@@ -4403,6 +4442,9 @@
     <mergeCell ref="AI60:AJ60"/>
     <mergeCell ref="AI61:AJ61"/>
     <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="X55:Z55"/>
     <mergeCell ref="AA55:AB55"/>
     <mergeCell ref="AB48:AC48"/>
@@ -4411,9 +4453,21 @@
     <mergeCell ref="AB51:AC51"/>
     <mergeCell ref="Y52:Z52"/>
     <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4742B-CF1E-4232-B388-50C5AF1F816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF2F28-AF18-427A-82F3-1B70F71CF13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="83">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>di keluarkan semua pas acara bakar bakar</t>
+  </si>
+  <si>
+    <t>mei</t>
+  </si>
+  <si>
+    <t>5//7/2025</t>
+  </si>
+  <si>
+    <t>beli sunligt</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -919,32 +928,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1017,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,7 +1078,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1114,7 +1097,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
@@ -1123,13 +1106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1141,10 +1124,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1152,8 +1135,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1213,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1537,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1599,60 +1580,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
-      <c r="H3" s="116" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="H3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
-      <c r="M3" s="116" t="s">
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="116"/>
+      <c r="M3" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="R3" s="116" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="116"/>
+      <c r="R3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="118"/>
-      <c r="W3" s="116" t="s">
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="116"/>
+      <c r="W3" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AB3" s="116" t="s">
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="116"/>
+      <c r="AB3" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="118"/>
-      <c r="AG3" s="116" t="s">
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="116"/>
+      <c r="AG3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="118"/>
-      <c r="AL3" s="116" t="s">
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="116"/>
+      <c r="AL3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="118"/>
-      <c r="AQ3" s="116" t="s">
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="115"/>
+      <c r="AO3" s="116"/>
+      <c r="AQ3" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="118"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="116"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -1891,7 +1872,9 @@
         <v>50000</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="15"/>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
       <c r="I6" s="65" t="s">
         <v>53</v>
       </c>
@@ -2062,10 +2045,18 @@
     </row>
     <row r="8" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="15">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="16">
+        <v>50000</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="15"/>
       <c r="I8" s="3"/>
@@ -2638,83 +2629,83 @@
         <v>8</v>
       </c>
       <c r="D22" s="95"/>
-      <c r="E22" s="119">
+      <c r="E22" s="117">
         <f>SUM(F5:F21)</f>
-        <v>150000</v>
-      </c>
-      <c r="F22" s="120"/>
+        <v>200000</v>
+      </c>
+      <c r="F22" s="118"/>
       <c r="H22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="95"/>
-      <c r="J22" s="119">
+      <c r="J22" s="117">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="120"/>
+      <c r="K22" s="118"/>
       <c r="M22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="95"/>
-      <c r="O22" s="119">
+      <c r="O22" s="117">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="120"/>
+      <c r="P22" s="118"/>
       <c r="R22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="S22" s="95"/>
-      <c r="T22" s="119">
+      <c r="T22" s="117">
         <f>SUM(U5:U21)</f>
         <v>150000</v>
       </c>
-      <c r="U22" s="120"/>
+      <c r="U22" s="118"/>
       <c r="W22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="95"/>
-      <c r="Y22" s="119">
+      <c r="Y22" s="117">
         <f>SUM(Z5:Z21)</f>
         <v>150000</v>
       </c>
-      <c r="Z22" s="120"/>
+      <c r="Z22" s="118"/>
       <c r="AB22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="AC22" s="95"/>
-      <c r="AD22" s="119">
+      <c r="AD22" s="117">
         <f>SUM(AE5:AE21)</f>
         <v>150000</v>
       </c>
-      <c r="AE22" s="120"/>
+      <c r="AE22" s="118"/>
       <c r="AG22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="AH22" s="95"/>
-      <c r="AI22" s="119">
+      <c r="AI22" s="117">
         <f>SUM(AJ5:AJ21)</f>
         <v>150000</v>
       </c>
-      <c r="AJ22" s="120"/>
+      <c r="AJ22" s="118"/>
       <c r="AL22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="AM22" s="95"/>
-      <c r="AN22" s="119">
+      <c r="AN22" s="117">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="120"/>
+      <c r="AO22" s="118"/>
       <c r="AQ22" s="94" t="s">
         <v>8</v>
       </c>
       <c r="AR22" s="95"/>
-      <c r="AS22" s="119">
+      <c r="AS22" s="117">
         <f>SUM(AT5:AT21)</f>
         <v>150000</v>
       </c>
-      <c r="AT22" s="120"/>
+      <c r="AT22" s="118"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2723,25 +2714,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="111" t="s">
+      <c r="M25" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="113"/>
-      <c r="R25" s="111" t="s">
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="111"/>
+      <c r="R25" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="113"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="111"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2775,10 +2766,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="134" t="s">
+      <c r="AB26" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="135"/>
+      <c r="AC26" s="133"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2791,14 +2782,14 @@
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1585000</v>
+        <v>1635000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2812,20 +2803,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="125" t="s">
+      <c r="N27" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="125"/>
+      <c r="O27" s="123"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="128">
+      <c r="S27" s="126">
         <v>45691</v>
       </c>
-      <c r="T27" s="125"/>
+      <c r="T27" s="123"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2835,17 +2826,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="126">
+      <c r="Y27" s="124">
         <v>45727</v>
       </c>
-      <c r="Z27" s="127"/>
+      <c r="Z27" s="125"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="130" t="s">
+      <c r="AB27" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="131"/>
+      <c r="AC27" s="129"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2867,20 +2858,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="107" t="s">
+      <c r="N28" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="107"/>
+      <c r="O28" s="105"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="106">
+      <c r="S28" s="104">
         <v>45692</v>
       </c>
-      <c r="T28" s="107"/>
+      <c r="T28" s="105"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2897,28 +2888,31 @@
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="130" t="s">
+      <c r="AB28" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="131"/>
+      <c r="AC28" s="129"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="129" t="s">
+      <c r="AN28" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="129"/>
+      <c r="AO28" s="127"/>
+      <c r="AP28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55)</f>
-        <v>1451000</v>
+        <v>1471000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2932,20 +2926,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="114" t="s">
+      <c r="N29" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="115"/>
+      <c r="O29" s="113"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="106">
+      <c r="S29" s="104">
         <v>45693</v>
       </c>
-      <c r="T29" s="107"/>
+      <c r="T29" s="105"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2976,6 +2970,9 @@
       <c r="AO29">
         <v>28</v>
       </c>
+      <c r="AP29">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.35">
       <c r="G30" s="31">
@@ -2992,20 +2989,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="107" t="s">
+      <c r="N30" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="107"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="106">
+      <c r="S30" s="104">
         <v>45694</v>
       </c>
-      <c r="T30" s="107"/>
+      <c r="T30" s="105"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -3044,14 +3041,14 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>134000</v>
+        <v>164000</v>
       </c>
       <c r="G31" s="31">
         <v>4</v>
@@ -3067,20 +3064,20 @@
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="107" t="s">
+      <c r="N31" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="107"/>
+      <c r="O31" s="105"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="106">
+      <c r="S31" s="104">
         <v>45695</v>
       </c>
-      <c r="T31" s="107"/>
+      <c r="T31" s="105"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -3109,6 +3106,9 @@
         <v>39</v>
       </c>
       <c r="AO31">
+        <v>28</v>
+      </c>
+      <c r="AP31">
         <v>28</v>
       </c>
     </row>
@@ -3119,20 +3119,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="107" t="s">
+      <c r="N32" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="107"/>
+      <c r="O32" s="105"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="106">
+      <c r="S32" s="104">
         <v>45696</v>
       </c>
-      <c r="T32" s="107"/>
+      <c r="T32" s="105"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -3163,28 +3163,31 @@
       <c r="AO32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AP32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G33" s="31"/>
       <c r="H33" s="28"/>
       <c r="I33" s="32"/>
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="107" t="s">
+      <c r="N33" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="107"/>
+      <c r="O33" s="105"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="106">
+      <c r="S33" s="104">
         <v>45697</v>
       </c>
-      <c r="T33" s="107"/>
+      <c r="T33" s="105"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3221,28 +3224,31 @@
       <c r="AO33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="AP33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G34" s="31"/>
       <c r="H34" s="28"/>
       <c r="I34" s="32"/>
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="107" t="s">
+      <c r="N34" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="107"/>
+      <c r="O34" s="105"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="106">
+      <c r="S34" s="104">
         <v>45699</v>
       </c>
-      <c r="T34" s="107"/>
+      <c r="T34" s="105"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3259,10 +3265,10 @@
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="130" t="s">
+      <c r="AB34" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="131"/>
+      <c r="AC34" s="129"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3273,8 +3279,11 @@
       <c r="AO34">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="AP34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G35" s="31"/>
       <c r="H35" s="28"/>
       <c r="I35" s="32"/>
@@ -3290,10 +3299,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="106">
+      <c r="S35" s="104">
         <v>45700</v>
       </c>
-      <c r="T35" s="107"/>
+      <c r="T35" s="105"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3325,14 +3334,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>-129500</v>
+        <v>-99500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3340,20 +3349,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="132" t="s">
+      <c r="N36" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="O36" s="133"/>
+      <c r="O36" s="131"/>
       <c r="P36" s="61">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="106">
+      <c r="S36" s="104">
         <v>45700</v>
       </c>
-      <c r="T36" s="107"/>
+      <c r="T36" s="105"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3379,27 +3388,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G37" s="31"/>
       <c r="H37" s="28"/>
       <c r="I37" s="32"/>
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="107" t="s">
+      <c r="N37" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="107"/>
+      <c r="O37" s="105"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="106">
+      <c r="S37" s="104">
         <v>45701</v>
       </c>
-      <c r="T37" s="107"/>
+      <c r="T37" s="105"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3425,27 +3434,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G38" s="31"/>
       <c r="H38" s="28"/>
       <c r="I38" s="32"/>
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="107" t="s">
+      <c r="N38" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="107"/>
+      <c r="O38" s="105"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="106">
+      <c r="S38" s="104">
         <v>45702</v>
       </c>
-      <c r="T38" s="107"/>
+      <c r="T38" s="105"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3471,27 +3480,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
       <c r="I39" s="32"/>
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="114" t="s">
+      <c r="N39" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="115"/>
+      <c r="O39" s="113"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="106">
+      <c r="S39" s="104">
         <v>45703</v>
       </c>
-      <c r="T39" s="107"/>
+      <c r="T39" s="105"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3523,27 +3532,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G40" s="31"/>
       <c r="H40" s="28"/>
       <c r="I40" s="32"/>
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="107" t="s">
+      <c r="N40" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="107"/>
+      <c r="O40" s="105"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="106">
+      <c r="S40" s="104">
         <v>45704</v>
       </c>
-      <c r="T40" s="107"/>
+      <c r="T40" s="105"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3569,27 +3578,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G41" s="31"/>
       <c r="H41" s="28"/>
       <c r="I41" s="32"/>
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="107" t="s">
+      <c r="N41" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="107"/>
+      <c r="O41" s="105"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="106">
+      <c r="S41" s="104">
         <v>45705</v>
       </c>
-      <c r="T41" s="107"/>
+      <c r="T41" s="105"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3615,27 +3624,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G42" s="31"/>
       <c r="H42" s="28"/>
       <c r="I42" s="32"/>
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="114" t="s">
+      <c r="N42" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="115"/>
+      <c r="O42" s="113"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="106">
+      <c r="S42" s="104">
         <v>45707</v>
       </c>
-      <c r="T42" s="107"/>
+      <c r="T42" s="105"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3667,27 +3676,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G43" s="31"/>
       <c r="H43" s="28"/>
       <c r="I43" s="32"/>
       <c r="M43" s="15">
         <v>16</v>
       </c>
-      <c r="N43" s="107" t="s">
+      <c r="N43" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="107"/>
+      <c r="O43" s="105"/>
       <c r="P43" s="16">
         <v>44500</v>
       </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="106">
+      <c r="S43" s="104">
         <v>45708</v>
       </c>
-      <c r="T43" s="107"/>
+      <c r="T43" s="105"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3713,27 +3722,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G44" s="33"/>
       <c r="H44" s="29"/>
       <c r="I44" s="34"/>
       <c r="M44" s="15">
         <v>17</v>
       </c>
-      <c r="N44" s="107" t="s">
+      <c r="N44" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="107"/>
+      <c r="O44" s="105"/>
       <c r="P44" s="16">
         <v>8000</v>
       </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="106">
+      <c r="S44" s="104">
         <v>45709</v>
       </c>
-      <c r="T44" s="107"/>
+      <c r="T44" s="105"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3759,7 +3768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G45" s="21"/>
       <c r="H45" s="22" t="s">
         <v>8</v>
@@ -3771,20 +3780,20 @@
       <c r="M45" s="15">
         <v>18</v>
       </c>
-      <c r="N45" s="107" t="s">
+      <c r="N45" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="107"/>
+      <c r="O45" s="105"/>
       <c r="P45" s="16">
         <v>102000</v>
       </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="106">
+      <c r="S45" s="104">
         <v>45710</v>
       </c>
-      <c r="T45" s="107"/>
+      <c r="T45" s="105"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3810,24 +3819,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:42" x14ac:dyDescent="0.35">
       <c r="M46" s="15">
         <v>19</v>
       </c>
-      <c r="N46" s="107" t="s">
+      <c r="N46" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="O46" s="107"/>
+      <c r="O46" s="105"/>
       <c r="P46" s="16">
         <v>10000</v>
       </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="106">
+      <c r="S46" s="104">
         <v>45711</v>
       </c>
-      <c r="T46" s="107"/>
+      <c r="T46" s="105"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3856,24 +3865,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.35">
       <c r="M47" s="15">
         <v>20</v>
       </c>
-      <c r="N47" s="114" t="s">
+      <c r="N47" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="115"/>
+      <c r="O47" s="113"/>
       <c r="P47" s="16">
         <v>10000</v>
       </c>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="106">
+      <c r="S47" s="104">
         <v>45712</v>
       </c>
-      <c r="T47" s="107"/>
+      <c r="T47" s="105"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3905,24 +3914,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:42" x14ac:dyDescent="0.35">
       <c r="M48" s="15">
         <v>21</v>
       </c>
-      <c r="N48" s="107" t="s">
+      <c r="N48" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="O48" s="107"/>
+      <c r="O48" s="105"/>
       <c r="P48" s="16">
         <v>40000</v>
       </c>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="106">
+      <c r="S48" s="104">
         <v>45713</v>
       </c>
-      <c r="T48" s="107"/>
+      <c r="T48" s="105"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3952,20 +3961,20 @@
       <c r="M49" s="15">
         <v>22</v>
       </c>
-      <c r="N49" s="107" t="s">
+      <c r="N49" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="O49" s="107"/>
+      <c r="O49" s="105"/>
       <c r="P49" s="16">
         <v>40000</v>
       </c>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="106">
+      <c r="S49" s="104">
         <v>45714</v>
       </c>
-      <c r="T49" s="107"/>
+      <c r="T49" s="105"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3995,20 +4004,20 @@
       <c r="M50" s="15">
         <v>23</v>
       </c>
-      <c r="N50" s="107" t="s">
+      <c r="N50" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="107"/>
+      <c r="O50" s="105"/>
       <c r="P50" s="16">
         <v>102000</v>
       </c>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="106">
+      <c r="S50" s="104">
         <v>45716</v>
       </c>
-      <c r="T50" s="107"/>
+      <c r="T50" s="105"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -4041,17 +4050,23 @@
       <c r="E51" s="78">
         <v>250000</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="107"/>
-      <c r="P51" s="16"/>
+      <c r="M51" s="15">
+        <v>24</v>
+      </c>
+      <c r="N51" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="O51" s="105"/>
+      <c r="P51" s="16">
+        <v>10000</v>
+      </c>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="106">
+      <c r="S51" s="104">
         <v>45719</v>
       </c>
-      <c r="T51" s="107"/>
+      <c r="T51" s="105"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -4091,16 +4106,16 @@
         <v>42000</v>
       </c>
       <c r="M52" s="15"/>
-      <c r="N52" s="107"/>
-      <c r="O52" s="107"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
       <c r="P52" s="16"/>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="106">
+      <c r="S52" s="104">
         <v>45723</v>
       </c>
-      <c r="T52" s="107"/>
+      <c r="T52" s="105"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -4135,15 +4150,15 @@
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="99"/>
-      <c r="O53" s="108"/>
+      <c r="O53" s="106"/>
       <c r="P53" s="16"/>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="106">
+      <c r="S53" s="104">
         <v>45724</v>
       </c>
-      <c r="T53" s="107"/>
+      <c r="T53" s="105"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -4153,10 +4168,16 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="101"/>
+      <c r="Y53" s="101">
+        <v>45784</v>
+      </c>
       <c r="Z53" s="102"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="99"/>
+      <c r="AA53" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB53" s="99" t="s">
+        <v>33</v>
+      </c>
       <c r="AC53" s="100"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76" t="s">
@@ -4165,16 +4186,16 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="110"/>
+      <c r="N54" s="107"/>
+      <c r="O54" s="108"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="106">
+      <c r="S54" s="104">
         <v>45726</v>
       </c>
-      <c r="T54" s="107"/>
+      <c r="T54" s="105"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -4184,10 +4205,16 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="104"/>
-      <c r="Z54" s="105"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="99"/>
+      <c r="Y54" s="101">
+        <v>45785</v>
+      </c>
+      <c r="Z54" s="102"/>
+      <c r="AA54" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AB54" s="99" t="s">
+        <v>37</v>
+      </c>
       <c r="AC54" s="100"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="89" t="s">
@@ -4217,7 +4244,7 @@
       <c r="O55" s="96"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>1176000</v>
+        <v>1186000</v>
       </c>
       <c r="R55" s="94" t="s">
         <v>8</v>
@@ -4236,7 +4263,7 @@
       <c r="Z55" s="96"/>
       <c r="AA55" s="97">
         <f>SUM(AA27:AA54)</f>
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="AB55" s="98"/>
       <c r="AC55" s="57"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF2F28-AF18-427A-82F3-1B70F71CF13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD110AC-1A0D-432C-BF3B-4954DCB9F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="93">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -284,6 +284,36 @@
   </si>
   <si>
     <t>beli sunligt</t>
+  </si>
+  <si>
+    <t>14/5/2025</t>
+  </si>
+  <si>
+    <t>listrik 18/05/2025</t>
+  </si>
+  <si>
+    <t>19/5/2025</t>
+  </si>
+  <si>
+    <t>18/5/2025</t>
+  </si>
+  <si>
+    <t>16/5/2025</t>
+  </si>
+  <si>
+    <t>15/5/2025</t>
+  </si>
+  <si>
+    <t>listrik 20/05/2026</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>jhovan</t>
+  </si>
+  <si>
+    <t>21/05/2026</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +1139,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,7 +1176,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,6 +1239,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
-  <dimension ref="B1:AT65"/>
+  <dimension ref="B1:AT87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1580,60 +1624,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-      <c r="H3" s="114" t="s">
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="H3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
-      <c r="M3" s="114" t="s">
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
+      <c r="M3" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="116"/>
-      <c r="R3" s="114" t="s">
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="124"/>
+      <c r="R3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="116"/>
-      <c r="W3" s="114" t="s">
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="124"/>
+      <c r="W3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="116"/>
-      <c r="AB3" s="114" t="s">
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AB3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="116"/>
-      <c r="AG3" s="114" t="s">
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="124"/>
+      <c r="AG3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="116"/>
-      <c r="AL3" s="114" t="s">
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="124"/>
+      <c r="AL3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="116"/>
-      <c r="AQ3" s="114" t="s">
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="123"/>
+      <c r="AO3" s="124"/>
+      <c r="AQ3" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="116"/>
+      <c r="AR3" s="123"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="124"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2010,7 +2054,9 @@
       <c r="AE7" s="14">
         <v>50000</v>
       </c>
-      <c r="AG7" s="15"/>
+      <c r="AG7" s="15">
+        <v>3</v>
+      </c>
       <c r="AH7" s="3" t="s">
         <v>56</v>
       </c>
@@ -2070,18 +2116,42 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="16"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="16"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="16"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="16"/>
+      <c r="W8" s="15">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="100">
+        <v>45797</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD8" s="92">
+        <v>45785</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AG8" s="15">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI8" s="98">
+        <v>45795</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>50000</v>
+      </c>
       <c r="AL8" s="15"/>
       <c r="AM8" s="71" t="s">
         <v>47</v>
@@ -2092,10 +2162,18 @@
       <c r="AO8" s="16">
         <v>50000</v>
       </c>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="16"/>
+      <c r="AQ8" s="55">
+        <v>4</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS8" s="97">
+        <v>45795</v>
+      </c>
+      <c r="AT8" s="14">
+        <v>50000</v>
+      </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
@@ -2625,87 +2703,87 @@
     </row>
     <row r="22" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="117">
+      <c r="D22" s="104"/>
+      <c r="E22" s="125">
         <f>SUM(F5:F21)</f>
         <v>200000</v>
       </c>
-      <c r="F22" s="118"/>
-      <c r="H22" s="94" t="s">
+      <c r="F22" s="126"/>
+      <c r="H22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="95"/>
-      <c r="J22" s="117">
+      <c r="I22" s="104"/>
+      <c r="J22" s="125">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="118"/>
-      <c r="M22" s="94" t="s">
+      <c r="K22" s="126"/>
+      <c r="M22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="95"/>
-      <c r="O22" s="117">
+      <c r="N22" s="104"/>
+      <c r="O22" s="125">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="118"/>
-      <c r="R22" s="94" t="s">
+      <c r="P22" s="126"/>
+      <c r="R22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="95"/>
-      <c r="T22" s="117">
+      <c r="S22" s="104"/>
+      <c r="T22" s="125">
         <f>SUM(U5:U21)</f>
         <v>150000</v>
       </c>
-      <c r="U22" s="118"/>
-      <c r="W22" s="94" t="s">
+      <c r="U22" s="126"/>
+      <c r="W22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="117">
+      <c r="X22" s="104"/>
+      <c r="Y22" s="125">
         <f>SUM(Z5:Z21)</f>
-        <v>150000</v>
-      </c>
-      <c r="Z22" s="118"/>
-      <c r="AB22" s="94" t="s">
+        <v>200000</v>
+      </c>
+      <c r="Z22" s="126"/>
+      <c r="AB22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="117">
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="125">
         <f>SUM(AE5:AE21)</f>
-        <v>150000</v>
-      </c>
-      <c r="AE22" s="118"/>
-      <c r="AG22" s="94" t="s">
+        <v>200000</v>
+      </c>
+      <c r="AE22" s="126"/>
+      <c r="AG22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="117">
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="125">
         <f>SUM(AJ5:AJ21)</f>
-        <v>150000</v>
-      </c>
-      <c r="AJ22" s="118"/>
-      <c r="AL22" s="94" t="s">
+        <v>200000</v>
+      </c>
+      <c r="AJ22" s="126"/>
+      <c r="AL22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="117">
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="125">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="118"/>
-      <c r="AQ22" s="94" t="s">
+      <c r="AO22" s="126"/>
+      <c r="AQ22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="117">
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="125">
         <f>SUM(AT5:AT21)</f>
-        <v>150000</v>
-      </c>
-      <c r="AT22" s="118"/>
+        <v>200000</v>
+      </c>
+      <c r="AT22" s="126"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2714,25 +2792,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="109" t="s">
+      <c r="M25" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="111"/>
-      <c r="R25" s="109" t="s">
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="119"/>
+      <c r="R25" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="111"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="119"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="120" t="s">
+      <c r="G26" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2766,10 +2844,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="132" t="s">
+      <c r="AB26" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="133"/>
+      <c r="AC26" s="141"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2782,14 +2860,14 @@
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
-        <v>1635000</v>
+        <v>1905000</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>7</v>
@@ -2803,20 +2881,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="123" t="s">
+      <c r="N27" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="123"/>
+      <c r="O27" s="131"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="126">
+      <c r="S27" s="134">
         <v>45691</v>
       </c>
-      <c r="T27" s="123"/>
+      <c r="T27" s="131"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2826,17 +2904,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="124">
+      <c r="Y27" s="132">
         <v>45727</v>
       </c>
-      <c r="Z27" s="125"/>
+      <c r="Z27" s="133"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="128" t="s">
+      <c r="AB27" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="129"/>
+      <c r="AC27" s="137"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2858,20 +2936,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="105" t="s">
+      <c r="N28" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="105"/>
+      <c r="O28" s="114"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="104">
+      <c r="S28" s="113">
         <v>45692</v>
       </c>
-      <c r="T28" s="105"/>
+      <c r="T28" s="114"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2881,38 +2959,38 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="101">
+      <c r="Y28" s="110">
         <v>45729</v>
       </c>
-      <c r="Z28" s="102"/>
+      <c r="Z28" s="111"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="128" t="s">
+      <c r="AB28" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="129"/>
+      <c r="AC28" s="137"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="127" t="s">
+      <c r="AN28" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="127"/>
+      <c r="AO28" s="135"/>
       <c r="AP28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="25">
-        <f>(P55+U55+AA55)</f>
-        <v>1471000</v>
+        <f>(P55+U55+AA55+U87)</f>
+        <v>1639000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -2921,25 +2999,25 @@
         <v>29</v>
       </c>
       <c r="I29" s="32">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="112" t="s">
+      <c r="N29" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="113"/>
+      <c r="O29" s="121"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="104">
+      <c r="S29" s="113">
         <v>45693</v>
       </c>
-      <c r="T29" s="105"/>
+      <c r="T29" s="114"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -2949,17 +3027,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="101">
+      <c r="Y29" s="110">
         <v>45731</v>
       </c>
-      <c r="Z29" s="102"/>
+      <c r="Z29" s="111"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="99" t="s">
+      <c r="AB29" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AC29" s="100"/>
+      <c r="AC29" s="109"/>
       <c r="AH29" s="56"/>
       <c r="AI29" s="75" t="s">
         <v>33</v>
@@ -2989,20 +3067,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="105" t="s">
+      <c r="N30" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="105"/>
+      <c r="O30" s="114"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="104">
+      <c r="S30" s="113">
         <v>45694</v>
       </c>
-      <c r="T30" s="105"/>
+      <c r="T30" s="114"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -3012,17 +3090,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="101">
+      <c r="Y30" s="110">
         <v>45733</v>
       </c>
-      <c r="Z30" s="102"/>
+      <c r="Z30" s="111"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="99" t="s">
+      <c r="AB30" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" s="100"/>
+      <c r="AC30" s="109"/>
       <c r="AH30" s="56"/>
       <c r="AI30" s="75" t="s">
         <v>41</v>
@@ -3039,16 +3117,19 @@
       <c r="AO30">
         <v>28</v>
       </c>
+      <c r="AP30">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>164000</v>
+        <v>266000</v>
       </c>
       <c r="G31" s="31">
         <v>4</v>
@@ -3056,28 +3137,30 @@
       <c r="H31" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="92" t="s">
+      <c r="I31" s="32">
+        <v>50000</v>
+      </c>
+      <c r="J31" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="93"/>
+      <c r="K31" s="102"/>
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="105" t="s">
+      <c r="N31" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="105"/>
+      <c r="O31" s="114"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="104">
+      <c r="S31" s="113">
         <v>45695</v>
       </c>
-      <c r="T31" s="105"/>
+      <c r="T31" s="114"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -3087,17 +3170,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="101">
+      <c r="Y31" s="110">
         <v>45736</v>
       </c>
-      <c r="Z31" s="102"/>
+      <c r="Z31" s="111"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="99" t="s">
+      <c r="AB31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="AC31" s="100"/>
+      <c r="AC31" s="109"/>
       <c r="AH31" s="56"/>
       <c r="AI31" s="75" t="s">
         <v>41</v>
@@ -3119,20 +3202,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="105" t="s">
+      <c r="N32" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="105"/>
+      <c r="O32" s="114"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="104">
+      <c r="S32" s="113">
         <v>45696</v>
       </c>
-      <c r="T32" s="105"/>
+      <c r="T32" s="114"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -3142,17 +3225,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="101">
+      <c r="Y32" s="110">
         <v>45741</v>
       </c>
-      <c r="Z32" s="102"/>
+      <c r="Z32" s="111"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="99" t="s">
+      <c r="AB32" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AC32" s="100"/>
+      <c r="AC32" s="109"/>
       <c r="AH32" s="56"/>
       <c r="AI32" s="75" t="s">
         <v>41</v>
@@ -3174,20 +3257,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="105" t="s">
+      <c r="N33" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="105"/>
+      <c r="O33" s="114"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="104">
+      <c r="S33" s="113">
         <v>45697</v>
       </c>
-      <c r="T33" s="105"/>
+      <c r="T33" s="114"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3197,17 +3280,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="101">
+      <c r="Y33" s="110">
         <v>45752</v>
       </c>
-      <c r="Z33" s="102"/>
+      <c r="Z33" s="111"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="99" t="s">
+      <c r="AB33" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AC33" s="100"/>
+      <c r="AC33" s="109"/>
       <c r="AH33" s="56"/>
       <c r="AI33" s="75" t="s">
         <v>34</v>
@@ -3235,20 +3318,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="105" t="s">
+      <c r="N34" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="105"/>
+      <c r="O34" s="114"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="104">
+      <c r="S34" s="113">
         <v>45699</v>
       </c>
-      <c r="T34" s="105"/>
+      <c r="T34" s="114"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3258,17 +3341,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="101">
+      <c r="Y34" s="110">
         <v>45755</v>
       </c>
-      <c r="Z34" s="102"/>
+      <c r="Z34" s="111"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="128" t="s">
+      <c r="AB34" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="129"/>
+      <c r="AC34" s="137"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3299,10 +3382,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="104">
+      <c r="S35" s="113">
         <v>45700</v>
       </c>
-      <c r="T35" s="105"/>
+      <c r="T35" s="114"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3312,17 +3395,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="101">
+      <c r="Y35" s="110">
         <v>45756</v>
       </c>
-      <c r="Z35" s="102"/>
+      <c r="Z35" s="111"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="99" t="s">
+      <c r="AB35" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AC35" s="100"/>
+      <c r="AC35" s="109"/>
       <c r="AH35" s="56"/>
       <c r="AI35" s="75" t="s">
         <v>34</v>
@@ -3333,6 +3416,9 @@
       <c r="AO35">
         <v>28</v>
       </c>
+      <c r="AP35">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
@@ -3341,7 +3427,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>-99500</v>
+        <v>2500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -3349,20 +3435,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="130" t="s">
+      <c r="N36" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="O36" s="131"/>
+      <c r="O36" s="139"/>
       <c r="P36" s="61">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="104">
+      <c r="S36" s="113">
         <v>45700</v>
       </c>
-      <c r="T36" s="105"/>
+      <c r="T36" s="114"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3372,17 +3458,17 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="101">
+      <c r="Y36" s="110">
         <v>45757</v>
       </c>
-      <c r="Z36" s="102"/>
+      <c r="Z36" s="111"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="99" t="s">
+      <c r="AB36" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="AC36" s="100"/>
+      <c r="AC36" s="109"/>
       <c r="AH36" s="56"/>
       <c r="AI36" s="75" t="s">
         <v>34</v>
@@ -3395,20 +3481,20 @@
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="105" t="s">
+      <c r="N37" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="105"/>
+      <c r="O37" s="114"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="104">
+      <c r="S37" s="113">
         <v>45701</v>
       </c>
-      <c r="T37" s="105"/>
+      <c r="T37" s="114"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3418,17 +3504,17 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="101">
+      <c r="Y37" s="110">
         <v>45759</v>
       </c>
-      <c r="Z37" s="102"/>
+      <c r="Z37" s="111"/>
       <c r="AA37" s="46">
         <v>5000</v>
       </c>
-      <c r="AB37" s="99" t="s">
+      <c r="AB37" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="100"/>
+      <c r="AC37" s="109"/>
       <c r="AH37" s="56"/>
       <c r="AI37" s="75" t="s">
         <v>34</v>
@@ -3441,20 +3527,20 @@
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="105" t="s">
+      <c r="N38" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="105"/>
+      <c r="O38" s="114"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="104">
+      <c r="S38" s="113">
         <v>45702</v>
       </c>
-      <c r="T38" s="105"/>
+      <c r="T38" s="114"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3464,17 +3550,17 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="101">
+      <c r="Y38" s="110">
         <v>45761</v>
       </c>
-      <c r="Z38" s="102"/>
+      <c r="Z38" s="111"/>
       <c r="AA38" s="46">
         <v>5000</v>
       </c>
-      <c r="AB38" s="99" t="s">
+      <c r="AB38" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="AC38" s="100"/>
+      <c r="AC38" s="109"/>
       <c r="AH38" s="56"/>
       <c r="AI38" s="75" t="s">
         <v>34</v>
@@ -3487,20 +3573,20 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="112" t="s">
+      <c r="N39" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="113"/>
+      <c r="O39" s="121"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="104">
+      <c r="S39" s="113">
         <v>45703</v>
       </c>
-      <c r="T39" s="105"/>
+      <c r="T39" s="114"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3510,17 +3596,17 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="101">
+      <c r="Y39" s="110">
         <v>45762</v>
       </c>
-      <c r="Z39" s="102"/>
+      <c r="Z39" s="111"/>
       <c r="AA39" s="46">
         <v>5000</v>
       </c>
-      <c r="AB39" s="99" t="s">
+      <c r="AB39" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="100"/>
+      <c r="AC39" s="109"/>
       <c r="AH39" s="56"/>
       <c r="AI39" s="75" t="s">
         <v>36</v>
@@ -3539,20 +3625,20 @@
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="105" t="s">
+      <c r="N40" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="105"/>
+      <c r="O40" s="114"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="104">
+      <c r="S40" s="113">
         <v>45704</v>
       </c>
-      <c r="T40" s="105"/>
+      <c r="T40" s="114"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3562,17 +3648,17 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="101">
+      <c r="Y40" s="110">
         <v>45763</v>
       </c>
-      <c r="Z40" s="102"/>
+      <c r="Z40" s="111"/>
       <c r="AA40" s="46">
         <v>5000</v>
       </c>
-      <c r="AB40" s="99" t="s">
+      <c r="AB40" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="AC40" s="100"/>
+      <c r="AC40" s="109"/>
       <c r="AH40" s="56"/>
       <c r="AI40" s="75" t="s">
         <v>36</v>
@@ -3585,20 +3671,20 @@
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="105" t="s">
+      <c r="N41" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="105"/>
+      <c r="O41" s="114"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="104">
+      <c r="S41" s="113">
         <v>45705</v>
       </c>
-      <c r="T41" s="105"/>
+      <c r="T41" s="114"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3608,17 +3694,17 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="101">
+      <c r="Y41" s="110">
         <v>45765</v>
       </c>
-      <c r="Z41" s="102"/>
+      <c r="Z41" s="111"/>
       <c r="AA41" s="46">
         <v>5000</v>
       </c>
-      <c r="AB41" s="99" t="s">
+      <c r="AB41" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AC41" s="100"/>
+      <c r="AC41" s="109"/>
       <c r="AH41" s="56"/>
       <c r="AI41" s="75" t="s">
         <v>43</v>
@@ -3631,20 +3717,20 @@
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="112" t="s">
+      <c r="N42" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="113"/>
+      <c r="O42" s="121"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="104">
+      <c r="S42" s="113">
         <v>45707</v>
       </c>
-      <c r="T42" s="105"/>
+      <c r="T42" s="114"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3654,17 +3740,17 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="101">
+      <c r="Y42" s="110">
         <v>45766</v>
       </c>
-      <c r="Z42" s="102"/>
+      <c r="Z42" s="111"/>
       <c r="AA42" s="46">
         <v>5000</v>
       </c>
-      <c r="AB42" s="99" t="s">
+      <c r="AB42" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="AC42" s="100"/>
+      <c r="AC42" s="109"/>
       <c r="AH42" s="56"/>
       <c r="AI42" s="75" t="s">
         <v>35</v>
@@ -3683,20 +3769,20 @@
       <c r="M43" s="15">
         <v>16</v>
       </c>
-      <c r="N43" s="105" t="s">
+      <c r="N43" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="105"/>
+      <c r="O43" s="114"/>
       <c r="P43" s="16">
         <v>44500</v>
       </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="104">
+      <c r="S43" s="113">
         <v>45708</v>
       </c>
-      <c r="T43" s="105"/>
+      <c r="T43" s="114"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3706,17 +3792,17 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="101">
+      <c r="Y43" s="110">
         <v>45768</v>
       </c>
-      <c r="Z43" s="102"/>
+      <c r="Z43" s="111"/>
       <c r="AA43" s="46">
         <v>5000</v>
       </c>
-      <c r="AB43" s="99" t="s">
+      <c r="AB43" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" s="100"/>
+      <c r="AC43" s="109"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="75" t="s">
         <v>35</v>
@@ -3729,20 +3815,20 @@
       <c r="M44" s="15">
         <v>17</v>
       </c>
-      <c r="N44" s="105" t="s">
+      <c r="N44" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="105"/>
+      <c r="O44" s="114"/>
       <c r="P44" s="16">
         <v>8000</v>
       </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="104">
+      <c r="S44" s="113">
         <v>45709</v>
       </c>
-      <c r="T44" s="105"/>
+      <c r="T44" s="114"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3752,17 +3838,17 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="101">
+      <c r="Y44" s="110">
         <v>45770</v>
       </c>
-      <c r="Z44" s="102"/>
+      <c r="Z44" s="111"/>
       <c r="AA44" s="46">
         <v>5000</v>
       </c>
-      <c r="AB44" s="99" t="s">
+      <c r="AB44" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AC44" s="100"/>
+      <c r="AC44" s="109"/>
       <c r="AH44" s="56"/>
       <c r="AI44" s="75" t="s">
         <v>35</v>
@@ -3775,25 +3861,25 @@
       </c>
       <c r="I45" s="35">
         <f>SUM(I28:I44)</f>
-        <v>335000</v>
+        <v>405000</v>
       </c>
       <c r="M45" s="15">
         <v>18</v>
       </c>
-      <c r="N45" s="105" t="s">
+      <c r="N45" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="105"/>
+      <c r="O45" s="114"/>
       <c r="P45" s="16">
         <v>102000</v>
       </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="104">
+      <c r="S45" s="113">
         <v>45710</v>
       </c>
-      <c r="T45" s="105"/>
+      <c r="T45" s="114"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3803,17 +3889,17 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="101">
+      <c r="Y45" s="110">
         <v>45772</v>
       </c>
-      <c r="Z45" s="102"/>
+      <c r="Z45" s="111"/>
       <c r="AA45" s="46">
         <v>5000</v>
       </c>
-      <c r="AB45" s="99" t="s">
+      <c r="AB45" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="AC45" s="100"/>
+      <c r="AC45" s="109"/>
       <c r="AH45" s="56"/>
       <c r="AI45" s="75" t="s">
         <v>35</v>
@@ -3823,20 +3909,20 @@
       <c r="M46" s="15">
         <v>19</v>
       </c>
-      <c r="N46" s="105" t="s">
+      <c r="N46" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="O46" s="105"/>
+      <c r="O46" s="114"/>
       <c r="P46" s="16">
         <v>10000</v>
       </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="104">
+      <c r="S46" s="113">
         <v>45711</v>
       </c>
-      <c r="T46" s="105"/>
+      <c r="T46" s="114"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3846,17 +3932,17 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="101">
+      <c r="Y46" s="110">
         <v>45774</v>
       </c>
-      <c r="Z46" s="102"/>
+      <c r="Z46" s="111"/>
       <c r="AA46" s="46">
         <v>5000</v>
       </c>
-      <c r="AB46" s="99" t="s">
+      <c r="AB46" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AC46" s="100"/>
+      <c r="AC46" s="109"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="75" t="s">
         <v>42</v>
@@ -3869,20 +3955,20 @@
       <c r="M47" s="15">
         <v>20</v>
       </c>
-      <c r="N47" s="112" t="s">
+      <c r="N47" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="113"/>
+      <c r="O47" s="121"/>
       <c r="P47" s="16">
         <v>10000</v>
       </c>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="104">
+      <c r="S47" s="113">
         <v>45712</v>
       </c>
-      <c r="T47" s="105"/>
+      <c r="T47" s="114"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3892,10 +3978,10 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="101">
+      <c r="Y47" s="110">
         <v>45775</v>
       </c>
-      <c r="Z47" s="102"/>
+      <c r="Z47" s="111"/>
       <c r="AA47" s="46">
         <v>5000</v>
       </c>
@@ -3918,20 +4004,20 @@
       <c r="M48" s="15">
         <v>21</v>
       </c>
-      <c r="N48" s="105" t="s">
+      <c r="N48" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="O48" s="105"/>
+      <c r="O48" s="114"/>
       <c r="P48" s="16">
         <v>40000</v>
       </c>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="104">
+      <c r="S48" s="113">
         <v>45713</v>
       </c>
-      <c r="T48" s="105"/>
+      <c r="T48" s="114"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -3941,17 +4027,17 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="101">
+      <c r="Y48" s="110">
         <v>45776</v>
       </c>
-      <c r="Z48" s="102"/>
+      <c r="Z48" s="111"/>
       <c r="AA48" s="46">
         <v>5000</v>
       </c>
-      <c r="AB48" s="99" t="s">
+      <c r="AB48" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="AC48" s="100"/>
+      <c r="AC48" s="109"/>
       <c r="AH48" s="56"/>
       <c r="AI48" s="75" t="s">
         <v>39</v>
@@ -3961,20 +4047,20 @@
       <c r="M49" s="15">
         <v>22</v>
       </c>
-      <c r="N49" s="105" t="s">
+      <c r="N49" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="O49" s="105"/>
+      <c r="O49" s="114"/>
       <c r="P49" s="16">
         <v>40000</v>
       </c>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="104">
+      <c r="S49" s="113">
         <v>45714</v>
       </c>
-      <c r="T49" s="105"/>
+      <c r="T49" s="114"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -3984,17 +4070,17 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="101">
+      <c r="Y49" s="110">
         <v>45778</v>
       </c>
-      <c r="Z49" s="102"/>
+      <c r="Z49" s="111"/>
       <c r="AA49" s="46">
         <v>5000</v>
       </c>
-      <c r="AB49" s="99" t="s">
+      <c r="AB49" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="AC49" s="100"/>
+      <c r="AC49" s="109"/>
       <c r="AH49" s="56"/>
       <c r="AI49" s="75" t="s">
         <v>39</v>
@@ -4004,20 +4090,20 @@
       <c r="M50" s="15">
         <v>23</v>
       </c>
-      <c r="N50" s="105" t="s">
+      <c r="N50" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="105"/>
+      <c r="O50" s="114"/>
       <c r="P50" s="16">
         <v>102000</v>
       </c>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="104">
+      <c r="S50" s="113">
         <v>45716</v>
       </c>
-      <c r="T50" s="105"/>
+      <c r="T50" s="114"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -4027,17 +4113,17 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="101">
+      <c r="Y50" s="110">
         <v>45779</v>
       </c>
-      <c r="Z50" s="102"/>
+      <c r="Z50" s="111"/>
       <c r="AA50" s="46">
         <v>5000</v>
       </c>
-      <c r="AB50" s="99" t="s">
+      <c r="AB50" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AC50" s="100"/>
+      <c r="AC50" s="109"/>
       <c r="AH50" s="56"/>
       <c r="AI50" s="75" t="s">
         <v>39</v>
@@ -4053,20 +4139,20 @@
       <c r="M51" s="15">
         <v>24</v>
       </c>
-      <c r="N51" s="105" t="s">
+      <c r="N51" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="O51" s="105"/>
+      <c r="O51" s="114"/>
       <c r="P51" s="16">
         <v>10000</v>
       </c>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="104">
+      <c r="S51" s="113">
         <v>45719</v>
       </c>
-      <c r="T51" s="105"/>
+      <c r="T51" s="114"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -4076,17 +4162,17 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="101">
+      <c r="Y51" s="110">
         <v>45781</v>
       </c>
-      <c r="Z51" s="102"/>
+      <c r="Z51" s="111"/>
       <c r="AA51" s="46">
         <v>5000</v>
       </c>
-      <c r="AB51" s="99" t="s">
+      <c r="AB51" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AC51" s="100"/>
+      <c r="AC51" s="109"/>
       <c r="AH51" s="56"/>
       <c r="AI51" s="75" t="s">
         <v>37</v>
@@ -4105,17 +4191,23 @@
       <c r="E52">
         <v>42000</v>
       </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="16"/>
+      <c r="M52" s="15">
+        <v>25</v>
+      </c>
+      <c r="N52" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" s="114"/>
+      <c r="P52" s="16">
+        <v>21000</v>
+      </c>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="104">
+      <c r="S52" s="113">
         <v>45723</v>
       </c>
-      <c r="T52" s="105"/>
+      <c r="T52" s="114"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -4125,17 +4217,17 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="101">
+      <c r="Y52" s="110">
         <v>45782</v>
       </c>
-      <c r="Z52" s="102"/>
+      <c r="Z52" s="111"/>
       <c r="AA52" s="46">
         <v>5000</v>
       </c>
-      <c r="AB52" s="99" t="s">
+      <c r="AB52" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AC52" s="100"/>
+      <c r="AC52" s="109"/>
       <c r="AH52" s="56"/>
       <c r="AI52" s="75" t="s">
         <v>37</v>
@@ -4148,17 +4240,23 @@
       <c r="E53">
         <v>44500</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="16"/>
+      <c r="M53" s="15">
+        <v>26</v>
+      </c>
+      <c r="N53" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="O53" s="114"/>
+      <c r="P53" s="16">
+        <v>102000</v>
+      </c>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="104">
+      <c r="S53" s="113">
         <v>45724</v>
       </c>
-      <c r="T53" s="105"/>
+      <c r="T53" s="114"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -4168,17 +4266,17 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="101">
+      <c r="Y53" s="110">
         <v>45784</v>
       </c>
-      <c r="Z53" s="102"/>
+      <c r="Z53" s="111"/>
       <c r="AA53" s="46">
         <v>5000</v>
       </c>
-      <c r="AB53" s="99" t="s">
+      <c r="AB53" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="AC53" s="100"/>
+      <c r="AC53" s="109"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76" t="s">
         <v>37</v>
@@ -4186,16 +4284,16 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="108"/>
+      <c r="N54" s="115"/>
+      <c r="O54" s="116"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="104">
+      <c r="S54" s="113">
         <v>45726</v>
       </c>
-      <c r="T54" s="105"/>
+      <c r="T54" s="114"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -4205,17 +4303,17 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="101">
+      <c r="Y54" s="110">
         <v>45785</v>
       </c>
-      <c r="Z54" s="102"/>
+      <c r="Z54" s="111"/>
       <c r="AA54" s="46">
         <v>5000</v>
       </c>
-      <c r="AB54" s="99" t="s">
+      <c r="AB54" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AC54" s="100"/>
+      <c r="AC54" s="109"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="89" t="s">
         <v>64</v>
@@ -4237,103 +4335,449 @@
         <f>(D55-E55)</f>
         <v>13500</v>
       </c>
-      <c r="M55" s="94" t="s">
+      <c r="M55" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="95"/>
-      <c r="O55" s="96"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="105"/>
       <c r="P55" s="41">
         <f>SUM(P27:P54)</f>
-        <v>1186000</v>
-      </c>
-      <c r="R55" s="94" t="s">
+        <v>1309000</v>
+      </c>
+      <c r="R55" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="95"/>
-      <c r="T55" s="96"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="105"/>
       <c r="U55" s="47">
         <f>SUM(U27:U54)</f>
         <v>145000</v>
       </c>
       <c r="V55" s="44"/>
-      <c r="X55" s="94" t="s">
+      <c r="X55" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="95"/>
-      <c r="Z55" s="96"/>
-      <c r="AA55" s="97">
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="105"/>
+      <c r="AA55" s="106">
         <f>SUM(AA27:AA54)</f>
         <v>140000</v>
       </c>
-      <c r="AB55" s="98"/>
+      <c r="AB55" s="107"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="103"/>
-      <c r="AJ55" s="103"/>
+      <c r="AI55" s="112"/>
+      <c r="AJ55" s="112"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="103"/>
-      <c r="AJ56" s="103"/>
+      <c r="AI56" s="112"/>
+      <c r="AJ56" s="112"/>
       <c r="AK56" s="4"/>
     </row>
-    <row r="57" spans="4:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="103"/>
-      <c r="AJ57" s="103"/>
+      <c r="AI57" s="112"/>
+      <c r="AJ57" s="112"/>
       <c r="AK57" s="4"/>
     </row>
-    <row r="58" spans="4:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R58" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S58" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58" s="37"/>
+      <c r="U58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="AH58" s="4"/>
-      <c r="AI58" s="103"/>
-      <c r="AJ58" s="103"/>
+      <c r="AI58" s="112"/>
+      <c r="AJ58" s="112"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="R59" s="13">
+        <v>1</v>
+      </c>
+      <c r="S59" s="134">
+        <v>45905</v>
+      </c>
+      <c r="T59" s="131"/>
+      <c r="U59" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V59" s="93" t="s">
+        <v>36</v>
+      </c>
       <c r="AH59" s="4"/>
-      <c r="AI59" s="103"/>
-      <c r="AJ59" s="103"/>
+      <c r="AI59" s="112"/>
+      <c r="AJ59" s="112"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="R60" s="13">
+        <v>2</v>
+      </c>
+      <c r="S60" s="134">
+        <v>45996</v>
+      </c>
+      <c r="T60" s="131"/>
+      <c r="U60" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V60" s="93" t="s">
+        <v>39</v>
+      </c>
       <c r="AH60" s="4"/>
-      <c r="AI60" s="103"/>
-      <c r="AJ60" s="103"/>
+      <c r="AI60" s="112"/>
+      <c r="AJ60" s="112"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="R61" s="13">
+        <v>3</v>
+      </c>
+      <c r="S61" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="T61" s="144"/>
+      <c r="U61" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V61" s="93" t="s">
+        <v>41</v>
+      </c>
       <c r="AH61" s="4"/>
-      <c r="AI61" s="103"/>
-      <c r="AJ61" s="103"/>
+      <c r="AI61" s="112"/>
+      <c r="AJ61" s="112"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="R62" s="13">
+        <v>4</v>
+      </c>
+      <c r="S62" s="143" t="s">
+        <v>88</v>
+      </c>
+      <c r="T62" s="144"/>
+      <c r="U62" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V62" s="93" t="s">
+        <v>35</v>
+      </c>
       <c r="AH62" s="4"/>
-      <c r="AI62" s="103"/>
-      <c r="AJ62" s="103"/>
+      <c r="AI62" s="112"/>
+      <c r="AJ62" s="112"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="R63" s="13">
+        <v>5</v>
+      </c>
+      <c r="S63" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="T63" s="144"/>
+      <c r="U63" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V63" s="93" t="s">
+        <v>37</v>
+      </c>
       <c r="AH63" s="4"/>
-      <c r="AI63" s="103"/>
-      <c r="AJ63" s="103"/>
+      <c r="AI63" s="112"/>
+      <c r="AJ63" s="112"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="4:37" x14ac:dyDescent="0.35">
+      <c r="R64" s="13">
+        <v>6</v>
+      </c>
+      <c r="S64" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="T64" s="144"/>
+      <c r="U64" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V64" s="96" t="s">
+        <v>37</v>
+      </c>
       <c r="AH64" s="4"/>
-      <c r="AI64" s="103"/>
-      <c r="AJ64" s="103"/>
+      <c r="AI64" s="112"/>
+      <c r="AJ64" s="112"/>
       <c r="AK64" s="4"/>
     </row>
-    <row r="65" spans="34:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R65" s="13">
+        <v>7</v>
+      </c>
+      <c r="S65" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="T65" s="144"/>
+      <c r="U65" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V65" s="93" t="s">
+        <v>33</v>
+      </c>
       <c r="AH65" s="4"/>
-      <c r="AI65" s="103"/>
-      <c r="AJ65" s="103"/>
+      <c r="AI65" s="112"/>
+      <c r="AJ65" s="112"/>
       <c r="AK65" s="4"/>
     </row>
+    <row r="66" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R66" s="13">
+        <v>8</v>
+      </c>
+      <c r="S66" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="T66" s="114"/>
+      <c r="U66" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V66" s="93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R67" s="13">
+        <v>9</v>
+      </c>
+      <c r="S67" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="T67" s="114"/>
+      <c r="U67" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V67" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R68" s="13">
+        <v>10</v>
+      </c>
+      <c r="S68" s="113"/>
+      <c r="T68" s="114"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="93"/>
+    </row>
+    <row r="69" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R69" s="13">
+        <v>11</v>
+      </c>
+      <c r="S69" s="113"/>
+      <c r="T69" s="114"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="93"/>
+    </row>
+    <row r="70" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R70" s="13">
+        <v>12</v>
+      </c>
+      <c r="S70" s="113"/>
+      <c r="T70" s="114"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="93"/>
+    </row>
+    <row r="71" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R71" s="13">
+        <v>13</v>
+      </c>
+      <c r="S71" s="113"/>
+      <c r="T71" s="114"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="93"/>
+    </row>
+    <row r="72" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R72" s="13">
+        <v>14</v>
+      </c>
+      <c r="S72" s="113"/>
+      <c r="T72" s="114"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="93"/>
+    </row>
+    <row r="73" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R73" s="13">
+        <v>15</v>
+      </c>
+      <c r="S73" s="113"/>
+      <c r="T73" s="114"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="93"/>
+    </row>
+    <row r="74" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R74" s="13">
+        <v>16</v>
+      </c>
+      <c r="S74" s="113"/>
+      <c r="T74" s="114"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="93"/>
+    </row>
+    <row r="75" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R75" s="13">
+        <v>17</v>
+      </c>
+      <c r="S75" s="113"/>
+      <c r="T75" s="114"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="93"/>
+    </row>
+    <row r="76" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R76" s="13">
+        <v>18</v>
+      </c>
+      <c r="S76" s="113"/>
+      <c r="T76" s="114"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="93"/>
+    </row>
+    <row r="77" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R77" s="13">
+        <v>19</v>
+      </c>
+      <c r="S77" s="113"/>
+      <c r="T77" s="114"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="93"/>
+    </row>
+    <row r="78" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R78" s="13">
+        <v>20</v>
+      </c>
+      <c r="S78" s="113"/>
+      <c r="T78" s="114"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="93"/>
+    </row>
+    <row r="79" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R79" s="13">
+        <v>21</v>
+      </c>
+      <c r="S79" s="113"/>
+      <c r="T79" s="114"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="93"/>
+    </row>
+    <row r="80" spans="18:37" x14ac:dyDescent="0.35">
+      <c r="R80" s="13">
+        <v>22</v>
+      </c>
+      <c r="S80" s="113"/>
+      <c r="T80" s="114"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="93"/>
+    </row>
+    <row r="81" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R81" s="13">
+        <v>23</v>
+      </c>
+      <c r="S81" s="113"/>
+      <c r="T81" s="114"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="93"/>
+    </row>
+    <row r="82" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R82" s="13">
+        <v>24</v>
+      </c>
+      <c r="S82" s="113"/>
+      <c r="T82" s="114"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="93"/>
+    </row>
+    <row r="83" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R83" s="13">
+        <v>25</v>
+      </c>
+      <c r="S83" s="113"/>
+      <c r="T83" s="114"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="93"/>
+    </row>
+    <row r="84" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R84" s="13">
+        <v>26</v>
+      </c>
+      <c r="S84" s="113"/>
+      <c r="T84" s="114"/>
+      <c r="U84" s="46"/>
+      <c r="V84" s="93"/>
+    </row>
+    <row r="85" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R85" s="13">
+        <v>27</v>
+      </c>
+      <c r="S85" s="113"/>
+      <c r="T85" s="114"/>
+      <c r="U85" s="46"/>
+      <c r="V85" s="93"/>
+    </row>
+    <row r="86" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R86" s="13">
+        <v>28</v>
+      </c>
+      <c r="S86" s="113"/>
+      <c r="T86" s="114"/>
+      <c r="U86" s="46"/>
+      <c r="V86" s="93"/>
+    </row>
+    <row r="87" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R87" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="S87" s="104"/>
+      <c r="T87" s="105"/>
+      <c r="U87" s="47">
+        <f>SUM(U59:U86)</f>
+        <v>45000</v>
+      </c>
+      <c r="V87" s="93"/>
+    </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="190">
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="R87:T87"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="S67:T67"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H22:I22"/>
@@ -4504,249 +4948,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8ACF1F-7A42-4DA8-8384-86E68284BE08}">
-  <dimension ref="B3:E26"/>
+  <dimension ref="C3:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4">
+    <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="H4" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4">
         <v>8</v>
       </c>
-      <c r="C4" s="86" t="s">
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="H5" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5">
+      <c r="J5" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="H6" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="H7" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="H8" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="H9" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="85"/>
+      <c r="L9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="H10" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="85"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="H11" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="87"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="H12" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="85"/>
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="H13" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="85"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="H14" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="85"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="H15" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="85"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="46"/>
+      <c r="D16" s="85"/>
+      <c r="H16" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="85"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="H17" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="85"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="H18" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="85"/>
+      <c r="L18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="H19" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="85"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="H20" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="85"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="H21" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="85"/>
+      <c r="L21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="H22" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="85"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="H23" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="85"/>
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="87"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6">
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="84"/>
+      <c r="D24" s="83"/>
+      <c r="H24" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="95"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="H25" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="85"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="H26" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="85"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H27" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="85"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H28" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="85"/>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H29" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="85"/>
+      <c r="L29">
         <v>7</v>
       </c>
-      <c r="C6" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="85"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="85"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="85"/>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="87"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="85"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="85"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="85"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="85"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="85"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="85"/>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="85"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="85"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="85"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="85"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="83"/>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="84" t="s">
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H30" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="84" t="s">
+      <c r="J30" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="85"/>
+      <c r="K30" s="85"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H31" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="85"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C26">
-    <sortCondition ref="C4:C26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J4:J31">
+    <sortCondition ref="J4:J31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD110AC-1A0D-432C-BF3B-4954DCB9F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE53B94-2266-48B5-B5AD-CB6BB5FC8FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
@@ -1148,12 +1148,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,35 +1159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1208,7 +1182,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,31 +1226,25 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1624,60 +1624,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="H3" s="122" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="H3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
-      <c r="M3" s="122" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+      <c r="M3" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="R3" s="122" t="s">
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="112"/>
+      <c r="R3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="124"/>
-      <c r="W3" s="122" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="112"/>
+      <c r="W3" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AB3" s="122" t="s">
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="112"/>
+      <c r="AB3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="124"/>
-      <c r="AG3" s="122" t="s">
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="112"/>
+      <c r="AG3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="124"/>
-      <c r="AL3" s="122" t="s">
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="112"/>
+      <c r="AL3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="124"/>
-      <c r="AQ3" s="122" t="s">
+      <c r="AM3" s="111"/>
+      <c r="AN3" s="111"/>
+      <c r="AO3" s="112"/>
+      <c r="AQ3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="124"/>
+      <c r="AR3" s="111"/>
+      <c r="AS3" s="111"/>
+      <c r="AT3" s="112"/>
     </row>
     <row r="4" spans="2:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
@@ -2707,83 +2707,83 @@
         <v>8</v>
       </c>
       <c r="D22" s="104"/>
-      <c r="E22" s="125">
+      <c r="E22" s="113">
         <f>SUM(F5:F21)</f>
         <v>200000</v>
       </c>
-      <c r="F22" s="126"/>
+      <c r="F22" s="114"/>
       <c r="H22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="104"/>
-      <c r="J22" s="125">
+      <c r="J22" s="113">
         <f>SUM(K5:K21)</f>
         <v>100000</v>
       </c>
-      <c r="K22" s="126"/>
+      <c r="K22" s="114"/>
       <c r="M22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="104"/>
-      <c r="O22" s="125">
+      <c r="O22" s="113">
         <f>SUM(P5:P21)</f>
         <v>100000</v>
       </c>
-      <c r="P22" s="126"/>
+      <c r="P22" s="114"/>
       <c r="R22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="S22" s="104"/>
-      <c r="T22" s="125">
+      <c r="T22" s="113">
         <f>SUM(U5:U21)</f>
         <v>150000</v>
       </c>
-      <c r="U22" s="126"/>
+      <c r="U22" s="114"/>
       <c r="W22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="104"/>
-      <c r="Y22" s="125">
+      <c r="Y22" s="113">
         <f>SUM(Z5:Z21)</f>
         <v>200000</v>
       </c>
-      <c r="Z22" s="126"/>
+      <c r="Z22" s="114"/>
       <c r="AB22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="AC22" s="104"/>
-      <c r="AD22" s="125">
+      <c r="AD22" s="113">
         <f>SUM(AE5:AE21)</f>
         <v>200000</v>
       </c>
-      <c r="AE22" s="126"/>
+      <c r="AE22" s="114"/>
       <c r="AG22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="AH22" s="104"/>
-      <c r="AI22" s="125">
+      <c r="AI22" s="113">
         <f>SUM(AJ5:AJ21)</f>
         <v>200000</v>
       </c>
-      <c r="AJ22" s="126"/>
+      <c r="AJ22" s="114"/>
       <c r="AL22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="AM22" s="104"/>
-      <c r="AN22" s="125">
+      <c r="AN22" s="113">
         <f>SUM(AO5:AO21)</f>
         <v>150000</v>
       </c>
-      <c r="AO22" s="126"/>
+      <c r="AO22" s="114"/>
       <c r="AQ22" s="103" t="s">
         <v>8</v>
       </c>
       <c r="AR22" s="104"/>
-      <c r="AS22" s="125">
+      <c r="AS22" s="113">
         <f>SUM(AT5:AT21)</f>
         <v>200000</v>
       </c>
-      <c r="AT22" s="126"/>
+      <c r="AT22" s="114"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -2792,25 +2792,25 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="117" t="s">
+      <c r="M25" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="119"/>
-      <c r="R25" s="117" t="s">
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="127"/>
+      <c r="R25" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="119"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="127"/>
     </row>
     <row r="26" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="128" t="s">
+      <c r="G26" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
       <c r="M26" s="36" t="s">
         <v>19</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="AA26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="140" t="s">
+      <c r="AB26" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="141"/>
+      <c r="AC26" s="116"/>
       <c r="AH26" s="56"/>
       <c r="AI26" s="75" t="s">
         <v>33</v>
@@ -2860,11 +2860,11 @@
       </c>
     </row>
     <row r="27" spans="2:46" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="25">
         <f>SUM(E22+J22+O22+T22+Y22+AD22+AI22+AN22+AS22+I45)</f>
         <v>1905000</v>
@@ -2881,20 +2881,20 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="131" t="s">
+      <c r="N27" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="131"/>
+      <c r="O27" s="107"/>
       <c r="P27" s="14">
         <v>8500</v>
       </c>
       <c r="R27" s="13">
         <v>1</v>
       </c>
-      <c r="S27" s="134">
+      <c r="S27" s="106">
         <v>45691</v>
       </c>
-      <c r="T27" s="131"/>
+      <c r="T27" s="107"/>
       <c r="U27" s="45">
         <v>5000</v>
       </c>
@@ -2904,17 +2904,17 @@
       <c r="X27" s="13">
         <v>1</v>
       </c>
-      <c r="Y27" s="132">
+      <c r="Y27" s="135">
         <v>45727</v>
       </c>
-      <c r="Z27" s="133"/>
+      <c r="Z27" s="136"/>
       <c r="AA27" s="45">
         <v>5000</v>
       </c>
-      <c r="AB27" s="136" t="s">
+      <c r="AB27" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="137"/>
+      <c r="AC27" s="118"/>
       <c r="AH27" s="56"/>
       <c r="AI27" s="75" t="s">
         <v>33</v>
@@ -2936,20 +2936,20 @@
       <c r="M28" s="15">
         <v>2</v>
       </c>
-      <c r="N28" s="114" t="s">
+      <c r="N28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="114"/>
+      <c r="O28" s="102"/>
       <c r="P28" s="16">
         <v>290000</v>
       </c>
       <c r="R28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="113">
+      <c r="S28" s="101">
         <v>45692</v>
       </c>
-      <c r="T28" s="114"/>
+      <c r="T28" s="102"/>
       <c r="U28" s="46">
         <v>5000</v>
       </c>
@@ -2959,35 +2959,35 @@
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="110">
+      <c r="Y28" s="121">
         <v>45729</v>
       </c>
-      <c r="Z28" s="111"/>
+      <c r="Z28" s="122"/>
       <c r="AA28" s="45">
         <v>5000</v>
       </c>
-      <c r="AB28" s="136" t="s">
+      <c r="AB28" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AC28" s="137"/>
+      <c r="AC28" s="118"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN28" s="135" t="s">
+      <c r="AN28" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="AO28" s="135"/>
+      <c r="AO28" s="137"/>
       <c r="AP28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55+U87)</f>
         <v>1639000</v>
@@ -3004,20 +3004,20 @@
       <c r="M29" s="31">
         <v>3</v>
       </c>
-      <c r="N29" s="120" t="s">
+      <c r="N29" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="121"/>
+      <c r="O29" s="129"/>
       <c r="P29" s="32">
         <v>18000</v>
       </c>
       <c r="R29" s="13">
         <v>3</v>
       </c>
-      <c r="S29" s="113">
+      <c r="S29" s="101">
         <v>45693</v>
       </c>
-      <c r="T29" s="114"/>
+      <c r="T29" s="102"/>
       <c r="U29" s="46">
         <v>5000</v>
       </c>
@@ -3027,17 +3027,17 @@
       <c r="X29" s="13">
         <v>3</v>
       </c>
-      <c r="Y29" s="110">
+      <c r="Y29" s="121">
         <v>45731</v>
       </c>
-      <c r="Z29" s="111"/>
+      <c r="Z29" s="122"/>
       <c r="AA29" s="45">
         <v>5000</v>
       </c>
-      <c r="AB29" s="108" t="s">
+      <c r="AB29" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AC29" s="109"/>
+      <c r="AC29" s="124"/>
       <c r="AH29" s="56"/>
       <c r="AI29" s="75" t="s">
         <v>33</v>
@@ -3067,20 +3067,20 @@
       <c r="M30" s="15">
         <v>4</v>
       </c>
-      <c r="N30" s="114" t="s">
+      <c r="N30" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="114"/>
+      <c r="O30" s="102"/>
       <c r="P30" s="16">
         <v>102000</v>
       </c>
       <c r="R30" s="13">
         <v>4</v>
       </c>
-      <c r="S30" s="113">
+      <c r="S30" s="101">
         <v>45694</v>
       </c>
-      <c r="T30" s="114"/>
+      <c r="T30" s="102"/>
       <c r="U30" s="46">
         <v>5000</v>
       </c>
@@ -3090,17 +3090,17 @@
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="110">
+      <c r="Y30" s="121">
         <v>45733</v>
       </c>
-      <c r="Z30" s="111"/>
+      <c r="Z30" s="122"/>
       <c r="AA30" s="45">
         <v>5000</v>
       </c>
-      <c r="AB30" s="108" t="s">
+      <c r="AB30" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" s="109"/>
+      <c r="AC30" s="124"/>
       <c r="AH30" s="56"/>
       <c r="AI30" s="75" t="s">
         <v>41</v>
@@ -3122,11 +3122,11 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
         <v>266000</v>
@@ -3140,27 +3140,27 @@
       <c r="I31" s="32">
         <v>50000</v>
       </c>
-      <c r="J31" s="101" t="s">
+      <c r="J31" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="102"/>
+      <c r="K31" s="142"/>
       <c r="M31" s="15">
         <v>5</v>
       </c>
-      <c r="N31" s="114" t="s">
+      <c r="N31" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="114"/>
+      <c r="O31" s="102"/>
       <c r="P31" s="16">
         <v>3000</v>
       </c>
       <c r="R31" s="13">
         <v>5</v>
       </c>
-      <c r="S31" s="113">
+      <c r="S31" s="101">
         <v>45695</v>
       </c>
-      <c r="T31" s="114"/>
+      <c r="T31" s="102"/>
       <c r="U31" s="46">
         <v>5000</v>
       </c>
@@ -3170,17 +3170,17 @@
       <c r="X31" s="13">
         <v>5</v>
       </c>
-      <c r="Y31" s="110">
+      <c r="Y31" s="121">
         <v>45736</v>
       </c>
-      <c r="Z31" s="111"/>
+      <c r="Z31" s="122"/>
       <c r="AA31" s="45">
         <v>5000</v>
       </c>
-      <c r="AB31" s="108" t="s">
+      <c r="AB31" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="AC31" s="109"/>
+      <c r="AC31" s="124"/>
       <c r="AH31" s="56"/>
       <c r="AI31" s="75" t="s">
         <v>41</v>
@@ -3202,20 +3202,20 @@
       <c r="M32" s="15">
         <v>6</v>
       </c>
-      <c r="N32" s="114" t="s">
+      <c r="N32" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="114"/>
+      <c r="O32" s="102"/>
       <c r="P32" s="16">
         <v>10000</v>
       </c>
       <c r="R32" s="13">
         <v>6</v>
       </c>
-      <c r="S32" s="113">
+      <c r="S32" s="101">
         <v>45696</v>
       </c>
-      <c r="T32" s="114"/>
+      <c r="T32" s="102"/>
       <c r="U32" s="46">
         <v>5000</v>
       </c>
@@ -3225,17 +3225,17 @@
       <c r="X32" s="13">
         <v>6</v>
       </c>
-      <c r="Y32" s="110">
+      <c r="Y32" s="121">
         <v>45741</v>
       </c>
-      <c r="Z32" s="111"/>
+      <c r="Z32" s="122"/>
       <c r="AA32" s="45">
         <v>5000</v>
       </c>
-      <c r="AB32" s="108" t="s">
+      <c r="AB32" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="AC32" s="109"/>
+      <c r="AC32" s="124"/>
       <c r="AH32" s="56"/>
       <c r="AI32" s="75" t="s">
         <v>41</v>
@@ -3257,20 +3257,20 @@
       <c r="M33" s="15">
         <v>7</v>
       </c>
-      <c r="N33" s="114" t="s">
+      <c r="N33" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="114"/>
+      <c r="O33" s="102"/>
       <c r="P33" s="16">
         <v>102000</v>
       </c>
       <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S33" s="113">
+      <c r="S33" s="101">
         <v>45697</v>
       </c>
-      <c r="T33" s="114"/>
+      <c r="T33" s="102"/>
       <c r="U33" s="46">
         <v>5000</v>
       </c>
@@ -3280,17 +3280,17 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y33" s="110">
+      <c r="Y33" s="121">
         <v>45752</v>
       </c>
-      <c r="Z33" s="111"/>
+      <c r="Z33" s="122"/>
       <c r="AA33" s="45">
         <v>5000</v>
       </c>
-      <c r="AB33" s="108" t="s">
+      <c r="AB33" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="AC33" s="109"/>
+      <c r="AC33" s="124"/>
       <c r="AH33" s="56"/>
       <c r="AI33" s="75" t="s">
         <v>34</v>
@@ -3318,20 +3318,20 @@
       <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="N34" s="114" t="s">
+      <c r="N34" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="114"/>
+      <c r="O34" s="102"/>
       <c r="P34" s="16">
         <v>40000</v>
       </c>
       <c r="R34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="113">
+      <c r="S34" s="101">
         <v>45699</v>
       </c>
-      <c r="T34" s="114"/>
+      <c r="T34" s="102"/>
       <c r="U34" s="46">
         <v>5000</v>
       </c>
@@ -3341,17 +3341,17 @@
       <c r="X34" s="13">
         <v>8</v>
       </c>
-      <c r="Y34" s="110">
+      <c r="Y34" s="121">
         <v>45755</v>
       </c>
-      <c r="Z34" s="111"/>
+      <c r="Z34" s="122"/>
       <c r="AA34" s="45">
         <v>5000</v>
       </c>
-      <c r="AB34" s="136" t="s">
+      <c r="AB34" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="137"/>
+      <c r="AC34" s="118"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="75" t="s">
         <v>34</v>
@@ -3382,10 +3382,10 @@
       <c r="R35" s="13">
         <v>9</v>
       </c>
-      <c r="S35" s="113">
+      <c r="S35" s="101">
         <v>45700</v>
       </c>
-      <c r="T35" s="114"/>
+      <c r="T35" s="102"/>
       <c r="U35" s="46">
         <v>5000</v>
       </c>
@@ -3395,17 +3395,17 @@
       <c r="X35" s="13">
         <v>9</v>
       </c>
-      <c r="Y35" s="110">
+      <c r="Y35" s="121">
         <v>45756</v>
       </c>
-      <c r="Z35" s="111"/>
+      <c r="Z35" s="122"/>
       <c r="AA35" s="45">
         <v>5000</v>
       </c>
-      <c r="AB35" s="108" t="s">
+      <c r="AB35" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AC35" s="109"/>
+      <c r="AC35" s="124"/>
       <c r="AH35" s="56"/>
       <c r="AI35" s="75" t="s">
         <v>34</v>
@@ -3435,20 +3435,20 @@
       <c r="M36" s="15">
         <v>10</v>
       </c>
-      <c r="N36" s="138" t="s">
+      <c r="N36" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="O36" s="139"/>
+      <c r="O36" s="131"/>
       <c r="P36" s="61">
         <v>102000</v>
       </c>
       <c r="R36" s="13">
         <v>10</v>
       </c>
-      <c r="S36" s="113">
+      <c r="S36" s="101">
         <v>45700</v>
       </c>
-      <c r="T36" s="114"/>
+      <c r="T36" s="102"/>
       <c r="U36" s="46">
         <v>5000</v>
       </c>
@@ -3458,17 +3458,17 @@
       <c r="X36" s="13">
         <v>10</v>
       </c>
-      <c r="Y36" s="110">
+      <c r="Y36" s="121">
         <v>45757</v>
       </c>
-      <c r="Z36" s="111"/>
+      <c r="Z36" s="122"/>
       <c r="AA36" s="45">
         <v>5000</v>
       </c>
-      <c r="AB36" s="108" t="s">
+      <c r="AB36" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="AC36" s="109"/>
+      <c r="AC36" s="124"/>
       <c r="AH36" s="56"/>
       <c r="AI36" s="75" t="s">
         <v>34</v>
@@ -3481,20 +3481,20 @@
       <c r="M37" s="15">
         <v>11</v>
       </c>
-      <c r="N37" s="114" t="s">
+      <c r="N37" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="114"/>
+      <c r="O37" s="102"/>
       <c r="P37" s="16">
         <v>20000</v>
       </c>
       <c r="R37" s="13">
         <v>11</v>
       </c>
-      <c r="S37" s="113">
+      <c r="S37" s="101">
         <v>45701</v>
       </c>
-      <c r="T37" s="114"/>
+      <c r="T37" s="102"/>
       <c r="U37" s="46">
         <v>5000</v>
       </c>
@@ -3504,17 +3504,17 @@
       <c r="X37" s="13">
         <v>11</v>
       </c>
-      <c r="Y37" s="110">
+      <c r="Y37" s="121">
         <v>45759</v>
       </c>
-      <c r="Z37" s="111"/>
+      <c r="Z37" s="122"/>
       <c r="AA37" s="46">
         <v>5000</v>
       </c>
-      <c r="AB37" s="108" t="s">
+      <c r="AB37" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="109"/>
+      <c r="AC37" s="124"/>
       <c r="AH37" s="56"/>
       <c r="AI37" s="75" t="s">
         <v>34</v>
@@ -3527,20 +3527,20 @@
       <c r="M38" s="15">
         <v>12</v>
       </c>
-      <c r="N38" s="114" t="s">
+      <c r="N38" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="114"/>
+      <c r="O38" s="102"/>
       <c r="P38" s="16">
         <v>12000</v>
       </c>
       <c r="R38" s="13">
         <v>12</v>
       </c>
-      <c r="S38" s="113">
+      <c r="S38" s="101">
         <v>45702</v>
       </c>
-      <c r="T38" s="114"/>
+      <c r="T38" s="102"/>
       <c r="U38" s="46">
         <v>5000</v>
       </c>
@@ -3550,17 +3550,17 @@
       <c r="X38" s="13">
         <v>12</v>
       </c>
-      <c r="Y38" s="110">
+      <c r="Y38" s="121">
         <v>45761</v>
       </c>
-      <c r="Z38" s="111"/>
+      <c r="Z38" s="122"/>
       <c r="AA38" s="46">
         <v>5000</v>
       </c>
-      <c r="AB38" s="108" t="s">
+      <c r="AB38" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AC38" s="109"/>
+      <c r="AC38" s="124"/>
       <c r="AH38" s="56"/>
       <c r="AI38" s="75" t="s">
         <v>34</v>
@@ -3573,20 +3573,20 @@
       <c r="M39" s="15">
         <v>13</v>
       </c>
-      <c r="N39" s="120" t="s">
+      <c r="N39" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="121"/>
+      <c r="O39" s="129"/>
       <c r="P39" s="16">
         <v>10000</v>
       </c>
       <c r="R39" s="13">
         <v>13</v>
       </c>
-      <c r="S39" s="113">
+      <c r="S39" s="101">
         <v>45703</v>
       </c>
-      <c r="T39" s="114"/>
+      <c r="T39" s="102"/>
       <c r="U39" s="46">
         <v>5000</v>
       </c>
@@ -3596,17 +3596,17 @@
       <c r="X39" s="13">
         <v>13</v>
       </c>
-      <c r="Y39" s="110">
+      <c r="Y39" s="121">
         <v>45762</v>
       </c>
-      <c r="Z39" s="111"/>
+      <c r="Z39" s="122"/>
       <c r="AA39" s="46">
         <v>5000</v>
       </c>
-      <c r="AB39" s="108" t="s">
+      <c r="AB39" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="109"/>
+      <c r="AC39" s="124"/>
       <c r="AH39" s="56"/>
       <c r="AI39" s="75" t="s">
         <v>36</v>
@@ -3625,20 +3625,20 @@
       <c r="M40" s="15">
         <v>14</v>
       </c>
-      <c r="N40" s="114" t="s">
+      <c r="N40" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="114"/>
+      <c r="O40" s="102"/>
       <c r="P40" s="16">
         <v>42000</v>
       </c>
       <c r="R40" s="13">
         <v>14</v>
       </c>
-      <c r="S40" s="113">
+      <c r="S40" s="101">
         <v>45704</v>
       </c>
-      <c r="T40" s="114"/>
+      <c r="T40" s="102"/>
       <c r="U40" s="46">
         <v>5000</v>
       </c>
@@ -3648,17 +3648,17 @@
       <c r="X40" s="13">
         <v>14</v>
       </c>
-      <c r="Y40" s="110">
+      <c r="Y40" s="121">
         <v>45763</v>
       </c>
-      <c r="Z40" s="111"/>
+      <c r="Z40" s="122"/>
       <c r="AA40" s="46">
         <v>5000</v>
       </c>
-      <c r="AB40" s="108" t="s">
+      <c r="AB40" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="AC40" s="109"/>
+      <c r="AC40" s="124"/>
       <c r="AH40" s="56"/>
       <c r="AI40" s="75" t="s">
         <v>36</v>
@@ -3671,20 +3671,20 @@
       <c r="M41" s="15">
         <v>14</v>
       </c>
-      <c r="N41" s="114" t="s">
+      <c r="N41" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="114"/>
+      <c r="O41" s="102"/>
       <c r="P41" s="16">
         <v>5000</v>
       </c>
       <c r="R41" s="13">
         <v>15</v>
       </c>
-      <c r="S41" s="113">
+      <c r="S41" s="101">
         <v>45705</v>
       </c>
-      <c r="T41" s="114"/>
+      <c r="T41" s="102"/>
       <c r="U41" s="46">
         <v>5000</v>
       </c>
@@ -3694,17 +3694,17 @@
       <c r="X41" s="13">
         <v>15</v>
       </c>
-      <c r="Y41" s="110">
+      <c r="Y41" s="121">
         <v>45765</v>
       </c>
-      <c r="Z41" s="111"/>
+      <c r="Z41" s="122"/>
       <c r="AA41" s="46">
         <v>5000</v>
       </c>
-      <c r="AB41" s="108" t="s">
+      <c r="AB41" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="AC41" s="109"/>
+      <c r="AC41" s="124"/>
       <c r="AH41" s="56"/>
       <c r="AI41" s="75" t="s">
         <v>43</v>
@@ -3717,20 +3717,20 @@
       <c r="M42" s="15">
         <v>15</v>
       </c>
-      <c r="N42" s="120" t="s">
+      <c r="N42" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="121"/>
+      <c r="O42" s="129"/>
       <c r="P42" s="16">
         <v>10000</v>
       </c>
       <c r="R42" s="13">
         <v>16</v>
       </c>
-      <c r="S42" s="113">
+      <c r="S42" s="101">
         <v>45707</v>
       </c>
-      <c r="T42" s="114"/>
+      <c r="T42" s="102"/>
       <c r="U42" s="46">
         <v>5000</v>
       </c>
@@ -3740,17 +3740,17 @@
       <c r="X42" s="13">
         <v>16</v>
       </c>
-      <c r="Y42" s="110">
+      <c r="Y42" s="121">
         <v>45766</v>
       </c>
-      <c r="Z42" s="111"/>
+      <c r="Z42" s="122"/>
       <c r="AA42" s="46">
         <v>5000</v>
       </c>
-      <c r="AB42" s="108" t="s">
+      <c r="AB42" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="AC42" s="109"/>
+      <c r="AC42" s="124"/>
       <c r="AH42" s="56"/>
       <c r="AI42" s="75" t="s">
         <v>35</v>
@@ -3769,20 +3769,20 @@
       <c r="M43" s="15">
         <v>16</v>
       </c>
-      <c r="N43" s="114" t="s">
+      <c r="N43" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="114"/>
+      <c r="O43" s="102"/>
       <c r="P43" s="16">
         <v>44500</v>
       </c>
       <c r="R43" s="13">
         <v>17</v>
       </c>
-      <c r="S43" s="113">
+      <c r="S43" s="101">
         <v>45708</v>
       </c>
-      <c r="T43" s="114"/>
+      <c r="T43" s="102"/>
       <c r="U43" s="46">
         <v>5000</v>
       </c>
@@ -3792,17 +3792,17 @@
       <c r="X43" s="13">
         <v>17</v>
       </c>
-      <c r="Y43" s="110">
+      <c r="Y43" s="121">
         <v>45768</v>
       </c>
-      <c r="Z43" s="111"/>
+      <c r="Z43" s="122"/>
       <c r="AA43" s="46">
         <v>5000</v>
       </c>
-      <c r="AB43" s="108" t="s">
+      <c r="AB43" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" s="109"/>
+      <c r="AC43" s="124"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="75" t="s">
         <v>35</v>
@@ -3815,20 +3815,20 @@
       <c r="M44" s="15">
         <v>17</v>
       </c>
-      <c r="N44" s="114" t="s">
+      <c r="N44" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="114"/>
+      <c r="O44" s="102"/>
       <c r="P44" s="16">
         <v>8000</v>
       </c>
       <c r="R44" s="13">
         <v>18</v>
       </c>
-      <c r="S44" s="113">
+      <c r="S44" s="101">
         <v>45709</v>
       </c>
-      <c r="T44" s="114"/>
+      <c r="T44" s="102"/>
       <c r="U44" s="46">
         <v>5000</v>
       </c>
@@ -3838,17 +3838,17 @@
       <c r="X44" s="13">
         <v>18</v>
       </c>
-      <c r="Y44" s="110">
+      <c r="Y44" s="121">
         <v>45770</v>
       </c>
-      <c r="Z44" s="111"/>
+      <c r="Z44" s="122"/>
       <c r="AA44" s="46">
         <v>5000</v>
       </c>
-      <c r="AB44" s="108" t="s">
+      <c r="AB44" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="AC44" s="109"/>
+      <c r="AC44" s="124"/>
       <c r="AH44" s="56"/>
       <c r="AI44" s="75" t="s">
         <v>35</v>
@@ -3866,20 +3866,20 @@
       <c r="M45" s="15">
         <v>18</v>
       </c>
-      <c r="N45" s="114" t="s">
+      <c r="N45" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="114"/>
+      <c r="O45" s="102"/>
       <c r="P45" s="16">
         <v>102000</v>
       </c>
       <c r="R45" s="13">
         <v>19</v>
       </c>
-      <c r="S45" s="113">
+      <c r="S45" s="101">
         <v>45710</v>
       </c>
-      <c r="T45" s="114"/>
+      <c r="T45" s="102"/>
       <c r="U45" s="46">
         <v>5000</v>
       </c>
@@ -3889,17 +3889,17 @@
       <c r="X45" s="13">
         <v>19</v>
       </c>
-      <c r="Y45" s="110">
+      <c r="Y45" s="121">
         <v>45772</v>
       </c>
-      <c r="Z45" s="111"/>
+      <c r="Z45" s="122"/>
       <c r="AA45" s="46">
         <v>5000</v>
       </c>
-      <c r="AB45" s="108" t="s">
+      <c r="AB45" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="AC45" s="109"/>
+      <c r="AC45" s="124"/>
       <c r="AH45" s="56"/>
       <c r="AI45" s="75" t="s">
         <v>35</v>
@@ -3909,20 +3909,20 @@
       <c r="M46" s="15">
         <v>19</v>
       </c>
-      <c r="N46" s="114" t="s">
+      <c r="N46" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="O46" s="114"/>
+      <c r="O46" s="102"/>
       <c r="P46" s="16">
         <v>10000</v>
       </c>
       <c r="R46" s="13">
         <v>20</v>
       </c>
-      <c r="S46" s="113">
+      <c r="S46" s="101">
         <v>45711</v>
       </c>
-      <c r="T46" s="114"/>
+      <c r="T46" s="102"/>
       <c r="U46" s="46">
         <v>5000</v>
       </c>
@@ -3932,17 +3932,17 @@
       <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="110">
+      <c r="Y46" s="121">
         <v>45774</v>
       </c>
-      <c r="Z46" s="111"/>
+      <c r="Z46" s="122"/>
       <c r="AA46" s="46">
         <v>5000</v>
       </c>
-      <c r="AB46" s="108" t="s">
+      <c r="AB46" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="AC46" s="109"/>
+      <c r="AC46" s="124"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="75" t="s">
         <v>42</v>
@@ -3955,20 +3955,20 @@
       <c r="M47" s="15">
         <v>20</v>
       </c>
-      <c r="N47" s="120" t="s">
+      <c r="N47" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="121"/>
+      <c r="O47" s="129"/>
       <c r="P47" s="16">
         <v>10000</v>
       </c>
       <c r="R47" s="13">
         <v>21</v>
       </c>
-      <c r="S47" s="113">
+      <c r="S47" s="101">
         <v>45712</v>
       </c>
-      <c r="T47" s="114"/>
+      <c r="T47" s="102"/>
       <c r="U47" s="46">
         <v>5000</v>
       </c>
@@ -3978,10 +3978,10 @@
       <c r="X47" s="13">
         <v>21</v>
       </c>
-      <c r="Y47" s="110">
+      <c r="Y47" s="121">
         <v>45775</v>
       </c>
-      <c r="Z47" s="111"/>
+      <c r="Z47" s="122"/>
       <c r="AA47" s="46">
         <v>5000</v>
       </c>
@@ -4004,20 +4004,20 @@
       <c r="M48" s="15">
         <v>21</v>
       </c>
-      <c r="N48" s="114" t="s">
+      <c r="N48" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="O48" s="114"/>
+      <c r="O48" s="102"/>
       <c r="P48" s="16">
         <v>40000</v>
       </c>
       <c r="R48" s="13">
         <v>22</v>
       </c>
-      <c r="S48" s="113">
+      <c r="S48" s="101">
         <v>45713</v>
       </c>
-      <c r="T48" s="114"/>
+      <c r="T48" s="102"/>
       <c r="U48" s="46">
         <v>5000</v>
       </c>
@@ -4027,17 +4027,17 @@
       <c r="X48" s="13">
         <v>22</v>
       </c>
-      <c r="Y48" s="110">
+      <c r="Y48" s="121">
         <v>45776</v>
       </c>
-      <c r="Z48" s="111"/>
+      <c r="Z48" s="122"/>
       <c r="AA48" s="46">
         <v>5000</v>
       </c>
-      <c r="AB48" s="108" t="s">
+      <c r="AB48" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AC48" s="109"/>
+      <c r="AC48" s="124"/>
       <c r="AH48" s="56"/>
       <c r="AI48" s="75" t="s">
         <v>39</v>
@@ -4047,20 +4047,20 @@
       <c r="M49" s="15">
         <v>22</v>
       </c>
-      <c r="N49" s="114" t="s">
+      <c r="N49" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="O49" s="114"/>
+      <c r="O49" s="102"/>
       <c r="P49" s="16">
         <v>40000</v>
       </c>
       <c r="R49" s="13">
         <v>23</v>
       </c>
-      <c r="S49" s="113">
+      <c r="S49" s="101">
         <v>45714</v>
       </c>
-      <c r="T49" s="114"/>
+      <c r="T49" s="102"/>
       <c r="U49" s="46">
         <v>5000</v>
       </c>
@@ -4070,17 +4070,17 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-      <c r="Y49" s="110">
+      <c r="Y49" s="121">
         <v>45778</v>
       </c>
-      <c r="Z49" s="111"/>
+      <c r="Z49" s="122"/>
       <c r="AA49" s="46">
         <v>5000</v>
       </c>
-      <c r="AB49" s="108" t="s">
+      <c r="AB49" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="AC49" s="109"/>
+      <c r="AC49" s="124"/>
       <c r="AH49" s="56"/>
       <c r="AI49" s="75" t="s">
         <v>39</v>
@@ -4090,20 +4090,20 @@
       <c r="M50" s="15">
         <v>23</v>
       </c>
-      <c r="N50" s="114" t="s">
+      <c r="N50" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="114"/>
+      <c r="O50" s="102"/>
       <c r="P50" s="16">
         <v>102000</v>
       </c>
       <c r="R50" s="13">
         <v>24</v>
       </c>
-      <c r="S50" s="113">
+      <c r="S50" s="101">
         <v>45716</v>
       </c>
-      <c r="T50" s="114"/>
+      <c r="T50" s="102"/>
       <c r="U50" s="46">
         <v>5000</v>
       </c>
@@ -4113,17 +4113,17 @@
       <c r="X50" s="13">
         <v>24</v>
       </c>
-      <c r="Y50" s="110">
+      <c r="Y50" s="121">
         <v>45779</v>
       </c>
-      <c r="Z50" s="111"/>
+      <c r="Z50" s="122"/>
       <c r="AA50" s="46">
         <v>5000</v>
       </c>
-      <c r="AB50" s="108" t="s">
+      <c r="AB50" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AC50" s="109"/>
+      <c r="AC50" s="124"/>
       <c r="AH50" s="56"/>
       <c r="AI50" s="75" t="s">
         <v>39</v>
@@ -4139,20 +4139,20 @@
       <c r="M51" s="15">
         <v>24</v>
       </c>
-      <c r="N51" s="114" t="s">
+      <c r="N51" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="O51" s="114"/>
+      <c r="O51" s="102"/>
       <c r="P51" s="16">
         <v>10000</v>
       </c>
       <c r="R51" s="13">
         <v>25</v>
       </c>
-      <c r="S51" s="113">
+      <c r="S51" s="101">
         <v>45719</v>
       </c>
-      <c r="T51" s="114"/>
+      <c r="T51" s="102"/>
       <c r="U51" s="46">
         <v>5000</v>
       </c>
@@ -4162,17 +4162,17 @@
       <c r="X51" s="13">
         <v>25</v>
       </c>
-      <c r="Y51" s="110">
+      <c r="Y51" s="121">
         <v>45781</v>
       </c>
-      <c r="Z51" s="111"/>
+      <c r="Z51" s="122"/>
       <c r="AA51" s="46">
         <v>5000</v>
       </c>
-      <c r="AB51" s="108" t="s">
+      <c r="AB51" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="AC51" s="109"/>
+      <c r="AC51" s="124"/>
       <c r="AH51" s="56"/>
       <c r="AI51" s="75" t="s">
         <v>37</v>
@@ -4194,20 +4194,20 @@
       <c r="M52" s="15">
         <v>25</v>
       </c>
-      <c r="N52" s="114" t="s">
+      <c r="N52" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="114"/>
+      <c r="O52" s="102"/>
       <c r="P52" s="16">
         <v>21000</v>
       </c>
       <c r="R52" s="13">
         <v>26</v>
       </c>
-      <c r="S52" s="113">
+      <c r="S52" s="101">
         <v>45723</v>
       </c>
-      <c r="T52" s="114"/>
+      <c r="T52" s="102"/>
       <c r="U52" s="46">
         <v>5000</v>
       </c>
@@ -4217,17 +4217,17 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-      <c r="Y52" s="110">
+      <c r="Y52" s="121">
         <v>45782</v>
       </c>
-      <c r="Z52" s="111"/>
+      <c r="Z52" s="122"/>
       <c r="AA52" s="46">
         <v>5000</v>
       </c>
-      <c r="AB52" s="108" t="s">
+      <c r="AB52" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="AC52" s="109"/>
+      <c r="AC52" s="124"/>
       <c r="AH52" s="56"/>
       <c r="AI52" s="75" t="s">
         <v>37</v>
@@ -4243,20 +4243,20 @@
       <c r="M53" s="15">
         <v>26</v>
       </c>
-      <c r="N53" s="114" t="s">
+      <c r="N53" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="O53" s="114"/>
+      <c r="O53" s="102"/>
       <c r="P53" s="16">
         <v>102000</v>
       </c>
       <c r="R53" s="13">
         <v>27</v>
       </c>
-      <c r="S53" s="113">
+      <c r="S53" s="101">
         <v>45724</v>
       </c>
-      <c r="T53" s="114"/>
+      <c r="T53" s="102"/>
       <c r="U53" s="46">
         <v>5000</v>
       </c>
@@ -4266,17 +4266,17 @@
       <c r="X53" s="13">
         <v>27</v>
       </c>
-      <c r="Y53" s="110">
+      <c r="Y53" s="121">
         <v>45784</v>
       </c>
-      <c r="Z53" s="111"/>
+      <c r="Z53" s="122"/>
       <c r="AA53" s="46">
         <v>5000</v>
       </c>
-      <c r="AB53" s="108" t="s">
+      <c r="AB53" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AC53" s="109"/>
+      <c r="AC53" s="124"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76" t="s">
         <v>37</v>
@@ -4284,16 +4284,16 @@
     </row>
     <row r="54" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M54" s="39"/>
-      <c r="N54" s="115"/>
-      <c r="O54" s="116"/>
+      <c r="N54" s="138"/>
+      <c r="O54" s="139"/>
       <c r="P54" s="40"/>
       <c r="R54" s="13">
         <v>28</v>
       </c>
-      <c r="S54" s="113">
+      <c r="S54" s="101">
         <v>45726</v>
       </c>
-      <c r="T54" s="114"/>
+      <c r="T54" s="102"/>
       <c r="U54" s="46">
         <v>10000</v>
       </c>
@@ -4303,17 +4303,17 @@
       <c r="X54" s="13">
         <v>28</v>
       </c>
-      <c r="Y54" s="110">
+      <c r="Y54" s="121">
         <v>45785</v>
       </c>
-      <c r="Z54" s="111"/>
+      <c r="Z54" s="122"/>
       <c r="AA54" s="46">
         <v>5000</v>
       </c>
-      <c r="AB54" s="108" t="s">
+      <c r="AB54" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AC54" s="109"/>
+      <c r="AC54" s="124"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="89" t="s">
         <v>64</v>
@@ -4359,27 +4359,27 @@
       </c>
       <c r="Y55" s="104"/>
       <c r="Z55" s="105"/>
-      <c r="AA55" s="106">
+      <c r="AA55" s="143">
         <f>SUM(AA27:AA54)</f>
         <v>140000</v>
       </c>
-      <c r="AB55" s="107"/>
+      <c r="AB55" s="144"/>
       <c r="AC55" s="57"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="112"/>
-      <c r="AJ55" s="112"/>
+      <c r="AI55" s="140"/>
+      <c r="AJ55" s="140"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="4:37" x14ac:dyDescent="0.35">
       <c r="AH56" s="4"/>
-      <c r="AI56" s="112"/>
-      <c r="AJ56" s="112"/>
+      <c r="AI56" s="140"/>
+      <c r="AJ56" s="140"/>
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AH57" s="4"/>
-      <c r="AI57" s="112"/>
-      <c r="AJ57" s="112"/>
+      <c r="AI57" s="140"/>
+      <c r="AJ57" s="140"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4397,18 +4397,18 @@
         <v>32</v>
       </c>
       <c r="AH58" s="4"/>
-      <c r="AI58" s="112"/>
-      <c r="AJ58" s="112"/>
+      <c r="AI58" s="140"/>
+      <c r="AJ58" s="140"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="4:37" x14ac:dyDescent="0.35">
       <c r="R59" s="13">
         <v>1</v>
       </c>
-      <c r="S59" s="134">
+      <c r="S59" s="106">
         <v>45905</v>
       </c>
-      <c r="T59" s="131"/>
+      <c r="T59" s="107"/>
       <c r="U59" s="45">
         <v>5000</v>
       </c>
@@ -4416,18 +4416,18 @@
         <v>36</v>
       </c>
       <c r="AH59" s="4"/>
-      <c r="AI59" s="112"/>
-      <c r="AJ59" s="112"/>
+      <c r="AI59" s="140"/>
+      <c r="AJ59" s="140"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="4:37" x14ac:dyDescent="0.35">
       <c r="R60" s="13">
         <v>2</v>
       </c>
-      <c r="S60" s="134">
+      <c r="S60" s="106">
         <v>45996</v>
       </c>
-      <c r="T60" s="131"/>
+      <c r="T60" s="107"/>
       <c r="U60" s="45">
         <v>5000</v>
       </c>
@@ -4435,18 +4435,18 @@
         <v>39</v>
       </c>
       <c r="AH60" s="4"/>
-      <c r="AI60" s="112"/>
-      <c r="AJ60" s="112"/>
+      <c r="AI60" s="140"/>
+      <c r="AJ60" s="140"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="4:37" x14ac:dyDescent="0.35">
       <c r="R61" s="13">
         <v>3</v>
       </c>
-      <c r="S61" s="143" t="s">
+      <c r="S61" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="T61" s="144"/>
+      <c r="T61" s="109"/>
       <c r="U61" s="45">
         <v>5000</v>
       </c>
@@ -4454,18 +4454,18 @@
         <v>41</v>
       </c>
       <c r="AH61" s="4"/>
-      <c r="AI61" s="112"/>
-      <c r="AJ61" s="112"/>
+      <c r="AI61" s="140"/>
+      <c r="AJ61" s="140"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="4:37" x14ac:dyDescent="0.35">
       <c r="R62" s="13">
         <v>4</v>
       </c>
-      <c r="S62" s="143" t="s">
+      <c r="S62" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="T62" s="144"/>
+      <c r="T62" s="109"/>
       <c r="U62" s="45">
         <v>5000</v>
       </c>
@@ -4473,18 +4473,18 @@
         <v>35</v>
       </c>
       <c r="AH62" s="4"/>
-      <c r="AI62" s="112"/>
-      <c r="AJ62" s="112"/>
+      <c r="AI62" s="140"/>
+      <c r="AJ62" s="140"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="4:37" x14ac:dyDescent="0.35">
       <c r="R63" s="13">
         <v>5</v>
       </c>
-      <c r="S63" s="143" t="s">
+      <c r="S63" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="T63" s="144"/>
+      <c r="T63" s="109"/>
       <c r="U63" s="45">
         <v>5000</v>
       </c>
@@ -4492,18 +4492,18 @@
         <v>37</v>
       </c>
       <c r="AH63" s="4"/>
-      <c r="AI63" s="112"/>
-      <c r="AJ63" s="112"/>
+      <c r="AI63" s="140"/>
+      <c r="AJ63" s="140"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="4:37" x14ac:dyDescent="0.35">
       <c r="R64" s="13">
         <v>6</v>
       </c>
-      <c r="S64" s="143" t="s">
+      <c r="S64" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="T64" s="144"/>
+      <c r="T64" s="109"/>
       <c r="U64" s="45">
         <v>5000</v>
       </c>
@@ -4511,18 +4511,18 @@
         <v>37</v>
       </c>
       <c r="AH64" s="4"/>
-      <c r="AI64" s="112"/>
-      <c r="AJ64" s="112"/>
+      <c r="AI64" s="140"/>
+      <c r="AJ64" s="140"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="18:37" x14ac:dyDescent="0.35">
       <c r="R65" s="13">
         <v>7</v>
       </c>
-      <c r="S65" s="143" t="s">
+      <c r="S65" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="T65" s="144"/>
+      <c r="T65" s="109"/>
       <c r="U65" s="45">
         <v>5000</v>
       </c>
@@ -4530,18 +4530,18 @@
         <v>33</v>
       </c>
       <c r="AH65" s="4"/>
-      <c r="AI65" s="112"/>
-      <c r="AJ65" s="112"/>
+      <c r="AI65" s="140"/>
+      <c r="AJ65" s="140"/>
       <c r="AK65" s="4"/>
     </row>
     <row r="66" spans="18:37" x14ac:dyDescent="0.35">
       <c r="R66" s="13">
         <v>8</v>
       </c>
-      <c r="S66" s="113" t="s">
+      <c r="S66" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="T66" s="114"/>
+      <c r="T66" s="102"/>
       <c r="U66" s="45">
         <v>5000</v>
       </c>
@@ -4553,10 +4553,10 @@
       <c r="R67" s="13">
         <v>9</v>
       </c>
-      <c r="S67" s="113" t="s">
+      <c r="S67" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="T67" s="114"/>
+      <c r="T67" s="102"/>
       <c r="U67" s="45">
         <v>5000</v>
       </c>
@@ -4568,8 +4568,8 @@
       <c r="R68" s="13">
         <v>10</v>
       </c>
-      <c r="S68" s="113"/>
-      <c r="T68" s="114"/>
+      <c r="S68" s="101"/>
+      <c r="T68" s="102"/>
       <c r="U68" s="46"/>
       <c r="V68" s="93"/>
     </row>
@@ -4577,8 +4577,8 @@
       <c r="R69" s="13">
         <v>11</v>
       </c>
-      <c r="S69" s="113"/>
-      <c r="T69" s="114"/>
+      <c r="S69" s="101"/>
+      <c r="T69" s="102"/>
       <c r="U69" s="46"/>
       <c r="V69" s="93"/>
     </row>
@@ -4586,8 +4586,8 @@
       <c r="R70" s="13">
         <v>12</v>
       </c>
-      <c r="S70" s="113"/>
-      <c r="T70" s="114"/>
+      <c r="S70" s="101"/>
+      <c r="T70" s="102"/>
       <c r="U70" s="46"/>
       <c r="V70" s="93"/>
     </row>
@@ -4595,8 +4595,8 @@
       <c r="R71" s="13">
         <v>13</v>
       </c>
-      <c r="S71" s="113"/>
-      <c r="T71" s="114"/>
+      <c r="S71" s="101"/>
+      <c r="T71" s="102"/>
       <c r="U71" s="46"/>
       <c r="V71" s="93"/>
     </row>
@@ -4604,8 +4604,8 @@
       <c r="R72" s="13">
         <v>14</v>
       </c>
-      <c r="S72" s="113"/>
-      <c r="T72" s="114"/>
+      <c r="S72" s="101"/>
+      <c r="T72" s="102"/>
       <c r="U72" s="46"/>
       <c r="V72" s="93"/>
     </row>
@@ -4613,8 +4613,8 @@
       <c r="R73" s="13">
         <v>15</v>
       </c>
-      <c r="S73" s="113"/>
-      <c r="T73" s="114"/>
+      <c r="S73" s="101"/>
+      <c r="T73" s="102"/>
       <c r="U73" s="46"/>
       <c r="V73" s="93"/>
     </row>
@@ -4622,8 +4622,8 @@
       <c r="R74" s="13">
         <v>16</v>
       </c>
-      <c r="S74" s="113"/>
-      <c r="T74" s="114"/>
+      <c r="S74" s="101"/>
+      <c r="T74" s="102"/>
       <c r="U74" s="46"/>
       <c r="V74" s="93"/>
     </row>
@@ -4631,8 +4631,8 @@
       <c r="R75" s="13">
         <v>17</v>
       </c>
-      <c r="S75" s="113"/>
-      <c r="T75" s="114"/>
+      <c r="S75" s="101"/>
+      <c r="T75" s="102"/>
       <c r="U75" s="46"/>
       <c r="V75" s="93"/>
     </row>
@@ -4640,8 +4640,8 @@
       <c r="R76" s="13">
         <v>18</v>
       </c>
-      <c r="S76" s="113"/>
-      <c r="T76" s="114"/>
+      <c r="S76" s="101"/>
+      <c r="T76" s="102"/>
       <c r="U76" s="46"/>
       <c r="V76" s="93"/>
     </row>
@@ -4649,8 +4649,8 @@
       <c r="R77" s="13">
         <v>19</v>
       </c>
-      <c r="S77" s="113"/>
-      <c r="T77" s="114"/>
+      <c r="S77" s="101"/>
+      <c r="T77" s="102"/>
       <c r="U77" s="46"/>
       <c r="V77" s="93"/>
     </row>
@@ -4658,8 +4658,8 @@
       <c r="R78" s="13">
         <v>20</v>
       </c>
-      <c r="S78" s="113"/>
-      <c r="T78" s="114"/>
+      <c r="S78" s="101"/>
+      <c r="T78" s="102"/>
       <c r="U78" s="46"/>
       <c r="V78" s="93"/>
     </row>
@@ -4667,8 +4667,8 @@
       <c r="R79" s="13">
         <v>21</v>
       </c>
-      <c r="S79" s="113"/>
-      <c r="T79" s="114"/>
+      <c r="S79" s="101"/>
+      <c r="T79" s="102"/>
       <c r="U79" s="46"/>
       <c r="V79" s="93"/>
     </row>
@@ -4676,8 +4676,8 @@
       <c r="R80" s="13">
         <v>22</v>
       </c>
-      <c r="S80" s="113"/>
-      <c r="T80" s="114"/>
+      <c r="S80" s="101"/>
+      <c r="T80" s="102"/>
       <c r="U80" s="46"/>
       <c r="V80" s="93"/>
     </row>
@@ -4685,8 +4685,8 @@
       <c r="R81" s="13">
         <v>23</v>
       </c>
-      <c r="S81" s="113"/>
-      <c r="T81" s="114"/>
+      <c r="S81" s="101"/>
+      <c r="T81" s="102"/>
       <c r="U81" s="46"/>
       <c r="V81" s="93"/>
     </row>
@@ -4694,8 +4694,8 @@
       <c r="R82" s="13">
         <v>24</v>
       </c>
-      <c r="S82" s="113"/>
-      <c r="T82" s="114"/>
+      <c r="S82" s="101"/>
+      <c r="T82" s="102"/>
       <c r="U82" s="46"/>
       <c r="V82" s="93"/>
     </row>
@@ -4703,8 +4703,8 @@
       <c r="R83" s="13">
         <v>25</v>
       </c>
-      <c r="S83" s="113"/>
-      <c r="T83" s="114"/>
+      <c r="S83" s="101"/>
+      <c r="T83" s="102"/>
       <c r="U83" s="46"/>
       <c r="V83" s="93"/>
     </row>
@@ -4712,8 +4712,8 @@
       <c r="R84" s="13">
         <v>26</v>
       </c>
-      <c r="S84" s="113"/>
-      <c r="T84" s="114"/>
+      <c r="S84" s="101"/>
+      <c r="T84" s="102"/>
       <c r="U84" s="46"/>
       <c r="V84" s="93"/>
     </row>
@@ -4721,8 +4721,8 @@
       <c r="R85" s="13">
         <v>27</v>
       </c>
-      <c r="S85" s="113"/>
-      <c r="T85" s="114"/>
+      <c r="S85" s="101"/>
+      <c r="T85" s="102"/>
       <c r="U85" s="46"/>
       <c r="V85" s="93"/>
     </row>
@@ -4730,8 +4730,8 @@
       <c r="R86" s="13">
         <v>28</v>
       </c>
-      <c r="S86" s="113"/>
-      <c r="T86" s="114"/>
+      <c r="S86" s="101"/>
+      <c r="T86" s="102"/>
       <c r="U86" s="46"/>
       <c r="V86" s="93"/>
     </row>
@@ -4749,35 +4749,143 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="R87:T87"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H22:I22"/>
@@ -4802,143 +4910,35 @@
     <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="R87:T87"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAS ASRAMA.xlsx
+++ b/KAS ASRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE53B94-2266-48B5-B5AD-CB6BB5FC8FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1807A1E-1223-4308-BA54-C4816F277D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F8854E5-F826-4F3F-81D4-69C8F4B67C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="96">
   <si>
     <t>Data kas asrama al-wai'ie</t>
   </si>
@@ -314,6 +314,15 @@
   </si>
   <si>
     <t>21/05/2026</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hutang dikas </t>
+  </si>
+  <si>
+    <t>25/05/2025</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDB44F-1E93-417A-80BB-1F4A9B2FB310}">
   <dimension ref="B1:AT87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2990,7 +2999,7 @@
       <c r="D29" s="120"/>
       <c r="E29" s="25">
         <f>(P55+U55+AA55+U87)</f>
-        <v>1639000</v>
+        <v>1649000</v>
       </c>
       <c r="G29" s="31">
         <v>2</v>
@@ -3129,7 +3138,7 @@
       <c r="D31" s="119"/>
       <c r="E31" s="24">
         <f>(E27-E29)</f>
-        <v>266000</v>
+        <v>256000</v>
       </c>
       <c r="G31" s="31">
         <v>4</v>
@@ -3427,7 +3436,7 @@
       <c r="D36" s="77"/>
       <c r="E36" s="81">
         <f>(E31)-250000-13500</f>
-        <v>2500</v>
+        <v>-7500</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="28"/>
@@ -4568,19 +4577,31 @@
       <c r="R68" s="13">
         <v>10</v>
       </c>
-      <c r="S68" s="101"/>
+      <c r="S68" s="101" t="s">
+        <v>93</v>
+      </c>
       <c r="T68" s="102"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="93"/>
+      <c r="U68" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V68" s="93" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="69" spans="18:37" x14ac:dyDescent="0.35">
       <c r="R69" s="13">
         <v>11</v>
       </c>
-      <c r="S69" s="101"/>
+      <c r="S69" s="101" t="s">
+        <v>95</v>
+      </c>
       <c r="T69" s="102"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="93"/>
+      <c r="U69" s="45">
+        <v>5000</v>
+      </c>
+      <c r="V69" s="93" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="70" spans="18:37" x14ac:dyDescent="0.35">
       <c r="R70" s="13">
@@ -4743,7 +4764,7 @@
       <c r="T87" s="105"/>
       <c r="U87" s="47">
         <f>SUM(U59:U86)</f>
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="V87" s="93"/>
     </row>
@@ -4948,16 +4969,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8ACF1F-7A42-4DA8-8384-86E68284BE08}">
-  <dimension ref="C3:L31"/>
+  <dimension ref="C3:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="86"/>
       <c r="D4" s="87"/>
       <c r="H4" s="94" t="s">
@@ -4970,8 +4991,11 @@
       <c r="L4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C5" s="86"/>
       <c r="D5" s="87"/>
       <c r="H5" s="94" t="s">
@@ -4982,7 +5006,7 @@
       </c>
       <c r="K5" s="87"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C6" s="84"/>
       <c r="D6" s="85"/>
       <c r="H6" s="94" t="s">
@@ -4992,8 +5016,14 @@
         <v>37</v>
       </c>
       <c r="K6" s="85"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C7" s="84"/>
       <c r="D7" s="85"/>
       <c r="H7" s="94" t="s">
@@ -5004,7 +5034,7 @@
       </c>
       <c r="K7" s="85"/>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C8" s="84"/>
       <c r="D8" s="85"/>
       <c r="H8" s="94" t="s">
@@ -5015,7 +5045,7 @@
       </c>
       <c r="K8" s="85"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C9" s="84"/>
       <c r="D9" s="85"/>
       <c r="H9" s="94" t="s">
@@ -5029,7 +5059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="84"/>
       <c r="D10" s="85"/>
       <c r="H10" s="94" t="s">
@@ -5040,7 +5070,7 @@
       </c>
       <c r="K10" s="85"/>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C11" s="86"/>
       <c r="D11" s="87"/>
       <c r="H11" s="94" t="s">
@@ -5054,7 +5084,7 @@
       </c>
       <c r="K11" s="87"/>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
       <c r="H12" s="94" t="s">
@@ -5068,7 +5098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C13" s="84"/>
       <c r="D13" s="85"/>
       <c r="H13" s="94" t="s">
@@ -5079,7 +5109,7 @@
       </c>
       <c r="K13" s="85"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
       <c r="H14" s="94" t="s">
@@ -5090,7 +5120,7 @@
       </c>
       <c r="K14" s="85"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
       <c r="H15" s="94" t="s">
@@ -5101,7 +5131,7 @@
       </c>
       <c r="K15" s="85"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C16" s="46"/>
       <c r="D16" s="85"/>
       <c r="H16" s="94" t="s">
